--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\switch\projectg2\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A7AC8C-47CA-4009-8AFF-56EAD170F24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2D2073-4816-48D4-A3FF-84954103B0CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="29692" windowHeight="11949" activeTab="3" xr2:uid="{17341BA7-7E24-41D8-A92D-79256BC3D291}"/>
+    <workbookView xWindow="1097" yWindow="1097" windowWidth="22114" windowHeight="8520" firstSheet="8" activeTab="10" xr2:uid="{17341BA7-7E24-41D8-A92D-79256BC3D291}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="319">
   <si>
     <t>id</t>
   </si>
@@ -214,9 +214,6 @@
     <t>user_name</t>
   </si>
   <si>
-    <t>role_name</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -304,24 +301,9 @@
     <t>Transition</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
     <t>Warranty</t>
   </si>
   <si>
-    <t>project_id</t>
-  </si>
-  <si>
-    <t>cost</t>
-  </si>
-  <si>
-    <t>allocation</t>
-  </si>
-  <si>
-    <t>sprint_number</t>
-  </si>
-  <si>
     <t>us_id</t>
   </si>
   <si>
@@ -514,219 +496,111 @@
     <t>Dummy 30</t>
   </si>
   <si>
-    <t>US001</t>
-  </si>
-  <si>
     <t>A2 dummy 001</t>
   </si>
   <si>
-    <t>US002</t>
-  </si>
-  <si>
     <t>A2 dummy 002</t>
   </si>
   <si>
-    <t>US003</t>
-  </si>
-  <si>
     <t>A2 dummy 003</t>
   </si>
   <si>
-    <t>US004</t>
-  </si>
-  <si>
     <t>A2 dummy 004</t>
   </si>
   <si>
-    <t>US005</t>
-  </si>
-  <si>
     <t>A2 dummy 005</t>
   </si>
   <si>
-    <t>US006</t>
-  </si>
-  <si>
     <t>A2 dummy 006</t>
   </si>
   <si>
-    <t>US007</t>
-  </si>
-  <si>
     <t>A2 dummy 007</t>
   </si>
   <si>
-    <t>US008</t>
-  </si>
-  <si>
     <t>A2 dummy 008</t>
   </si>
   <si>
-    <t>US009</t>
-  </si>
-  <si>
     <t>A2 dummy 009</t>
   </si>
   <si>
-    <t>US010</t>
-  </si>
-  <si>
     <t>A2 dummy 010</t>
   </si>
   <si>
-    <t>US011</t>
-  </si>
-  <si>
     <t>A2 dummy 011</t>
   </si>
   <si>
-    <t>US012</t>
-  </si>
-  <si>
     <t>A2 dummy 012</t>
   </si>
   <si>
-    <t>US013</t>
-  </si>
-  <si>
     <t>A2 dummy 013</t>
   </si>
   <si>
-    <t>US014</t>
-  </si>
-  <si>
     <t>A2 dummy 014</t>
   </si>
   <si>
-    <t>US015</t>
-  </si>
-  <si>
     <t>A2 dummy 015</t>
   </si>
   <si>
-    <t>US016</t>
-  </si>
-  <si>
     <t>A2 dummy 016</t>
   </si>
   <si>
-    <t>US017</t>
-  </si>
-  <si>
     <t>A2 dummy 017</t>
   </si>
   <si>
-    <t>US018</t>
-  </si>
-  <si>
     <t>A2 dummy 018</t>
   </si>
   <si>
-    <t>US019</t>
-  </si>
-  <si>
     <t>A2 dummy 019</t>
   </si>
   <si>
-    <t>US020</t>
-  </si>
-  <si>
     <t>A2 dummy 020</t>
   </si>
   <si>
-    <t>US021</t>
-  </si>
-  <si>
     <t>A2 dummy 021</t>
   </si>
   <si>
-    <t>US022</t>
-  </si>
-  <si>
     <t>A2 dummy 022</t>
   </si>
   <si>
-    <t>US023</t>
-  </si>
-  <si>
     <t>A2 dummy 023</t>
   </si>
   <si>
-    <t>US024</t>
-  </si>
-  <si>
     <t>A2 dummy 024</t>
   </si>
   <si>
-    <t>US025</t>
-  </si>
-  <si>
     <t>A2 dummy 025</t>
   </si>
   <si>
-    <t>US026</t>
-  </si>
-  <si>
     <t>A2 dummy 026</t>
   </si>
   <si>
-    <t>US027</t>
-  </si>
-  <si>
     <t>A2 dummy 027</t>
   </si>
   <si>
-    <t>US028</t>
-  </si>
-  <si>
     <t>A2 dummy 028</t>
   </si>
   <si>
-    <t>US029</t>
-  </si>
-  <si>
     <t>A2 dummy 029</t>
   </si>
   <si>
-    <t>US030</t>
-  </si>
-  <si>
     <t>A2 dummy 030</t>
   </si>
   <si>
-    <t>US031</t>
-  </si>
-  <si>
     <t>A2 dummy 031</t>
   </si>
   <si>
-    <t>US032</t>
-  </si>
-  <si>
     <t>A2 dummy 032</t>
   </si>
   <si>
-    <t>US033</t>
-  </si>
-  <si>
     <t>A2 dummy 033</t>
   </si>
   <si>
-    <t>US034</t>
-  </si>
-  <si>
     <t>A2 dummy 034</t>
   </si>
   <si>
-    <t>US035</t>
-  </si>
-  <si>
     <t>A2 dummy 035</t>
   </si>
   <si>
-    <t>US036</t>
-  </si>
-  <si>
     <t>A2 dummy 036</t>
   </si>
   <si>
@@ -893,6 +767,243 @@
   </si>
   <si>
     <t>Project_2022_3</t>
+  </si>
+  <si>
+    <t>systemUserID</t>
+  </si>
+  <si>
+    <t>projectId</t>
+  </si>
+  <si>
+    <t>projectRole</t>
+  </si>
+  <si>
+    <t>costPerHour</t>
+  </si>
+  <si>
+    <t>percentageOfAllocation</t>
+  </si>
+  <si>
+    <t>TeamMember</t>
+  </si>
+  <si>
+    <t>ScrumMaster</t>
+  </si>
+  <si>
+    <t>ProductOwner</t>
+  </si>
+  <si>
+    <t>ProjectManager</t>
+  </si>
+  <si>
+    <t>projectID</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>as want US01</t>
+  </si>
+  <si>
+    <t>as want US02</t>
+  </si>
+  <si>
+    <t>as want US03</t>
+  </si>
+  <si>
+    <t>as want US04</t>
+  </si>
+  <si>
+    <t>as want US05</t>
+  </si>
+  <si>
+    <t>as want US06</t>
+  </si>
+  <si>
+    <t>as want US07</t>
+  </si>
+  <si>
+    <t>as want US08</t>
+  </si>
+  <si>
+    <t>as want US09</t>
+  </si>
+  <si>
+    <t>as want US10</t>
+  </si>
+  <si>
+    <t>as want US11</t>
+  </si>
+  <si>
+    <t>as want US12</t>
+  </si>
+  <si>
+    <t>as want US13</t>
+  </si>
+  <si>
+    <t>as want US14</t>
+  </si>
+  <si>
+    <t>as want US15</t>
+  </si>
+  <si>
+    <t>as want US16</t>
+  </si>
+  <si>
+    <t>as want US17</t>
+  </si>
+  <si>
+    <t>as want US18</t>
+  </si>
+  <si>
+    <t>as want US19</t>
+  </si>
+  <si>
+    <t>as want US20</t>
+  </si>
+  <si>
+    <t>as want US21</t>
+  </si>
+  <si>
+    <t>as want US22</t>
+  </si>
+  <si>
+    <t>as want US23</t>
+  </si>
+  <si>
+    <t>as want US24</t>
+  </si>
+  <si>
+    <t>as want US25</t>
+  </si>
+  <si>
+    <t>as want US26</t>
+  </si>
+  <si>
+    <t>as want US27</t>
+  </si>
+  <si>
+    <t>as want US28</t>
+  </si>
+  <si>
+    <t>as want US29</t>
+  </si>
+  <si>
+    <t>as want US30</t>
+  </si>
+  <si>
+    <t>as want US001</t>
+  </si>
+  <si>
+    <t>as want US002</t>
+  </si>
+  <si>
+    <t>as want US003</t>
+  </si>
+  <si>
+    <t>as want US004</t>
+  </si>
+  <si>
+    <t>as want US005</t>
+  </si>
+  <si>
+    <t>as want US006</t>
+  </si>
+  <si>
+    <t>as want US007</t>
+  </si>
+  <si>
+    <t>as want US008</t>
+  </si>
+  <si>
+    <t>as want US009</t>
+  </si>
+  <si>
+    <t>as want US010</t>
+  </si>
+  <si>
+    <t>as want US011</t>
+  </si>
+  <si>
+    <t>as want US012</t>
+  </si>
+  <si>
+    <t>as want US013</t>
+  </si>
+  <si>
+    <t>as want US014</t>
+  </si>
+  <si>
+    <t>as want US015</t>
+  </si>
+  <si>
+    <t>as want US016</t>
+  </si>
+  <si>
+    <t>as want US017</t>
+  </si>
+  <si>
+    <t>as want US018</t>
+  </si>
+  <si>
+    <t>as want US019</t>
+  </si>
+  <si>
+    <t>as want US020</t>
+  </si>
+  <si>
+    <t>as want US021</t>
+  </si>
+  <si>
+    <t>as want US022</t>
+  </si>
+  <si>
+    <t>as want US023</t>
+  </si>
+  <si>
+    <t>as want US024</t>
+  </si>
+  <si>
+    <t>as want US025</t>
+  </si>
+  <si>
+    <t>as want US026</t>
+  </si>
+  <si>
+    <t>as want US027</t>
+  </si>
+  <si>
+    <t>as want US028</t>
+  </si>
+  <si>
+    <t>as want US029</t>
+  </si>
+  <si>
+    <t>as want US030</t>
+  </si>
+  <si>
+    <t>as want US031</t>
+  </si>
+  <si>
+    <t>as want US032</t>
+  </si>
+  <si>
+    <t>as want US033</t>
+  </si>
+  <si>
+    <t>as want US034</t>
+  </si>
+  <si>
+    <t>as want US035</t>
+  </si>
+  <si>
+    <t>as want US036</t>
+  </si>
+  <si>
+    <t>sprint_name</t>
   </si>
 </sst>
 </file>
@@ -902,7 +1013,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -941,8 +1052,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1005,11 +1122,11 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
@@ -1159,64 +1276,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="A2">
-            <v>1</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>Administrator</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>2</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>Visitor</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>3</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>Director</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>4</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>Project Manager</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>5</v>
-          </cell>
-          <cell r="B6" t="str">
-            <v>Product Owner</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>6</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>Scrum Master</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>7</v>
-          </cell>
-          <cell r="B8" t="str">
-            <v>User</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
@@ -1552,7 +1612,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>267</v>
+        <v>225</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1564,10 +1624,10 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>268</v>
+        <v>226</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>269</v>
+        <v>227</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>10</v>
@@ -1599,16 +1659,16 @@
         <v>11</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10" t="s">
@@ -1641,16 +1701,16 @@
         <v>19</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10" t="s">
@@ -1683,16 +1743,16 @@
         <v>21</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>258</v>
+        <v>216</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10" t="s">
@@ -1725,16 +1785,16 @@
         <v>23</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>259</v>
+        <v>217</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10" t="s">
@@ -1773,10 +1833,10 @@
         <v>12</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10" t="s">
@@ -1809,16 +1869,16 @@
         <v>28</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10" t="s">
@@ -1857,10 +1917,10 @@
         <v>33</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10" t="s">
@@ -1875,16 +1935,16 @@
         <v>34</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>261</v>
+        <v>219</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10" t="s">
@@ -1905,10 +1965,10 @@
         <v>33</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10" t="s">
@@ -1929,10 +1989,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10" t="s">
@@ -1947,16 +2007,16 @@
         <v>40</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>262</v>
+        <v>220</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10" t="s">
@@ -1971,16 +2031,16 @@
         <v>41</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>263</v>
+        <v>221</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10" t="s">
@@ -1995,16 +2055,16 @@
         <v>42</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10" t="s">
@@ -2019,16 +2079,16 @@
         <v>43</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>265</v>
+        <v>223</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10" t="s">
@@ -2065,7 +2125,7 @@
   <dimension ref="A1:M100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2075,19 +2135,19 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>228</v>
+        <v>186</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>10</v>
@@ -2095,13 +2155,13 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2">
         <v>44215</v>
@@ -2110,18 +2170,18 @@
         <v>3</v>
       </c>
       <c r="M2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D3" s="2">
         <v>44215</v>
@@ -2130,18 +2190,18 @@
         <v>2</v>
       </c>
       <c r="M3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D4" s="2">
         <v>44215</v>
@@ -2150,18 +2210,18 @@
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D5" s="2">
         <v>44215</v>
@@ -2172,13 +2232,13 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2">
         <v>44215</v>
@@ -2189,13 +2249,13 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D7" s="2">
         <v>44215</v>
@@ -2206,13 +2266,13 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D8" s="2">
         <v>44215</v>
@@ -2223,13 +2283,13 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D9" s="2">
         <v>44215</v>
@@ -2240,13 +2300,13 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D10" s="2">
         <v>44215</v>
@@ -2257,13 +2317,13 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D11" s="2">
         <v>44215</v>
@@ -2274,13 +2334,13 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D12" s="2">
         <v>44288</v>
@@ -2288,13 +2348,13 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D13" s="2">
         <v>44288</v>
@@ -2302,13 +2362,13 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D14" s="2">
         <v>44288</v>
@@ -2316,13 +2376,13 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C15" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D15" s="2">
         <v>44288</v>
@@ -2330,13 +2390,13 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D16" s="2">
         <v>44288</v>
@@ -2344,13 +2404,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D17" s="2">
         <v>44288</v>
@@ -2361,13 +2421,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D18" s="2">
         <v>44288</v>
@@ -2375,13 +2435,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D19" s="2">
         <v>44288</v>
@@ -2392,13 +2452,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D20" s="2">
         <v>44288</v>
@@ -2409,13 +2469,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D21" s="2">
         <v>44288</v>
@@ -2426,13 +2486,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D22" s="2">
         <v>44288</v>
@@ -2443,13 +2503,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D23" s="2">
         <v>44288</v>
@@ -2460,13 +2520,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D24" s="2">
         <v>44288</v>
@@ -2477,13 +2537,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D25" s="2">
         <v>44288</v>
@@ -2494,13 +2554,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D26" s="2">
         <v>44288</v>
@@ -2511,13 +2571,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B27" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D27" s="2">
         <v>44288</v>
@@ -2528,13 +2588,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D28" s="2">
         <v>44288</v>
@@ -2545,13 +2605,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D29" s="2">
         <v>44288</v>
@@ -2562,13 +2622,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D30" s="2">
         <v>44288</v>
@@ -2579,13 +2639,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D31" s="2">
         <v>44288</v>
@@ -2596,13 +2656,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D32" s="2">
         <v>44309</v>
@@ -2610,13 +2670,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D33" s="2">
         <v>44309</v>
@@ -2624,13 +2684,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C34" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D34" s="2">
         <v>44309</v>
@@ -2638,13 +2698,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C35" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D35" s="2">
         <v>44309</v>
@@ -2652,13 +2712,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C36" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D36" s="2">
         <v>44309</v>
@@ -2666,13 +2726,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C37" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D37" s="2">
         <v>44309</v>
@@ -2680,13 +2740,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C38" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D38" s="2">
         <v>44309</v>
@@ -2697,13 +2757,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B39" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C39" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D39" s="2">
         <v>44309</v>
@@ -2714,13 +2774,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B40" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C40" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D40" s="2">
         <v>44309</v>
@@ -2731,13 +2791,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B41" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C41" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D41" s="2">
         <v>44309</v>
@@ -2748,13 +2808,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B42" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C42" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D42" s="2">
         <v>44309</v>
@@ -2765,13 +2825,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C43" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D43" s="2">
         <v>44309</v>
@@ -2782,13 +2842,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B44" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C44" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D44" s="2">
         <v>44309</v>
@@ -2799,13 +2859,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B45" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D45" s="2">
         <v>44309</v>
@@ -2816,13 +2876,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C46" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D46" s="2">
         <v>44309</v>
@@ -2833,13 +2893,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B47" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C47" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D47" s="2">
         <v>44309</v>
@@ -2850,13 +2910,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B48" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C48" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D48" s="2">
         <v>44309</v>
@@ -2867,13 +2927,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C49" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D49" s="2">
         <v>44309</v>
@@ -2884,13 +2944,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B50" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C50" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D50" s="2">
         <v>44309</v>
@@ -2901,13 +2961,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B51" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C51" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D51" s="2">
         <v>44309</v>
@@ -2918,13 +2978,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B52" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C52" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D52" s="2">
         <v>44309</v>
@@ -2935,13 +2995,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B53" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C53" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D53" s="2">
         <v>44309</v>
@@ -2952,13 +3012,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C54" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D54" s="2">
         <v>44309</v>
@@ -2969,13 +3029,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B55" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C55" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D55" s="2">
         <v>44309</v>
@@ -2986,13 +3046,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C56" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D56" s="2">
         <v>44323</v>
@@ -3000,13 +3060,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B57" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C57" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D57" s="2">
         <v>44323</v>
@@ -3014,13 +3074,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C58" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D58" s="2">
         <v>44323</v>
@@ -3028,13 +3088,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C59" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D59" s="2">
         <v>44323</v>
@@ -3042,13 +3102,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C60" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D60" s="2">
         <v>44323</v>
@@ -3056,13 +3116,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C61" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D61" s="2">
         <v>44323</v>
@@ -3070,13 +3130,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C62" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D62" s="2">
         <v>44323</v>
@@ -3087,13 +3147,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C63" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D63" s="2">
         <v>44323</v>
@@ -3104,13 +3164,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C64" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D64" s="2">
         <v>44323</v>
@@ -3121,13 +3181,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C65" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D65" s="2">
         <v>44323</v>
@@ -3138,13 +3198,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C66" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D66" s="2">
         <v>44323</v>
@@ -3155,13 +3215,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B67" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C67" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D67" s="2">
         <v>44323</v>
@@ -3172,13 +3232,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B68" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C68" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D68" s="2">
         <v>44323</v>
@@ -3189,13 +3249,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B69" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C69" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D69" s="2">
         <v>44323</v>
@@ -3206,13 +3266,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B70" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C70" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D70" s="2">
         <v>44323</v>
@@ -3223,13 +3283,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B71" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C71" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D71" s="2">
         <v>44323</v>
@@ -3240,13 +3300,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B72" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C72" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D72" s="2">
         <v>44323</v>
@@ -3257,13 +3317,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B73" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C73" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D73" s="2">
         <v>44323</v>
@@ -3274,13 +3334,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B74" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C74" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D74" s="2">
         <v>44337</v>
@@ -3288,13 +3348,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B75" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C75" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D75" s="2">
         <v>44337</v>
@@ -3302,13 +3362,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B76" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C76" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D76" s="2">
         <v>44337</v>
@@ -3316,13 +3376,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B77" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C77" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D77" s="2">
         <v>44337</v>
@@ -3330,13 +3390,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B78" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C78" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D78" s="2">
         <v>44337</v>
@@ -3347,13 +3407,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B79" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C79" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D79" s="2">
         <v>44337</v>
@@ -3364,13 +3424,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B80" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C80" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D80" s="2">
         <v>44337</v>
@@ -3381,13 +3441,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B81" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C81" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D81" s="2">
         <v>44337</v>
@@ -3398,13 +3458,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B82" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C82" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D82" s="2">
         <v>44337</v>
@@ -3415,13 +3475,13 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B83" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C83" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D83" s="2">
         <v>44337</v>
@@ -3432,13 +3492,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B84" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C84" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D84" s="2">
         <v>44337</v>
@@ -3449,13 +3509,13 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B85" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C85" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D85" s="2">
         <v>44337</v>
@@ -3466,13 +3526,13 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B86" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C86" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D86" s="2">
         <v>44351</v>
@@ -3480,13 +3540,13 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B87" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C87" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D87" s="2">
         <v>44351</v>
@@ -3494,13 +3554,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B88" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C88" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D88" s="2">
         <v>44351</v>
@@ -3508,13 +3568,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B89" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C89" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D89" s="2">
         <v>44351</v>
@@ -3522,13 +3582,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B90" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C90" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D90" s="2">
         <v>44351</v>
@@ -3539,13 +3599,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B91" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C91" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D91" s="2">
         <v>44351</v>
@@ -3556,13 +3616,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B92" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C92" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D92" s="2">
         <v>44351</v>
@@ -3573,13 +3633,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B93" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C93" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D93" s="2">
         <v>44351</v>
@@ -3590,13 +3650,13 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A94" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B94" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C94" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D94" s="2">
         <v>44365</v>
@@ -3604,13 +3664,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A95" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B95" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C95" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D95" s="2">
         <v>44365</v>
@@ -3621,13 +3681,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A96" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B96" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C96" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D96" s="2">
         <v>44365</v>
@@ -3638,13 +3698,13 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A97" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B97" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C97" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D97" s="2">
         <v>44365</v>
@@ -3655,13 +3715,13 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B98" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C98" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D98" s="2">
         <v>44407</v>
@@ -3669,13 +3729,13 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B99" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C99" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D99" s="2">
         <v>44407</v>
@@ -3683,13 +3743,13 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B100" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C100" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D100" s="2">
         <v>44407</v>
@@ -3713,14 +3773,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CAB123-B6B8-4C37-9FBC-A6CD32606951}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.69140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.69140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.84375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.69140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.3046875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.07421875" customWidth="1"/>
@@ -3728,504 +3789,538 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>318</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>229</v>
+        <v>187</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2" t="str">
+        <f>TEXT(1,"0")</f>
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>252</v>
       </c>
       <c r="D2" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="N2" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B6" si="0">TEXT(1,"0")</f>
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>253</v>
       </c>
       <c r="D3" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="N3" t="s">
-        <v>232</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>254</v>
       </c>
       <c r="D4" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="N4" t="s">
-        <v>233</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5">
+      <c r="A5" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>255</v>
       </c>
       <c r="D5" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6">
+      <c r="A6" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>256</v>
       </c>
       <c r="D6" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7">
+      <c r="A7" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B7" t="str">
+        <f>TEXT(2,"0")</f>
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>257</v>
       </c>
       <c r="D7" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8">
+      <c r="A8" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B8" t="str">
+        <f>TEXT(2,"0")</f>
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>259</v>
       </c>
       <c r="D8" t="s">
-        <v>232</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9">
+      <c r="A9" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B9" t="str">
+        <f>TEXT(2,"0")</f>
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>260</v>
       </c>
       <c r="D9" t="s">
-        <v>233</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10">
+      <c r="A10" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B10" t="str">
+        <f>TEXT(3,"0")</f>
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>259</v>
       </c>
       <c r="D10" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11">
+      <c r="A11" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B11" t="str">
+        <f>TEXT(3,"0")</f>
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>260</v>
       </c>
       <c r="D11" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12">
+      <c r="A12" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B12" t="str">
+        <f>TEXT(3,"0")</f>
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>262</v>
       </c>
       <c r="D12" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13">
+      <c r="A13" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B13" t="str">
+        <f>TEXT(3,"0")</f>
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>117</v>
+        <v>263</v>
       </c>
       <c r="D13" t="s">
-        <v>233</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14">
+      <c r="A14" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B14" t="str">
+        <f>TEXT(3,"0")</f>
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>119</v>
+        <v>264</v>
       </c>
       <c r="D14" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15">
+      <c r="A15" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B15" t="str">
+        <f>TEXT(4,"0")</f>
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>121</v>
+        <v>265</v>
       </c>
       <c r="D15" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16">
+      <c r="A16" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B16" t="str">
+        <f>TEXT(4,"0")</f>
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>123</v>
+        <v>266</v>
       </c>
       <c r="D16" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17">
+      <c r="A17" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B17" t="str">
+        <f>TEXT(4,"0")</f>
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>133</v>
+        <v>271</v>
       </c>
       <c r="D17" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18">
+      <c r="A18" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B18" t="str">
+        <f>TEXT(4,"0")</f>
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>135</v>
+        <v>272</v>
       </c>
       <c r="D18" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19">
+      <c r="A19" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B19" t="str">
+        <f>TEXT(4,"0")</f>
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>143</v>
+        <v>276</v>
       </c>
       <c r="D19" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20">
+      <c r="A20" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B20" t="str">
+        <f>TEXT(4,"0")</f>
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>145</v>
+        <v>277</v>
       </c>
       <c r="D20" t="s">
-        <v>233</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21">
+      <c r="A21" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B21" t="str">
+        <f>TEXT(5,"0")</f>
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>125</v>
+        <v>267</v>
       </c>
       <c r="D21" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22">
+      <c r="A22" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B22" t="str">
+        <f>TEXT(5,"0")</f>
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>127</v>
+        <v>268</v>
       </c>
       <c r="D22" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23">
+      <c r="A23" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B23" t="str">
+        <f>TEXT(5,"0")</f>
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>129</v>
+        <v>269</v>
       </c>
       <c r="D23" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24">
+      <c r="A24" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B24" t="str">
+        <f>TEXT(5,"0")</f>
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>131</v>
+        <v>270</v>
       </c>
       <c r="D24" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25">
+      <c r="A25" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B25" t="str">
+        <f>TEXT(6,"0")</f>
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>137</v>
+        <v>273</v>
       </c>
       <c r="D25" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26">
+      <c r="A26" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B26" t="str">
+        <f>TEXT(6,"0")</f>
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>139</v>
+        <v>274</v>
       </c>
       <c r="D26" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27">
+      <c r="A27" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B27" t="str">
+        <f>TEXT(6,"0")</f>
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>141</v>
+        <v>275</v>
       </c>
       <c r="D27" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28">
+      <c r="A28" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B28" t="str">
+        <f>TEXT(6,"0")</f>
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>145</v>
+        <v>277</v>
       </c>
       <c r="D28" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29">
+      <c r="A29" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B29" t="str">
+        <f>TEXT(7,"0")</f>
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>147</v>
+        <v>278</v>
       </c>
       <c r="D29" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30">
+      <c r="A30" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B30" t="str">
+        <f>TEXT(7,"0")</f>
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>149</v>
+        <v>279</v>
       </c>
       <c r="D30" t="s">
-        <v>232</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31">
+      <c r="A31" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B31" t="str">
+        <f>TEXT(7,"0")</f>
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>151</v>
+        <v>280</v>
       </c>
       <c r="D31" t="s">
-        <v>232</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32">
+      <c r="A32" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B32" t="str">
+        <f>TEXT(7,"0")</f>
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>153</v>
+        <v>281</v>
       </c>
       <c r="D32" t="s">
-        <v>233</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33">
+      <c r="A33" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B33" t="str">
+        <f>TEXT(8,"0")</f>
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>149</v>
+        <v>279</v>
       </c>
       <c r="D33" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34">
+      <c r="A34" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B34" t="str">
+        <f>TEXT(8,"0")</f>
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>151</v>
+        <v>280</v>
       </c>
       <c r="D34" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35">
+      <c r="A35" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B35" t="str">
+        <f>TEXT(8,"0")</f>
         <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>153</v>
+        <v>281</v>
       </c>
       <c r="D35" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -4261,102 +4356,102 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="B1" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="C1" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="D1" t="s">
         <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="F1" t="s">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="G1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H1" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="I1" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="J1" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
       <c r="K1" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="L1" t="s">
-        <v>243</v>
+        <v>201</v>
       </c>
       <c r="M1" t="s">
-        <v>244</v>
+        <v>202</v>
       </c>
       <c r="N1" t="s">
-        <v>245</v>
+        <v>203</v>
       </c>
       <c r="U1" t="s">
-        <v>246</v>
+        <v>204</v>
       </c>
       <c r="W1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="U2" t="s">
-        <v>247</v>
+        <v>205</v>
       </c>
       <c r="W2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="U3" t="s">
-        <v>248</v>
+        <v>206</v>
       </c>
       <c r="W3" t="s">
-        <v>249</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="U4" t="s">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="W4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="U5" t="s">
-        <v>251</v>
+        <v>209</v>
       </c>
       <c r="W5" t="s">
-        <v>252</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.4">
       <c r="U6" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="W6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="U7" t="s">
-        <v>254</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.4">
       <c r="U8" t="s">
-        <v>255</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -4479,7 +4574,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>52</v>
@@ -4491,7 +4586,7 @@
         <v>54</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -4517,7 +4612,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
-        <v>259</v>
+        <v>217</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>47</v>
@@ -4538,7 +4633,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="12" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>51</v>
@@ -4559,7 +4654,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="12" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>51</v>
@@ -4580,7 +4675,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
-        <v>258</v>
+        <v>216</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>51</v>
@@ -4601,7 +4696,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>46</v>
@@ -4643,7 +4738,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
-        <v>261</v>
+        <v>219</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>51</v>
@@ -4706,7 +4801,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
-        <v>262</v>
+        <v>220</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>51</v>
@@ -4727,7 +4822,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
-        <v>263</v>
+        <v>221</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>51</v>
@@ -4748,7 +4843,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>51</v>
@@ -4769,7 +4864,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="12" t="s">
-        <v>265</v>
+        <v>223</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>51</v>
@@ -4821,8 +4916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59AF7EF-B12B-4A6F-9425-B1B26B554B1A}">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4844,68 +4939,68 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="K1" s="14" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>276</v>
+        <v>234</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>272</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="19">
+      <c r="G2" s="17">
         <v>44256</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="17">
         <v>44408</v>
       </c>
       <c r="I2" t="str">
@@ -4917,7 +5012,7 @@
         <v>150000</v>
       </c>
       <c r="K2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L2" t="str">
         <f>TEXT(14,"0")</f>
@@ -4930,32 +5025,32 @@
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
       <c r="S2" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="19">
+      <c r="G3" s="17">
         <v>44348</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="17">
         <v>44680</v>
       </c>
       <c r="I3" t="str">
@@ -4967,7 +5062,7 @@
         <v>350000</v>
       </c>
       <c r="K3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L3" t="str">
         <f>TEXT(31,"0")</f>
@@ -4980,32 +5075,32 @@
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
       <c r="S3" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="19">
+      <c r="G4" s="17">
         <v>44630</v>
       </c>
-      <c r="H4" s="19"/>
+      <c r="H4" s="17"/>
       <c r="I4" t="str">
         <f>TEXT(15,"0")</f>
         <v>15</v>
@@ -5015,7 +5110,7 @@
         <v>500000</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L4" t="str">
         <f>TEXT(21,"0")</f>
@@ -5067,7 +5162,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5080,122 +5175,122 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2">
         <v>44209</v>
       </c>
       <c r="I2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2">
         <v>44256</v>
       </c>
       <c r="I3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2">
         <v>44277</v>
       </c>
       <c r="I4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="2">
         <v>44312</v>
       </c>
       <c r="I5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" s="2">
         <v>44408</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2">
         <v>44317</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="2">
         <v>44347</v>
       </c>
       <c r="I8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" s="2">
         <v>44354</v>
@@ -5203,10 +5298,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="2">
         <v>44438</v>
@@ -5214,10 +5309,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" s="2">
         <v>44627</v>
@@ -5225,10 +5320,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="2">
         <v>44680</v>
@@ -5251,322 +5346,316 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="17.53515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.84375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.53515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.84375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.53515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.07421875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.84375" style="4"/>
+    <col min="3" max="3" width="14.53515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.53515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.07421875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.69140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.84375" style="4"/>
+    <col min="9" max="9" width="9.23046875" style="4"/>
+    <col min="10" max="10" width="14.84375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D2" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E2" s="2">
+        <v>44408</v>
+      </c>
+      <c r="F2" s="19">
+        <v>35</v>
+      </c>
+      <c r="G2" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1237</v>
+      </c>
+      <c r="I2" s="4">
+        <v>4</v>
+      </c>
+      <c r="J2" s="4" t="str">
+        <f>VLOOKUP(H2,[1]Users!$A$2:$B$50,2,FALSE)</f>
+        <v>Tiago Cancado</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3" s="2">
+        <v>44199</v>
+      </c>
+      <c r="E3" s="2">
+        <v>44408</v>
+      </c>
+      <c r="F3" s="19">
+        <v>25</v>
+      </c>
+      <c r="G3" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1234</v>
+      </c>
+      <c r="I3" s="4">
+        <v>5</v>
+      </c>
+      <c r="J3" s="4" t="str">
+        <f>VLOOKUP(H3,[1]Users!$A$2:$B$50,2,FALSE)</f>
+        <v>Joao Silva</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" s="2">
+        <v>44200</v>
+      </c>
+      <c r="E4" s="2">
+        <v>44408</v>
+      </c>
+      <c r="F4" s="19">
+        <v>25</v>
+      </c>
+      <c r="G4" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1235</v>
+      </c>
+      <c r="I4" s="4">
+        <v>6</v>
+      </c>
+      <c r="J4" s="4" t="str">
+        <f>VLOOKUP(H4,[1]Users!$A$2:$B$50,2,FALSE)</f>
+        <v>Manel Costa</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5" s="2">
+        <v>44201</v>
+      </c>
+      <c r="E5" s="2">
+        <v>44408</v>
+      </c>
+      <c r="F5" s="19">
+        <v>20</v>
+      </c>
+      <c r="G5" s="19">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="C2" t="str">
-        <f>VLOOKUP(D2,[1]Profiles!$A$2:$B$8,2,FALSE)</f>
-        <v>Project Manager</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2" t="str">
-        <f>VLOOKUP(J2,[1]Users!$A$2:$B$50,2,FALSE)</f>
-        <v>Tiago Cancado</v>
-      </c>
-      <c r="F2" s="2">
-        <v>44198</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="H5" s="4">
+        <v>1236</v>
+      </c>
+      <c r="I5" s="4">
+        <v>7</v>
+      </c>
+      <c r="J5" s="4" t="str">
+        <f>VLOOKUP(H5,[1]Users!$A$2:$B$50,2,FALSE)</f>
+        <v>Xico Ferreira</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D6" s="2">
+        <v>44203</v>
+      </c>
+      <c r="E6" s="2">
         <v>44408</v>
       </c>
-      <c r="H2" s="15">
-        <v>35</v>
-      </c>
-      <c r="I2" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="J2" s="4">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="C3" t="str">
-        <f>VLOOKUP(D3,[1]Profiles!$A$2:$B$8,2,FALSE)</f>
-        <v>Product Owner</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3" t="str">
-        <f>VLOOKUP(J3,[1]Users!$A$2:$B$50,2,FALSE)</f>
-        <v>Joao Silva</v>
-      </c>
-      <c r="F3" s="2">
-        <v>44199</v>
-      </c>
-      <c r="G3" s="2">
-        <v>44408</v>
-      </c>
-      <c r="H3" s="15">
-        <v>25</v>
-      </c>
-      <c r="I3" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="J3" s="4">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="C4" t="str">
-        <f>VLOOKUP(D4,[1]Profiles!$A$2:$B$8,2,FALSE)</f>
-        <v>Scrum Master</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-      <c r="E4" t="str">
-        <f>VLOOKUP(J4,[1]Users!$A$2:$B$50,2,FALSE)</f>
-        <v>Manel Costa</v>
-      </c>
-      <c r="F4" s="2">
-        <v>44200</v>
-      </c>
-      <c r="G4" s="2">
-        <v>44408</v>
-      </c>
-      <c r="H4" s="15">
-        <v>25</v>
-      </c>
-      <c r="I4" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="J4" s="4">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="C5" t="str">
-        <f>VLOOKUP(D5,[1]Profiles!$A$2:$B$8,2,FALSE)</f>
-        <v>User</v>
-      </c>
-      <c r="D5">
+      <c r="F6" s="19">
+        <v>20</v>
+      </c>
+      <c r="G6" s="19">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1241</v>
+      </c>
+      <c r="I6" s="4">
         <v>7</v>
       </c>
-      <c r="E5" t="str">
-        <f>VLOOKUP(J5,[1]Users!$A$2:$B$50,2,FALSE)</f>
-        <v>Xico Ferreira</v>
-      </c>
-      <c r="F5" s="2">
-        <v>44201</v>
-      </c>
-      <c r="G5" s="2">
-        <v>44408</v>
-      </c>
-      <c r="H5" s="15">
+      <c r="J6" s="4" t="str">
+        <f>VLOOKUP(H6,[1]Users!$A$2:$B$50,2,FALSE)</f>
+        <v>Nel Moleiro</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D7" s="2">
+        <v>44204</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44367</v>
+      </c>
+      <c r="F7" s="19">
         <v>20</v>
       </c>
-      <c r="I5" s="16">
+      <c r="G7" s="19">
         <v>1</v>
       </c>
-      <c r="J5" s="4">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="C6" t="str">
-        <f>VLOOKUP(D6,[1]Profiles!$A$2:$B$8,2,FALSE)</f>
-        <v>User</v>
-      </c>
-      <c r="D6">
+      <c r="H7" s="4">
+        <v>1243</v>
+      </c>
+      <c r="I7" s="4">
         <v>7</v>
       </c>
-      <c r="E6" t="str">
-        <f>VLOOKUP(J6,[1]Users!$A$2:$B$50,2,FALSE)</f>
-        <v>Nel Moleiro</v>
-      </c>
-      <c r="F6" s="2">
-        <v>44203</v>
-      </c>
-      <c r="G6" s="2">
-        <v>44408</v>
-      </c>
-      <c r="H6" s="15">
+      <c r="J7" s="4" t="str">
+        <f>VLOOKUP(H7,[1]Users!$A$2:$B$50,2,FALSE)</f>
+        <v>Zé do Bento</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D8" s="2">
+        <v>44204</v>
+      </c>
+      <c r="E8" s="2">
+        <v>44367</v>
+      </c>
+      <c r="F8" s="19">
         <v>20</v>
       </c>
-      <c r="I6" s="16">
+      <c r="G8" s="19">
         <v>1</v>
       </c>
-      <c r="J6" s="4">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="C7" t="str">
-        <f>VLOOKUP(D7,[1]Profiles!$A$2:$B$8,2,FALSE)</f>
-        <v>User</v>
-      </c>
-      <c r="D7">
+      <c r="H8" s="4">
+        <v>1246</v>
+      </c>
+      <c r="I8" s="4">
         <v>7</v>
       </c>
-      <c r="E7" t="str">
-        <f>VLOOKUP(J7,[1]Users!$A$2:$B$50,2,FALSE)</f>
-        <v>Zé do Bento</v>
-      </c>
-      <c r="F7" s="2">
-        <v>44204</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="J8" s="4" t="str">
+        <f>VLOOKUP(H8,[1]Users!$A$2:$B$50,2,FALSE)</f>
+        <v>Tó Farrulo</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D9" s="2">
+        <v>44206</v>
+      </c>
+      <c r="E9" s="2">
         <v>44367</v>
       </c>
-      <c r="H7" s="15">
+      <c r="F9" s="19">
         <v>20</v>
       </c>
-      <c r="I7" s="16">
+      <c r="G9" s="19">
         <v>1</v>
       </c>
-      <c r="J7" s="4">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="C8" t="str">
-        <f>VLOOKUP(D8,[1]Profiles!$A$2:$B$8,2,FALSE)</f>
-        <v>User</v>
-      </c>
-      <c r="D8">
+      <c r="H9" s="4">
+        <v>1247</v>
+      </c>
+      <c r="I9" s="4">
         <v>7</v>
       </c>
-      <c r="E8" t="str">
-        <f>VLOOKUP(J8,[1]Users!$A$2:$B$50,2,FALSE)</f>
-        <v>Tó Farrulo</v>
-      </c>
-      <c r="F8" s="2">
-        <v>44204</v>
-      </c>
-      <c r="G8" s="2">
-        <v>44367</v>
-      </c>
-      <c r="H8" s="15">
-        <v>20</v>
-      </c>
-      <c r="I8" s="16">
-        <v>1</v>
-      </c>
-      <c r="J8" s="4">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="C9" t="str">
-        <f>VLOOKUP(D9,[1]Profiles!$A$2:$B$8,2,FALSE)</f>
-        <v>User</v>
-      </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
-      <c r="E9" t="str">
-        <f>VLOOKUP(J9,[1]Users!$A$2:$B$50,2,FALSE)</f>
+      <c r="J9" s="4" t="str">
+        <f>VLOOKUP(H9,[1]Users!$A$2:$B$50,2,FALSE)</f>
         <v>Tino das Cruzes</v>
-      </c>
-      <c r="F9" s="2">
-        <v>44206</v>
-      </c>
-      <c r="G9" s="2">
-        <v>44367</v>
-      </c>
-      <c r="H9" s="15">
-        <v>20</v>
-      </c>
-      <c r="I9" s="16">
-        <v>1</v>
-      </c>
-      <c r="J9" s="4">
-        <v>1247</v>
       </c>
     </row>
   </sheetData>
@@ -5589,33 +5678,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7FF6538-20DF-4E13-8107-7AC155FD4D73}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.69140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.69140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.84375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" t="s">
-        <v>58</v>
+      <c r="A1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2" t="str">
+        <f>TEXT(1,"0")</f>
         <v>1</v>
       </c>
       <c r="C2" s="2">
@@ -5623,10 +5713,11 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" t="str">
+        <f>TEXT(2,"0")</f>
         <v>2</v>
       </c>
       <c r="C3" s="2">
@@ -5634,10 +5725,11 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4" t="str">
+        <f>TEXT(3,"0")</f>
         <v>3</v>
       </c>
       <c r="C4" s="2">
@@ -5645,10 +5737,11 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5">
+      <c r="A5" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5" t="str">
+        <f>TEXT(4,"0")</f>
         <v>4</v>
       </c>
       <c r="C5" s="2">
@@ -5656,10 +5749,11 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6">
+      <c r="A6" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B6" t="str">
+        <f>TEXT(5,"0")</f>
         <v>5</v>
       </c>
       <c r="C6" s="2">
@@ -5667,10 +5761,11 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7">
+      <c r="A7" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B7" t="str">
+        <f>TEXT(6,"0")</f>
         <v>6</v>
       </c>
       <c r="C7" s="2">
@@ -5678,10 +5773,11 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8">
+      <c r="A8" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B8" t="str">
+        <f>TEXT(7,"0")</f>
         <v>7</v>
       </c>
       <c r="C8" s="2">
@@ -5689,10 +5785,11 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9">
+      <c r="A9" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B9" t="str">
+        <f>TEXT(8,"0")</f>
         <v>8</v>
       </c>
       <c r="C9" s="2">
@@ -5700,10 +5797,11 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10">
+      <c r="A10" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B10" t="str">
+        <f>TEXT(1,"0")</f>
         <v>1</v>
       </c>
       <c r="C10" s="2">
@@ -5711,10 +5809,11 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11">
+      <c r="A11" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B11" t="str">
+        <f>TEXT(2,"0")</f>
         <v>2</v>
       </c>
       <c r="C11" s="2">
@@ -5722,10 +5821,11 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12">
+      <c r="A12" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B12" t="str">
+        <f>TEXT(3,"0")</f>
         <v>3</v>
       </c>
       <c r="C12" s="2">
@@ -5733,10 +5833,11 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13">
+      <c r="A13" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B13" t="str">
+        <f>TEXT(4,"0")</f>
         <v>4</v>
       </c>
       <c r="C13" s="2">
@@ -5744,10 +5845,11 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14">
+      <c r="A14" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B14" t="str">
+        <f>TEXT(5,"0")</f>
         <v>5</v>
       </c>
       <c r="C14" s="2">
@@ -5755,10 +5857,11 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15">
+      <c r="A15" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B15" t="str">
+        <f>TEXT(6,"0")</f>
         <v>6</v>
       </c>
       <c r="C15" s="2">
@@ -5766,10 +5869,11 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16">
+      <c r="A16" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B16" t="str">
+        <f>TEXT(7,"0")</f>
         <v>7</v>
       </c>
       <c r="C16" s="2">
@@ -5777,10 +5881,11 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17">
+      <c r="A17" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B17" t="str">
+        <f>TEXT(8,"0")</f>
         <v>8</v>
       </c>
       <c r="C17" s="2">
@@ -5788,10 +5893,11 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18">
+      <c r="A18" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B18" t="str">
+        <f>TEXT(9,"0")</f>
         <v>9</v>
       </c>
       <c r="C18" s="2">
@@ -5799,10 +5905,11 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>85</v>
-      </c>
-      <c r="B19">
+      <c r="A19" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B19" t="str">
+        <f>TEXT(10,"0")</f>
         <v>10</v>
       </c>
       <c r="C19" s="2">
@@ -5810,10 +5917,11 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20">
+      <c r="A20" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B20" t="str">
+        <f>TEXT(11,"0")</f>
         <v>11</v>
       </c>
       <c r="C20" s="2">
@@ -5821,10 +5929,11 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21">
+      <c r="A21" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B21" t="str">
+        <f>TEXT(12,"0")</f>
         <v>12</v>
       </c>
       <c r="C21" s="2">
@@ -5859,965 +5968,965 @@
   <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.53515625" customWidth="1"/>
+    <col min="1" max="1" width="13.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.84375" customWidth="1"/>
     <col min="4" max="4" width="11.07421875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>251</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="A2" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" t="s">
         <v>63</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A3" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A4" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M4" t="s">
         <v>94</v>
       </c>
-      <c r="C2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" t="s">
-        <v>95</v>
-      </c>
-      <c r="M2" t="s">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A5" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" t="s">
-        <v>95</v>
-      </c>
-      <c r="M3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A6" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C6" t="s">
         <v>98</v>
       </c>
-      <c r="C4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" t="s">
-        <v>95</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="D6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A7" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A8" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C8" t="s">
         <v>102</v>
       </c>
-      <c r="D5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A9" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C9" t="s">
         <v>104</v>
       </c>
-      <c r="D6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A10" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C10" t="s">
         <v>106</v>
       </c>
-      <c r="D7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A11" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C11" t="s">
         <v>108</v>
       </c>
-      <c r="D8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A12" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C12" t="s">
         <v>110</v>
       </c>
-      <c r="D9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A13" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B13" t="s">
+        <v>263</v>
+      </c>
+      <c r="C13" t="s">
         <v>112</v>
       </c>
-      <c r="D10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A14" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B14" t="s">
+        <v>264</v>
+      </c>
+      <c r="C14" t="s">
         <v>114</v>
       </c>
-      <c r="D11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A15" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B15" t="s">
+        <v>265</v>
+      </c>
+      <c r="C15" t="s">
         <v>116</v>
       </c>
-      <c r="D12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A16" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B16" t="s">
+        <v>266</v>
+      </c>
+      <c r="C16" t="s">
         <v>118</v>
       </c>
-      <c r="D13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B17" t="s">
+        <v>267</v>
+      </c>
+      <c r="C17" t="s">
         <v>120</v>
       </c>
-      <c r="D14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B18" t="s">
+        <v>268</v>
+      </c>
+      <c r="C18" t="s">
         <v>122</v>
       </c>
-      <c r="D15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" t="s">
-        <v>123</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B19" t="s">
+        <v>269</v>
+      </c>
+      <c r="C19" t="s">
         <v>124</v>
       </c>
-      <c r="D16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B20" t="s">
+        <v>270</v>
+      </c>
+      <c r="C20" t="s">
         <v>126</v>
       </c>
-      <c r="D17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B21" t="s">
+        <v>271</v>
+      </c>
+      <c r="C21" t="s">
         <v>128</v>
       </c>
-      <c r="D18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B22" t="s">
+        <v>272</v>
+      </c>
+      <c r="C22" t="s">
         <v>130</v>
       </c>
-      <c r="D19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B23" t="s">
+        <v>273</v>
+      </c>
+      <c r="C23" t="s">
         <v>132</v>
       </c>
-      <c r="D20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" t="s">
-        <v>133</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B24" t="s">
+        <v>274</v>
+      </c>
+      <c r="C24" t="s">
         <v>134</v>
       </c>
-      <c r="D21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B25" t="s">
+        <v>275</v>
+      </c>
+      <c r="C25" t="s">
         <v>136</v>
       </c>
-      <c r="D22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" t="s">
-        <v>137</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B26" t="s">
+        <v>276</v>
+      </c>
+      <c r="C26" t="s">
         <v>138</v>
       </c>
-      <c r="D23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" t="s">
-        <v>139</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B27" t="s">
+        <v>277</v>
+      </c>
+      <c r="C27" t="s">
         <v>140</v>
       </c>
-      <c r="D24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" t="s">
-        <v>141</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B28" t="s">
+        <v>278</v>
+      </c>
+      <c r="C28" t="s">
         <v>142</v>
       </c>
-      <c r="D25" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" t="s">
-        <v>143</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B29" t="s">
+        <v>279</v>
+      </c>
+      <c r="C29" t="s">
         <v>144</v>
       </c>
-      <c r="D26" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" t="s">
-        <v>145</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B30" t="s">
+        <v>280</v>
+      </c>
+      <c r="C30" t="s">
         <v>146</v>
       </c>
-      <c r="D27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" t="s">
-        <v>147</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="D30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B31" t="s">
+        <v>281</v>
+      </c>
+      <c r="C31" t="s">
         <v>148</v>
       </c>
-      <c r="D28" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="D31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B32" t="s">
+        <v>282</v>
+      </c>
+      <c r="C32" t="s">
         <v>149</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B33" t="s">
+        <v>283</v>
+      </c>
+      <c r="C33" t="s">
         <v>150</v>
       </c>
-      <c r="D29" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="D33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B34" t="s">
+        <v>284</v>
+      </c>
+      <c r="C34" t="s">
         <v>151</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B35" t="s">
+        <v>285</v>
+      </c>
+      <c r="C35" t="s">
         <v>152</v>
       </c>
-      <c r="D30" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="D35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B36" t="s">
+        <v>286</v>
+      </c>
+      <c r="C36" t="s">
         <v>153</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B37" t="s">
+        <v>287</v>
+      </c>
+      <c r="C37" t="s">
         <v>154</v>
       </c>
-      <c r="D31" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="D37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B38" t="s">
+        <v>288</v>
+      </c>
+      <c r="C38" t="s">
         <v>155</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B39" t="s">
+        <v>289</v>
+      </c>
+      <c r="C39" t="s">
         <v>156</v>
       </c>
-      <c r="D32" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>85</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="D39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B40" t="s">
+        <v>290</v>
+      </c>
+      <c r="C40" t="s">
         <v>157</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B41" t="s">
+        <v>291</v>
+      </c>
+      <c r="C41" t="s">
         <v>158</v>
       </c>
-      <c r="D33" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>85</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="D41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B42" t="s">
+        <v>292</v>
+      </c>
+      <c r="C42" t="s">
         <v>159</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B43" t="s">
+        <v>293</v>
+      </c>
+      <c r="C43" t="s">
         <v>160</v>
       </c>
-      <c r="D34" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>85</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="D43" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A44" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B44" t="s">
+        <v>294</v>
+      </c>
+      <c r="C44" t="s">
         <v>161</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D44" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A45" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B45" t="s">
+        <v>295</v>
+      </c>
+      <c r="C45" t="s">
         <v>162</v>
       </c>
-      <c r="D35" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>85</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="D45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A46" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B46" t="s">
+        <v>296</v>
+      </c>
+      <c r="C46" t="s">
         <v>163</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A47" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B47" t="s">
+        <v>297</v>
+      </c>
+      <c r="C47" t="s">
         <v>164</v>
       </c>
-      <c r="D36" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>85</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="D47" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A48" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B48" t="s">
+        <v>298</v>
+      </c>
+      <c r="C48" t="s">
         <v>165</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D48" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A49" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B49" t="s">
+        <v>299</v>
+      </c>
+      <c r="C49" t="s">
         <v>166</v>
       </c>
-      <c r="D37" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
-        <v>85</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="D49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A50" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B50" t="s">
+        <v>300</v>
+      </c>
+      <c r="C50" t="s">
         <v>167</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A51" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B51" t="s">
+        <v>301</v>
+      </c>
+      <c r="C51" t="s">
         <v>168</v>
       </c>
-      <c r="D38" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
-        <v>85</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="D51" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A52" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B52" t="s">
+        <v>302</v>
+      </c>
+      <c r="C52" t="s">
         <v>169</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D52" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A53" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B53" t="s">
+        <v>303</v>
+      </c>
+      <c r="C53" t="s">
         <v>170</v>
       </c>
-      <c r="D39" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
-        <v>85</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="D53" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A54" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B54" t="s">
+        <v>304</v>
+      </c>
+      <c r="C54" t="s">
         <v>171</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D54" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A55" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B55" t="s">
+        <v>305</v>
+      </c>
+      <c r="C55" t="s">
         <v>172</v>
       </c>
-      <c r="D40" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
-        <v>85</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="D55" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A56" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B56" t="s">
+        <v>306</v>
+      </c>
+      <c r="C56" t="s">
         <v>173</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D56" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A57" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B57" t="s">
+        <v>307</v>
+      </c>
+      <c r="C57" t="s">
         <v>174</v>
       </c>
-      <c r="D41" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
-        <v>85</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="D57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A58" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B58" t="s">
+        <v>308</v>
+      </c>
+      <c r="C58" t="s">
         <v>175</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A59" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B59" t="s">
+        <v>309</v>
+      </c>
+      <c r="C59" t="s">
         <v>176</v>
       </c>
-      <c r="D42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
-        <v>85</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="D59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A60" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B60" t="s">
+        <v>310</v>
+      </c>
+      <c r="C60" t="s">
         <v>177</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A61" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B61" t="s">
+        <v>311</v>
+      </c>
+      <c r="C61" t="s">
         <v>178</v>
       </c>
-      <c r="D43" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
-        <v>85</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="D61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A62" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B62" t="s">
+        <v>312</v>
+      </c>
+      <c r="C62" t="s">
         <v>179</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A63" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B63" t="s">
+        <v>313</v>
+      </c>
+      <c r="C63" t="s">
         <v>180</v>
       </c>
-      <c r="D44" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
-        <v>85</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="D63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A64" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B64" t="s">
+        <v>314</v>
+      </c>
+      <c r="C64" t="s">
         <v>181</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D64" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A65" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B65" t="s">
+        <v>315</v>
+      </c>
+      <c r="C65" t="s">
         <v>182</v>
       </c>
-      <c r="D45" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
-        <v>85</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="D65" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A66" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B66" t="s">
+        <v>316</v>
+      </c>
+      <c r="C66" t="s">
         <v>183</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A67" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B67" t="s">
+        <v>317</v>
+      </c>
+      <c r="C67" t="s">
         <v>184</v>
       </c>
-      <c r="D46" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
-        <v>85</v>
-      </c>
-      <c r="B47" t="s">
-        <v>185</v>
-      </c>
-      <c r="C47" t="s">
-        <v>186</v>
-      </c>
-      <c r="D47" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
-        <v>85</v>
-      </c>
-      <c r="B48" t="s">
-        <v>187</v>
-      </c>
-      <c r="C48" t="s">
-        <v>188</v>
-      </c>
-      <c r="D48" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
-        <v>85</v>
-      </c>
-      <c r="B49" t="s">
-        <v>189</v>
-      </c>
-      <c r="C49" t="s">
-        <v>190</v>
-      </c>
-      <c r="D49" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
-        <v>85</v>
-      </c>
-      <c r="B50" t="s">
-        <v>191</v>
-      </c>
-      <c r="C50" t="s">
-        <v>192</v>
-      </c>
-      <c r="D50" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
-        <v>85</v>
-      </c>
-      <c r="B51" t="s">
-        <v>193</v>
-      </c>
-      <c r="C51" t="s">
-        <v>194</v>
-      </c>
-      <c r="D51" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
-        <v>85</v>
-      </c>
-      <c r="B52" t="s">
-        <v>195</v>
-      </c>
-      <c r="C52" t="s">
-        <v>196</v>
-      </c>
-      <c r="D52" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
-        <v>85</v>
-      </c>
-      <c r="B53" t="s">
-        <v>197</v>
-      </c>
-      <c r="C53" t="s">
-        <v>198</v>
-      </c>
-      <c r="D53" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
-        <v>85</v>
-      </c>
-      <c r="B54" t="s">
-        <v>199</v>
-      </c>
-      <c r="C54" t="s">
-        <v>200</v>
-      </c>
-      <c r="D54" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
-        <v>85</v>
-      </c>
-      <c r="B55" t="s">
-        <v>201</v>
-      </c>
-      <c r="C55" t="s">
-        <v>202</v>
-      </c>
-      <c r="D55" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
-        <v>85</v>
-      </c>
-      <c r="B56" t="s">
-        <v>203</v>
-      </c>
-      <c r="C56" t="s">
-        <v>204</v>
-      </c>
-      <c r="D56" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
-        <v>85</v>
-      </c>
-      <c r="B57" t="s">
-        <v>205</v>
-      </c>
-      <c r="C57" t="s">
-        <v>206</v>
-      </c>
-      <c r="D57" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
-        <v>85</v>
-      </c>
-      <c r="B58" t="s">
-        <v>207</v>
-      </c>
-      <c r="C58" t="s">
-        <v>208</v>
-      </c>
-      <c r="D58" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
-        <v>85</v>
-      </c>
-      <c r="B59" t="s">
-        <v>209</v>
-      </c>
-      <c r="C59" t="s">
-        <v>210</v>
-      </c>
-      <c r="D59" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A60" t="s">
-        <v>85</v>
-      </c>
-      <c r="B60" t="s">
-        <v>211</v>
-      </c>
-      <c r="C60" t="s">
-        <v>212</v>
-      </c>
-      <c r="D60" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A61" t="s">
-        <v>85</v>
-      </c>
-      <c r="B61" t="s">
-        <v>213</v>
-      </c>
-      <c r="C61" t="s">
-        <v>214</v>
-      </c>
-      <c r="D61" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A62" t="s">
-        <v>85</v>
-      </c>
-      <c r="B62" t="s">
-        <v>215</v>
-      </c>
-      <c r="C62" t="s">
-        <v>216</v>
-      </c>
-      <c r="D62" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A63" t="s">
-        <v>85</v>
-      </c>
-      <c r="B63" t="s">
-        <v>217</v>
-      </c>
-      <c r="C63" t="s">
-        <v>218</v>
-      </c>
-      <c r="D63" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A64" t="s">
-        <v>85</v>
-      </c>
-      <c r="B64" t="s">
-        <v>219</v>
-      </c>
-      <c r="C64" t="s">
-        <v>220</v>
-      </c>
-      <c r="D64" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A65" t="s">
-        <v>85</v>
-      </c>
-      <c r="B65" t="s">
-        <v>221</v>
-      </c>
-      <c r="C65" t="s">
-        <v>222</v>
-      </c>
-      <c r="D65" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A66" t="s">
-        <v>85</v>
-      </c>
-      <c r="B66" t="s">
-        <v>223</v>
-      </c>
-      <c r="C66" t="s">
-        <v>224</v>
-      </c>
-      <c r="D66" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A67" t="s">
-        <v>85</v>
-      </c>
-      <c r="B67" t="s">
-        <v>225</v>
-      </c>
-      <c r="C67" t="s">
-        <v>226</v>
-      </c>
       <c r="D67" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -6832,15 +6941,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005836243B3C47804EAF5FFDD9F066FCC7" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b40f5c691649a4a05e2eddbeb14bcbeb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6aca1daf-af28-46f8-bd7f-7c486cf57d75" xmlns:ns3="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1826bf959a736503351b94de29104941" ns2:_="" ns3:_="">
     <xsd:import namespace="6aca1daf-af28-46f8-bd7f-7c486cf57d75"/>
@@ -7043,6 +7143,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -7050,14 +7159,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{552A2396-49F4-45F5-9D44-9C3125763CF2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6920F70-FC70-4BF2-86B7-0FEAC01D1483}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7076,6 +7177,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{552A2396-49F4-45F5-9D44-9C3125763CF2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EAF4CE-5C55-41AC-946B-5BEC082284DF}">
   <ds:schemaRefs>

--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\switch\projectg2\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Desktop\Projeto\projectg2\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A7AC8C-47CA-4009-8AFF-56EAD170F24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E1B0F2-43EE-41FC-9B4D-9AE2DD6F5BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="29692" windowHeight="11949" activeTab="3" xr2:uid="{17341BA7-7E24-41D8-A92D-79256BC3D291}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="638" activeTab="7" xr2:uid="{17341BA7-7E24-41D8-A92D-79256BC3D291}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -20,16 +20,16 @@
     <sheet name="ProjectStatus" sheetId="6" r:id="rId5"/>
     <sheet name="ProjectTeams" sheetId="4" r:id="rId6"/>
     <sheet name="ProjectSprints" sheetId="8" r:id="rId7"/>
-    <sheet name="Folha1" sheetId="13" r:id="rId8"/>
-    <sheet name="ProjectBacklog" sheetId="9" r:id="rId9"/>
-    <sheet name="BacklogUSStatus" sheetId="12" r:id="rId10"/>
-    <sheet name="SprintBacklog" sheetId="10" r:id="rId11"/>
-    <sheet name="SprintTasks" sheetId="11" r:id="rId12"/>
+    <sheet name="ProjectBacklog" sheetId="9" r:id="rId8"/>
+    <sheet name="BacklogUSStatus" sheetId="12" r:id="rId9"/>
+    <sheet name="SprintBacklog" sheetId="10" r:id="rId10"/>
+    <sheet name="SprintTasks" sheetId="11" r:id="rId11"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId13"/>
-  </externalReferences>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">BacklogUSStatus!$A$1:$F$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">ProjectBacklog!$A$1:$G$6</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="421">
   <si>
     <t>id</t>
   </si>
@@ -514,219 +516,111 @@
     <t>Dummy 30</t>
   </si>
   <si>
-    <t>US001</t>
-  </si>
-  <si>
     <t>A2 dummy 001</t>
   </si>
   <si>
-    <t>US002</t>
-  </si>
-  <si>
     <t>A2 dummy 002</t>
   </si>
   <si>
-    <t>US003</t>
-  </si>
-  <si>
     <t>A2 dummy 003</t>
   </si>
   <si>
-    <t>US004</t>
-  </si>
-  <si>
     <t>A2 dummy 004</t>
   </si>
   <si>
-    <t>US005</t>
-  </si>
-  <si>
     <t>A2 dummy 005</t>
   </si>
   <si>
-    <t>US006</t>
-  </si>
-  <si>
     <t>A2 dummy 006</t>
   </si>
   <si>
-    <t>US007</t>
-  </si>
-  <si>
     <t>A2 dummy 007</t>
   </si>
   <si>
-    <t>US008</t>
-  </si>
-  <si>
     <t>A2 dummy 008</t>
   </si>
   <si>
-    <t>US009</t>
-  </si>
-  <si>
     <t>A2 dummy 009</t>
   </si>
   <si>
-    <t>US010</t>
-  </si>
-  <si>
     <t>A2 dummy 010</t>
   </si>
   <si>
-    <t>US011</t>
-  </si>
-  <si>
     <t>A2 dummy 011</t>
   </si>
   <si>
-    <t>US012</t>
-  </si>
-  <si>
     <t>A2 dummy 012</t>
   </si>
   <si>
-    <t>US013</t>
-  </si>
-  <si>
     <t>A2 dummy 013</t>
   </si>
   <si>
-    <t>US014</t>
-  </si>
-  <si>
     <t>A2 dummy 014</t>
   </si>
   <si>
-    <t>US015</t>
-  </si>
-  <si>
     <t>A2 dummy 015</t>
   </si>
   <si>
-    <t>US016</t>
-  </si>
-  <si>
     <t>A2 dummy 016</t>
   </si>
   <si>
-    <t>US017</t>
-  </si>
-  <si>
     <t>A2 dummy 017</t>
   </si>
   <si>
-    <t>US018</t>
-  </si>
-  <si>
     <t>A2 dummy 018</t>
   </si>
   <si>
-    <t>US019</t>
-  </si>
-  <si>
     <t>A2 dummy 019</t>
   </si>
   <si>
-    <t>US020</t>
-  </si>
-  <si>
     <t>A2 dummy 020</t>
   </si>
   <si>
-    <t>US021</t>
-  </si>
-  <si>
     <t>A2 dummy 021</t>
   </si>
   <si>
-    <t>US022</t>
-  </si>
-  <si>
     <t>A2 dummy 022</t>
   </si>
   <si>
-    <t>US023</t>
-  </si>
-  <si>
     <t>A2 dummy 023</t>
   </si>
   <si>
-    <t>US024</t>
-  </si>
-  <si>
     <t>A2 dummy 024</t>
   </si>
   <si>
-    <t>US025</t>
-  </si>
-  <si>
     <t>A2 dummy 025</t>
   </si>
   <si>
-    <t>US026</t>
-  </si>
-  <si>
     <t>A2 dummy 026</t>
   </si>
   <si>
-    <t>US027</t>
-  </si>
-  <si>
     <t>A2 dummy 027</t>
   </si>
   <si>
-    <t>US028</t>
-  </si>
-  <si>
     <t>A2 dummy 028</t>
   </si>
   <si>
-    <t>US029</t>
-  </si>
-  <si>
     <t>A2 dummy 029</t>
   </si>
   <si>
-    <t>US030</t>
-  </si>
-  <si>
     <t>A2 dummy 030</t>
   </si>
   <si>
-    <t>US031</t>
-  </si>
-  <si>
     <t>A2 dummy 031</t>
   </si>
   <si>
-    <t>US032</t>
-  </si>
-  <si>
     <t>A2 dummy 032</t>
   </si>
   <si>
-    <t>US033</t>
-  </si>
-  <si>
     <t>A2 dummy 033</t>
   </si>
   <si>
-    <t>US034</t>
-  </si>
-  <si>
     <t>A2 dummy 034</t>
   </si>
   <si>
-    <t>US035</t>
-  </si>
-  <si>
     <t>A2 dummy 035</t>
   </si>
   <si>
-    <t>US036</t>
-  </si>
-  <si>
     <t>A2 dummy 036</t>
   </si>
   <si>
@@ -893,6 +787,531 @@
   </si>
   <si>
     <t>Project_2022_3</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>US01Open</t>
+  </si>
+  <si>
+    <t>US02Open</t>
+  </si>
+  <si>
+    <t>US03Open</t>
+  </si>
+  <si>
+    <t>US04Open</t>
+  </si>
+  <si>
+    <t>US05Open</t>
+  </si>
+  <si>
+    <t>US06Open</t>
+  </si>
+  <si>
+    <t>US07Open</t>
+  </si>
+  <si>
+    <t>US08Open</t>
+  </si>
+  <si>
+    <t>US09Open</t>
+  </si>
+  <si>
+    <t>US10Open</t>
+  </si>
+  <si>
+    <t>US01Finished</t>
+  </si>
+  <si>
+    <t>US02Finished</t>
+  </si>
+  <si>
+    <t>US03Finished</t>
+  </si>
+  <si>
+    <t>US04Finished</t>
+  </si>
+  <si>
+    <t>US05Finished</t>
+  </si>
+  <si>
+    <t>US07Cancelled</t>
+  </si>
+  <si>
+    <t>US11Open</t>
+  </si>
+  <si>
+    <t>US12Open</t>
+  </si>
+  <si>
+    <t>US13Open</t>
+  </si>
+  <si>
+    <t>US14Open</t>
+  </si>
+  <si>
+    <t>US15Open</t>
+  </si>
+  <si>
+    <t>US16Open</t>
+  </si>
+  <si>
+    <t>US17Open</t>
+  </si>
+  <si>
+    <t>US18Open</t>
+  </si>
+  <si>
+    <t>US19Open</t>
+  </si>
+  <si>
+    <t>US20Open</t>
+  </si>
+  <si>
+    <t>US06Finished</t>
+  </si>
+  <si>
+    <t>US08Finished</t>
+  </si>
+  <si>
+    <t>US09Finished</t>
+  </si>
+  <si>
+    <t>US11Finished</t>
+  </si>
+  <si>
+    <t>US12Finished</t>
+  </si>
+  <si>
+    <t>US13Finished</t>
+  </si>
+  <si>
+    <t>US21Open</t>
+  </si>
+  <si>
+    <t>US22Open</t>
+  </si>
+  <si>
+    <t>US23Open</t>
+  </si>
+  <si>
+    <t>US24Open</t>
+  </si>
+  <si>
+    <t>US25Open</t>
+  </si>
+  <si>
+    <t>US26Open</t>
+  </si>
+  <si>
+    <t>US27Open</t>
+  </si>
+  <si>
+    <t>US28Open</t>
+  </si>
+  <si>
+    <t>US29Open</t>
+  </si>
+  <si>
+    <t>US30Open</t>
+  </si>
+  <si>
+    <t>US14Finished</t>
+  </si>
+  <si>
+    <t>US15Finished</t>
+  </si>
+  <si>
+    <t>US20Finished</t>
+  </si>
+  <si>
+    <t>US21Finished</t>
+  </si>
+  <si>
+    <t>US25Finished</t>
+  </si>
+  <si>
+    <t>US10Cancelled</t>
+  </si>
+  <si>
+    <t>US16Finished</t>
+  </si>
+  <si>
+    <t>US17Finished</t>
+  </si>
+  <si>
+    <t>US18Finished</t>
+  </si>
+  <si>
+    <t>US19Finished</t>
+  </si>
+  <si>
+    <t>US22Finished</t>
+  </si>
+  <si>
+    <t>US23Finished</t>
+  </si>
+  <si>
+    <t>US24Finished</t>
+  </si>
+  <si>
+    <t>US26Finished</t>
+  </si>
+  <si>
+    <t>US27Finished</t>
+  </si>
+  <si>
+    <t>US28Finished</t>
+  </si>
+  <si>
+    <t>US29Finished</t>
+  </si>
+  <si>
+    <t>US30Finished</t>
+  </si>
+  <si>
+    <t>CDC</t>
+  </si>
+  <si>
+    <t>fui buscar dados à sheet de BacklogUSStatus para conseguir alimentar a criação de US com os dados necessários</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criei chave primaria </t>
+  </si>
+  <si>
+    <t>para filtrar pelo estado e id US</t>
+  </si>
+  <si>
+    <t>US001Finished</t>
+  </si>
+  <si>
+    <t>US002Finished</t>
+  </si>
+  <si>
+    <t>US003Finished</t>
+  </si>
+  <si>
+    <t>US004Finished</t>
+  </si>
+  <si>
+    <t>US005Finished</t>
+  </si>
+  <si>
+    <t>US006Finished</t>
+  </si>
+  <si>
+    <t>US007Finished</t>
+  </si>
+  <si>
+    <t>US008Finished</t>
+  </si>
+  <si>
+    <t>US009Finished</t>
+  </si>
+  <si>
+    <t>US010Open</t>
+  </si>
+  <si>
+    <t>US011Finished</t>
+  </si>
+  <si>
+    <t>US012Finished</t>
+  </si>
+  <si>
+    <t>US013Finished</t>
+  </si>
+  <si>
+    <t>US014Finished</t>
+  </si>
+  <si>
+    <t>US015Finished</t>
+  </si>
+  <si>
+    <t>US016Finished</t>
+  </si>
+  <si>
+    <t>US017Finished</t>
+  </si>
+  <si>
+    <t>US018Finished</t>
+  </si>
+  <si>
+    <t>US019Finished</t>
+  </si>
+  <si>
+    <t>US020Finished</t>
+  </si>
+  <si>
+    <t>US021Finished</t>
+  </si>
+  <si>
+    <t>US022Finished</t>
+  </si>
+  <si>
+    <t>US023Cancelled</t>
+  </si>
+  <si>
+    <t>US024Finished</t>
+  </si>
+  <si>
+    <t>US025Finished</t>
+  </si>
+  <si>
+    <t>US026Finished</t>
+  </si>
+  <si>
+    <t>US027Finished</t>
+  </si>
+  <si>
+    <t>US028Finished</t>
+  </si>
+  <si>
+    <t>US029Finished</t>
+  </si>
+  <si>
+    <t>US030Finished</t>
+  </si>
+  <si>
+    <t>US031Finished</t>
+  </si>
+  <si>
+    <t>US032Finished</t>
+  </si>
+  <si>
+    <t>US033Finished</t>
+  </si>
+  <si>
+    <t>US034Finished</t>
+  </si>
+  <si>
+    <t>US035Cancelled</t>
+  </si>
+  <si>
+    <t>US036Open</t>
+  </si>
+  <si>
+    <t>As project manager</t>
+  </si>
+  <si>
+    <t>As product owner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As scrum master </t>
+  </si>
+  <si>
+    <t>As user</t>
+  </si>
+  <si>
+    <t>I want</t>
+  </si>
+  <si>
+    <t>As project manager I want to test</t>
+  </si>
+  <si>
+    <t>As product owner  to test</t>
+  </si>
+  <si>
+    <t>As scrum master   to test</t>
+  </si>
+  <si>
+    <t>As user  to test</t>
+  </si>
+  <si>
+    <t>As project manager I want to create us</t>
+  </si>
+  <si>
+    <t>As product owner  to create us</t>
+  </si>
+  <si>
+    <t>As scrum master   to create us</t>
+  </si>
+  <si>
+    <t>As user  to create us</t>
+  </si>
+  <si>
+    <t>As project manager I want to create project</t>
+  </si>
+  <si>
+    <t>As product owner  to create project</t>
+  </si>
+  <si>
+    <t>As scrum master   to create project</t>
+  </si>
+  <si>
+    <t>As user  to create project</t>
+  </si>
+  <si>
+    <t>As project manager I want to create typology</t>
+  </si>
+  <si>
+    <t>As product owner  to create typology</t>
+  </si>
+  <si>
+    <t>As scrum master   to create typology</t>
+  </si>
+  <si>
+    <t>As user  to create typology</t>
+  </si>
+  <si>
+    <t>As project manager I want to create profile</t>
+  </si>
+  <si>
+    <t>As product owner  to create profile</t>
+  </si>
+  <si>
+    <t>As scrum master   to create profile</t>
+  </si>
+  <si>
+    <t>As user  to create profile</t>
+  </si>
+  <si>
+    <t>As project manager I want to make test</t>
+  </si>
+  <si>
+    <t>As product owner  to make test</t>
+  </si>
+  <si>
+    <t>As scrum master   to make test</t>
+  </si>
+  <si>
+    <t>As user  to make test</t>
+  </si>
+  <si>
+    <t>As project manager I want to be devop</t>
+  </si>
+  <si>
+    <t>As product owner  to be devop</t>
+  </si>
+  <si>
+    <t>As scrum master   to be devop</t>
+  </si>
+  <si>
+    <t>As user  to be devop</t>
+  </si>
+  <si>
+    <t>As project manager I want to be devop 2</t>
+  </si>
+  <si>
+    <t>As product owner  to be devop 2</t>
+  </si>
+  <si>
+    <t>As scrum master   to be devop 2</t>
+  </si>
+  <si>
+    <t>As user  to be devop 2</t>
+  </si>
+  <si>
+    <t>As project manager I want to be devop 3</t>
+  </si>
+  <si>
+    <t>As product owner  to be devop 3</t>
+  </si>
+  <si>
+    <t>As scrum master   to be devop 3</t>
+  </si>
+  <si>
+    <t>As user  to be devop 3</t>
+  </si>
+  <si>
+    <t>As project manager I want to be devop 4</t>
+  </si>
+  <si>
+    <t>As product owner  to be devop 4</t>
+  </si>
+  <si>
+    <t>As scrum master   to be devop 4</t>
+  </si>
+  <si>
+    <t>As user  to be devop 4</t>
+  </si>
+  <si>
+    <t>As project manager I want to be devop 5</t>
+  </si>
+  <si>
+    <t>As product owner  to be devop 5</t>
+  </si>
+  <si>
+    <t>As scrum master   to be devop 5</t>
+  </si>
+  <si>
+    <t>As user  to be devop 5</t>
+  </si>
+  <si>
+    <t>As project manager I want to be devop 6</t>
+  </si>
+  <si>
+    <t>As product owner  to be devop 6</t>
+  </si>
+  <si>
+    <t>As scrum master   to be devop 6</t>
+  </si>
+  <si>
+    <t>As user  to be devop 6</t>
+  </si>
+  <si>
+    <t>As project manager I want to be devop 7</t>
+  </si>
+  <si>
+    <t>As product owner  to be devop 7</t>
+  </si>
+  <si>
+    <t>As scrum master   to be devop 7</t>
+  </si>
+  <si>
+    <t>As user  to be devop 7</t>
+  </si>
+  <si>
+    <t>As project manager I want to be devop 8</t>
+  </si>
+  <si>
+    <t>As product owner  to be devop 8</t>
+  </si>
+  <si>
+    <t>As scrum master   to be devop 8</t>
+  </si>
+  <si>
+    <t>As user  to be devop 8</t>
+  </si>
+  <si>
+    <t>As project manager I want to be devop 9</t>
+  </si>
+  <si>
+    <t>As product owner  to be devop 9</t>
+  </si>
+  <si>
+    <t>As scrum master   to be devop 9</t>
+  </si>
+  <si>
+    <t>As user  to be devop 9</t>
+  </si>
+  <si>
+    <t>As project manager I want to be devop 10</t>
+  </si>
+  <si>
+    <t>As product owner  to be devop 10</t>
+  </si>
+  <si>
+    <t>As scrum master   to be devop 10</t>
+  </si>
+  <si>
+    <t>As user  to be devop 10</t>
+  </si>
+  <si>
+    <t>to be devop 11</t>
+  </si>
+  <si>
+    <t>As project manager I want to be devop 11</t>
+  </si>
+  <si>
+    <t>As product owner  to be devop 11</t>
+  </si>
+  <si>
+    <t>Resumo para USID</t>
+  </si>
+  <si>
+    <t>TimeEstimate</t>
   </si>
 </sst>
 </file>
@@ -987,7 +1406,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1010,9 +1429,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1028,211 +1452,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Users"/>
-      <sheetName val="Profiles"/>
-      <sheetName val="GlobalRoles"/>
-      <sheetName val="Projects"/>
-      <sheetName val="ProjectStatus"/>
-      <sheetName val="ProjectTeams"/>
-      <sheetName val="ProjectSprints"/>
-      <sheetName val="ProjectBacklog"/>
-      <sheetName val="BacklogUSStatus"/>
-      <sheetName val="SprintBacklog"/>
-      <sheetName val="SprintTasks"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="A2">
-            <v>1234</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>Joao Silva</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>1235</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>Manel Costa</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>1236</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>Xico Ferreira</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>1237</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>Tiago Cancado</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>1238</v>
-          </cell>
-          <cell r="B6" t="str">
-            <v>Urbino das Urzes</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>1239</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>Ze da Esquina</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>1241</v>
-          </cell>
-          <cell r="B8" t="str">
-            <v>Nel Moleiro</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>1243</v>
-          </cell>
-          <cell r="B9" t="str">
-            <v>Zé do Bento</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>1246</v>
-          </cell>
-          <cell r="B10" t="str">
-            <v>Tó Farrulo</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>1247</v>
-          </cell>
-          <cell r="B11" t="str">
-            <v>Tino das Cruzes</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>1251</v>
-          </cell>
-          <cell r="B12" t="str">
-            <v>Quim Barreiros</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>1252</v>
-          </cell>
-          <cell r="B13" t="str">
-            <v>Tiago Geringonca</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>1253</v>
-          </cell>
-          <cell r="B14" t="str">
-            <v>Zé Manel</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>1254</v>
-          </cell>
-          <cell r="B15" t="str">
-            <v>Antonio Silva</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="A2">
-            <v>1</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>Administrator</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>2</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>Visitor</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>3</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>Director</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>4</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>Project Manager</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>5</v>
-          </cell>
-          <cell r="B6" t="str">
-            <v>Product Owner</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>6</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>Scrum Master</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>7</v>
-          </cell>
-          <cell r="B8" t="str">
-            <v>User</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1531,28 +1752,28 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.4609375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.3046875" customWidth="1"/>
-    <col min="3" max="3" width="15.84375" customWidth="1"/>
-    <col min="5" max="5" width="19.765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.69140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.84375" style="4"/>
-    <col min="9" max="9" width="24.84375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.4609375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.69140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.69140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.84375" style="4"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="4"/>
+    <col min="9" max="9" width="24.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="4"/>
     <col min="14" max="14" width="10" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1564,10 +1785,10 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>10</v>
@@ -1594,21 +1815,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10" t="s">
@@ -1636,21 +1857,21 @@
         <v>263650670</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10" t="s">
@@ -1678,21 +1899,21 @@
         <v>263650520</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10" t="s">
@@ -1720,21 +1941,21 @@
         <v>263650532</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10" t="s">
@@ -1762,7 +1983,7 @@
         <v>263650345</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>25</v>
       </c>
@@ -1773,10 +1994,10 @@
         <v>12</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10" t="s">
@@ -1804,21 +2025,21 @@
         <v>263650127</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10" t="s">
@@ -1846,7 +2067,7 @@
         <v>212349016</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>31</v>
       </c>
@@ -1857,10 +2078,10 @@
         <v>33</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10" t="s">
@@ -1870,21 +2091,21 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10" t="s">
@@ -1894,7 +2115,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>35</v>
       </c>
@@ -1905,10 +2126,10 @@
         <v>33</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10" t="s">
@@ -1918,7 +2139,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>37</v>
       </c>
@@ -1929,10 +2150,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10" t="s">
@@ -1942,21 +2163,21 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10" t="s">
@@ -1966,21 +2187,21 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10" t="s">
@@ -1990,21 +2211,21 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10" t="s">
@@ -2014,21 +2235,21 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10" t="s">
@@ -2061,1655 +2282,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E62CEF3-4F99-4CE5-B31F-511FA523F4D9}">
-  <dimension ref="A1:M100"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="4" max="4" width="10.53515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="2">
-        <v>44215</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="M2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="2">
-        <v>44215</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="M3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="2">
-        <v>44215</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="M4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="2">
-        <v>44215</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="2">
-        <v>44215</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="2">
-        <v>44215</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="2">
-        <v>44215</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="2">
-        <v>44215</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="2">
-        <v>44215</v>
-      </c>
-      <c r="E10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="2">
-        <v>44215</v>
-      </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="2">
-        <v>44288</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="2">
-        <v>44288</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="2">
-        <v>44288</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="2">
-        <v>44288</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="2">
-        <v>44288</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="2">
-        <v>44288</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" s="2">
-        <v>44288</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="2">
-        <v>44288</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="2">
-        <v>44288</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" t="s">
-        <v>113</v>
-      </c>
-      <c r="C21" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="2">
-        <v>44288</v>
-      </c>
-      <c r="E21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" t="s">
-        <v>115</v>
-      </c>
-      <c r="C22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="2">
-        <v>44288</v>
-      </c>
-      <c r="E22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" t="s">
-        <v>117</v>
-      </c>
-      <c r="C23" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="2">
-        <v>44288</v>
-      </c>
-      <c r="E23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" t="s">
-        <v>119</v>
-      </c>
-      <c r="C24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24" s="2">
-        <v>44288</v>
-      </c>
-      <c r="E24">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" t="s">
-        <v>121</v>
-      </c>
-      <c r="C25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" s="2">
-        <v>44288</v>
-      </c>
-      <c r="E25">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" t="s">
-        <v>123</v>
-      </c>
-      <c r="C26" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="2">
-        <v>44288</v>
-      </c>
-      <c r="E26">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" t="s">
-        <v>125</v>
-      </c>
-      <c r="C27" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" s="2">
-        <v>44288</v>
-      </c>
-      <c r="E27">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" t="s">
-        <v>127</v>
-      </c>
-      <c r="C28" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" s="2">
-        <v>44288</v>
-      </c>
-      <c r="E28">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" t="s">
-        <v>129</v>
-      </c>
-      <c r="C29" t="s">
-        <v>96</v>
-      </c>
-      <c r="D29" s="2">
-        <v>44288</v>
-      </c>
-      <c r="E29">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" t="s">
-        <v>131</v>
-      </c>
-      <c r="C30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="2">
-        <v>44288</v>
-      </c>
-      <c r="E30">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" t="s">
-        <v>133</v>
-      </c>
-      <c r="C31" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" s="2">
-        <v>44288</v>
-      </c>
-      <c r="E31">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A32" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" s="2">
-        <v>44309</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A33" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33" t="s">
-        <v>95</v>
-      </c>
-      <c r="D33" s="2">
-        <v>44309</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A34" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" t="s">
-        <v>95</v>
-      </c>
-      <c r="D34" s="2">
-        <v>44309</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A35" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" t="s">
-        <v>115</v>
-      </c>
-      <c r="C35" t="s">
-        <v>95</v>
-      </c>
-      <c r="D35" s="2">
-        <v>44309</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A36" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" t="s">
-        <v>117</v>
-      </c>
-      <c r="C36" t="s">
-        <v>95</v>
-      </c>
-      <c r="D36" s="2">
-        <v>44309</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A37" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B37" t="s">
-        <v>119</v>
-      </c>
-      <c r="C37" t="s">
-        <v>95</v>
-      </c>
-      <c r="D37" s="2">
-        <v>44309</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A38" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" t="s">
-        <v>113</v>
-      </c>
-      <c r="C38" t="s">
-        <v>96</v>
-      </c>
-      <c r="D38" s="2">
-        <v>44309</v>
-      </c>
-      <c r="E38">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A39" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B39" t="s">
-        <v>121</v>
-      </c>
-      <c r="C39" t="s">
-        <v>96</v>
-      </c>
-      <c r="D39" s="2">
-        <v>44309</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A40" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" t="s">
-        <v>123</v>
-      </c>
-      <c r="C40" t="s">
-        <v>96</v>
-      </c>
-      <c r="D40" s="2">
-        <v>44309</v>
-      </c>
-      <c r="E40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A41" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B41" t="s">
-        <v>125</v>
-      </c>
-      <c r="C41" t="s">
-        <v>96</v>
-      </c>
-      <c r="D41" s="2">
-        <v>44309</v>
-      </c>
-      <c r="E41">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A42" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42" t="s">
-        <v>127</v>
-      </c>
-      <c r="C42" t="s">
-        <v>96</v>
-      </c>
-      <c r="D42" s="2">
-        <v>44309</v>
-      </c>
-      <c r="E42">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A43" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" t="s">
-        <v>129</v>
-      </c>
-      <c r="C43" t="s">
-        <v>96</v>
-      </c>
-      <c r="D43" s="2">
-        <v>44309</v>
-      </c>
-      <c r="E43">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A44" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" t="s">
-        <v>131</v>
-      </c>
-      <c r="C44" t="s">
-        <v>96</v>
-      </c>
-      <c r="D44" s="2">
-        <v>44309</v>
-      </c>
-      <c r="E44">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A45" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B45" t="s">
-        <v>133</v>
-      </c>
-      <c r="C45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D45" s="2">
-        <v>44309</v>
-      </c>
-      <c r="E45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A46" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B46" t="s">
-        <v>135</v>
-      </c>
-      <c r="C46" t="s">
-        <v>96</v>
-      </c>
-      <c r="D46" s="2">
-        <v>44309</v>
-      </c>
-      <c r="E46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A47" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B47" t="s">
-        <v>137</v>
-      </c>
-      <c r="C47" t="s">
-        <v>96</v>
-      </c>
-      <c r="D47" s="2">
-        <v>44309</v>
-      </c>
-      <c r="E47">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A48" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B48" t="s">
-        <v>139</v>
-      </c>
-      <c r="C48" t="s">
-        <v>96</v>
-      </c>
-      <c r="D48" s="2">
-        <v>44309</v>
-      </c>
-      <c r="E48">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A49" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B49" t="s">
-        <v>141</v>
-      </c>
-      <c r="C49" t="s">
-        <v>96</v>
-      </c>
-      <c r="D49" s="2">
-        <v>44309</v>
-      </c>
-      <c r="E49">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A50" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B50" t="s">
-        <v>143</v>
-      </c>
-      <c r="C50" t="s">
-        <v>96</v>
-      </c>
-      <c r="D50" s="2">
-        <v>44309</v>
-      </c>
-      <c r="E50">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A51" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B51" t="s">
-        <v>145</v>
-      </c>
-      <c r="C51" t="s">
-        <v>96</v>
-      </c>
-      <c r="D51" s="2">
-        <v>44309</v>
-      </c>
-      <c r="E51">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A52" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B52" t="s">
-        <v>147</v>
-      </c>
-      <c r="C52" t="s">
-        <v>96</v>
-      </c>
-      <c r="D52" s="2">
-        <v>44309</v>
-      </c>
-      <c r="E52">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A53" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B53" t="s">
-        <v>149</v>
-      </c>
-      <c r="C53" t="s">
-        <v>96</v>
-      </c>
-      <c r="D53" s="2">
-        <v>44309</v>
-      </c>
-      <c r="E53">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A54" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B54" t="s">
-        <v>151</v>
-      </c>
-      <c r="C54" t="s">
-        <v>96</v>
-      </c>
-      <c r="D54" s="2">
-        <v>44309</v>
-      </c>
-      <c r="E54">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A55" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B55" t="s">
-        <v>153</v>
-      </c>
-      <c r="C55" t="s">
-        <v>96</v>
-      </c>
-      <c r="D55" s="2">
-        <v>44309</v>
-      </c>
-      <c r="E55">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
-        <v>63</v>
-      </c>
-      <c r="B56" t="s">
-        <v>121</v>
-      </c>
-      <c r="C56" t="s">
-        <v>95</v>
-      </c>
-      <c r="D56" s="2">
-        <v>44323</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
-        <v>63</v>
-      </c>
-      <c r="B57" t="s">
-        <v>123</v>
-      </c>
-      <c r="C57" t="s">
-        <v>95</v>
-      </c>
-      <c r="D57" s="2">
-        <v>44323</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58" t="s">
-        <v>133</v>
-      </c>
-      <c r="C58" t="s">
-        <v>95</v>
-      </c>
-      <c r="D58" s="2">
-        <v>44323</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
-        <v>63</v>
-      </c>
-      <c r="B59" t="s">
-        <v>135</v>
-      </c>
-      <c r="C59" t="s">
-        <v>95</v>
-      </c>
-      <c r="D59" s="2">
-        <v>44323</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A60" t="s">
-        <v>63</v>
-      </c>
-      <c r="B60" t="s">
-        <v>143</v>
-      </c>
-      <c r="C60" t="s">
-        <v>95</v>
-      </c>
-      <c r="D60" s="2">
-        <v>44323</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A61" t="s">
-        <v>63</v>
-      </c>
-      <c r="B61" t="s">
-        <v>113</v>
-      </c>
-      <c r="C61" t="s">
-        <v>100</v>
-      </c>
-      <c r="D61" s="2">
-        <v>44323</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A62" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62" t="s">
-        <v>125</v>
-      </c>
-      <c r="C62" t="s">
-        <v>96</v>
-      </c>
-      <c r="D62" s="2">
-        <v>44323</v>
-      </c>
-      <c r="E62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A63" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63" t="s">
-        <v>127</v>
-      </c>
-      <c r="C63" t="s">
-        <v>96</v>
-      </c>
-      <c r="D63" s="2">
-        <v>44323</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A64" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>129</v>
-      </c>
-      <c r="C64" t="s">
-        <v>96</v>
-      </c>
-      <c r="D64" s="2">
-        <v>44323</v>
-      </c>
-      <c r="E64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A65" t="s">
-        <v>63</v>
-      </c>
-      <c r="B65" t="s">
-        <v>131</v>
-      </c>
-      <c r="C65" t="s">
-        <v>96</v>
-      </c>
-      <c r="D65" s="2">
-        <v>44323</v>
-      </c>
-      <c r="E65">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A66" t="s">
-        <v>63</v>
-      </c>
-      <c r="B66" t="s">
-        <v>137</v>
-      </c>
-      <c r="C66" t="s">
-        <v>96</v>
-      </c>
-      <c r="D66" s="2">
-        <v>44323</v>
-      </c>
-      <c r="E66">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A67" t="s">
-        <v>63</v>
-      </c>
-      <c r="B67" t="s">
-        <v>139</v>
-      </c>
-      <c r="C67" t="s">
-        <v>96</v>
-      </c>
-      <c r="D67" s="2">
-        <v>44323</v>
-      </c>
-      <c r="E67">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A68" t="s">
-        <v>63</v>
-      </c>
-      <c r="B68" t="s">
-        <v>141</v>
-      </c>
-      <c r="C68" t="s">
-        <v>96</v>
-      </c>
-      <c r="D68" s="2">
-        <v>44323</v>
-      </c>
-      <c r="E68">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A69" t="s">
-        <v>63</v>
-      </c>
-      <c r="B69" t="s">
-        <v>147</v>
-      </c>
-      <c r="C69" t="s">
-        <v>96</v>
-      </c>
-      <c r="D69" s="2">
-        <v>44323</v>
-      </c>
-      <c r="E69">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A70" t="s">
-        <v>63</v>
-      </c>
-      <c r="B70" t="s">
-        <v>145</v>
-      </c>
-      <c r="C70" t="s">
-        <v>96</v>
-      </c>
-      <c r="D70" s="2">
-        <v>44323</v>
-      </c>
-      <c r="E70">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A71" t="s">
-        <v>63</v>
-      </c>
-      <c r="B71" t="s">
-        <v>149</v>
-      </c>
-      <c r="C71" t="s">
-        <v>96</v>
-      </c>
-      <c r="D71" s="2">
-        <v>44323</v>
-      </c>
-      <c r="E71">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A72" t="s">
-        <v>63</v>
-      </c>
-      <c r="B72" t="s">
-        <v>151</v>
-      </c>
-      <c r="C72" t="s">
-        <v>96</v>
-      </c>
-      <c r="D72" s="2">
-        <v>44323</v>
-      </c>
-      <c r="E72">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A73" t="s">
-        <v>63</v>
-      </c>
-      <c r="B73" t="s">
-        <v>153</v>
-      </c>
-      <c r="C73" t="s">
-        <v>96</v>
-      </c>
-      <c r="D73" s="2">
-        <v>44323</v>
-      </c>
-      <c r="E73">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A74" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B74" t="s">
-        <v>125</v>
-      </c>
-      <c r="C74" t="s">
-        <v>95</v>
-      </c>
-      <c r="D74" s="2">
-        <v>44337</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A75" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B75" t="s">
-        <v>127</v>
-      </c>
-      <c r="C75" t="s">
-        <v>95</v>
-      </c>
-      <c r="D75" s="2">
-        <v>44337</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A76" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B76" t="s">
-        <v>129</v>
-      </c>
-      <c r="C76" t="s">
-        <v>95</v>
-      </c>
-      <c r="D76" s="2">
-        <v>44337</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A77" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B77" t="s">
-        <v>131</v>
-      </c>
-      <c r="C77" t="s">
-        <v>95</v>
-      </c>
-      <c r="D77" s="2">
-        <v>44337</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A78" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B78" t="s">
-        <v>137</v>
-      </c>
-      <c r="C78" t="s">
-        <v>96</v>
-      </c>
-      <c r="D78" s="2">
-        <v>44337</v>
-      </c>
-      <c r="E78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A79" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B79" t="s">
-        <v>139</v>
-      </c>
-      <c r="C79" t="s">
-        <v>96</v>
-      </c>
-      <c r="D79" s="2">
-        <v>44337</v>
-      </c>
-      <c r="E79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A80" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B80" t="s">
-        <v>141</v>
-      </c>
-      <c r="C80" t="s">
-        <v>96</v>
-      </c>
-      <c r="D80" s="2">
-        <v>44337</v>
-      </c>
-      <c r="E80">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A81" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B81" t="s">
-        <v>145</v>
-      </c>
-      <c r="C81" t="s">
-        <v>96</v>
-      </c>
-      <c r="D81" s="2">
-        <v>44337</v>
-      </c>
-      <c r="E81">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A82" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B82" t="s">
-        <v>147</v>
-      </c>
-      <c r="C82" t="s">
-        <v>96</v>
-      </c>
-      <c r="D82" s="2">
-        <v>44337</v>
-      </c>
-      <c r="E82">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A83" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B83" t="s">
-        <v>149</v>
-      </c>
-      <c r="C83" t="s">
-        <v>96</v>
-      </c>
-      <c r="D83" s="2">
-        <v>44337</v>
-      </c>
-      <c r="E83">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A84" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B84" t="s">
-        <v>151</v>
-      </c>
-      <c r="C84" t="s">
-        <v>96</v>
-      </c>
-      <c r="D84" s="2">
-        <v>44337</v>
-      </c>
-      <c r="E84">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A85" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B85" t="s">
-        <v>153</v>
-      </c>
-      <c r="C85" t="s">
-        <v>96</v>
-      </c>
-      <c r="D85" s="2">
-        <v>44337</v>
-      </c>
-      <c r="E85">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A86" t="s">
-        <v>63</v>
-      </c>
-      <c r="B86" t="s">
-        <v>137</v>
-      </c>
-      <c r="C86" t="s">
-        <v>95</v>
-      </c>
-      <c r="D86" s="2">
-        <v>44351</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A87" t="s">
-        <v>63</v>
-      </c>
-      <c r="B87" t="s">
-        <v>139</v>
-      </c>
-      <c r="C87" t="s">
-        <v>95</v>
-      </c>
-      <c r="D87" s="2">
-        <v>44351</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A88" t="s">
-        <v>63</v>
-      </c>
-      <c r="B88" t="s">
-        <v>141</v>
-      </c>
-      <c r="C88" t="s">
-        <v>95</v>
-      </c>
-      <c r="D88" s="2">
-        <v>44351</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A89" t="s">
-        <v>63</v>
-      </c>
-      <c r="B89" t="s">
-        <v>145</v>
-      </c>
-      <c r="C89" t="s">
-        <v>95</v>
-      </c>
-      <c r="D89" s="2">
-        <v>44351</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A90" t="s">
-        <v>63</v>
-      </c>
-      <c r="B90" t="s">
-        <v>153</v>
-      </c>
-      <c r="C90" t="s">
-        <v>96</v>
-      </c>
-      <c r="D90" s="2">
-        <v>44351</v>
-      </c>
-      <c r="E90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A91" t="s">
-        <v>63</v>
-      </c>
-      <c r="B91" t="s">
-        <v>151</v>
-      </c>
-      <c r="C91" t="s">
-        <v>96</v>
-      </c>
-      <c r="D91" s="2">
-        <v>44351</v>
-      </c>
-      <c r="E91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A92" t="s">
-        <v>63</v>
-      </c>
-      <c r="B92" t="s">
-        <v>149</v>
-      </c>
-      <c r="C92" t="s">
-        <v>96</v>
-      </c>
-      <c r="D92" s="2">
-        <v>44351</v>
-      </c>
-      <c r="E92">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A93" t="s">
-        <v>63</v>
-      </c>
-      <c r="B93" t="s">
-        <v>147</v>
-      </c>
-      <c r="C93" t="s">
-        <v>96</v>
-      </c>
-      <c r="D93" s="2">
-        <v>44351</v>
-      </c>
-      <c r="E93">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A94" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B94" t="s">
-        <v>147</v>
-      </c>
-      <c r="C94" t="s">
-        <v>95</v>
-      </c>
-      <c r="D94" s="2">
-        <v>44365</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A95" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B95" t="s">
-        <v>149</v>
-      </c>
-      <c r="C95" t="s">
-        <v>96</v>
-      </c>
-      <c r="D95" s="2">
-        <v>44365</v>
-      </c>
-      <c r="E95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A96" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B96" t="s">
-        <v>151</v>
-      </c>
-      <c r="C96" t="s">
-        <v>96</v>
-      </c>
-      <c r="D96" s="2">
-        <v>44365</v>
-      </c>
-      <c r="E96">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A97" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B97" t="s">
-        <v>153</v>
-      </c>
-      <c r="C97" t="s">
-        <v>96</v>
-      </c>
-      <c r="D97" s="2">
-        <v>44365</v>
-      </c>
-      <c r="E97">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A98" t="s">
-        <v>63</v>
-      </c>
-      <c r="B98" t="s">
-        <v>149</v>
-      </c>
-      <c r="C98" t="s">
-        <v>95</v>
-      </c>
-      <c r="D98" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A99" t="s">
-        <v>63</v>
-      </c>
-      <c r="B99" t="s">
-        <v>151</v>
-      </c>
-      <c r="C99" t="s">
-        <v>95</v>
-      </c>
-      <c r="D99" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A100" t="s">
-        <v>63</v>
-      </c>
-      <c r="B100" t="s">
-        <v>153</v>
-      </c>
-      <c r="C100" t="s">
-        <v>95</v>
-      </c>
-      <c r="D100" s="2">
-        <v>44407</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B94:B97">
-    <sortCondition ref="B94:B97"/>
-  </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J22:J31 C2:C100" xr:uid="{1BB72D78-EA1A-461C-AE25-0582C36D7E86}">
-      <formula1>$M$2:$M$4</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CAB123-B6B8-4C37-9FBC-A6CD32606951}">
   <dimension ref="A1:N35"/>
   <sheetViews>
@@ -3717,16 +2289,16 @@
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.69140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.69140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.3046875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.07421875" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
@@ -3737,13 +2309,13 @@
         <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -3754,13 +2326,13 @@
         <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="N2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -3771,13 +2343,13 @@
         <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="N3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -3788,13 +2360,13 @@
         <v>98</v>
       </c>
       <c r="D4" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="N4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -3805,10 +2377,10 @@
         <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>63</v>
       </c>
@@ -3819,10 +2391,10 @@
         <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -3833,10 +2405,10 @@
         <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -3847,10 +2419,10 @@
         <v>109</v>
       </c>
       <c r="D8" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -3861,10 +2433,10 @@
         <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -3875,10 +2447,10 @@
         <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -3889,10 +2461,10 @@
         <v>111</v>
       </c>
       <c r="D11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>63</v>
       </c>
@@ -3903,10 +2475,10 @@
         <v>115</v>
       </c>
       <c r="D12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>63</v>
       </c>
@@ -3917,10 +2489,10 @@
         <v>117</v>
       </c>
       <c r="D13" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -3931,10 +2503,10 @@
         <v>119</v>
       </c>
       <c r="D14" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>63</v>
       </c>
@@ -3945,10 +2517,10 @@
         <v>121</v>
       </c>
       <c r="D15" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -3959,10 +2531,10 @@
         <v>123</v>
       </c>
       <c r="D16" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -3973,10 +2545,10 @@
         <v>133</v>
       </c>
       <c r="D17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>63</v>
       </c>
@@ -3987,10 +2559,10 @@
         <v>135</v>
       </c>
       <c r="D18" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>63</v>
       </c>
@@ -4001,10 +2573,10 @@
         <v>143</v>
       </c>
       <c r="D19" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -4015,10 +2587,10 @@
         <v>145</v>
       </c>
       <c r="D20" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -4029,10 +2601,10 @@
         <v>125</v>
       </c>
       <c r="D21" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>63</v>
       </c>
@@ -4043,10 +2615,10 @@
         <v>127</v>
       </c>
       <c r="D22" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>63</v>
       </c>
@@ -4057,10 +2629,10 @@
         <v>129</v>
       </c>
       <c r="D23" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>63</v>
       </c>
@@ -4071,10 +2643,10 @@
         <v>131</v>
       </c>
       <c r="D24" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>63</v>
       </c>
@@ -4085,10 +2657,10 @@
         <v>137</v>
       </c>
       <c r="D25" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -4099,10 +2671,10 @@
         <v>139</v>
       </c>
       <c r="D26" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -4113,10 +2685,10 @@
         <v>141</v>
       </c>
       <c r="D27" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -4127,10 +2699,10 @@
         <v>145</v>
       </c>
       <c r="D28" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>63</v>
       </c>
@@ -4141,10 +2713,10 @@
         <v>147</v>
       </c>
       <c r="D29" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -4155,10 +2727,10 @@
         <v>149</v>
       </c>
       <c r="D30" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>63</v>
       </c>
@@ -4169,10 +2741,10 @@
         <v>151</v>
       </c>
       <c r="D31" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -4183,10 +2755,10 @@
         <v>153</v>
       </c>
       <c r="D32" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -4197,10 +2769,10 @@
         <v>149</v>
       </c>
       <c r="D33" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -4211,10 +2783,10 @@
         <v>151</v>
       </c>
       <c r="D34" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>63</v>
       </c>
@@ -4225,7 +2797,7 @@
         <v>153</v>
       </c>
       <c r="D35" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -4240,7 +2812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F8ABF8-7926-40AA-B3CA-5B2E5FFD92CA}">
   <dimension ref="A1:W8"/>
   <sheetViews>
@@ -4248,115 +2820,115 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.07421875" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.3046875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.84375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.53515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="B1" t="s">
-        <v>235</v>
+        <v>199</v>
       </c>
       <c r="C1" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="D1" t="s">
         <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="F1" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="G1" t="s">
         <v>59</v>
       </c>
       <c r="H1" t="s">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="I1" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="J1" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="K1" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="L1" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="M1" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="N1" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="U1" t="s">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c r="W1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="U2" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="W2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="U3" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="W3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="U4" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="W4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="U5" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="W5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="U6" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="W6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="U7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="U8" t="s">
-        <v>255</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -4377,16 +2949,16 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+      <selection activeCell="A5" sqref="A5:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.07421875" customWidth="1"/>
-    <col min="2" max="2" width="8.84375" style="4"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -4394,7 +2966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>45</v>
       </c>
@@ -4402,7 +2974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>46</v>
       </c>
@@ -4410,7 +2982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>47</v>
       </c>
@@ -4418,7 +2990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>48</v>
       </c>
@@ -4426,7 +2998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>49</v>
       </c>
@@ -4434,7 +3006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>50</v>
       </c>
@@ -4442,7 +3014,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>51</v>
       </c>
@@ -4461,25 +3033,25 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.53515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.07421875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.84375" style="4"/>
-    <col min="4" max="4" width="7.3046875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3046875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.53515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="4"/>
+    <col min="4" max="4" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>52</v>
@@ -4494,7 +3066,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>26</v>
       </c>
@@ -4515,9 +3087,9 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>47</v>
@@ -4536,9 +3108,9 @@
         <v>44198</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>51</v>
@@ -4557,9 +3129,9 @@
         <v>44199</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>51</v>
@@ -4578,9 +3150,9 @@
         <v>44200</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>51</v>
@@ -4599,9 +3171,9 @@
         <v>44201</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>46</v>
@@ -4620,7 +3192,7 @@
         <v>44567</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>32</v>
       </c>
@@ -4641,9 +3213,9 @@
         <v>44203</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>51</v>
@@ -4662,7 +3234,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>36</v>
       </c>
@@ -4683,7 +3255,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
@@ -4704,9 +3276,9 @@
         <v>44237</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>51</v>
@@ -4725,9 +3297,9 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>51</v>
@@ -4746,9 +3318,9 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>51</v>
@@ -4767,9 +3339,9 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>51</v>
@@ -4788,11 +3360,11 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
     </row>
@@ -4821,33 +3393,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59AF7EF-B12B-4A6F-9425-B1B26B554B1A}">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.84375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.53515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.3046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.69140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.53515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.3046875" customWidth="1"/>
-    <col min="7" max="7" width="10.53515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.84375" customWidth="1"/>
-    <col min="9" max="9" width="15.53515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.69140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.23046875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.53515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.53515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>44</v>
@@ -4856,36 +3428,36 @@
         <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>64</v>
@@ -4933,9 +3505,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>69</v>
@@ -4983,9 +3555,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>73</v>
@@ -5029,7 +3601,7 @@
       <c r="R4" s="10"/>
       <c r="S4" s="10"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -5070,15 +3642,15 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.84375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.07421875" customWidth="1"/>
-    <col min="3" max="3" width="10.53515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
@@ -5092,9 +3664,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="B2" t="s">
         <v>79</v>
@@ -5106,9 +3678,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="B3" t="s">
         <v>80</v>
@@ -5120,9 +3692,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="B4" t="s">
         <v>81</v>
@@ -5134,9 +3706,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
@@ -5148,9 +3720,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="B6" t="s">
         <v>83</v>
@@ -5162,9 +3734,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="B7" t="s">
         <v>79</v>
@@ -5176,9 +3748,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="B8" t="s">
         <v>80</v>
@@ -5190,9 +3762,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="B9" t="s">
         <v>81</v>
@@ -5201,9 +3773,9 @@
         <v>44354</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="B10" t="s">
         <v>82</v>
@@ -5212,9 +3784,9 @@
         <v>44438</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -5223,9 +3795,9 @@
         <v>44627</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="B12" t="s">
         <v>83</v>
@@ -5254,18 +3826,18 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.53515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.84375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.53515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.84375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.53515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.07421875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.84375" style="4"/>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5297,23 +3869,21 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="C2" t="str">
-        <f>VLOOKUP(D2,[1]Profiles!$A$2:$B$8,2,FALSE)</f>
-        <v>Project Manager</v>
+        <v>243</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
       </c>
       <c r="D2">
         <v>4</v>
       </c>
-      <c r="E2" t="str">
-        <f>VLOOKUP(J2,[1]Users!$A$2:$B$50,2,FALSE)</f>
-        <v>Tiago Cancado</v>
+      <c r="E2" t="s">
+        <v>23</v>
       </c>
       <c r="F2" s="2">
         <v>44198</v>
@@ -5331,23 +3901,21 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="C3" t="str">
-        <f>VLOOKUP(D3,[1]Profiles!$A$2:$B$8,2,FALSE)</f>
-        <v>Product Owner</v>
+        <v>243</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
-      <c r="E3" t="str">
-        <f>VLOOKUP(J3,[1]Users!$A$2:$B$50,2,FALSE)</f>
-        <v>Joao Silva</v>
+      <c r="E3" t="s">
+        <v>11</v>
       </c>
       <c r="F3" s="2">
         <v>44199</v>
@@ -5365,23 +3933,21 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="C4" t="str">
-        <f>VLOOKUP(D4,[1]Profiles!$A$2:$B$8,2,FALSE)</f>
-        <v>Scrum Master</v>
+        <v>243</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
       </c>
       <c r="D4">
         <v>6</v>
       </c>
-      <c r="E4" t="str">
-        <f>VLOOKUP(J4,[1]Users!$A$2:$B$50,2,FALSE)</f>
-        <v>Manel Costa</v>
+      <c r="E4" t="s">
+        <v>19</v>
       </c>
       <c r="F4" s="2">
         <v>44200</v>
@@ -5399,23 +3965,21 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="C5" t="str">
-        <f>VLOOKUP(D5,[1]Profiles!$A$2:$B$8,2,FALSE)</f>
-        <v>User</v>
+        <v>243</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
       </c>
       <c r="D5">
         <v>7</v>
       </c>
-      <c r="E5" t="str">
-        <f>VLOOKUP(J5,[1]Users!$A$2:$B$50,2,FALSE)</f>
-        <v>Xico Ferreira</v>
+      <c r="E5" t="s">
+        <v>21</v>
       </c>
       <c r="F5" s="2">
         <v>44201</v>
@@ -5433,23 +3997,21 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="C6" t="str">
-        <f>VLOOKUP(D6,[1]Profiles!$A$2:$B$8,2,FALSE)</f>
-        <v>User</v>
+        <v>243</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
       </c>
       <c r="D6">
         <v>7</v>
       </c>
-      <c r="E6" t="str">
-        <f>VLOOKUP(J6,[1]Users!$A$2:$B$50,2,FALSE)</f>
-        <v>Nel Moleiro</v>
+      <c r="E6" t="s">
+        <v>31</v>
       </c>
       <c r="F6" s="2">
         <v>44203</v>
@@ -5467,23 +4029,21 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="C7" t="str">
-        <f>VLOOKUP(D7,[1]Profiles!$A$2:$B$8,2,FALSE)</f>
-        <v>User</v>
+        <v>243</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
       </c>
       <c r="D7">
         <v>7</v>
       </c>
-      <c r="E7" t="str">
-        <f>VLOOKUP(J7,[1]Users!$A$2:$B$50,2,FALSE)</f>
-        <v>Zé do Bento</v>
+      <c r="E7" t="s">
+        <v>34</v>
       </c>
       <c r="F7" s="2">
         <v>44204</v>
@@ -5501,23 +4061,21 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="C8" t="str">
-        <f>VLOOKUP(D8,[1]Profiles!$A$2:$B$8,2,FALSE)</f>
-        <v>User</v>
+        <v>243</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
-      <c r="E8" t="str">
-        <f>VLOOKUP(J8,[1]Users!$A$2:$B$50,2,FALSE)</f>
-        <v>Tó Farrulo</v>
+      <c r="E8" t="s">
+        <v>35</v>
       </c>
       <c r="F8" s="2">
         <v>44204</v>
@@ -5535,23 +4093,21 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="C9" t="str">
-        <f>VLOOKUP(D9,[1]Profiles!$A$2:$B$8,2,FALSE)</f>
-        <v>User</v>
+        <v>243</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
       </c>
       <c r="D9">
         <v>7</v>
       </c>
-      <c r="E9" t="str">
-        <f>VLOOKUP(J9,[1]Users!$A$2:$B$50,2,FALSE)</f>
-        <v>Tino das Cruzes</v>
+      <c r="E9" t="s">
+        <v>37</v>
       </c>
       <c r="F9" s="2">
         <v>44206</v>
@@ -5593,14 +4149,14 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -5611,7 +4167,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -5622,7 +4178,7 @@
         <v>44277</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -5633,7 +4189,7 @@
         <v>44291</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -5644,7 +4200,7 @@
         <v>44312</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -5655,7 +4211,7 @@
         <v>44326</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>63</v>
       </c>
@@ -5666,7 +4222,7 @@
         <v>44340</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>63</v>
       </c>
@@ -5677,7 +4233,7 @@
         <v>44354</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -5688,7 +4244,7 @@
         <v>44368</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -5699,7 +4255,7 @@
         <v>44396</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>85</v>
       </c>
@@ -5710,7 +4266,7 @@
         <v>44354</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>85</v>
       </c>
@@ -5721,7 +4277,7 @@
         <v>44382</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>85</v>
       </c>
@@ -5732,7 +4288,7 @@
         <v>44410</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>85</v>
       </c>
@@ -5743,7 +4299,7 @@
         <v>44438</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>85</v>
       </c>
@@ -5754,7 +4310,7 @@
         <v>44466</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>85</v>
       </c>
@@ -5765,7 +4321,7 @@
         <v>44487</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>85</v>
       </c>
@@ -5776,7 +4332,7 @@
         <v>44515</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -5787,7 +4343,7 @@
         <v>44536</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -5798,7 +4354,7 @@
         <v>44571</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>85</v>
       </c>
@@ -5809,7 +4365,7 @@
         <v>44599</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>85</v>
       </c>
@@ -5820,7 +4376,7 @@
         <v>44627</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -5831,7 +4387,7 @@
         <v>44655</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C22" s="2"/>
     </row>
   </sheetData>
@@ -5841,989 +4397,3861 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76426BB3-299C-4678-A47D-5C50E17155FF}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC3EF37-2BA8-4EC6-92A1-22C0C9AA6791}">
+  <dimension ref="A1:T67"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.5546875" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="24"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>420</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F2" s="24">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="str">
+        <f>IFERROR(VLOOKUP(E2,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>Sem Dados</v>
+      </c>
+      <c r="H2" s="22">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" t="s">
+        <v>312</v>
+      </c>
+      <c r="F3" s="24">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2" t="str">
+        <f>IFERROR(VLOOKUP(E3,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>Sem Dados</v>
+      </c>
+      <c r="H3" s="22">
+        <v>15</v>
+      </c>
+      <c r="M3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" t="s">
+        <v>313</v>
+      </c>
+      <c r="F4" s="24">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2" t="str">
+        <f>IFERROR(VLOOKUP(E4,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>Sem Dados</v>
+      </c>
+      <c r="H4" s="22">
+        <v>11</v>
+      </c>
+      <c r="M4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" t="s">
+        <v>314</v>
+      </c>
+      <c r="F5" s="24">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2" t="str">
+        <f>IFERROR(VLOOKUP(E5,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>Sem Dados</v>
+      </c>
+      <c r="H5" s="22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B6" t="s">
+        <v>386</v>
+      </c>
+      <c r="C6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" t="s">
+        <v>315</v>
+      </c>
+      <c r="F6" s="24">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2" t="str">
+        <f>IFERROR(VLOOKUP(E6,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>Sem Dados</v>
+      </c>
+      <c r="H6" s="22">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B7" t="s">
+        <v>387</v>
+      </c>
+      <c r="C7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F7" s="24">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="str">
+        <f>IFERROR(VLOOKUP(E7,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>Sem Dados</v>
+      </c>
+      <c r="H7" s="22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B8" t="s">
+        <v>388</v>
+      </c>
+      <c r="C8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" t="s">
+        <v>317</v>
+      </c>
+      <c r="F8" s="24">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2" t="str">
+        <f>IFERROR(VLOOKUP(E8,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>Sem Dados</v>
+      </c>
+      <c r="H8" s="22">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B9" t="s">
+        <v>389</v>
+      </c>
+      <c r="C9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" t="s">
+        <v>318</v>
+      </c>
+      <c r="F9" s="24">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2" t="str">
+        <f>IFERROR(VLOOKUP(E9,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>Sem Dados</v>
+      </c>
+      <c r="H9" s="22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B10" t="s">
+        <v>390</v>
+      </c>
+      <c r="C10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" t="s">
+        <v>319</v>
+      </c>
+      <c r="F10" s="24">
+        <v>4</v>
+      </c>
+      <c r="G10" s="2" t="str">
+        <f>IFERROR(VLOOKUP(E10,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>Sem Dados</v>
+      </c>
+      <c r="H10" s="22">
+        <v>15.5</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="S10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>244</v>
+      </c>
+      <c r="B11" t="s">
+        <v>391</v>
+      </c>
+      <c r="C11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" t="s">
+        <v>320</v>
+      </c>
+      <c r="F11" s="24">
+        <v>5</v>
+      </c>
+      <c r="G11" s="2" t="str">
+        <f>IFERROR(VLOOKUP(E11,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>Sem Dados</v>
+      </c>
+      <c r="H11" s="22">
+        <v>16</v>
+      </c>
+      <c r="O11" t="s">
+        <v>309</v>
+      </c>
+      <c r="S11" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="T11" s="20"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>244</v>
+      </c>
+      <c r="B12" t="s">
+        <v>392</v>
+      </c>
+      <c r="C12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" t="s">
+        <v>321</v>
+      </c>
+      <c r="F12" s="24">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2" t="str">
+        <f>IFERROR(VLOOKUP(E12,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>Sem Dados</v>
+      </c>
+      <c r="H12" s="22">
+        <v>16.5</v>
+      </c>
+      <c r="O12" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>244</v>
+      </c>
+      <c r="B13" t="s">
+        <v>393</v>
+      </c>
+      <c r="C13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" t="s">
+        <v>322</v>
+      </c>
+      <c r="F13" s="24">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2" t="str">
+        <f>IFERROR(VLOOKUP(E13,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>Sem Dados</v>
+      </c>
+      <c r="H13" s="22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>244</v>
+      </c>
+      <c r="B14" t="s">
+        <v>394</v>
+      </c>
+      <c r="C14" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" t="s">
+        <v>323</v>
+      </c>
+      <c r="F14" s="24">
+        <v>3</v>
+      </c>
+      <c r="G14" s="2" t="str">
+        <f>IFERROR(VLOOKUP(E14,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>Sem Dados</v>
+      </c>
+      <c r="H14" s="22">
+        <v>17.5</v>
+      </c>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B15" t="s">
+        <v>395</v>
+      </c>
+      <c r="C15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" t="s">
+        <v>324</v>
+      </c>
+      <c r="F15" s="24">
+        <v>4</v>
+      </c>
+      <c r="G15" s="2" t="str">
+        <f>IFERROR(VLOOKUP(E15,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>Sem Dados</v>
+      </c>
+      <c r="H15" s="22">
+        <v>18</v>
+      </c>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>244</v>
+      </c>
+      <c r="B16" t="s">
+        <v>396</v>
+      </c>
+      <c r="C16" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" t="s">
+        <v>325</v>
+      </c>
+      <c r="F16" s="24">
+        <v>5</v>
+      </c>
+      <c r="G16" s="2" t="str">
+        <f>IFERROR(VLOOKUP(E16,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>Sem Dados</v>
+      </c>
+      <c r="H16" s="22">
+        <v>18.5</v>
+      </c>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>244</v>
+      </c>
+      <c r="B17" t="s">
+        <v>397</v>
+      </c>
+      <c r="C17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" t="s">
+        <v>326</v>
+      </c>
+      <c r="F17" s="24">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2" t="str">
+        <f>IFERROR(VLOOKUP(E17,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>Sem Dados</v>
+      </c>
+      <c r="H17" s="22">
+        <v>19</v>
+      </c>
+      <c r="J17" s="10"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>244</v>
+      </c>
+      <c r="B18" t="s">
+        <v>398</v>
+      </c>
+      <c r="C18" t="s">
+        <v>171</v>
+      </c>
+      <c r="D18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" t="s">
+        <v>327</v>
+      </c>
+      <c r="F18" s="24">
+        <v>2</v>
+      </c>
+      <c r="G18" s="2" t="str">
+        <f>IFERROR(VLOOKUP(E18,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>Sem Dados</v>
+      </c>
+      <c r="H18" s="22">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>244</v>
+      </c>
+      <c r="B19" t="s">
+        <v>399</v>
+      </c>
+      <c r="C19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" t="s">
+        <v>328</v>
+      </c>
+      <c r="F19" s="24">
+        <v>3</v>
+      </c>
+      <c r="G19" s="2" t="str">
+        <f>IFERROR(VLOOKUP(E19,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>Sem Dados</v>
+      </c>
+      <c r="H19" s="22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>244</v>
+      </c>
+      <c r="B20" t="s">
+        <v>400</v>
+      </c>
+      <c r="C20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" t="s">
+        <v>329</v>
+      </c>
+      <c r="F20" s="24">
+        <v>4</v>
+      </c>
+      <c r="G20" s="2" t="str">
+        <f>IFERROR(VLOOKUP(E20,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>Sem Dados</v>
+      </c>
+      <c r="H20" s="22">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>244</v>
+      </c>
+      <c r="B21" t="s">
+        <v>401</v>
+      </c>
+      <c r="C21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" t="s">
+        <v>330</v>
+      </c>
+      <c r="F21" s="24">
+        <v>5</v>
+      </c>
+      <c r="G21" s="2" t="str">
+        <f>IFERROR(VLOOKUP(E21,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>Sem Dados</v>
+      </c>
+      <c r="H21" s="22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>244</v>
+      </c>
+      <c r="B22" t="s">
+        <v>402</v>
+      </c>
+      <c r="C22" t="s">
+        <v>175</v>
+      </c>
+      <c r="D22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" t="s">
+        <v>331</v>
+      </c>
+      <c r="F22" s="24">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2" t="str">
+        <f>IFERROR(VLOOKUP(E22,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>Sem Dados</v>
+      </c>
+      <c r="H22" s="22">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>244</v>
+      </c>
+      <c r="B23" t="s">
+        <v>403</v>
+      </c>
+      <c r="C23" t="s">
+        <v>176</v>
+      </c>
+      <c r="D23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" t="s">
+        <v>332</v>
+      </c>
+      <c r="F23" s="24">
+        <v>2</v>
+      </c>
+      <c r="G23" s="2" t="str">
+        <f>IFERROR(VLOOKUP(E23,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>Sem Dados</v>
+      </c>
+      <c r="H23" s="22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>244</v>
+      </c>
+      <c r="B24" t="s">
+        <v>404</v>
+      </c>
+      <c r="C24" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" t="s">
+        <v>333</v>
+      </c>
+      <c r="F24" s="24">
+        <v>3</v>
+      </c>
+      <c r="G24" s="2" t="str">
+        <f>IFERROR(VLOOKUP(E24,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>Sem Dados</v>
+      </c>
+      <c r="H24" s="22">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>244</v>
+      </c>
+      <c r="B25" t="s">
+        <v>405</v>
+      </c>
+      <c r="C25" t="s">
+        <v>178</v>
+      </c>
+      <c r="D25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" t="s">
+        <v>334</v>
+      </c>
+      <c r="F25" s="24">
+        <v>4</v>
+      </c>
+      <c r="G25" s="2" t="str">
+        <f>IFERROR(VLOOKUP(E25,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>Sem Dados</v>
+      </c>
+      <c r="H25" s="22">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>244</v>
+      </c>
+      <c r="B26" t="s">
+        <v>406</v>
+      </c>
+      <c r="C26" t="s">
+        <v>179</v>
+      </c>
+      <c r="D26" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" t="s">
+        <v>335</v>
+      </c>
+      <c r="F26" s="24">
+        <v>5</v>
+      </c>
+      <c r="G26" s="2" t="str">
+        <f>IFERROR(VLOOKUP(E26,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>Sem Dados</v>
+      </c>
+      <c r="H26" s="22">
+        <v>23.5</v>
+      </c>
+      <c r="L26" s="21" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>244</v>
+      </c>
+      <c r="B27" t="s">
+        <v>407</v>
+      </c>
+      <c r="C27" t="s">
+        <v>180</v>
+      </c>
+      <c r="D27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" t="s">
+        <v>336</v>
+      </c>
+      <c r="F27" s="24">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2" t="str">
+        <f>IFERROR(VLOOKUP(E27,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>Sem Dados</v>
+      </c>
+      <c r="H27" s="22">
+        <v>24</v>
+      </c>
+      <c r="L27" t="s">
+        <v>347</v>
+      </c>
+      <c r="M27" t="s">
+        <v>351</v>
+      </c>
+      <c r="N27" t="s">
+        <v>416</v>
+      </c>
+      <c r="O27" t="str">
+        <f>L27&amp;" "&amp;M27&amp;" " &amp;$N$27</f>
+        <v>As project manager I want to be devop 11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>244</v>
+      </c>
+      <c r="B28" t="s">
+        <v>408</v>
+      </c>
+      <c r="C28" t="s">
+        <v>181</v>
+      </c>
+      <c r="D28" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" t="s">
+        <v>337</v>
+      </c>
+      <c r="F28" s="24">
+        <v>2</v>
+      </c>
+      <c r="G28" s="2" t="str">
+        <f>IFERROR(VLOOKUP(E28,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>Sem Dados</v>
+      </c>
+      <c r="H28" s="22">
+        <v>24.5</v>
+      </c>
+      <c r="L28" t="s">
+        <v>348</v>
+      </c>
+      <c r="O28" t="str">
+        <f>L28&amp;" "&amp;M28&amp;" " &amp;$N$27</f>
+        <v>As product owner  to be devop 11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>244</v>
+      </c>
+      <c r="B29" t="s">
+        <v>409</v>
+      </c>
+      <c r="C29" t="s">
+        <v>182</v>
+      </c>
+      <c r="D29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" t="s">
+        <v>338</v>
+      </c>
+      <c r="F29" s="24">
+        <v>3</v>
+      </c>
+      <c r="G29" s="2" t="str">
+        <f>IFERROR(VLOOKUP(E29,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>Sem Dados</v>
+      </c>
+      <c r="H29" s="22">
+        <v>25</v>
+      </c>
+      <c r="L29" t="s">
+        <v>349</v>
+      </c>
+      <c r="O29" t="str">
+        <f>L29&amp;" "&amp;M29&amp;" " &amp;$N$27</f>
+        <v>As scrum master   to be devop 11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>244</v>
+      </c>
+      <c r="B30" t="s">
+        <v>410</v>
+      </c>
+      <c r="C30" t="s">
+        <v>183</v>
+      </c>
+      <c r="D30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" t="s">
+        <v>339</v>
+      </c>
+      <c r="F30" s="24">
+        <v>4</v>
+      </c>
+      <c r="G30" s="2" t="str">
+        <f>IFERROR(VLOOKUP(E30,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>Sem Dados</v>
+      </c>
+      <c r="H30" s="22">
+        <v>25.5</v>
+      </c>
+      <c r="L30" t="s">
+        <v>350</v>
+      </c>
+      <c r="O30" t="str">
+        <f>L30&amp;" "&amp;M30&amp;" " &amp;$N$27</f>
+        <v>As user  to be devop 11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>244</v>
+      </c>
+      <c r="B31" t="s">
+        <v>411</v>
+      </c>
+      <c r="C31" t="s">
+        <v>184</v>
+      </c>
+      <c r="D31" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" t="s">
+        <v>340</v>
+      </c>
+      <c r="F31" s="24">
+        <v>5</v>
+      </c>
+      <c r="G31" s="2" t="str">
+        <f>IFERROR(VLOOKUP(E31,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>Sem Dados</v>
+      </c>
+      <c r="H31" s="22">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>244</v>
+      </c>
+      <c r="B32" t="s">
+        <v>412</v>
+      </c>
+      <c r="C32" t="s">
+        <v>185</v>
+      </c>
+      <c r="D32" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" t="s">
+        <v>341</v>
+      </c>
+      <c r="F32" s="24">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2" t="str">
+        <f>IFERROR(VLOOKUP(E32,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>Sem Dados</v>
+      </c>
+      <c r="H32" s="22">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>244</v>
+      </c>
+      <c r="B33" t="s">
+        <v>413</v>
+      </c>
+      <c r="C33" t="s">
+        <v>186</v>
+      </c>
+      <c r="D33" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" t="s">
+        <v>342</v>
+      </c>
+      <c r="F33" s="24">
+        <v>2</v>
+      </c>
+      <c r="G33" s="2" t="str">
+        <f>IFERROR(VLOOKUP(E33,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>Sem Dados</v>
+      </c>
+      <c r="H33" s="22">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>244</v>
+      </c>
+      <c r="B34" t="s">
+        <v>414</v>
+      </c>
+      <c r="C34" t="s">
+        <v>187</v>
+      </c>
+      <c r="D34" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" t="s">
+        <v>343</v>
+      </c>
+      <c r="F34" s="24">
+        <v>3</v>
+      </c>
+      <c r="G34" s="2" t="str">
+        <f>IFERROR(VLOOKUP(E34,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>Sem Dados</v>
+      </c>
+      <c r="H34" s="22">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>244</v>
+      </c>
+      <c r="B35" t="s">
+        <v>415</v>
+      </c>
+      <c r="C35" t="s">
+        <v>188</v>
+      </c>
+      <c r="D35" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" t="s">
+        <v>344</v>
+      </c>
+      <c r="F35" s="24">
+        <v>4</v>
+      </c>
+      <c r="G35" s="2" t="str">
+        <f>IFERROR(VLOOKUP(E35,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>Sem Dados</v>
+      </c>
+      <c r="H35" s="22">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>244</v>
+      </c>
+      <c r="B36" t="s">
+        <v>417</v>
+      </c>
+      <c r="C36" t="s">
+        <v>189</v>
+      </c>
+      <c r="D36" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" t="s">
+        <v>345</v>
+      </c>
+      <c r="F36" s="24">
+        <v>5</v>
+      </c>
+      <c r="G36" s="2" t="str">
+        <f>IFERROR(VLOOKUP(E36,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>Sem Dados</v>
+      </c>
+      <c r="H36" s="22">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>244</v>
+      </c>
+      <c r="B37" t="s">
+        <v>418</v>
+      </c>
+      <c r="C37" t="s">
+        <v>190</v>
+      </c>
+      <c r="D37" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" t="s">
+        <v>346</v>
+      </c>
+      <c r="F37" s="24">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2" t="str">
+        <f>IFERROR(VLOOKUP(E37,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>Sem Dados</v>
+      </c>
+      <c r="H37" s="22">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>243</v>
+      </c>
+      <c r="B38" t="s">
+        <v>379</v>
+      </c>
+      <c r="C38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" t="s">
+        <v>304</v>
+      </c>
+      <c r="F38" s="24">
+        <v>2</v>
+      </c>
+      <c r="G38" s="2">
+        <f>IFERROR(VLOOKUP(E38,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>44407</v>
+      </c>
+      <c r="H38" s="22">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>243</v>
+      </c>
+      <c r="B39" t="s">
+        <v>380</v>
+      </c>
+      <c r="C39" t="s">
+        <v>152</v>
+      </c>
+      <c r="D39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" t="s">
+        <v>305</v>
+      </c>
+      <c r="F39" s="24">
+        <v>3</v>
+      </c>
+      <c r="G39" s="2">
+        <f>IFERROR(VLOOKUP(E39,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>44407</v>
+      </c>
+      <c r="H39" s="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>243</v>
+      </c>
+      <c r="B40" t="s">
+        <v>381</v>
+      </c>
+      <c r="C40" t="s">
+        <v>154</v>
+      </c>
+      <c r="D40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" t="s">
+        <v>306</v>
+      </c>
+      <c r="F40" s="24">
+        <v>4</v>
+      </c>
+      <c r="G40" s="2">
+        <f>IFERROR(VLOOKUP(E40,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>44407</v>
+      </c>
+      <c r="H40" s="22">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>243</v>
+      </c>
+      <c r="B41" t="s">
+        <v>378</v>
+      </c>
+      <c r="C41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" t="s">
+        <v>303</v>
+      </c>
+      <c r="F41" s="24">
+        <v>5</v>
+      </c>
+      <c r="G41" s="2">
+        <f>IFERROR(VLOOKUP(E41,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>44365</v>
+      </c>
+      <c r="H41" s="22">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>243</v>
+      </c>
+      <c r="B42" t="s">
+        <v>373</v>
+      </c>
+      <c r="C42" t="s">
+        <v>138</v>
+      </c>
+      <c r="D42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E42" t="s">
+        <v>299</v>
+      </c>
+      <c r="F42" s="24">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2">
+        <f>IFERROR(VLOOKUP(E42,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>44351</v>
+      </c>
+      <c r="H42" s="22">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>243</v>
+      </c>
+      <c r="B43" t="s">
+        <v>374</v>
+      </c>
+      <c r="C43" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" t="s">
+        <v>95</v>
+      </c>
+      <c r="E43" t="s">
+        <v>300</v>
+      </c>
+      <c r="F43" s="24">
+        <v>2</v>
+      </c>
+      <c r="G43" s="2">
+        <f>IFERROR(VLOOKUP(E43,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>44351</v>
+      </c>
+      <c r="H43" s="22">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>243</v>
+      </c>
+      <c r="B44" t="s">
+        <v>375</v>
+      </c>
+      <c r="C44" t="s">
+        <v>142</v>
+      </c>
+      <c r="D44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E44" t="s">
+        <v>301</v>
+      </c>
+      <c r="F44" s="24">
+        <v>3</v>
+      </c>
+      <c r="G44" s="2">
+        <f>IFERROR(VLOOKUP(E44,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>44351</v>
+      </c>
+      <c r="H44" s="22">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>243</v>
+      </c>
+      <c r="B45" t="s">
+        <v>377</v>
+      </c>
+      <c r="C45" t="s">
+        <v>146</v>
+      </c>
+      <c r="D45" t="s">
+        <v>95</v>
+      </c>
+      <c r="E45" t="s">
+        <v>302</v>
+      </c>
+      <c r="F45" s="24">
+        <v>4</v>
+      </c>
+      <c r="G45" s="2">
+        <f>IFERROR(VLOOKUP(E45,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>44351</v>
+      </c>
+      <c r="H45" s="22">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>243</v>
+      </c>
+      <c r="B46" t="s">
+        <v>367</v>
+      </c>
+      <c r="C46" t="s">
+        <v>126</v>
+      </c>
+      <c r="D46" t="s">
+        <v>95</v>
+      </c>
+      <c r="E46" t="s">
+        <v>295</v>
+      </c>
+      <c r="F46" s="24">
+        <v>5</v>
+      </c>
+      <c r="G46" s="2">
+        <f>IFERROR(VLOOKUP(E46,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>44337</v>
+      </c>
+      <c r="H46" s="22">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>243</v>
+      </c>
+      <c r="B47" t="s">
+        <v>368</v>
+      </c>
+      <c r="C47" t="s">
+        <v>128</v>
+      </c>
+      <c r="D47" t="s">
+        <v>95</v>
+      </c>
+      <c r="E47" t="s">
+        <v>296</v>
+      </c>
+      <c r="F47" s="24">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2">
+        <f>IFERROR(VLOOKUP(E47,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>44337</v>
+      </c>
+      <c r="H47" s="22">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>243</v>
+      </c>
+      <c r="B48" t="s">
+        <v>369</v>
+      </c>
+      <c r="C48" t="s">
+        <v>130</v>
+      </c>
+      <c r="D48" t="s">
+        <v>95</v>
+      </c>
+      <c r="E48" t="s">
+        <v>297</v>
+      </c>
+      <c r="F48" s="24">
+        <v>2</v>
+      </c>
+      <c r="G48" s="2">
+        <f>IFERROR(VLOOKUP(E48,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>44337</v>
+      </c>
+      <c r="H48" s="22">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>243</v>
+      </c>
+      <c r="B49" t="s">
+        <v>370</v>
+      </c>
+      <c r="C49" t="s">
+        <v>132</v>
+      </c>
+      <c r="D49" t="s">
+        <v>95</v>
+      </c>
+      <c r="E49" t="s">
+        <v>298</v>
+      </c>
+      <c r="F49" s="24">
+        <v>3</v>
+      </c>
+      <c r="G49" s="2">
+        <f>IFERROR(VLOOKUP(E49,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>44337</v>
+      </c>
+      <c r="H49" s="22">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>243</v>
+      </c>
+      <c r="B50" t="s">
+        <v>361</v>
+      </c>
+      <c r="C50" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" t="s">
+        <v>100</v>
+      </c>
+      <c r="E50" t="s">
+        <v>294</v>
+      </c>
+      <c r="F50" s="24">
+        <v>4</v>
+      </c>
+      <c r="G50" s="2">
+        <f>IFERROR(VLOOKUP(E50,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>44323</v>
+      </c>
+      <c r="H50" s="22">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>243</v>
+      </c>
+      <c r="B51" t="s">
+        <v>365</v>
+      </c>
+      <c r="C51" t="s">
+        <v>122</v>
+      </c>
+      <c r="D51" t="s">
+        <v>95</v>
+      </c>
+      <c r="E51" t="s">
+        <v>289</v>
+      </c>
+      <c r="F51" s="24">
+        <v>5</v>
+      </c>
+      <c r="G51" s="2">
+        <f>IFERROR(VLOOKUP(E51,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>44323</v>
+      </c>
+      <c r="H51" s="22">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>243</v>
+      </c>
+      <c r="B52" t="s">
+        <v>366</v>
+      </c>
+      <c r="C52" t="s">
+        <v>124</v>
+      </c>
+      <c r="D52" t="s">
+        <v>95</v>
+      </c>
+      <c r="E52" t="s">
+        <v>290</v>
+      </c>
+      <c r="F52" s="24">
+        <v>1</v>
+      </c>
+      <c r="G52" s="2">
+        <f>IFERROR(VLOOKUP(E52,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>44323</v>
+      </c>
+      <c r="H52" s="22">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>243</v>
+      </c>
+      <c r="B53" t="s">
+        <v>371</v>
+      </c>
+      <c r="C53" t="s">
+        <v>134</v>
+      </c>
+      <c r="D53" t="s">
+        <v>95</v>
+      </c>
+      <c r="E53" t="s">
+        <v>291</v>
+      </c>
+      <c r="F53" s="24">
+        <v>2</v>
+      </c>
+      <c r="G53" s="2">
+        <f>IFERROR(VLOOKUP(E53,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>44323</v>
+      </c>
+      <c r="H53" s="22">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>243</v>
+      </c>
+      <c r="B54" t="s">
+        <v>372</v>
+      </c>
+      <c r="C54" t="s">
+        <v>136</v>
+      </c>
+      <c r="D54" t="s">
+        <v>95</v>
+      </c>
+      <c r="E54" t="s">
+        <v>292</v>
+      </c>
+      <c r="F54" s="24">
+        <v>3</v>
+      </c>
+      <c r="G54" s="2">
+        <f>IFERROR(VLOOKUP(E54,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>44323</v>
+      </c>
+      <c r="H54" s="22">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>243</v>
+      </c>
+      <c r="B55" t="s">
+        <v>376</v>
+      </c>
+      <c r="C55" t="s">
+        <v>144</v>
+      </c>
+      <c r="D55" t="s">
+        <v>95</v>
+      </c>
+      <c r="E55" t="s">
+        <v>293</v>
+      </c>
+      <c r="F55" s="24">
+        <v>4</v>
+      </c>
+      <c r="G55" s="2">
+        <f>IFERROR(VLOOKUP(E55,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>44323</v>
+      </c>
+      <c r="H55" s="22">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>243</v>
+      </c>
+      <c r="B56" t="s">
+        <v>357</v>
+      </c>
+      <c r="C56" t="s">
+        <v>106</v>
+      </c>
+      <c r="D56" t="s">
+        <v>95</v>
+      </c>
+      <c r="E56" t="s">
+        <v>273</v>
+      </c>
+      <c r="F56" s="24">
+        <v>5</v>
+      </c>
+      <c r="G56" s="2">
+        <f>IFERROR(VLOOKUP(E56,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>44309</v>
+      </c>
+      <c r="H56" s="22">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>243</v>
+      </c>
+      <c r="B57" t="s">
+        <v>359</v>
+      </c>
+      <c r="C57" t="s">
+        <v>110</v>
+      </c>
+      <c r="D57" t="s">
+        <v>95</v>
+      </c>
+      <c r="E57" t="s">
+        <v>274</v>
+      </c>
+      <c r="F57" s="24">
+        <v>1</v>
+      </c>
+      <c r="G57" s="2">
+        <f>IFERROR(VLOOKUP(E57,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>44309</v>
+      </c>
+      <c r="H57" s="22">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>243</v>
+      </c>
+      <c r="B58" t="s">
+        <v>360</v>
+      </c>
+      <c r="C58" t="s">
+        <v>112</v>
+      </c>
+      <c r="D58" t="s">
+        <v>95</v>
+      </c>
+      <c r="E58" t="s">
+        <v>275</v>
+      </c>
+      <c r="F58" s="24">
+        <v>2</v>
+      </c>
+      <c r="G58" s="2">
+        <f>IFERROR(VLOOKUP(E58,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>44309</v>
+      </c>
+      <c r="H58" s="22">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>243</v>
+      </c>
+      <c r="B59" t="s">
+        <v>362</v>
+      </c>
+      <c r="C59" t="s">
+        <v>116</v>
+      </c>
+      <c r="D59" t="s">
+        <v>95</v>
+      </c>
+      <c r="E59" t="s">
+        <v>276</v>
+      </c>
+      <c r="F59" s="24">
+        <v>3</v>
+      </c>
+      <c r="G59" s="2">
+        <f>IFERROR(VLOOKUP(E59,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>44309</v>
+      </c>
+      <c r="H59" s="22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>243</v>
+      </c>
+      <c r="B60" t="s">
+        <v>363</v>
+      </c>
+      <c r="C60" t="s">
+        <v>118</v>
+      </c>
+      <c r="D60" t="s">
+        <v>95</v>
+      </c>
+      <c r="E60" t="s">
+        <v>277</v>
+      </c>
+      <c r="F60" s="24">
+        <v>4</v>
+      </c>
+      <c r="G60" s="2">
+        <f>IFERROR(VLOOKUP(E60,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>44309</v>
+      </c>
+      <c r="H60" s="22">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>243</v>
+      </c>
+      <c r="B61" t="s">
+        <v>364</v>
+      </c>
+      <c r="C61" t="s">
+        <v>120</v>
+      </c>
+      <c r="D61" t="s">
+        <v>95</v>
+      </c>
+      <c r="E61" t="s">
+        <v>278</v>
+      </c>
+      <c r="F61" s="24">
+        <v>5</v>
+      </c>
+      <c r="G61" s="2">
+        <f>IFERROR(VLOOKUP(E61,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>44309</v>
+      </c>
+      <c r="H61" s="22">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>243</v>
+      </c>
+      <c r="B62" t="s">
+        <v>352</v>
+      </c>
+      <c r="C62" t="s">
+        <v>64</v>
+      </c>
+      <c r="D62" t="s">
+        <v>95</v>
+      </c>
+      <c r="E62" t="s">
+        <v>257</v>
+      </c>
+      <c r="F62" s="24">
+        <v>1</v>
+      </c>
+      <c r="G62" s="2">
+        <f>IFERROR(VLOOKUP(E62,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>44288</v>
+      </c>
+      <c r="H62" s="22">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>243</v>
+      </c>
+      <c r="B63" t="s">
+        <v>353</v>
+      </c>
+      <c r="C63" t="s">
+        <v>69</v>
+      </c>
+      <c r="D63" t="s">
+        <v>95</v>
+      </c>
+      <c r="E63" t="s">
+        <v>258</v>
+      </c>
+      <c r="F63" s="24">
+        <v>2</v>
+      </c>
+      <c r="G63" s="2">
+        <f>IFERROR(VLOOKUP(E63,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>44288</v>
+      </c>
+      <c r="H63" s="22">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>243</v>
+      </c>
+      <c r="B64" t="s">
+        <v>354</v>
+      </c>
+      <c r="C64" t="s">
+        <v>99</v>
+      </c>
+      <c r="D64" t="s">
+        <v>95</v>
+      </c>
+      <c r="E64" t="s">
+        <v>259</v>
+      </c>
+      <c r="F64" s="24">
+        <v>3</v>
+      </c>
+      <c r="G64" s="2">
+        <f>IFERROR(VLOOKUP(E64,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>44288</v>
+      </c>
+      <c r="H64" s="22">
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>243</v>
+      </c>
+      <c r="B65" t="s">
+        <v>355</v>
+      </c>
+      <c r="C65" t="s">
+        <v>102</v>
+      </c>
+      <c r="D65" t="s">
+        <v>95</v>
+      </c>
+      <c r="E65" t="s">
+        <v>260</v>
+      </c>
+      <c r="F65" s="24">
+        <v>4</v>
+      </c>
+      <c r="G65" s="2">
+        <f>IFERROR(VLOOKUP(E65,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>44288</v>
+      </c>
+      <c r="H65" s="22">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>243</v>
+      </c>
+      <c r="B66" t="s">
+        <v>356</v>
+      </c>
+      <c r="C66" t="s">
+        <v>104</v>
+      </c>
+      <c r="D66" t="s">
+        <v>95</v>
+      </c>
+      <c r="E66" t="s">
+        <v>261</v>
+      </c>
+      <c r="F66" s="24">
+        <v>5</v>
+      </c>
+      <c r="G66" s="2">
+        <f>IFERROR(VLOOKUP(E66,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>44288</v>
+      </c>
+      <c r="H66" s="22">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>243</v>
+      </c>
+      <c r="B67" t="s">
+        <v>358</v>
+      </c>
+      <c r="C67" t="s">
+        <v>108</v>
+      </c>
+      <c r="D67" t="s">
+        <v>96</v>
+      </c>
+      <c r="E67" t="s">
+        <v>253</v>
+      </c>
+      <c r="F67" s="24">
+        <v>1</v>
+      </c>
+      <c r="G67" s="2">
+        <f>IFERROR(VLOOKUP(E67,BacklogUSStatus!B:E,4,0),"Sem Dados")</f>
+        <v>44215</v>
+      </c>
+      <c r="H67" s="22">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G67" xr:uid="{EDC3EF37-2BA8-4EC6-92A1-22C0C9AA6791}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D67" xr:uid="{A0E105BA-CF51-4401-B710-6BE9E69B1788}">
+      <formula1>$M$2:$M$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC3EF37-2BA8-4EC6-92A1-22C0C9AA6791}">
-  <dimension ref="A1:M67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E62CEF3-4F99-4CE5-B31F-511FA523F4D9}">
+  <dimension ref="A1:M100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.53515625" customWidth="1"/>
-    <col min="3" max="3" width="15.84375" customWidth="1"/>
-    <col min="4" max="4" width="11.07421875" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" t="s">
         <v>94</v>
       </c>
-      <c r="C2" t="s">
-        <v>64</v>
-      </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="E2" s="2">
+        <v>44215</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
       </c>
       <c r="M2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" t="s">
         <v>97</v>
       </c>
-      <c r="C3" t="s">
-        <v>69</v>
-      </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="E3" s="2">
+        <v>44215</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
       </c>
       <c r="M3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C4" t="s">
         <v>98</v>
       </c>
-      <c r="C4" t="s">
-        <v>99</v>
-      </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="E4" s="2">
+        <v>44215</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
       </c>
       <c r="M4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C5" t="s">
         <v>101</v>
       </c>
-      <c r="C5" t="s">
-        <v>102</v>
-      </c>
       <c r="D5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="2">
+        <v>44215</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" t="s">
         <v>103</v>
       </c>
-      <c r="C6" t="s">
-        <v>104</v>
-      </c>
       <c r="D6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="2">
+        <v>44215</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C7" t="s">
         <v>105</v>
       </c>
-      <c r="C7" t="s">
-        <v>106</v>
-      </c>
       <c r="D7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44215</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8" t="s">
         <v>107</v>
-      </c>
-      <c r="C8" t="s">
-        <v>108</v>
       </c>
       <c r="D8" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+      <c r="E8" s="2">
+        <v>44215</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C9" t="s">
         <v>109</v>
       </c>
-      <c r="C9" t="s">
-        <v>110</v>
-      </c>
       <c r="D9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="2">
+        <v>44215</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C10" t="s">
         <v>111</v>
       </c>
-      <c r="C10" t="s">
-        <v>112</v>
-      </c>
       <c r="D10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="2">
+        <v>44215</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B11" t="s">
+        <v>256</v>
+      </c>
+      <c r="C11" t="s">
         <v>113</v>
       </c>
-      <c r="C11" t="s">
-        <v>114</v>
-      </c>
       <c r="D11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="2">
+        <v>44215</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="2">
+        <v>44288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>258</v>
+      </c>
+      <c r="C13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="2">
+        <v>44288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" t="s">
+        <v>259</v>
+      </c>
+      <c r="C14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="2">
+        <v>44288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>260</v>
+      </c>
+      <c r="C15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="2">
+        <v>44288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" t="s">
+        <v>261</v>
+      </c>
+      <c r="C16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="2">
+        <v>44288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" t="s">
+        <v>252</v>
+      </c>
+      <c r="C17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="2">
+        <v>44288</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>262</v>
+      </c>
+      <c r="C18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="E18" s="2">
+        <v>44288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>254</v>
+      </c>
+      <c r="C19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="2">
+        <v>44288</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="2">
+        <v>44288</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" t="s">
+        <v>256</v>
+      </c>
+      <c r="C21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="2">
+        <v>44288</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>263</v>
+      </c>
+      <c r="C22" t="s">
         <v>115</v>
       </c>
-      <c r="C12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="D22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="2">
+        <v>44288</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" t="s">
+        <v>264</v>
+      </c>
+      <c r="C23" t="s">
         <v>117</v>
       </c>
-      <c r="C13" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="D23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="2">
+        <v>44288</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" t="s">
+        <v>265</v>
+      </c>
+      <c r="C24" t="s">
         <v>119</v>
       </c>
-      <c r="C14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="D24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="2">
+        <v>44288</v>
+      </c>
+      <c r="F24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" t="s">
+        <v>266</v>
+      </c>
+      <c r="C25" t="s">
         <v>121</v>
       </c>
-      <c r="C15" t="s">
-        <v>122</v>
-      </c>
-      <c r="D15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="D25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="2">
+        <v>44288</v>
+      </c>
+      <c r="F25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" t="s">
+        <v>267</v>
+      </c>
+      <c r="C26" t="s">
         <v>123</v>
       </c>
-      <c r="C16" t="s">
-        <v>124</v>
-      </c>
-      <c r="D16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="D26" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="2">
+        <v>44288</v>
+      </c>
+      <c r="F26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" t="s">
+        <v>268</v>
+      </c>
+      <c r="C27" t="s">
         <v>125</v>
       </c>
-      <c r="C17" t="s">
-        <v>126</v>
-      </c>
-      <c r="D17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="D27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="2">
+        <v>44288</v>
+      </c>
+      <c r="F27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" t="s">
+        <v>269</v>
+      </c>
+      <c r="C28" t="s">
         <v>127</v>
       </c>
-      <c r="C18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="D28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="2">
+        <v>44288</v>
+      </c>
+      <c r="F28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" t="s">
+        <v>270</v>
+      </c>
+      <c r="C29" t="s">
         <v>129</v>
       </c>
-      <c r="C19" t="s">
-        <v>130</v>
-      </c>
-      <c r="D19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="D29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="2">
+        <v>44288</v>
+      </c>
+      <c r="F29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" t="s">
+        <v>271</v>
+      </c>
+      <c r="C30" t="s">
         <v>131</v>
       </c>
-      <c r="C20" t="s">
-        <v>132</v>
-      </c>
-      <c r="D20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="D30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="2">
+        <v>44288</v>
+      </c>
+      <c r="F30">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>272</v>
+      </c>
+      <c r="C31" t="s">
         <v>133</v>
       </c>
-      <c r="C21" t="s">
-        <v>134</v>
-      </c>
-      <c r="D21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" t="s">
-        <v>136</v>
-      </c>
-      <c r="D22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" t="s">
-        <v>137</v>
-      </c>
-      <c r="C23" t="s">
-        <v>138</v>
-      </c>
-      <c r="D23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" t="s">
-        <v>139</v>
-      </c>
-      <c r="C24" t="s">
-        <v>140</v>
-      </c>
-      <c r="D24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" t="s">
-        <v>141</v>
-      </c>
-      <c r="C25" t="s">
-        <v>142</v>
-      </c>
-      <c r="D25" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" t="s">
-        <v>143</v>
-      </c>
-      <c r="C26" t="s">
-        <v>144</v>
-      </c>
-      <c r="D26" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" t="s">
-        <v>145</v>
-      </c>
-      <c r="C27" t="s">
-        <v>146</v>
-      </c>
-      <c r="D27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" t="s">
-        <v>147</v>
-      </c>
-      <c r="C28" t="s">
-        <v>148</v>
-      </c>
-      <c r="D28" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" t="s">
-        <v>149</v>
-      </c>
-      <c r="C29" t="s">
-        <v>150</v>
-      </c>
-      <c r="D29" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" t="s">
-        <v>151</v>
-      </c>
-      <c r="C30" t="s">
-        <v>152</v>
-      </c>
-      <c r="D30" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" t="s">
-        <v>153</v>
-      </c>
-      <c r="C31" t="s">
-        <v>154</v>
-      </c>
       <c r="D31" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>85</v>
+        <v>96</v>
+      </c>
+      <c r="E31" s="2">
+        <v>44288</v>
+      </c>
+      <c r="F31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>155</v>
+        <v>273</v>
       </c>
       <c r="C32" t="s">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="D32" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>85</v>
+      <c r="E32" s="2">
+        <v>44309</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>157</v>
+        <v>274</v>
       </c>
       <c r="C33" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="D33" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>85</v>
+      <c r="E33" s="2">
+        <v>44309</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>159</v>
+        <v>275</v>
       </c>
       <c r="C34" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="D34" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>85</v>
+      <c r="E34" s="2">
+        <v>44309</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B35" t="s">
-        <v>161</v>
+        <v>276</v>
       </c>
       <c r="C35" t="s">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="D35" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>85</v>
+      <c r="E35" s="2">
+        <v>44309</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B36" t="s">
-        <v>163</v>
+        <v>277</v>
       </c>
       <c r="C36" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="D36" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>85</v>
+      <c r="E36" s="2">
+        <v>44309</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B37" t="s">
-        <v>165</v>
+        <v>278</v>
       </c>
       <c r="C37" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
       <c r="D37" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
-        <v>85</v>
+      <c r="E37" s="2">
+        <v>44309</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B38" t="s">
-        <v>167</v>
+        <v>256</v>
       </c>
       <c r="C38" t="s">
-        <v>168</v>
+        <v>113</v>
       </c>
       <c r="D38" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
-        <v>85</v>
+        <v>96</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44309</v>
+      </c>
+      <c r="F38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B39" t="s">
-        <v>169</v>
+        <v>266</v>
       </c>
       <c r="C39" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="D39" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
-        <v>85</v>
+        <v>96</v>
+      </c>
+      <c r="E39" s="2">
+        <v>44309</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B40" t="s">
-        <v>171</v>
+        <v>267</v>
       </c>
       <c r="C40" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="D40" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
-        <v>85</v>
+        <v>96</v>
+      </c>
+      <c r="E40" s="2">
+        <v>44309</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B41" t="s">
-        <v>173</v>
+        <v>268</v>
       </c>
       <c r="C41" t="s">
-        <v>174</v>
+        <v>125</v>
       </c>
       <c r="D41" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
-        <v>85</v>
+      <c r="E41" s="2">
+        <v>44309</v>
+      </c>
+      <c r="F41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B42" t="s">
-        <v>175</v>
+        <v>269</v>
       </c>
       <c r="C42" t="s">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="D42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
-        <v>85</v>
+        <v>96</v>
+      </c>
+      <c r="E42" s="2">
+        <v>44309</v>
+      </c>
+      <c r="F42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B43" t="s">
-        <v>177</v>
+        <v>270</v>
       </c>
       <c r="C43" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="D43" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
-        <v>85</v>
+        <v>96</v>
+      </c>
+      <c r="E43" s="2">
+        <v>44309</v>
+      </c>
+      <c r="F43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>179</v>
+        <v>271</v>
       </c>
       <c r="C44" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="D44" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
-        <v>85</v>
+        <v>96</v>
+      </c>
+      <c r="E44" s="2">
+        <v>44309</v>
+      </c>
+      <c r="F44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B45" t="s">
-        <v>181</v>
+        <v>272</v>
       </c>
       <c r="C45" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="D45" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
-        <v>85</v>
+        <v>96</v>
+      </c>
+      <c r="E45" s="2">
+        <v>44309</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B46" t="s">
-        <v>183</v>
+        <v>279</v>
       </c>
       <c r="C46" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="D46" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
-        <v>85</v>
+        <v>96</v>
+      </c>
+      <c r="E46" s="2">
+        <v>44309</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B47" t="s">
-        <v>185</v>
+        <v>280</v>
       </c>
       <c r="C47" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="D47" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
-        <v>85</v>
+        <v>96</v>
+      </c>
+      <c r="E47" s="2">
+        <v>44309</v>
+      </c>
+      <c r="F47">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B48" t="s">
-        <v>187</v>
+        <v>281</v>
       </c>
       <c r="C48" t="s">
-        <v>188</v>
+        <v>139</v>
       </c>
       <c r="D48" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
-        <v>85</v>
+        <v>96</v>
+      </c>
+      <c r="E48" s="2">
+        <v>44309</v>
+      </c>
+      <c r="F48">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B49" t="s">
-        <v>189</v>
+        <v>282</v>
       </c>
       <c r="C49" t="s">
-        <v>190</v>
+        <v>141</v>
       </c>
       <c r="D49" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
-        <v>85</v>
+        <v>96</v>
+      </c>
+      <c r="E49" s="2">
+        <v>44309</v>
+      </c>
+      <c r="F49">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>191</v>
+        <v>283</v>
       </c>
       <c r="C50" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="D50" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
-        <v>85</v>
+        <v>96</v>
+      </c>
+      <c r="E50" s="2">
+        <v>44309</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>193</v>
+        <v>284</v>
       </c>
       <c r="C51" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="D51" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
-        <v>85</v>
+        <v>96</v>
+      </c>
+      <c r="E51" s="2">
+        <v>44309</v>
+      </c>
+      <c r="F51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>195</v>
+        <v>285</v>
       </c>
       <c r="C52" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="D52" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
-        <v>85</v>
+        <v>96</v>
+      </c>
+      <c r="E52" s="2">
+        <v>44309</v>
+      </c>
+      <c r="F52">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B53" t="s">
-        <v>197</v>
+        <v>286</v>
       </c>
       <c r="C53" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="D53" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
-        <v>85</v>
+        <v>96</v>
+      </c>
+      <c r="E53" s="2">
+        <v>44309</v>
+      </c>
+      <c r="F53">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B54" t="s">
-        <v>199</v>
+        <v>287</v>
       </c>
       <c r="C54" t="s">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="D54" t="s">
+        <v>96</v>
+      </c>
+      <c r="E54" s="2">
+        <v>44309</v>
+      </c>
+      <c r="F54">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" t="s">
+        <v>288</v>
+      </c>
+      <c r="C55" t="s">
+        <v>153</v>
+      </c>
+      <c r="D55" t="s">
+        <v>96</v>
+      </c>
+      <c r="E55" s="2">
+        <v>44309</v>
+      </c>
+      <c r="F55">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" t="s">
+        <v>289</v>
+      </c>
+      <c r="C56" t="s">
+        <v>121</v>
+      </c>
+      <c r="D56" t="s">
+        <v>95</v>
+      </c>
+      <c r="E56" s="2">
+        <v>44323</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" t="s">
+        <v>290</v>
+      </c>
+      <c r="C57" t="s">
+        <v>123</v>
+      </c>
+      <c r="D57" t="s">
+        <v>95</v>
+      </c>
+      <c r="E57" s="2">
+        <v>44323</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" t="s">
+        <v>291</v>
+      </c>
+      <c r="C58" t="s">
+        <v>133</v>
+      </c>
+      <c r="D58" t="s">
+        <v>95</v>
+      </c>
+      <c r="E58" s="2">
+        <v>44323</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" t="s">
+        <v>292</v>
+      </c>
+      <c r="C59" t="s">
+        <v>135</v>
+      </c>
+      <c r="D59" t="s">
+        <v>95</v>
+      </c>
+      <c r="E59" s="2">
+        <v>44323</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" t="s">
+        <v>293</v>
+      </c>
+      <c r="C60" t="s">
+        <v>143</v>
+      </c>
+      <c r="D60" t="s">
+        <v>95</v>
+      </c>
+      <c r="E60" s="2">
+        <v>44323</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>294</v>
+      </c>
+      <c r="C61" t="s">
+        <v>113</v>
+      </c>
+      <c r="D61" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
-        <v>85</v>
-      </c>
-      <c r="B55" t="s">
-        <v>201</v>
-      </c>
-      <c r="C55" t="s">
-        <v>202</v>
-      </c>
-      <c r="D55" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
-        <v>85</v>
-      </c>
-      <c r="B56" t="s">
-        <v>203</v>
-      </c>
-      <c r="C56" t="s">
-        <v>204</v>
-      </c>
-      <c r="D56" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
-        <v>85</v>
-      </c>
-      <c r="B57" t="s">
-        <v>205</v>
-      </c>
-      <c r="C57" t="s">
-        <v>206</v>
-      </c>
-      <c r="D57" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
-        <v>85</v>
-      </c>
-      <c r="B58" t="s">
-        <v>207</v>
-      </c>
-      <c r="C58" t="s">
-        <v>208</v>
-      </c>
-      <c r="D58" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
-        <v>85</v>
-      </c>
-      <c r="B59" t="s">
-        <v>209</v>
-      </c>
-      <c r="C59" t="s">
-        <v>210</v>
-      </c>
-      <c r="D59" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A60" t="s">
-        <v>85</v>
-      </c>
-      <c r="B60" t="s">
-        <v>211</v>
-      </c>
-      <c r="C60" t="s">
-        <v>212</v>
-      </c>
-      <c r="D60" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A61" t="s">
-        <v>85</v>
-      </c>
-      <c r="B61" t="s">
-        <v>213</v>
-      </c>
-      <c r="C61" t="s">
-        <v>214</v>
-      </c>
-      <c r="D61" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E61" s="2">
+        <v>44323</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>215</v>
+        <v>268</v>
       </c>
       <c r="C62" t="s">
-        <v>216</v>
+        <v>125</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+        <v>96</v>
+      </c>
+      <c r="E62" s="2">
+        <v>44323</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>217</v>
+        <v>269</v>
       </c>
       <c r="C63" t="s">
-        <v>218</v>
+        <v>127</v>
       </c>
       <c r="D63" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+        <v>96</v>
+      </c>
+      <c r="E63" s="2">
+        <v>44323</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>219</v>
+        <v>270</v>
       </c>
       <c r="C64" t="s">
-        <v>220</v>
+        <v>129</v>
       </c>
       <c r="D64" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+        <v>96</v>
+      </c>
+      <c r="E64" s="2">
+        <v>44323</v>
+      </c>
+      <c r="F64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>221</v>
+        <v>271</v>
       </c>
       <c r="C65" t="s">
-        <v>222</v>
+        <v>131</v>
       </c>
       <c r="D65" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+        <v>96</v>
+      </c>
+      <c r="E65" s="2">
+        <v>44323</v>
+      </c>
+      <c r="F65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>223</v>
+        <v>280</v>
       </c>
       <c r="C66" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="D66" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+        <v>96</v>
+      </c>
+      <c r="E66" s="2">
+        <v>44323</v>
+      </c>
+      <c r="F66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>225</v>
+        <v>281</v>
       </c>
       <c r="C67" t="s">
-        <v>226</v>
+        <v>139</v>
       </c>
       <c r="D67" t="s">
         <v>96</v>
       </c>
+      <c r="E67" s="2">
+        <v>44323</v>
+      </c>
+      <c r="F67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>63</v>
+      </c>
+      <c r="B68" t="s">
+        <v>282</v>
+      </c>
+      <c r="C68" t="s">
+        <v>141</v>
+      </c>
+      <c r="D68" t="s">
+        <v>96</v>
+      </c>
+      <c r="E68" s="2">
+        <v>44323</v>
+      </c>
+      <c r="F68">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>63</v>
+      </c>
+      <c r="B69" t="s">
+        <v>285</v>
+      </c>
+      <c r="C69" t="s">
+        <v>147</v>
+      </c>
+      <c r="D69" t="s">
+        <v>96</v>
+      </c>
+      <c r="E69" s="2">
+        <v>44323</v>
+      </c>
+      <c r="F69">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>63</v>
+      </c>
+      <c r="B70" t="s">
+        <v>284</v>
+      </c>
+      <c r="C70" t="s">
+        <v>145</v>
+      </c>
+      <c r="D70" t="s">
+        <v>96</v>
+      </c>
+      <c r="E70" s="2">
+        <v>44323</v>
+      </c>
+      <c r="F70">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>63</v>
+      </c>
+      <c r="B71" t="s">
+        <v>286</v>
+      </c>
+      <c r="C71" t="s">
+        <v>149</v>
+      </c>
+      <c r="D71" t="s">
+        <v>96</v>
+      </c>
+      <c r="E71" s="2">
+        <v>44323</v>
+      </c>
+      <c r="F71">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>63</v>
+      </c>
+      <c r="B72" t="s">
+        <v>287</v>
+      </c>
+      <c r="C72" t="s">
+        <v>151</v>
+      </c>
+      <c r="D72" t="s">
+        <v>96</v>
+      </c>
+      <c r="E72" s="2">
+        <v>44323</v>
+      </c>
+      <c r="F72">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>63</v>
+      </c>
+      <c r="B73" t="s">
+        <v>288</v>
+      </c>
+      <c r="C73" t="s">
+        <v>153</v>
+      </c>
+      <c r="D73" t="s">
+        <v>96</v>
+      </c>
+      <c r="E73" s="2">
+        <v>44323</v>
+      </c>
+      <c r="F73">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B74" t="s">
+        <v>295</v>
+      </c>
+      <c r="C74" t="s">
+        <v>125</v>
+      </c>
+      <c r="D74" t="s">
+        <v>95</v>
+      </c>
+      <c r="E74" s="2">
+        <v>44337</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B75" t="s">
+        <v>296</v>
+      </c>
+      <c r="C75" t="s">
+        <v>127</v>
+      </c>
+      <c r="D75" t="s">
+        <v>95</v>
+      </c>
+      <c r="E75" s="2">
+        <v>44337</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B76" t="s">
+        <v>297</v>
+      </c>
+      <c r="C76" t="s">
+        <v>129</v>
+      </c>
+      <c r="D76" t="s">
+        <v>95</v>
+      </c>
+      <c r="E76" s="2">
+        <v>44337</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B77" t="s">
+        <v>298</v>
+      </c>
+      <c r="C77" t="s">
+        <v>131</v>
+      </c>
+      <c r="D77" t="s">
+        <v>95</v>
+      </c>
+      <c r="E77" s="2">
+        <v>44337</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B78" t="s">
+        <v>280</v>
+      </c>
+      <c r="C78" t="s">
+        <v>137</v>
+      </c>
+      <c r="D78" t="s">
+        <v>96</v>
+      </c>
+      <c r="E78" s="2">
+        <v>44337</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B79" t="s">
+        <v>281</v>
+      </c>
+      <c r="C79" t="s">
+        <v>139</v>
+      </c>
+      <c r="D79" t="s">
+        <v>96</v>
+      </c>
+      <c r="E79" s="2">
+        <v>44337</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B80" t="s">
+        <v>282</v>
+      </c>
+      <c r="C80" t="s">
+        <v>141</v>
+      </c>
+      <c r="D80" t="s">
+        <v>96</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44337</v>
+      </c>
+      <c r="F80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B81" t="s">
+        <v>284</v>
+      </c>
+      <c r="C81" t="s">
+        <v>145</v>
+      </c>
+      <c r="D81" t="s">
+        <v>96</v>
+      </c>
+      <c r="E81" s="2">
+        <v>44337</v>
+      </c>
+      <c r="F81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B82" t="s">
+        <v>285</v>
+      </c>
+      <c r="C82" t="s">
+        <v>147</v>
+      </c>
+      <c r="D82" t="s">
+        <v>96</v>
+      </c>
+      <c r="E82" s="2">
+        <v>44337</v>
+      </c>
+      <c r="F82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B83" t="s">
+        <v>286</v>
+      </c>
+      <c r="C83" t="s">
+        <v>149</v>
+      </c>
+      <c r="D83" t="s">
+        <v>96</v>
+      </c>
+      <c r="E83" s="2">
+        <v>44337</v>
+      </c>
+      <c r="F83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B84" t="s">
+        <v>287</v>
+      </c>
+      <c r="C84" t="s">
+        <v>151</v>
+      </c>
+      <c r="D84" t="s">
+        <v>96</v>
+      </c>
+      <c r="E84" s="2">
+        <v>44337</v>
+      </c>
+      <c r="F84">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B85" t="s">
+        <v>288</v>
+      </c>
+      <c r="C85" t="s">
+        <v>153</v>
+      </c>
+      <c r="D85" t="s">
+        <v>96</v>
+      </c>
+      <c r="E85" s="2">
+        <v>44337</v>
+      </c>
+      <c r="F85">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>63</v>
+      </c>
+      <c r="B86" t="s">
+        <v>299</v>
+      </c>
+      <c r="C86" t="s">
+        <v>137</v>
+      </c>
+      <c r="D86" t="s">
+        <v>95</v>
+      </c>
+      <c r="E86" s="2">
+        <v>44351</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>63</v>
+      </c>
+      <c r="B87" t="s">
+        <v>300</v>
+      </c>
+      <c r="C87" t="s">
+        <v>139</v>
+      </c>
+      <c r="D87" t="s">
+        <v>95</v>
+      </c>
+      <c r="E87" s="2">
+        <v>44351</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>63</v>
+      </c>
+      <c r="B88" t="s">
+        <v>301</v>
+      </c>
+      <c r="C88" t="s">
+        <v>141</v>
+      </c>
+      <c r="D88" t="s">
+        <v>95</v>
+      </c>
+      <c r="E88" s="2">
+        <v>44351</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>63</v>
+      </c>
+      <c r="B89" t="s">
+        <v>302</v>
+      </c>
+      <c r="C89" t="s">
+        <v>145</v>
+      </c>
+      <c r="D89" t="s">
+        <v>95</v>
+      </c>
+      <c r="E89" s="2">
+        <v>44351</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>63</v>
+      </c>
+      <c r="B90" t="s">
+        <v>288</v>
+      </c>
+      <c r="C90" t="s">
+        <v>153</v>
+      </c>
+      <c r="D90" t="s">
+        <v>96</v>
+      </c>
+      <c r="E90" s="2">
+        <v>44351</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>63</v>
+      </c>
+      <c r="B91" t="s">
+        <v>287</v>
+      </c>
+      <c r="C91" t="s">
+        <v>151</v>
+      </c>
+      <c r="D91" t="s">
+        <v>96</v>
+      </c>
+      <c r="E91" s="2">
+        <v>44351</v>
+      </c>
+      <c r="F91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>63</v>
+      </c>
+      <c r="B92" t="s">
+        <v>286</v>
+      </c>
+      <c r="C92" t="s">
+        <v>149</v>
+      </c>
+      <c r="D92" t="s">
+        <v>96</v>
+      </c>
+      <c r="E92" s="2">
+        <v>44351</v>
+      </c>
+      <c r="F92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>63</v>
+      </c>
+      <c r="B93" t="s">
+        <v>285</v>
+      </c>
+      <c r="C93" t="s">
+        <v>147</v>
+      </c>
+      <c r="D93" t="s">
+        <v>96</v>
+      </c>
+      <c r="E93" s="2">
+        <v>44351</v>
+      </c>
+      <c r="F93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B94" t="s">
+        <v>303</v>
+      </c>
+      <c r="C94" t="s">
+        <v>147</v>
+      </c>
+      <c r="D94" t="s">
+        <v>95</v>
+      </c>
+      <c r="E94" s="2">
+        <v>44365</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B95" t="s">
+        <v>286</v>
+      </c>
+      <c r="C95" t="s">
+        <v>149</v>
+      </c>
+      <c r="D95" t="s">
+        <v>96</v>
+      </c>
+      <c r="E95" s="2">
+        <v>44365</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B96" t="s">
+        <v>287</v>
+      </c>
+      <c r="C96" t="s">
+        <v>151</v>
+      </c>
+      <c r="D96" t="s">
+        <v>96</v>
+      </c>
+      <c r="E96" s="2">
+        <v>44365</v>
+      </c>
+      <c r="F96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B97" t="s">
+        <v>288</v>
+      </c>
+      <c r="C97" t="s">
+        <v>153</v>
+      </c>
+      <c r="D97" t="s">
+        <v>96</v>
+      </c>
+      <c r="E97" s="2">
+        <v>44365</v>
+      </c>
+      <c r="F97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>63</v>
+      </c>
+      <c r="B98" t="s">
+        <v>304</v>
+      </c>
+      <c r="C98" t="s">
+        <v>149</v>
+      </c>
+      <c r="D98" t="s">
+        <v>95</v>
+      </c>
+      <c r="E98" s="2">
+        <v>44407</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>63</v>
+      </c>
+      <c r="B99" t="s">
+        <v>305</v>
+      </c>
+      <c r="C99" t="s">
+        <v>151</v>
+      </c>
+      <c r="D99" t="s">
+        <v>95</v>
+      </c>
+      <c r="E99" s="2">
+        <v>44407</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>63</v>
+      </c>
+      <c r="B100" t="s">
+        <v>306</v>
+      </c>
+      <c r="C100" t="s">
+        <v>153</v>
+      </c>
+      <c r="D100" t="s">
+        <v>95</v>
+      </c>
+      <c r="E100" s="2">
+        <v>44407</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C94:C97">
+    <sortCondition ref="C94:C97"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D67" xr:uid="{A0E105BA-CF51-4401-B710-6BE9E69B1788}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J22:J31 D2:D100" xr:uid="{1BB72D78-EA1A-461C-AE25-0582C36D7E86}">
       <formula1>$M$2:$M$4</formula1>
     </dataValidation>
   </dataValidations>
@@ -6832,6 +8260,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -6840,7 +8274,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005836243B3C47804EAF5FFDD9F066FCC7" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b40f5c691649a4a05e2eddbeb14bcbeb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6aca1daf-af28-46f8-bd7f-7c486cf57d75" xmlns:ns3="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1826bf959a736503351b94de29104941" ns2:_="" ns3:_="">
     <xsd:import namespace="6aca1daf-af28-46f8-bd7f-7c486cf57d75"/>
@@ -7043,13 +8477,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EAF4CE-5C55-41AC-946B-5BEC082284DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{552A2396-49F4-45F5-9D44-9C3125763CF2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -7057,7 +8494,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6920F70-FC70-4BF2-86B7-0FEAC01D1483}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7074,13 +8511,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EAF4CE-5C55-41AC-946B-5BEC082284DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\switch\projectg2\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2D2073-4816-48D4-A3FF-84954103B0CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028D1B2C-72FB-40A1-B769-FBE56F369CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1097" yWindow="1097" windowWidth="22114" windowHeight="8520" firstSheet="8" activeTab="10" xr2:uid="{17341BA7-7E24-41D8-A92D-79256BC3D291}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{17341BA7-7E24-41D8-A92D-79256BC3D291}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="301">
   <si>
     <t>id</t>
   </si>
@@ -235,9 +235,6 @@
     <t>budget</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
     <t>Dummy 01</t>
   </si>
   <si>
@@ -313,96 +310,51 @@
     <t>us_status</t>
   </si>
   <si>
-    <t>US01</t>
-  </si>
-  <si>
     <t>Finished</t>
   </si>
   <si>
     <t>Open</t>
   </si>
   <si>
-    <t>US02</t>
-  </si>
-  <si>
-    <t>US03</t>
-  </si>
-  <si>
     <t>Dummy 03</t>
   </si>
   <si>
     <t>Cancelled</t>
   </si>
   <si>
-    <t>US04</t>
-  </si>
-  <si>
     <t>Dummy 04</t>
   </si>
   <si>
-    <t>US05</t>
-  </si>
-  <si>
     <t>Dummy 05</t>
   </si>
   <si>
-    <t>US06</t>
-  </si>
-  <si>
     <t>Dummy 06</t>
   </si>
   <si>
-    <t>US07</t>
-  </si>
-  <si>
     <t>Dummy 07</t>
   </si>
   <si>
-    <t>US08</t>
-  </si>
-  <si>
     <t>Dummy 08</t>
   </si>
   <si>
-    <t>US09</t>
-  </si>
-  <si>
     <t>Dummy 09</t>
   </si>
   <si>
-    <t>US10</t>
-  </si>
-  <si>
     <t>Dummy 10</t>
   </si>
   <si>
-    <t>US11</t>
-  </si>
-  <si>
     <t>Dummy 11</t>
   </si>
   <si>
-    <t>US12</t>
-  </si>
-  <si>
     <t>Dummy 12</t>
   </si>
   <si>
-    <t>US13</t>
-  </si>
-  <si>
     <t>Dummy 13</t>
   </si>
   <si>
-    <t>US14</t>
-  </si>
-  <si>
     <t>Dummy 14</t>
   </si>
   <si>
-    <t>US15</t>
-  </si>
-  <si>
     <t>Dummy 15</t>
   </si>
   <si>
@@ -430,15 +382,9 @@
     <t>Dummy 19</t>
   </si>
   <si>
-    <t>US20</t>
-  </si>
-  <si>
     <t>Dummy 20</t>
   </si>
   <si>
-    <t>US21</t>
-  </si>
-  <si>
     <t>Dummy 21</t>
   </si>
   <si>
@@ -460,9 +406,6 @@
     <t>Dummy 24</t>
   </si>
   <si>
-    <t>US25</t>
-  </si>
-  <si>
     <t>Dummy 25</t>
   </si>
   <si>
@@ -1004,6 +947,9 @@
   </si>
   <si>
     <t>sprint_name</t>
+  </si>
+  <si>
+    <t>TimeEstimate</t>
   </si>
 </sst>
 </file>
@@ -1104,7 +1050,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1127,6 +1073,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
@@ -1591,28 +1539,28 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.4609375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.3046875" customWidth="1"/>
-    <col min="3" max="3" width="15.84375" customWidth="1"/>
-    <col min="5" max="5" width="19.765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.69140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.84375" style="4"/>
-    <col min="9" max="9" width="24.84375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.4609375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.69140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.69140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.84375" style="4"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="4"/>
+    <col min="9" max="9" width="24.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="4"/>
     <col min="14" max="14" width="10" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1624,10 +1572,10 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>10</v>
@@ -1654,21 +1602,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10" t="s">
@@ -1696,21 +1644,21 @@
         <v>263650670</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10" t="s">
@@ -1738,21 +1686,21 @@
         <v>263650520</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10" t="s">
@@ -1780,21 +1728,21 @@
         <v>263650532</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10" t="s">
@@ -1822,7 +1770,7 @@
         <v>263650345</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>25</v>
       </c>
@@ -1833,10 +1781,10 @@
         <v>12</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10" t="s">
@@ -1864,21 +1812,21 @@
         <v>263650127</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10" t="s">
@@ -1906,7 +1854,7 @@
         <v>212349016</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>31</v>
       </c>
@@ -1917,10 +1865,10 @@
         <v>33</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10" t="s">
@@ -1930,21 +1878,21 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10" t="s">
@@ -1954,7 +1902,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>35</v>
       </c>
@@ -1965,10 +1913,10 @@
         <v>33</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10" t="s">
@@ -1978,7 +1926,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>37</v>
       </c>
@@ -1989,10 +1937,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10" t="s">
@@ -2002,21 +1950,21 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10" t="s">
@@ -2026,21 +1974,21 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10" t="s">
@@ -2050,21 +1998,21 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10" t="s">
@@ -2074,21 +2022,21 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10" t="s">
@@ -2124,44 +2072,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E62CEF3-4F99-4CE5-B31F-511FA523F4D9}">
   <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="10.53515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" t="s">
         <v>88</v>
-      </c>
-      <c r="C2" t="s">
-        <v>90</v>
       </c>
       <c r="D2" s="2">
         <v>44215</v>
@@ -2170,18 +2120,18 @@
         <v>3</v>
       </c>
       <c r="M2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>234</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3" s="2">
         <v>44215</v>
@@ -2190,18 +2140,18 @@
         <v>2</v>
       </c>
       <c r="M3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>235</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4" s="2">
         <v>44215</v>
@@ -2210,18 +2160,18 @@
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>236</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5" s="2">
         <v>44215</v>
@@ -2230,15 +2180,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>237</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6" s="2">
         <v>44215</v>
@@ -2247,15 +2197,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>238</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D7" s="2">
         <v>44215</v>
@@ -2264,15 +2214,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>239</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D8" s="2">
         <v>44215</v>
@@ -2281,15 +2231,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>240</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D9" s="2">
         <v>44215</v>
@@ -2298,15 +2248,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>241</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D10" s="2">
         <v>44215</v>
@@ -2315,15 +2265,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>242</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D11" s="2">
         <v>44215</v>
@@ -2332,85 +2282,85 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>233</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D12" s="2">
         <v>44288</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>234</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D13" s="2">
         <v>44288</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>235</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D14" s="2">
         <v>44288</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>236</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D15" s="2">
         <v>44288</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>237</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D16" s="2">
         <v>44288</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>238</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D17" s="2">
         <v>44288</v>
@@ -2419,29 +2369,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>239</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D18" s="2">
         <v>44288</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>240</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D19" s="2">
         <v>44288</v>
@@ -2450,15 +2400,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>241</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D20" s="2">
         <v>44288</v>
@@ -2467,15 +2417,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>242</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D21" s="2">
         <v>44288</v>
@@ -2484,15 +2434,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>243</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D22" s="2">
         <v>44288</v>
@@ -2501,15 +2451,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B23" t="s">
-        <v>111</v>
+        <v>244</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D23" s="2">
         <v>44288</v>
@@ -2518,15 +2468,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B24" t="s">
-        <v>113</v>
+        <v>245</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D24" s="2">
         <v>44288</v>
@@ -2535,15 +2485,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B25" t="s">
-        <v>115</v>
+        <v>246</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D25" s="2">
         <v>44288</v>
@@ -2552,15 +2502,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B26" t="s">
-        <v>117</v>
+        <v>247</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D26" s="2">
         <v>44288</v>
@@ -2569,15 +2519,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B27" t="s">
-        <v>119</v>
+        <v>248</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D27" s="2">
         <v>44288</v>
@@ -2586,15 +2536,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B28" t="s">
-        <v>121</v>
+        <v>249</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D28" s="2">
         <v>44288</v>
@@ -2603,15 +2553,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B29" t="s">
-        <v>123</v>
+        <v>250</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D29" s="2">
         <v>44288</v>
@@ -2620,15 +2570,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B30" t="s">
-        <v>125</v>
+        <v>251</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D30" s="2">
         <v>44288</v>
@@ -2637,15 +2587,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B31" t="s">
-        <v>127</v>
+        <v>252</v>
       </c>
       <c r="C31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D31" s="2">
         <v>44288</v>
@@ -2654,99 +2604,99 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>238</v>
       </c>
       <c r="C32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D32" s="2">
         <v>44309</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B33" t="s">
-        <v>103</v>
+        <v>240</v>
       </c>
       <c r="C33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D33" s="2">
         <v>44309</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>241</v>
       </c>
       <c r="C34" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D34" s="2">
         <v>44309</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
+        <v>243</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D35" s="2">
         <v>44309</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B36" t="s">
-        <v>111</v>
+        <v>244</v>
       </c>
       <c r="C36" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D36" s="2">
         <v>44309</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B37" t="s">
-        <v>113</v>
+        <v>245</v>
       </c>
       <c r="C37" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D37" s="2">
         <v>44309</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B38" t="s">
-        <v>107</v>
+        <v>242</v>
       </c>
       <c r="C38" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D38" s="2">
         <v>44309</v>
@@ -2755,15 +2705,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>246</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D39" s="2">
         <v>44309</v>
@@ -2772,15 +2722,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B40" t="s">
-        <v>117</v>
+        <v>247</v>
       </c>
       <c r="C40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D40" s="2">
         <v>44309</v>
@@ -2789,15 +2739,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B41" t="s">
-        <v>119</v>
+        <v>248</v>
       </c>
       <c r="C41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D41" s="2">
         <v>44309</v>
@@ -2806,15 +2756,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B42" t="s">
-        <v>121</v>
+        <v>249</v>
       </c>
       <c r="C42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D42" s="2">
         <v>44309</v>
@@ -2823,15 +2773,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B43" t="s">
-        <v>123</v>
+        <v>250</v>
       </c>
       <c r="C43" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D43" s="2">
         <v>44309</v>
@@ -2840,15 +2790,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B44" t="s">
-        <v>125</v>
+        <v>251</v>
       </c>
       <c r="C44" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D44" s="2">
         <v>44309</v>
@@ -2857,15 +2807,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B45" t="s">
-        <v>127</v>
+        <v>252</v>
       </c>
       <c r="C45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D45" s="2">
         <v>44309</v>
@@ -2874,15 +2824,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B46" t="s">
-        <v>129</v>
+        <v>253</v>
       </c>
       <c r="C46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D46" s="2">
         <v>44309</v>
@@ -2891,15 +2841,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B47" t="s">
-        <v>131</v>
+        <v>254</v>
       </c>
       <c r="C47" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D47" s="2">
         <v>44309</v>
@@ -2908,15 +2858,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B48" t="s">
-        <v>133</v>
+        <v>255</v>
       </c>
       <c r="C48" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D48" s="2">
         <v>44309</v>
@@ -2925,15 +2875,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B49" t="s">
-        <v>135</v>
+        <v>256</v>
       </c>
       <c r="C49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D49" s="2">
         <v>44309</v>
@@ -2942,15 +2892,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B50" t="s">
-        <v>137</v>
+        <v>257</v>
       </c>
       <c r="C50" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D50" s="2">
         <v>44309</v>
@@ -2959,15 +2909,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B51" t="s">
-        <v>139</v>
+        <v>258</v>
       </c>
       <c r="C51" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D51" s="2">
         <v>44309</v>
@@ -2976,15 +2926,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B52" t="s">
-        <v>141</v>
+        <v>259</v>
       </c>
       <c r="C52" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D52" s="2">
         <v>44309</v>
@@ -2993,15 +2943,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B53" t="s">
-        <v>143</v>
+        <v>260</v>
       </c>
       <c r="C53" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D53" s="2">
         <v>44309</v>
@@ -3010,15 +2960,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B54" t="s">
-        <v>145</v>
+        <v>261</v>
       </c>
       <c r="C54" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D54" s="2">
         <v>44309</v>
@@ -3027,15 +2977,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B55" t="s">
-        <v>147</v>
+        <v>262</v>
       </c>
       <c r="C55" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D55" s="2">
         <v>44309</v>
@@ -3044,99 +2994,99 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B56" t="s">
-        <v>115</v>
+        <v>246</v>
       </c>
       <c r="C56" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D56" s="2">
         <v>44323</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B57" t="s">
-        <v>117</v>
+        <v>247</v>
       </c>
       <c r="C57" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D57" s="2">
         <v>44323</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B58" t="s">
-        <v>127</v>
+        <v>252</v>
       </c>
       <c r="C58" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D58" s="2">
         <v>44323</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B59" t="s">
-        <v>129</v>
+        <v>253</v>
       </c>
       <c r="C59" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D59" s="2">
         <v>44323</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B60" t="s">
-        <v>137</v>
+        <v>257</v>
       </c>
       <c r="C60" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D60" s="2">
         <v>44323</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B61" t="s">
-        <v>107</v>
+        <v>242</v>
       </c>
       <c r="C61" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D61" s="2">
         <v>44323</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B62" t="s">
-        <v>119</v>
+        <v>248</v>
       </c>
       <c r="C62" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D62" s="2">
         <v>44323</v>
@@ -3145,15 +3095,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B63" t="s">
-        <v>121</v>
+        <v>249</v>
       </c>
       <c r="C63" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D63" s="2">
         <v>44323</v>
@@ -3162,15 +3112,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B64" t="s">
-        <v>123</v>
+        <v>250</v>
       </c>
       <c r="C64" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D64" s="2">
         <v>44323</v>
@@ -3179,15 +3129,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B65" t="s">
-        <v>125</v>
+        <v>251</v>
       </c>
       <c r="C65" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D65" s="2">
         <v>44323</v>
@@ -3196,15 +3146,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B66" t="s">
-        <v>131</v>
+        <v>254</v>
       </c>
       <c r="C66" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D66" s="2">
         <v>44323</v>
@@ -3213,15 +3163,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B67" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C67" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D67" s="2">
         <v>44323</v>
@@ -3230,15 +3180,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B68" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="C68" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D68" s="2">
         <v>44323</v>
@@ -3247,15 +3197,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B69" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="C69" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D69" s="2">
         <v>44323</v>
@@ -3264,15 +3214,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B70" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="C70" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D70" s="2">
         <v>44323</v>
@@ -3281,15 +3231,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B71" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="C71" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D71" s="2">
         <v>44323</v>
@@ -3298,15 +3248,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B72" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C72" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D72" s="2">
         <v>44323</v>
@@ -3315,15 +3265,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B73" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="C73" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D73" s="2">
         <v>44323</v>
@@ -3332,71 +3282,71 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B74" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C74" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D74" s="2">
         <v>44337</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B75" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C75" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D75" s="2">
         <v>44337</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B76" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C76" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D76" s="2">
         <v>44337</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B77" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C77" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D77" s="2">
         <v>44337</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B78" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="C78" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D78" s="2">
         <v>44337</v>
@@ -3405,15 +3355,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B79" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C79" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D79" s="2">
         <v>44337</v>
@@ -3422,15 +3372,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B80" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="C80" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D80" s="2">
         <v>44337</v>
@@ -3439,15 +3389,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B81" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="C81" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D81" s="2">
         <v>44337</v>
@@ -3456,15 +3406,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B82" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="C82" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D82" s="2">
         <v>44337</v>
@@ -3473,15 +3423,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B83" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="C83" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D83" s="2">
         <v>44337</v>
@@ -3490,15 +3440,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B84" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C84" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D84" s="2">
         <v>44337</v>
@@ -3507,15 +3457,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B85" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="C85" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D85" s="2">
         <v>44337</v>
@@ -3524,71 +3474,71 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B86" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="C86" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D86" s="2">
         <v>44351</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B87" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C87" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D87" s="2">
         <v>44351</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B88" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="C88" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D88" s="2">
         <v>44351</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B89" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="C89" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D89" s="2">
         <v>44351</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B90" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="C90" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D90" s="2">
         <v>44351</v>
@@ -3597,15 +3547,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B91" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C91" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D91" s="2">
         <v>44351</v>
@@ -3614,15 +3564,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B92" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="C92" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D92" s="2">
         <v>44351</v>
@@ -3631,15 +3581,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B93" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="C93" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D93" s="2">
         <v>44351</v>
@@ -3648,29 +3598,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B94" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="C94" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D94" s="2">
         <v>44365</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B95" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="C95" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D95" s="2">
         <v>44365</v>
@@ -3679,15 +3629,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B96" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C96" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D96" s="2">
         <v>44365</v>
@@ -3696,15 +3646,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B97" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="C97" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D97" s="2">
         <v>44365</v>
@@ -3713,43 +3663,43 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B98" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="C98" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D98" s="2">
         <v>44407</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B99" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C99" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D99" s="2">
         <v>44407</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="B100" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="C100" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D100" s="2">
         <v>44407</v>
@@ -3773,554 +3723,554 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CAB123-B6B8-4C37-9FBC-A6CD32606951}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.69140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.84375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.69140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.3046875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.07421875" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B2" t="str">
         <f>TEXT(1,"0")</f>
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="N2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B6" si="0">TEXT(1,"0")</f>
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="D3" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="N3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="D4" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="N4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="D5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="D6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B7" t="str">
         <f>TEXT(2,"0")</f>
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="D7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B8" t="str">
         <f>TEXT(2,"0")</f>
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="D8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B9" t="str">
         <f>TEXT(2,"0")</f>
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="D9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B10" t="str">
         <f>TEXT(3,"0")</f>
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="D10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B11" t="str">
         <f>TEXT(3,"0")</f>
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="D11" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B12" t="str">
         <f>TEXT(3,"0")</f>
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="D12" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B13" t="str">
         <f>TEXT(3,"0")</f>
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="D13" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B14" t="str">
         <f>TEXT(3,"0")</f>
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="D14" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B15" t="str">
-        <f>TEXT(4,"0")</f>
+        <f t="shared" ref="B15:B20" si="1">TEXT(4,"0")</f>
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="D15" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B16" t="str">
-        <f>TEXT(4,"0")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="D16" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B17" t="str">
-        <f>TEXT(4,"0")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="D17" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B18" t="str">
-        <f>TEXT(4,"0")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="D18" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B19" t="str">
-        <f>TEXT(4,"0")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="D19" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B20" t="str">
-        <f>TEXT(4,"0")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="D20" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B21" t="str">
         <f>TEXT(5,"0")</f>
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="D21" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B22" t="str">
         <f>TEXT(5,"0")</f>
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="D22" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B23" t="str">
         <f>TEXT(5,"0")</f>
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="D23" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B24" t="str">
         <f>TEXT(5,"0")</f>
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="D24" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B25" t="str">
         <f>TEXT(6,"0")</f>
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="D25" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B26" t="str">
         <f>TEXT(6,"0")</f>
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="D26" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B27" t="str">
         <f>TEXT(6,"0")</f>
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="D27" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B28" t="str">
         <f>TEXT(6,"0")</f>
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="D28" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B29" t="str">
         <f>TEXT(7,"0")</f>
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D29" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B30" t="str">
         <f>TEXT(7,"0")</f>
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="D30" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B31" t="str">
         <f>TEXT(7,"0")</f>
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="D31" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B32" t="str">
         <f>TEXT(7,"0")</f>
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="D32" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B33" t="str">
         <f>TEXT(8,"0")</f>
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="D33" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B34" t="str">
         <f>TEXT(8,"0")</f>
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="D34" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B35" t="str">
         <f>TEXT(8,"0")</f>
         <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="D35" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -4343,115 +4293,115 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.07421875" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.3046875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.84375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.53515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="B1" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="C1" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="D1" t="s">
         <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="F1" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="G1" t="s">
         <v>58</v>
       </c>
       <c r="H1" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="I1" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="J1" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="K1" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="L1" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="M1" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="N1" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="U1" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="W1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="U2" t="s">
+        <v>186</v>
+      </c>
+      <c r="W2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="U2" t="s">
-        <v>205</v>
-      </c>
-      <c r="W2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="U3" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="W3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="U4" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="W4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="U5" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="W5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="U6" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="W6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="U7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="U8" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -4472,16 +4422,16 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.07421875" customWidth="1"/>
-    <col min="2" max="2" width="8.84375" style="4"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -4489,7 +4439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>45</v>
       </c>
@@ -4497,7 +4447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>46</v>
       </c>
@@ -4505,7 +4455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>47</v>
       </c>
@@ -4513,7 +4463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>48</v>
       </c>
@@ -4521,7 +4471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>49</v>
       </c>
@@ -4529,7 +4479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>50</v>
       </c>
@@ -4537,7 +4487,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>51</v>
       </c>
@@ -4556,25 +4506,25 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.53515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.07421875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.84375" style="4"/>
-    <col min="4" max="4" width="7.3046875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3046875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.53515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="4"/>
+    <col min="4" max="4" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>52</v>
@@ -4589,7 +4539,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>26</v>
       </c>
@@ -4610,9 +4560,9 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>47</v>
@@ -4631,9 +4581,9 @@
         <v>44198</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>51</v>
@@ -4652,9 +4602,9 @@
         <v>44199</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>51</v>
@@ -4673,9 +4623,9 @@
         <v>44200</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>51</v>
@@ -4694,9 +4644,9 @@
         <v>44201</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>46</v>
@@ -4715,7 +4665,7 @@
         <v>44567</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>32</v>
       </c>
@@ -4736,9 +4686,9 @@
         <v>44203</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>51</v>
@@ -4757,7 +4707,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>36</v>
       </c>
@@ -4778,7 +4728,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
@@ -4799,9 +4749,9 @@
         <v>44237</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>51</v>
@@ -4820,9 +4770,9 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>51</v>
@@ -4841,9 +4791,9 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>51</v>
@@ -4862,9 +4812,9 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>51</v>
@@ -4883,11 +4833,11 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
     </row>
@@ -4909,6 +4859,7 @@
     <hyperlink ref="A15" r:id="rId14" xr:uid="{AAE83D6C-2671-4ABB-A512-4C096F064091}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -4917,32 +4868,32 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.84375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.53515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.3046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.69140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.53515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.3046875" customWidth="1"/>
-    <col min="7" max="7" width="10.53515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.84375" customWidth="1"/>
-    <col min="9" max="9" width="15.53515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.69140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.23046875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.53515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.53515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>44</v>
@@ -4951,51 +4902,51 @@
         <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>64</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>65</v>
       </c>
       <c r="G2" s="17">
         <v>44256</v>
@@ -5012,7 +4963,7 @@
         <v>150000</v>
       </c>
       <c r="K2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L2" t="str">
         <f>TEXT(14,"0")</f>
@@ -5025,27 +4976,27 @@
       <c r="Q2" s="10"/>
       <c r="R2" s="10"/>
       <c r="S2" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A3" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>70</v>
       </c>
       <c r="G3" s="17">
         <v>44348</v>
@@ -5062,7 +5013,7 @@
         <v>350000</v>
       </c>
       <c r="K3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L3" t="str">
         <f>TEXT(31,"0")</f>
@@ -5075,27 +5026,27 @@
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
       <c r="S3" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A4" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>73</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>74</v>
       </c>
       <c r="G4" s="17">
         <v>44630</v>
@@ -5110,7 +5061,7 @@
         <v>500000</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L4" t="str">
         <f>TEXT(21,"0")</f>
@@ -5124,7 +5075,7 @@
       <c r="R4" s="10"/>
       <c r="S4" s="10"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -5162,20 +5113,20 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.84375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.07421875" customWidth="1"/>
-    <col min="3" max="3" width="10.53515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
@@ -5184,146 +5135,146 @@
         <v>55</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="B2" t="s">
-        <v>78</v>
       </c>
       <c r="C2" s="2">
         <v>44209</v>
       </c>
       <c r="I2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="B3" t="s">
-        <v>79</v>
       </c>
       <c r="C3" s="2">
         <v>44256</v>
       </c>
       <c r="I3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="B4" t="s">
-        <v>80</v>
       </c>
       <c r="C4" s="2">
         <v>44277</v>
       </c>
       <c r="I4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="B5" t="s">
-        <v>81</v>
       </c>
       <c r="C5" s="2">
         <v>44312</v>
       </c>
       <c r="I5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="B6" t="s">
-        <v>82</v>
       </c>
       <c r="C6" s="2">
         <v>44408</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2">
         <v>44317</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="2">
         <v>44347</v>
       </c>
       <c r="I8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="2">
         <v>44354</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="2">
         <v>44438</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="2">
         <v>44627</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="2">
         <v>44680</v>
@@ -5346,43 +5297,43 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.53515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.84375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.53515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.53515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.07421875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.69140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.84375" style="4"/>
-    <col min="9" max="9" width="9.23046875" style="4"/>
-    <col min="10" max="10" width="14.84375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="4"/>
+    <col min="9" max="9" width="9.21875" style="4"/>
+    <col min="10" max="10" width="14.88671875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>52</v>
@@ -5394,15 +5345,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="D2" s="2">
         <v>44198</v>
@@ -5427,15 +5378,15 @@
         <v>Tiago Cancado</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="D3" s="2">
         <v>44199</v>
@@ -5460,15 +5411,15 @@
         <v>Joao Silva</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="D4" s="2">
         <v>44200</v>
@@ -5493,15 +5444,15 @@
         <v>Manel Costa</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="D5" s="2">
         <v>44201</v>
@@ -5526,15 +5477,15 @@
         <v>Xico Ferreira</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="D6" s="2">
         <v>44203</v>
@@ -5559,15 +5510,15 @@
         <v>Nel Moleiro</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="D7" s="2">
         <v>44204</v>
@@ -5592,15 +5543,15 @@
         <v>Zé do Bento</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="D8" s="2">
         <v>44204</v>
@@ -5625,15 +5576,15 @@
         <v>Tó Farrulo</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="D9" s="2">
         <v>44206</v>
@@ -5678,31 +5629,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7FF6538-20DF-4E13-8107-7AC155FD4D73}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B2" t="str">
         <f>TEXT(1,"0")</f>
@@ -5712,9 +5663,9 @@
         <v>44277</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B3" t="str">
         <f>TEXT(2,"0")</f>
@@ -5724,9 +5675,9 @@
         <v>44291</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B4" t="str">
         <f>TEXT(3,"0")</f>
@@ -5736,9 +5687,9 @@
         <v>44312</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B5" t="str">
         <f>TEXT(4,"0")</f>
@@ -5748,9 +5699,9 @@
         <v>44326</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B6" t="str">
         <f>TEXT(5,"0")</f>
@@ -5760,9 +5711,9 @@
         <v>44340</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B7" t="str">
         <f>TEXT(6,"0")</f>
@@ -5772,9 +5723,9 @@
         <v>44354</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B8" t="str">
         <f>TEXT(7,"0")</f>
@@ -5784,9 +5735,9 @@
         <v>44368</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B9" t="str">
         <f>TEXT(8,"0")</f>
@@ -5796,9 +5747,9 @@
         <v>44396</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="B10" t="str">
         <f>TEXT(1,"0")</f>
@@ -5808,9 +5759,9 @@
         <v>44354</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="B11" t="str">
         <f>TEXT(2,"0")</f>
@@ -5820,9 +5771,9 @@
         <v>44382</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="B12" t="str">
         <f>TEXT(3,"0")</f>
@@ -5832,9 +5783,9 @@
         <v>44410</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="B13" t="str">
         <f>TEXT(4,"0")</f>
@@ -5844,9 +5795,9 @@
         <v>44438</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="B14" t="str">
         <f>TEXT(5,"0")</f>
@@ -5856,9 +5807,9 @@
         <v>44466</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="B15" t="str">
         <f>TEXT(6,"0")</f>
@@ -5868,9 +5819,9 @@
         <v>44487</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="B16" t="str">
         <f>TEXT(7,"0")</f>
@@ -5880,9 +5831,9 @@
         <v>44515</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="B17" t="str">
         <f>TEXT(8,"0")</f>
@@ -5892,9 +5843,9 @@
         <v>44536</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="B18" t="str">
         <f>TEXT(9,"0")</f>
@@ -5904,9 +5855,9 @@
         <v>44571</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="B19" t="str">
         <f>TEXT(10,"0")</f>
@@ -5916,9 +5867,9 @@
         <v>44599</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="B20" t="str">
         <f>TEXT(11,"0")</f>
@@ -5928,9 +5879,9 @@
         <v>44627</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="B21" t="str">
         <f>TEXT(12,"0")</f>
@@ -5940,7 +5891,7 @@
         <v>44655</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C22" s="2"/>
     </row>
   </sheetData>
@@ -5951,989 +5902,1444 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76426BB3-299C-4678-A47D-5C50E17155FF}">
-  <dimension ref="A1"/>
+  <dimension ref="C1:I2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{EDD9B465-B608-4F26-A825-164EE8CCA374}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC3EF37-2BA8-4EC6-92A1-22C0C9AA6791}">
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:O67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.84375" customWidth="1"/>
-    <col min="4" max="4" width="11.07421875" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C2" t="s">
-        <v>63</v>
+        <v>233</v>
+      </c>
+      <c r="C2" s="20">
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
-      </c>
-      <c r="M2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+      <c r="E2" s="21">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>87</v>
+      </c>
+      <c r="O2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C3" t="s">
-        <v>68</v>
+        <v>234</v>
+      </c>
+      <c r="C3" s="20">
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
-      </c>
-      <c r="M3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+        <v>67</v>
+      </c>
+      <c r="E3" s="21">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>87</v>
+      </c>
+      <c r="O3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="B4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C4" t="s">
-        <v>93</v>
+        <v>235</v>
+      </c>
+      <c r="C4" s="20">
+        <v>3</v>
       </c>
       <c r="D4" t="s">
         <v>89</v>
       </c>
-      <c r="M4" t="s">
+      <c r="E4" s="21">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>87</v>
+      </c>
+      <c r="O4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" s="20">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="21">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" s="20">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="21">
+        <v>13.5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C7" s="20">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="21">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C8" s="20">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A5" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="E8" s="21">
+        <v>14.5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C9" s="20">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="21">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C10" s="20">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="21">
+        <v>15.5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C11" s="20">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="21">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C12" s="20">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="21">
+        <v>16.5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B13" t="s">
+        <v>244</v>
+      </c>
+      <c r="C13" s="20">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="21">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B14" t="s">
+        <v>245</v>
+      </c>
+      <c r="C14" s="20">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="21">
+        <v>17.5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B15" t="s">
+        <v>246</v>
+      </c>
+      <c r="C15" s="20">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="21">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C16" s="20">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="21">
+        <v>18.5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B17" t="s">
+        <v>248</v>
+      </c>
+      <c r="C17" s="20">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="21">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B18" t="s">
+        <v>249</v>
+      </c>
+      <c r="C18" s="20">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="21">
+        <v>19.5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B19" t="s">
+        <v>250</v>
+      </c>
+      <c r="C19" s="20">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="21">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B20" t="s">
+        <v>251</v>
+      </c>
+      <c r="C20" s="20">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="21">
+        <v>20.5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B21" t="s">
+        <v>252</v>
+      </c>
+      <c r="C21" s="20">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" s="21">
+        <v>21</v>
+      </c>
+      <c r="F21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B22" t="s">
+        <v>253</v>
+      </c>
+      <c r="C22" s="20">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="21">
+        <v>21.5</v>
+      </c>
+      <c r="F22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B23" t="s">
+        <v>254</v>
+      </c>
+      <c r="C23" s="20">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="21">
+        <v>22</v>
+      </c>
+      <c r="F23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B24" t="s">
         <v>255</v>
       </c>
-      <c r="C5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A6" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C24" s="20">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="21">
+        <v>22.5</v>
+      </c>
+      <c r="F24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B25" t="s">
         <v>256</v>
       </c>
-      <c r="C6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A7" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C25" s="20">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" s="21">
+        <v>23</v>
+      </c>
+      <c r="F25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B26" t="s">
         <v>257</v>
       </c>
-      <c r="C7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A8" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C26" s="20">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" s="21">
+        <v>23.5</v>
+      </c>
+      <c r="F26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B27" t="s">
         <v>258</v>
       </c>
-      <c r="C8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C27" s="20">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" s="21">
+        <v>24</v>
+      </c>
+      <c r="F27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B28" t="s">
+        <v>259</v>
+      </c>
+      <c r="C28" s="20">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>123</v>
+      </c>
+      <c r="E28" s="21">
+        <v>24.5</v>
+      </c>
+      <c r="F28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B29" t="s">
+        <v>260</v>
+      </c>
+      <c r="C29" s="20">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" s="21">
+        <v>25</v>
+      </c>
+      <c r="F29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B30" t="s">
+        <v>261</v>
+      </c>
+      <c r="C30" s="20">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30" s="21">
+        <v>25.5</v>
+      </c>
+      <c r="F30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B31" t="s">
+        <v>262</v>
+      </c>
+      <c r="C31" s="20">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>129</v>
+      </c>
+      <c r="E31" s="21">
+        <v>26</v>
+      </c>
+      <c r="F31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B32" t="s">
+        <v>263</v>
+      </c>
+      <c r="C32" s="20">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" s="21">
+        <v>26.5</v>
+      </c>
+      <c r="F32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B33" t="s">
+        <v>264</v>
+      </c>
+      <c r="C33" s="20">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>131</v>
+      </c>
+      <c r="E33" s="21">
+        <v>27</v>
+      </c>
+      <c r="F33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B34" t="s">
+        <v>265</v>
+      </c>
+      <c r="C34" s="20">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>132</v>
+      </c>
+      <c r="E34" s="21">
+        <v>27.5</v>
+      </c>
+      <c r="F34" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B35" t="s">
+        <v>266</v>
+      </c>
+      <c r="C35" s="20">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>133</v>
+      </c>
+      <c r="E35" s="21">
+        <v>28</v>
+      </c>
+      <c r="F35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B36" t="s">
+        <v>267</v>
+      </c>
+      <c r="C36" s="20">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>134</v>
+      </c>
+      <c r="E36" s="21">
+        <v>28.5</v>
+      </c>
+      <c r="F36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B37" t="s">
+        <v>268</v>
+      </c>
+      <c r="C37" s="20">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>135</v>
+      </c>
+      <c r="E37" s="21">
+        <v>29</v>
+      </c>
+      <c r="F37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B38" t="s">
+        <v>269</v>
+      </c>
+      <c r="C38" s="20">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>136</v>
+      </c>
+      <c r="E38" s="21">
+        <v>29.5</v>
+      </c>
+      <c r="F38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B39" t="s">
+        <v>270</v>
+      </c>
+      <c r="C39" s="20">
+        <v>3</v>
+      </c>
+      <c r="D39" t="s">
+        <v>137</v>
+      </c>
+      <c r="E39" s="21">
+        <v>30</v>
+      </c>
+      <c r="F39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B40" t="s">
+        <v>271</v>
+      </c>
+      <c r="C40" s="20">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>138</v>
+      </c>
+      <c r="E40" s="21">
+        <v>30.5</v>
+      </c>
+      <c r="F40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B41" t="s">
+        <v>272</v>
+      </c>
+      <c r="C41" s="20">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>139</v>
+      </c>
+      <c r="E41" s="21">
+        <v>31</v>
+      </c>
+      <c r="F41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B42" t="s">
+        <v>273</v>
+      </c>
+      <c r="C42" s="20">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>140</v>
+      </c>
+      <c r="E42" s="21">
+        <v>31.5</v>
+      </c>
+      <c r="F42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B43" t="s">
+        <v>274</v>
+      </c>
+      <c r="C43" s="20">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>141</v>
+      </c>
+      <c r="E43" s="21">
+        <v>32</v>
+      </c>
+      <c r="F43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B44" t="s">
+        <v>275</v>
+      </c>
+      <c r="C44" s="20">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>142</v>
+      </c>
+      <c r="E44" s="21">
+        <v>32.5</v>
+      </c>
+      <c r="F44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B45" t="s">
+        <v>276</v>
+      </c>
+      <c r="C45" s="20">
+        <v>4</v>
+      </c>
+      <c r="D45" t="s">
+        <v>143</v>
+      </c>
+      <c r="E45" s="21">
+        <v>33</v>
+      </c>
+      <c r="F45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B46" t="s">
+        <v>277</v>
+      </c>
+      <c r="C46" s="20">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>144</v>
+      </c>
+      <c r="E46" s="21">
+        <v>33.5</v>
+      </c>
+      <c r="F46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B47" t="s">
+        <v>278</v>
+      </c>
+      <c r="C47" s="20">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>145</v>
+      </c>
+      <c r="E47" s="21">
+        <v>34</v>
+      </c>
+      <c r="F47" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B48" t="s">
+        <v>279</v>
+      </c>
+      <c r="C48" s="20">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>146</v>
+      </c>
+      <c r="E48" s="21">
+        <v>34.5</v>
+      </c>
+      <c r="F48" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B49" t="s">
+        <v>280</v>
+      </c>
+      <c r="C49" s="20">
+        <v>3</v>
+      </c>
+      <c r="D49" t="s">
+        <v>147</v>
+      </c>
+      <c r="E49" s="21">
+        <v>35</v>
+      </c>
+      <c r="F49" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B50" t="s">
+        <v>281</v>
+      </c>
+      <c r="C50" s="20">
+        <v>4</v>
+      </c>
+      <c r="D50" t="s">
+        <v>148</v>
+      </c>
+      <c r="E50" s="21">
+        <v>35.5</v>
+      </c>
+      <c r="F50" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B51" t="s">
+        <v>282</v>
+      </c>
+      <c r="C51" s="20">
+        <v>5</v>
+      </c>
+      <c r="D51" t="s">
+        <v>149</v>
+      </c>
+      <c r="E51" s="21">
+        <v>36</v>
+      </c>
+      <c r="F51" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B52" t="s">
+        <v>283</v>
+      </c>
+      <c r="C52" s="20">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>150</v>
+      </c>
+      <c r="E52" s="21">
+        <v>36.5</v>
+      </c>
+      <c r="F52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B53" t="s">
+        <v>284</v>
+      </c>
+      <c r="C53" s="20">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>151</v>
+      </c>
+      <c r="E53" s="21">
+        <v>37</v>
+      </c>
+      <c r="F53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B54" t="s">
+        <v>285</v>
+      </c>
+      <c r="C54" s="20">
+        <v>3</v>
+      </c>
+      <c r="D54" t="s">
+        <v>152</v>
+      </c>
+      <c r="E54" s="21">
+        <v>37.5</v>
+      </c>
+      <c r="F54" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A9" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="B9" t="s">
-        <v>259</v>
-      </c>
-      <c r="C9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A10" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="B10" t="s">
-        <v>260</v>
-      </c>
-      <c r="C10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A11" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="B11" t="s">
-        <v>261</v>
-      </c>
-      <c r="C11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A12" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="B12" t="s">
-        <v>262</v>
-      </c>
-      <c r="C12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A13" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="B13" t="s">
-        <v>263</v>
-      </c>
-      <c r="C13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A14" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="B14" t="s">
-        <v>264</v>
-      </c>
-      <c r="C14" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A15" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="B15" t="s">
-        <v>265</v>
-      </c>
-      <c r="C15" t="s">
-        <v>116</v>
-      </c>
-      <c r="D15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A16" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="B16" t="s">
-        <v>266</v>
-      </c>
-      <c r="C16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="B17" t="s">
-        <v>267</v>
-      </c>
-      <c r="C17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="B18" t="s">
-        <v>268</v>
-      </c>
-      <c r="C18" t="s">
-        <v>122</v>
-      </c>
-      <c r="D18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="B19" t="s">
-        <v>269</v>
-      </c>
-      <c r="C19" t="s">
-        <v>124</v>
-      </c>
-      <c r="D19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="B20" t="s">
-        <v>270</v>
-      </c>
-      <c r="C20" t="s">
-        <v>126</v>
-      </c>
-      <c r="D20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="B21" t="s">
-        <v>271</v>
-      </c>
-      <c r="C21" t="s">
-        <v>128</v>
-      </c>
-      <c r="D21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="B22" t="s">
-        <v>272</v>
-      </c>
-      <c r="C22" t="s">
-        <v>130</v>
-      </c>
-      <c r="D22" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="B23" t="s">
-        <v>273</v>
-      </c>
-      <c r="C23" t="s">
-        <v>132</v>
-      </c>
-      <c r="D23" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="B24" t="s">
-        <v>274</v>
-      </c>
-      <c r="C24" t="s">
-        <v>134</v>
-      </c>
-      <c r="D24" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="B25" t="s">
-        <v>275</v>
-      </c>
-      <c r="C25" t="s">
-        <v>136</v>
-      </c>
-      <c r="D25" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="B26" t="s">
-        <v>276</v>
-      </c>
-      <c r="C26" t="s">
-        <v>138</v>
-      </c>
-      <c r="D26" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="B27" t="s">
-        <v>277</v>
-      </c>
-      <c r="C27" t="s">
-        <v>140</v>
-      </c>
-      <c r="D27" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="B28" t="s">
-        <v>278</v>
-      </c>
-      <c r="C28" t="s">
-        <v>142</v>
-      </c>
-      <c r="D28" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="B29" t="s">
-        <v>279</v>
-      </c>
-      <c r="C29" t="s">
-        <v>144</v>
-      </c>
-      <c r="D29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="B30" t="s">
-        <v>280</v>
-      </c>
-      <c r="C30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D30" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="B31" t="s">
-        <v>281</v>
-      </c>
-      <c r="C31" t="s">
-        <v>148</v>
-      </c>
-      <c r="D31" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B32" t="s">
-        <v>282</v>
-      </c>
-      <c r="C32" t="s">
-        <v>149</v>
-      </c>
-      <c r="D32" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A33" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B33" t="s">
-        <v>283</v>
-      </c>
-      <c r="C33" t="s">
-        <v>150</v>
-      </c>
-      <c r="D33" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A34" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B34" t="s">
-        <v>284</v>
-      </c>
-      <c r="C34" t="s">
-        <v>151</v>
-      </c>
-      <c r="D34" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A35" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B35" t="s">
-        <v>285</v>
-      </c>
-      <c r="C35" t="s">
-        <v>152</v>
-      </c>
-      <c r="D35" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A36" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B36" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B55" t="s">
         <v>286</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C55" s="20">
+        <v>4</v>
+      </c>
+      <c r="D55" t="s">
         <v>153</v>
       </c>
-      <c r="D36" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A37" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="E55" s="21">
+        <v>38</v>
+      </c>
+      <c r="F55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B56" t="s">
         <v>287</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C56" s="20">
+        <v>5</v>
+      </c>
+      <c r="D56" t="s">
         <v>154</v>
       </c>
-      <c r="D37" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A38" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="E56" s="21">
+        <v>38.5</v>
+      </c>
+      <c r="F56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B57" t="s">
         <v>288</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C57" s="20">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
         <v>155</v>
       </c>
-      <c r="D38" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A39" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="E57" s="21">
+        <v>39</v>
+      </c>
+      <c r="F57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B58" t="s">
         <v>289</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C58" s="20">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s">
         <v>156</v>
       </c>
-      <c r="D39" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A40" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="E58" s="21">
+        <v>39.5</v>
+      </c>
+      <c r="F58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B59" t="s">
         <v>290</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C59" s="20">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s">
         <v>157</v>
       </c>
-      <c r="D40" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A41" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="E59" s="21">
+        <v>40</v>
+      </c>
+      <c r="F59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B60" t="s">
         <v>291</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C60" s="20">
+        <v>4</v>
+      </c>
+      <c r="D60" t="s">
         <v>158</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E60" s="21">
+        <v>40.5</v>
+      </c>
+      <c r="F60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B61" t="s">
+        <v>292</v>
+      </c>
+      <c r="C61" s="20">
+        <v>5</v>
+      </c>
+      <c r="D61" t="s">
+        <v>159</v>
+      </c>
+      <c r="E61" s="21">
+        <v>41</v>
+      </c>
+      <c r="F61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B62" t="s">
+        <v>293</v>
+      </c>
+      <c r="C62" s="20">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>160</v>
+      </c>
+      <c r="E62" s="21">
+        <v>41.5</v>
+      </c>
+      <c r="F62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B63" t="s">
+        <v>294</v>
+      </c>
+      <c r="C63" s="20">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>161</v>
+      </c>
+      <c r="E63" s="21">
+        <v>42</v>
+      </c>
+      <c r="F63" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B64" t="s">
+        <v>295</v>
+      </c>
+      <c r="C64" s="20">
+        <v>3</v>
+      </c>
+      <c r="D64" t="s">
+        <v>162</v>
+      </c>
+      <c r="E64" s="21">
+        <v>42.5</v>
+      </c>
+      <c r="F64" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B65" t="s">
+        <v>296</v>
+      </c>
+      <c r="C65" s="20">
+        <v>4</v>
+      </c>
+      <c r="D65" t="s">
+        <v>163</v>
+      </c>
+      <c r="E65" s="21">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B66" t="s">
+        <v>297</v>
+      </c>
+      <c r="C66" s="20">
+        <v>5</v>
+      </c>
+      <c r="D66" t="s">
+        <v>164</v>
+      </c>
+      <c r="E66" s="21">
+        <v>43.5</v>
+      </c>
+      <c r="F66" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A42" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B42" t="s">
-        <v>292</v>
-      </c>
-      <c r="C42" t="s">
-        <v>159</v>
-      </c>
-      <c r="D42" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A43" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B43" t="s">
-        <v>293</v>
-      </c>
-      <c r="C43" t="s">
-        <v>160</v>
-      </c>
-      <c r="D43" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A44" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B44" t="s">
-        <v>294</v>
-      </c>
-      <c r="C44" t="s">
-        <v>161</v>
-      </c>
-      <c r="D44" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A45" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B45" t="s">
-        <v>295</v>
-      </c>
-      <c r="C45" t="s">
-        <v>162</v>
-      </c>
-      <c r="D45" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A46" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B46" t="s">
-        <v>296</v>
-      </c>
-      <c r="C46" t="s">
-        <v>163</v>
-      </c>
-      <c r="D46" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A47" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B47" t="s">
-        <v>297</v>
-      </c>
-      <c r="C47" t="s">
-        <v>164</v>
-      </c>
-      <c r="D47" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A48" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B48" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B67" t="s">
         <v>298</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C67" s="20">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
         <v>165</v>
       </c>
-      <c r="D48" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A49" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B49" t="s">
-        <v>299</v>
-      </c>
-      <c r="C49" t="s">
-        <v>166</v>
-      </c>
-      <c r="D49" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A50" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B50" t="s">
-        <v>300</v>
-      </c>
-      <c r="C50" t="s">
-        <v>167</v>
-      </c>
-      <c r="D50" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A51" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B51" t="s">
-        <v>301</v>
-      </c>
-      <c r="C51" t="s">
-        <v>168</v>
-      </c>
-      <c r="D51" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A52" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B52" t="s">
-        <v>302</v>
-      </c>
-      <c r="C52" t="s">
-        <v>169</v>
-      </c>
-      <c r="D52" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A53" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B53" t="s">
-        <v>303</v>
-      </c>
-      <c r="C53" t="s">
-        <v>170</v>
-      </c>
-      <c r="D53" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A54" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B54" t="s">
-        <v>304</v>
-      </c>
-      <c r="C54" t="s">
-        <v>171</v>
-      </c>
-      <c r="D54" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A55" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B55" t="s">
-        <v>305</v>
-      </c>
-      <c r="C55" t="s">
-        <v>172</v>
-      </c>
-      <c r="D55" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A56" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B56" t="s">
-        <v>306</v>
-      </c>
-      <c r="C56" t="s">
-        <v>173</v>
-      </c>
-      <c r="D56" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A57" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B57" t="s">
-        <v>307</v>
-      </c>
-      <c r="C57" t="s">
-        <v>174</v>
-      </c>
-      <c r="D57" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A58" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B58" t="s">
-        <v>308</v>
-      </c>
-      <c r="C58" t="s">
-        <v>175</v>
-      </c>
-      <c r="D58" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A59" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B59" t="s">
-        <v>309</v>
-      </c>
-      <c r="C59" t="s">
-        <v>176</v>
-      </c>
-      <c r="D59" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A60" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B60" t="s">
-        <v>310</v>
-      </c>
-      <c r="C60" t="s">
-        <v>177</v>
-      </c>
-      <c r="D60" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A61" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B61" t="s">
-        <v>311</v>
-      </c>
-      <c r="C61" t="s">
-        <v>178</v>
-      </c>
-      <c r="D61" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A62" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B62" t="s">
-        <v>312</v>
-      </c>
-      <c r="C62" t="s">
-        <v>179</v>
-      </c>
-      <c r="D62" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A63" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B63" t="s">
-        <v>313</v>
-      </c>
-      <c r="C63" t="s">
-        <v>180</v>
-      </c>
-      <c r="D63" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A64" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B64" t="s">
-        <v>314</v>
-      </c>
-      <c r="C64" t="s">
-        <v>181</v>
-      </c>
-      <c r="D64" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A65" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B65" t="s">
-        <v>315</v>
-      </c>
-      <c r="C65" t="s">
-        <v>182</v>
-      </c>
-      <c r="D65" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A66" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B66" t="s">
-        <v>316</v>
-      </c>
-      <c r="C66" t="s">
-        <v>183</v>
-      </c>
-      <c r="D66" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A67" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B67" t="s">
-        <v>317</v>
-      </c>
-      <c r="C67" t="s">
-        <v>184</v>
-      </c>
-      <c r="D67" t="s">
-        <v>90</v>
+      <c r="E67" s="21">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D67" xr:uid="{A0E105BA-CF51-4401-B710-6BE9E69B1788}">
-      <formula1>$M$2:$M$4</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F67" xr:uid="{A0E105BA-CF51-4401-B710-6BE9E69B1788}">
+      <formula1>$O$2:$O$4</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6941,6 +7347,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005836243B3C47804EAF5FFDD9F066FCC7" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b40f5c691649a4a05e2eddbeb14bcbeb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6aca1daf-af28-46f8-bd7f-7c486cf57d75" xmlns:ns3="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1826bf959a736503351b94de29104941" ns2:_="" ns3:_="">
     <xsd:import namespace="6aca1daf-af28-46f8-bd7f-7c486cf57d75"/>
@@ -7143,7 +7555,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -7152,13 +7564,16 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EAF4CE-5C55-41AC-946B-5BEC082284DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6920F70-FC70-4BF2-86B7-0FEAC01D1483}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7177,19 +7592,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{552A2396-49F4-45F5-9D44-9C3125763CF2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EAF4CE-5C55-41AC-946B-5BEC082284DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\switch\projectg2\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028D1B2C-72FB-40A1-B769-FBE56F369CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E853F797-0B61-4BEA-8B24-7DD99A8002F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{17341BA7-7E24-41D8-A92D-79256BC3D291}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{17341BA7-7E24-41D8-A92D-79256BC3D291}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -5629,7 +5629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7FF6538-20DF-4E13-8107-7AC155FD4D73}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -5970,8 +5970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC3EF37-2BA8-4EC6-92A1-22C0C9AA6791}">
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7347,12 +7347,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005836243B3C47804EAF5FFDD9F066FCC7" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b40f5c691649a4a05e2eddbeb14bcbeb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6aca1daf-af28-46f8-bd7f-7c486cf57d75" xmlns:ns3="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1826bf959a736503351b94de29104941" ns2:_="" ns3:_="">
     <xsd:import namespace="6aca1daf-af28-46f8-bd7f-7c486cf57d75"/>
@@ -7555,6 +7549,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -7565,15 +7565,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EAF4CE-5C55-41AC-946B-5BEC082284DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6920F70-FC70-4BF2-86B7-0FEAC01D1483}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7592,6 +7583,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EAF4CE-5C55-41AC-946B-5BEC082284DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{552A2396-49F4-45F5-9D44-9C3125763CF2}">
   <ds:schemaRefs>

--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\switch\projectg2\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Desktop\Projeto\projectg2\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E853F797-0B61-4BEA-8B24-7DD99A8002F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C36AEF6-1AD0-41A7-A5BD-BF76C199944C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{17341BA7-7E24-41D8-A92D-79256BC3D291}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="938" activeTab="8" xr2:uid="{17341BA7-7E24-41D8-A92D-79256BC3D291}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,11 @@
   <externalReferences>
     <externalReference r:id="rId13"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">BacklogUSStatus!$A$1:$E$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">ProjectBacklog!$A$1:$H$67</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +41,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -47,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="403">
   <si>
     <t>id</t>
   </si>
@@ -950,6 +956,312 @@
   </si>
   <si>
     <t>TimeEstimate</t>
+  </si>
+  <si>
+    <t>2021-03-01</t>
+  </si>
+  <si>
+    <t>2021-06-01</t>
+  </si>
+  <si>
+    <t>2022-03-01</t>
+  </si>
+  <si>
+    <t>2021-07-31</t>
+  </si>
+  <si>
+    <t>2022-04-29</t>
+  </si>
+  <si>
+    <t>2021-06-20</t>
+  </si>
+  <si>
+    <t>2021-03-02</t>
+  </si>
+  <si>
+    <t>2021-03-03</t>
+  </si>
+  <si>
+    <t>2021-03-04</t>
+  </si>
+  <si>
+    <t>2021-03-05</t>
+  </si>
+  <si>
+    <t>2021-03-07</t>
+  </si>
+  <si>
+    <t>2021-03-08</t>
+  </si>
+  <si>
+    <t>2021-03-10</t>
+  </si>
+  <si>
+    <t>2021-03-22</t>
+  </si>
+  <si>
+    <t>2021-04-05</t>
+  </si>
+  <si>
+    <t>2021-04-26</t>
+  </si>
+  <si>
+    <t>2021-05-10</t>
+  </si>
+  <si>
+    <t>2021-05-24</t>
+  </si>
+  <si>
+    <t>2021-06-07</t>
+  </si>
+  <si>
+    <t>2021-06-21</t>
+  </si>
+  <si>
+    <t>2021-07-19</t>
+  </si>
+  <si>
+    <t>2021-07-05</t>
+  </si>
+  <si>
+    <t>2021-08-02</t>
+  </si>
+  <si>
+    <t>2021-08-30</t>
+  </si>
+  <si>
+    <t>2021-09-27</t>
+  </si>
+  <si>
+    <t>2021-10-18</t>
+  </si>
+  <si>
+    <t>2021-11-15</t>
+  </si>
+  <si>
+    <t>2021-12-06</t>
+  </si>
+  <si>
+    <t>2022-01-10</t>
+  </si>
+  <si>
+    <t>2022-02-07</t>
+  </si>
+  <si>
+    <t>2022-03-07</t>
+  </si>
+  <si>
+    <t>2022-04-04</t>
+  </si>
+  <si>
+    <t>2021-06-02</t>
+  </si>
+  <si>
+    <t>2021-06-04</t>
+  </si>
+  <si>
+    <t>us_start</t>
+  </si>
+  <si>
+    <t>US_ID</t>
+  </si>
+  <si>
+    <t>Project_2022_1&amp;as want US01</t>
+  </si>
+  <si>
+    <t>Project_2022_1&amp;as want US02</t>
+  </si>
+  <si>
+    <t>Project_2022_1&amp;as want US03</t>
+  </si>
+  <si>
+    <t>Project_2022_1&amp;as want US04</t>
+  </si>
+  <si>
+    <t>Project_2022_1&amp;as want US05</t>
+  </si>
+  <si>
+    <t>Project_2022_1&amp;as want US06</t>
+  </si>
+  <si>
+    <t>Project_2022_1&amp;as want US07</t>
+  </si>
+  <si>
+    <t>Project_2022_1&amp;as want US08</t>
+  </si>
+  <si>
+    <t>Project_2022_1&amp;as want US09</t>
+  </si>
+  <si>
+    <t>Project_2022_1&amp;as want US10</t>
+  </si>
+  <si>
+    <t>Project_2022_1&amp;as want US11</t>
+  </si>
+  <si>
+    <t>Project_2022_1&amp;as want US12</t>
+  </si>
+  <si>
+    <t>Project_2022_1&amp;as want US13</t>
+  </si>
+  <si>
+    <t>Project_2022_1&amp;as want US14</t>
+  </si>
+  <si>
+    <t>Project_2022_1&amp;as want US15</t>
+  </si>
+  <si>
+    <t>Project_2022_1&amp;as want US16</t>
+  </si>
+  <si>
+    <t>Project_2022_1&amp;as want US17</t>
+  </si>
+  <si>
+    <t>Project_2022_1&amp;as want US18</t>
+  </si>
+  <si>
+    <t>Project_2022_1&amp;as want US19</t>
+  </si>
+  <si>
+    <t>Project_2022_1&amp;as want US20</t>
+  </si>
+  <si>
+    <t>Project_2022_1&amp;as want US21</t>
+  </si>
+  <si>
+    <t>Project_2022_1&amp;as want US22</t>
+  </si>
+  <si>
+    <t>Project_2022_1&amp;as want US23</t>
+  </si>
+  <si>
+    <t>Project_2022_1&amp;as want US24</t>
+  </si>
+  <si>
+    <t>Project_2022_1&amp;as want US25</t>
+  </si>
+  <si>
+    <t>Project_2022_1&amp;as want US26</t>
+  </si>
+  <si>
+    <t>Project_2022_1&amp;as want US27</t>
+  </si>
+  <si>
+    <t>Project_2022_1&amp;as want US28</t>
+  </si>
+  <si>
+    <t>Project_2022_1&amp;as want US29</t>
+  </si>
+  <si>
+    <t>Project_2022_1&amp;as want US30</t>
+  </si>
+  <si>
+    <t>Project_2022_2&amp;as want US001</t>
+  </si>
+  <si>
+    <t>Project_2022_2&amp;as want US002</t>
+  </si>
+  <si>
+    <t>Project_2022_2&amp;as want US003</t>
+  </si>
+  <si>
+    <t>Project_2022_2&amp;as want US004</t>
+  </si>
+  <si>
+    <t>Project_2022_2&amp;as want US005</t>
+  </si>
+  <si>
+    <t>Project_2022_2&amp;as want US006</t>
+  </si>
+  <si>
+    <t>Project_2022_2&amp;as want US007</t>
+  </si>
+  <si>
+    <t>Project_2022_2&amp;as want US008</t>
+  </si>
+  <si>
+    <t>Project_2022_2&amp;as want US009</t>
+  </si>
+  <si>
+    <t>Project_2022_2&amp;as want US010</t>
+  </si>
+  <si>
+    <t>Project_2022_2&amp;as want US011</t>
+  </si>
+  <si>
+    <t>Project_2022_2&amp;as want US012</t>
+  </si>
+  <si>
+    <t>Project_2022_2&amp;as want US013</t>
+  </si>
+  <si>
+    <t>Project_2022_2&amp;as want US014</t>
+  </si>
+  <si>
+    <t>Project_2022_2&amp;as want US015</t>
+  </si>
+  <si>
+    <t>Project_2022_2&amp;as want US016</t>
+  </si>
+  <si>
+    <t>Project_2022_2&amp;as want US017</t>
+  </si>
+  <si>
+    <t>Project_2022_2&amp;as want US018</t>
+  </si>
+  <si>
+    <t>Project_2022_2&amp;as want US019</t>
+  </si>
+  <si>
+    <t>Project_2022_2&amp;as want US020</t>
+  </si>
+  <si>
+    <t>Project_2022_2&amp;as want US021</t>
+  </si>
+  <si>
+    <t>Project_2022_2&amp;as want US022</t>
+  </si>
+  <si>
+    <t>Project_2022_2&amp;as want US023</t>
+  </si>
+  <si>
+    <t>Project_2022_2&amp;as want US024</t>
+  </si>
+  <si>
+    <t>Project_2022_2&amp;as want US025</t>
+  </si>
+  <si>
+    <t>Project_2022_2&amp;as want US026</t>
+  </si>
+  <si>
+    <t>Project_2022_2&amp;as want US027</t>
+  </si>
+  <si>
+    <t>Project_2022_2&amp;as want US028</t>
+  </si>
+  <si>
+    <t>Project_2022_2&amp;as want US029</t>
+  </si>
+  <si>
+    <t>Project_2022_2&amp;as want US030</t>
+  </si>
+  <si>
+    <t>Project_2022_2&amp;as want US031</t>
+  </si>
+  <si>
+    <t>Project_2022_2&amp;as want US032</t>
+  </si>
+  <si>
+    <t>Project_2022_2&amp;as want US033</t>
+  </si>
+  <si>
+    <t>Project_2022_2&amp;as want US034</t>
+  </si>
+  <si>
+    <t>Project_2022_2&amp;as want US035</t>
+  </si>
+  <si>
+    <t>Project_2022_2&amp;as want US036</t>
   </si>
 </sst>
 </file>
@@ -959,7 +1271,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1010,6 +1322,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1050,7 +1369,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1068,16 +1387,22 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1240,7 +1565,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2072,8 +2397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E62CEF3-4F99-4CE5-B31F-511FA523F4D9}">
   <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3706,6 +4031,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E100" xr:uid="{9E62CEF3-4F99-4CE5-B31F-511FA523F4D9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B94:B97">
     <sortCondition ref="B94:B97"/>
   </sortState>
@@ -4865,10 +5191,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59AF7EF-B12B-4A6F-9425-B1B26B554B1A}">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G1" sqref="G1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4885,10 +5211,10 @@
     <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>56</v>
       </c>
@@ -4907,10 +5233,10 @@
       <c r="F1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="21" t="s">
         <v>213</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -4925,11 +5251,11 @@
       <c r="L1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>218</v>
       </c>
@@ -4948,11 +5274,11 @@
       <c r="F2" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="17">
-        <v>44256</v>
-      </c>
-      <c r="H2" s="17">
-        <v>44408</v>
+      <c r="G2" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>304</v>
       </c>
       <c r="I2" t="str">
         <f>TEXT(8,"0")</f>
@@ -4974,12 +5300,11 @@
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>219</v>
       </c>
@@ -4998,11 +5323,11 @@
       <c r="F3" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="17">
-        <v>44348</v>
-      </c>
-      <c r="H3" s="17">
-        <v>44680</v>
+      <c r="G3" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>305</v>
       </c>
       <c r="I3" t="str">
         <f>TEXT(12,"0")</f>
@@ -5024,12 +5349,11 @@
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10" t="s">
+      <c r="R3" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>220</v>
       </c>
@@ -5048,10 +5372,10 @@
       <c r="F4" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="17">
-        <v>44630</v>
-      </c>
-      <c r="H4" s="17"/>
+      <c r="G4" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="H4" s="15"/>
       <c r="I4" t="str">
         <f>TEXT(15,"0")</f>
         <v>15</v>
@@ -5073,9 +5397,8 @@
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -5094,13 +5417,12 @@
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:F4 E7:F14 G7:G8" xr:uid="{67CE1979-44A6-4EF0-9F88-D467BDB4AAA6}">
-      <formula1>$S$2:$S$3</formula1>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:F4 G7:G8 E7:F14" xr:uid="{67CE1979-44A6-4EF0-9F88-D467BDB4AAA6}">
+      <formula1>$R$2:$R$3</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5297,7 +5619,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5308,16 +5630,16 @@
     <col min="4" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="4"/>
-    <col min="9" max="9" width="9.21875" style="4"/>
-    <col min="10" max="10" width="14.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="7"/>
+    <col min="9" max="9" width="9.21875" style="7"/>
+    <col min="10" max="10" width="14.88671875" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="20" t="s">
         <v>222</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -5329,24 +5651,24 @@
       <c r="E1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="13" t="s">
         <v>198</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -5355,31 +5677,31 @@
       <c r="C2" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="D2" s="2">
-        <v>44198</v>
-      </c>
-      <c r="E2" s="2">
-        <v>44408</v>
-      </c>
-      <c r="F2" s="19">
+      <c r="D2" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="F2" s="17">
         <v>35</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="17">
         <v>0.2</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="7">
         <v>1237</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="7">
         <v>4</v>
       </c>
-      <c r="J2" s="4" t="str">
+      <c r="J2" s="7" t="str">
         <f>VLOOKUP(H2,[1]Users!$A$2:$B$50,2,FALSE)</f>
         <v>Tiago Cancado</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="13" t="s">
         <v>195</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -5388,31 +5710,31 @@
       <c r="C3" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="D3" s="2">
-        <v>44199</v>
-      </c>
-      <c r="E3" s="2">
-        <v>44408</v>
-      </c>
-      <c r="F3" s="19">
+      <c r="D3" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="F3" s="17">
         <v>25</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="17">
         <v>0.2</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="7">
         <v>1234</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="7">
         <v>5</v>
       </c>
-      <c r="J3" s="4" t="str">
+      <c r="J3" s="7" t="str">
         <f>VLOOKUP(H3,[1]Users!$A$2:$B$50,2,FALSE)</f>
         <v>Joao Silva</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="13" t="s">
         <v>196</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -5421,31 +5743,31 @@
       <c r="C4" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="D4" s="2">
-        <v>44200</v>
-      </c>
-      <c r="E4" s="2">
-        <v>44408</v>
-      </c>
-      <c r="F4" s="19">
+      <c r="D4" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="F4" s="17">
         <v>25</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="17">
         <v>0.3</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="7">
         <v>1235</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="7">
         <v>6</v>
       </c>
-      <c r="J4" s="4" t="str">
+      <c r="J4" s="7" t="str">
         <f>VLOOKUP(H4,[1]Users!$A$2:$B$50,2,FALSE)</f>
         <v>Manel Costa</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="13" t="s">
         <v>197</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -5454,31 +5776,31 @@
       <c r="C5" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D5" s="2">
-        <v>44201</v>
-      </c>
-      <c r="E5" s="2">
-        <v>44408</v>
-      </c>
-      <c r="F5" s="19">
+      <c r="D5" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="F5" s="17">
         <v>20</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="17">
         <v>1</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="7">
         <v>1236</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="7">
         <v>7</v>
       </c>
-      <c r="J5" s="4" t="str">
+      <c r="J5" s="7" t="str">
         <f>VLOOKUP(H5,[1]Users!$A$2:$B$50,2,FALSE)</f>
         <v>Xico Ferreira</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -5487,31 +5809,31 @@
       <c r="C6" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D6" s="2">
-        <v>44203</v>
-      </c>
-      <c r="E6" s="2">
-        <v>44408</v>
-      </c>
-      <c r="F6" s="19">
+      <c r="D6" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="F6" s="17">
         <v>20</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="17">
         <v>1</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="7">
         <v>1241</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="7">
         <v>7</v>
       </c>
-      <c r="J6" s="4" t="str">
+      <c r="J6" s="7" t="str">
         <f>VLOOKUP(H6,[1]Users!$A$2:$B$50,2,FALSE)</f>
         <v>Nel Moleiro</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="13" t="s">
         <v>200</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -5520,31 +5842,31 @@
       <c r="C7" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D7" s="2">
-        <v>44204</v>
-      </c>
-      <c r="E7" s="2">
-        <v>44367</v>
-      </c>
-      <c r="F7" s="19">
+      <c r="D7" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="F7" s="17">
         <v>20</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="17">
         <v>1</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="7">
         <v>1243</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="7">
         <v>7</v>
       </c>
-      <c r="J7" s="4" t="str">
+      <c r="J7" s="7" t="str">
         <f>VLOOKUP(H7,[1]Users!$A$2:$B$50,2,FALSE)</f>
         <v>Zé do Bento</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="13" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -5553,31 +5875,31 @@
       <c r="C8" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D8" s="2">
-        <v>44204</v>
-      </c>
-      <c r="E8" s="2">
-        <v>44367</v>
-      </c>
-      <c r="F8" s="19">
+      <c r="D8" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="F8" s="17">
         <v>20</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="17">
         <v>1</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="7">
         <v>1246</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="7">
         <v>7</v>
       </c>
-      <c r="J8" s="4" t="str">
+      <c r="J8" s="7" t="str">
         <f>VLOOKUP(H8,[1]Users!$A$2:$B$50,2,FALSE)</f>
         <v>Tó Farrulo</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -5586,51 +5908,42 @@
       <c r="C9" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D9" s="2">
-        <v>44206</v>
-      </c>
-      <c r="E9" s="2">
-        <v>44367</v>
-      </c>
-      <c r="F9" s="19">
+      <c r="D9" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="F9" s="17">
         <v>20</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="17">
         <v>1</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="7">
         <v>1247</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="7">
         <v>7</v>
       </c>
-      <c r="J9" s="4" t="str">
+      <c r="J9" s="7" t="str">
         <f>VLOOKUP(H9,[1]Users!$A$2:$B$50,2,FALSE)</f>
         <v>Tino das Cruzes</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{EAEAD8CA-C370-41C4-8B48-57731DCEA4EA}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{BE0FCCDD-8613-404C-9DD1-C53415F77BCE}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{14D5B301-F4AE-4489-9321-75066BF13FFD}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{2CFB36F5-19BC-4729-A122-7B8BAC2C5B9E}"/>
-    <hyperlink ref="A7" r:id="rId5" xr:uid="{ED1F0B00-34ED-4229-A42F-D06D06B0EC53}"/>
-    <hyperlink ref="A6" r:id="rId6" xr:uid="{ED1B573C-BDB0-472B-8F8F-A9F4A7241CB7}"/>
-    <hyperlink ref="A8" r:id="rId7" xr:uid="{B44C5183-07F7-47B9-AAB0-EEBD30DDEE28}"/>
-    <hyperlink ref="A9" r:id="rId8" xr:uid="{9445C0C4-334E-4BC3-BC96-FCAF1B2C5CE9}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7FF6538-20DF-4E13-8107-7AC155FD4D73}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5641,7 +5954,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="20" t="s">
         <v>230</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -5659,8 +5972,8 @@
         <f>TEXT(1,"0")</f>
         <v>1</v>
       </c>
-      <c r="C2" s="2">
-        <v>44277</v>
+      <c r="C2" s="10" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -5671,8 +5984,8 @@
         <f>TEXT(2,"0")</f>
         <v>2</v>
       </c>
-      <c r="C3" s="2">
-        <v>44291</v>
+      <c r="C3" s="10" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -5683,8 +5996,8 @@
         <f>TEXT(3,"0")</f>
         <v>3</v>
       </c>
-      <c r="C4" s="2">
-        <v>44312</v>
+      <c r="C4" s="10" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -5695,8 +6008,8 @@
         <f>TEXT(4,"0")</f>
         <v>4</v>
       </c>
-      <c r="C5" s="2">
-        <v>44326</v>
+      <c r="C5" s="10" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -5707,8 +6020,8 @@
         <f>TEXT(5,"0")</f>
         <v>5</v>
       </c>
-      <c r="C6" s="2">
-        <v>44340</v>
+      <c r="C6" s="10" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -5719,8 +6032,8 @@
         <f>TEXT(6,"0")</f>
         <v>6</v>
       </c>
-      <c r="C7" s="2">
-        <v>44354</v>
+      <c r="C7" s="10" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -5731,8 +6044,8 @@
         <f>TEXT(7,"0")</f>
         <v>7</v>
       </c>
-      <c r="C8" s="2">
-        <v>44368</v>
+      <c r="C8" s="10" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -5743,8 +6056,8 @@
         <f>TEXT(8,"0")</f>
         <v>8</v>
       </c>
-      <c r="C9" s="2">
-        <v>44396</v>
+      <c r="C9" s="10" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -5755,8 +6068,8 @@
         <f>TEXT(1,"0")</f>
         <v>1</v>
       </c>
-      <c r="C10" s="2">
-        <v>44354</v>
+      <c r="C10" s="10" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -5767,8 +6080,8 @@
         <f>TEXT(2,"0")</f>
         <v>2</v>
       </c>
-      <c r="C11" s="2">
-        <v>44382</v>
+      <c r="C11" s="10" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -5779,8 +6092,8 @@
         <f>TEXT(3,"0")</f>
         <v>3</v>
       </c>
-      <c r="C12" s="2">
-        <v>44410</v>
+      <c r="C12" s="10" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -5791,8 +6104,8 @@
         <f>TEXT(4,"0")</f>
         <v>4</v>
       </c>
-      <c r="C13" s="2">
-        <v>44438</v>
+      <c r="C13" s="10" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -5803,8 +6116,8 @@
         <f>TEXT(5,"0")</f>
         <v>5</v>
       </c>
-      <c r="C14" s="2">
-        <v>44466</v>
+      <c r="C14" s="10" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -5815,8 +6128,8 @@
         <f>TEXT(6,"0")</f>
         <v>6</v>
       </c>
-      <c r="C15" s="2">
-        <v>44487</v>
+      <c r="C15" s="10" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -5827,8 +6140,8 @@
         <f>TEXT(7,"0")</f>
         <v>7</v>
       </c>
-      <c r="C16" s="2">
-        <v>44515</v>
+      <c r="C16" s="10" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -5839,8 +6152,8 @@
         <f>TEXT(8,"0")</f>
         <v>8</v>
       </c>
-      <c r="C17" s="2">
-        <v>44536</v>
+      <c r="C17" s="10" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -5851,8 +6164,8 @@
         <f>TEXT(9,"0")</f>
         <v>9</v>
       </c>
-      <c r="C18" s="2">
-        <v>44571</v>
+      <c r="C18" s="10" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -5863,8 +6176,8 @@
         <f>TEXT(10,"0")</f>
         <v>10</v>
       </c>
-      <c r="C19" s="2">
-        <v>44599</v>
+      <c r="C19" s="10" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -5875,8 +6188,8 @@
         <f>TEXT(11,"0")</f>
         <v>11</v>
       </c>
-      <c r="C20" s="2">
-        <v>44627</v>
+      <c r="C20" s="10" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -5887,12 +6200,9 @@
         <f>TEXT(12,"0")</f>
         <v>12</v>
       </c>
-      <c r="C21" s="2">
-        <v>44655</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C22" s="2"/>
+      <c r="C21" s="10" t="s">
+        <v>332</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5970,37 +6280,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC3EF37-2BA8-4EC6-92A1-22C0C9AA6791}">
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42:H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" style="25" customWidth="1"/>
     <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="18"/>
+    <col min="4" max="4" width="15.88671875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="27.5546875" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="24" t="s">
         <v>230</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="21" t="s">
         <v>86</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>335</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>10</v>
@@ -6010,20 +6328,26 @@
       <c r="A2" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="18">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="19">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>87</v>
+      <c r="F2" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>307</v>
       </c>
       <c r="O2" t="s">
         <v>88</v>
@@ -6033,21 +6357,25 @@
       <c r="A3" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="18">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="19">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>87</v>
-      </c>
+      <c r="F3" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="H3" s="13"/>
       <c r="O3" t="s">
         <v>87</v>
       </c>
@@ -6056,21 +6384,25 @@
       <c r="A4" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="18">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="19">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
-        <v>87</v>
-      </c>
+      <c r="F4" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="H4" s="13"/>
       <c r="O4" t="s">
         <v>90</v>
       </c>
@@ -6079,1260 +6411,1518 @@
       <c r="A5" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="18">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="19">
         <v>13</v>
       </c>
-      <c r="F5" t="s">
-        <v>87</v>
-      </c>
+      <c r="F5" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="18">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="19">
         <v>13.5</v>
       </c>
-      <c r="F6" t="s">
-        <v>87</v>
-      </c>
+      <c r="F6" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="18">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="19">
         <v>14</v>
       </c>
-      <c r="F7" t="s">
-        <v>87</v>
-      </c>
+      <c r="F7" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="18">
         <v>2</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="19">
         <v>14.5</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="10" t="s">
         <v>88</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="18">
         <v>3</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="19">
         <v>15</v>
       </c>
-      <c r="F9" t="s">
-        <v>87</v>
-      </c>
+      <c r="F9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="18">
         <v>4</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="19">
         <v>15.5</v>
       </c>
-      <c r="F10" t="s">
-        <v>87</v>
-      </c>
+      <c r="F10" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="18">
         <v>5</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="19">
         <v>16</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="10" t="s">
         <v>90</v>
       </c>
+      <c r="G11" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="18">
         <v>1</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="19">
         <v>16.5</v>
       </c>
-      <c r="F12" t="s">
-        <v>87</v>
-      </c>
+      <c r="F12" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="18">
         <v>2</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="19">
         <v>17</v>
       </c>
-      <c r="F13" t="s">
-        <v>87</v>
-      </c>
+      <c r="F13" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="18">
         <v>3</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="19">
         <v>17.5</v>
       </c>
-      <c r="F14" t="s">
-        <v>87</v>
-      </c>
+      <c r="F14" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="18">
         <v>4</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="19">
         <v>18</v>
       </c>
-      <c r="F15" t="s">
-        <v>87</v>
-      </c>
+      <c r="F15" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="18">
         <v>5</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="19">
         <v>18.5</v>
       </c>
-      <c r="F16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F16" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="18">
         <v>1</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="19">
         <v>19</v>
       </c>
-      <c r="F17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F17" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="18">
         <v>2</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="19">
         <v>19.5</v>
       </c>
-      <c r="F18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F18" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="18">
         <v>3</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="19">
         <v>20</v>
       </c>
-      <c r="F19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F19" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="18">
         <v>4</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="19">
         <v>20.5</v>
       </c>
-      <c r="F20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F20" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="18">
         <v>5</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="19">
         <v>21</v>
       </c>
-      <c r="F21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F21" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="18">
         <v>1</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="19">
         <v>21.5</v>
       </c>
-      <c r="F22" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F22" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="18">
         <v>2</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="19">
         <v>22</v>
       </c>
-      <c r="F23" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F23" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="18">
         <v>3</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="19">
         <v>22.5</v>
       </c>
-      <c r="F24" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F24" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="18">
         <v>4</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="19">
         <v>23</v>
       </c>
-      <c r="F25" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F25" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="18">
         <v>5</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="19">
         <v>23.5</v>
       </c>
-      <c r="F26" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F26" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="18">
         <v>1</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="19">
         <v>24</v>
       </c>
-      <c r="F27" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F27" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="18">
         <v>2</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="19">
         <v>24.5</v>
       </c>
-      <c r="F28" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F28" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="18">
         <v>3</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="19">
         <v>25</v>
       </c>
-      <c r="F29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F29" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="H29" s="13"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="18">
         <v>4</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="19">
         <v>25.5</v>
       </c>
-      <c r="F30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F30" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="H30" s="13"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="18">
         <v>5</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="19">
         <v>26</v>
       </c>
-      <c r="F31" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
+      <c r="F31" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G31" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="18">
         <v>1</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="19">
         <v>26.5</v>
       </c>
-      <c r="F32" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F32" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="H32" s="13"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="18">
         <v>2</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="19">
         <v>27</v>
       </c>
-      <c r="F33" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F33" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="H33" s="13"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="C34" s="20">
+      <c r="C34" s="18">
         <v>3</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="19">
         <v>27.5</v>
       </c>
-      <c r="F34" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F34" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="H34" s="13"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C35" s="18">
         <v>4</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35" s="19">
         <v>28</v>
       </c>
-      <c r="F35" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F35" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G35" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="H35" s="13"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="C36" s="20">
+      <c r="C36" s="18">
         <v>5</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="19">
         <v>28.5</v>
       </c>
-      <c r="F36" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F36" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G36" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="H36" s="13"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C37" s="18">
         <v>1</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E37" s="19">
         <v>29</v>
       </c>
-      <c r="F37" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F37" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G37" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="H37" s="13"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="C38" s="20">
+      <c r="C38" s="18">
         <v>2</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E38" s="19">
         <v>29.5</v>
       </c>
-      <c r="F38" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F38" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="H38" s="13"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C39" s="18">
         <v>3</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E39" s="19">
         <v>30</v>
       </c>
-      <c r="F39" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F39" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G39" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="H39" s="13"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="C40" s="20">
+      <c r="C40" s="18">
         <v>4</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="E40" s="21">
+      <c r="E40" s="19">
         <v>30.5</v>
       </c>
-      <c r="F40" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F40" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G40" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="H40" s="13"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="C41" s="20">
+      <c r="C41" s="18">
         <v>5</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="E41" s="21">
+      <c r="E41" s="19">
         <v>31</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="H41" s="26" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="C42" s="20">
+      <c r="C42" s="18">
         <v>1</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="E42" s="21">
+      <c r="E42" s="19">
         <v>31.5</v>
       </c>
-      <c r="F42" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F42" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G42" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="H42" s="13"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="18">
         <v>2</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="E43" s="21">
+      <c r="E43" s="19">
         <v>32</v>
       </c>
-      <c r="F43" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F43" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G43" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="H43" s="13"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="C44" s="20">
+      <c r="C44" s="18">
         <v>3</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="E44" s="21">
+      <c r="E44" s="19">
         <v>32.5</v>
       </c>
-      <c r="F44" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F44" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G44" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="H44" s="13"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="C45" s="20">
+      <c r="C45" s="18">
         <v>4</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E45" s="19">
         <v>33</v>
       </c>
-      <c r="F45" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F45" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G45" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="H45" s="13"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C46" s="18">
         <v>5</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E46" s="19">
         <v>33.5</v>
       </c>
-      <c r="F46" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F46" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G46" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="H46" s="13"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="C47" s="20">
+      <c r="C47" s="18">
         <v>1</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="E47" s="21">
+      <c r="E47" s="19">
         <v>34</v>
       </c>
-      <c r="F47" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F47" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G47" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="H47" s="13"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="C48" s="20">
+      <c r="C48" s="18">
         <v>2</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="E48" s="21">
+      <c r="E48" s="19">
         <v>34.5</v>
       </c>
-      <c r="F48" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F48" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G48" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="H48" s="13"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="C49" s="20">
+      <c r="C49" s="18">
         <v>3</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E49" s="21">
+      <c r="E49" s="19">
         <v>35</v>
       </c>
-      <c r="F49" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F49" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G49" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="H49" s="13"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="C50" s="20">
+      <c r="C50" s="18">
         <v>4</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E50" s="21">
+      <c r="E50" s="19">
         <v>35.5</v>
       </c>
-      <c r="F50" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F50" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G50" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="H50" s="13"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="C51" s="20">
+      <c r="C51" s="18">
         <v>5</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="E51" s="21">
+      <c r="E51" s="19">
         <v>36</v>
       </c>
-      <c r="F51" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F51" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G51" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="H51" s="13"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="C52" s="20">
+      <c r="C52" s="18">
         <v>1</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="E52" s="21">
+      <c r="E52" s="19">
         <v>36.5</v>
       </c>
-      <c r="F52" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F52" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G52" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="H52" s="13"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="C53" s="20">
+      <c r="C53" s="18">
         <v>2</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="E53" s="21">
+      <c r="E53" s="19">
         <v>37</v>
       </c>
-      <c r="F53" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F53" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G53" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="H53" s="13"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="C54" s="20">
+      <c r="C54" s="18">
         <v>3</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="E54" s="21">
+      <c r="E54" s="19">
         <v>37.5</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="10" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="H54" s="13"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C55" s="20">
+      <c r="C55" s="18">
         <v>4</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="E55" s="21">
+      <c r="E55" s="19">
         <v>38</v>
       </c>
-      <c r="F55" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F55" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G55" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="H55" s="13"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="C56" s="20">
+      <c r="C56" s="18">
         <v>5</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="E56" s="21">
+      <c r="E56" s="19">
         <v>38.5</v>
       </c>
-      <c r="F56" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F56" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G56" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="H56" s="13"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="C57" s="20">
+      <c r="C57" s="18">
         <v>1</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="E57" s="21">
+      <c r="E57" s="19">
         <v>39</v>
       </c>
-      <c r="F57" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F57" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G57" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="H57" s="13"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="C58" s="20">
+      <c r="C58" s="18">
         <v>2</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E58" s="21">
+      <c r="E58" s="19">
         <v>39.5</v>
       </c>
-      <c r="F58" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F58" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G58" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="H58" s="13"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="C59" s="20">
+      <c r="C59" s="18">
         <v>3</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E59" s="21">
+      <c r="E59" s="19">
         <v>40</v>
       </c>
-      <c r="F59" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F59" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G59" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="H59" s="13"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="C60" s="20">
+      <c r="C60" s="18">
         <v>4</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="E60" s="21">
+      <c r="E60" s="19">
         <v>40.5</v>
       </c>
-      <c r="F60" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F60" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G60" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="H60" s="13"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="C61" s="20">
+      <c r="C61" s="18">
         <v>5</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="E61" s="21">
+      <c r="E61" s="19">
         <v>41</v>
       </c>
-      <c r="F61" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F61" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G61" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="H61" s="13"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="C62" s="20">
+      <c r="C62" s="18">
         <v>1</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="E62" s="21">
+      <c r="E62" s="19">
         <v>41.5</v>
       </c>
-      <c r="F62" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F62" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G62" s="25" t="s">
+        <v>397</v>
+      </c>
+      <c r="H62" s="13"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="C63" s="20">
+      <c r="C63" s="18">
         <v>2</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="E63" s="21">
+      <c r="E63" s="19">
         <v>42</v>
       </c>
-      <c r="F63" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F63" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G63" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="H63" s="13"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="C64" s="20">
+      <c r="C64" s="18">
         <v>3</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="E64" s="21">
+      <c r="E64" s="19">
         <v>42.5</v>
       </c>
-      <c r="F64" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F64" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G64" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="H64" s="13"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="C65" s="20">
+      <c r="C65" s="18">
         <v>4</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="E65" s="21">
+      <c r="E65" s="19">
         <v>43</v>
       </c>
-      <c r="F65" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F65" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G65" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="H65" s="13"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="C66" s="20">
+      <c r="C66" s="18">
         <v>5</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="E66" s="21">
+      <c r="E66" s="19">
         <v>43.5</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="10" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="H66" s="13"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="C67" s="20">
+      <c r="C67" s="18">
         <v>1</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="E67" s="21">
+      <c r="E67" s="19">
         <v>44</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="10" t="s">
         <v>88</v>
+      </c>
+      <c r="G67" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="H67" s="26" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -7343,10 +7933,17 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005836243B3C47804EAF5FFDD9F066FCC7" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b40f5c691649a4a05e2eddbeb14bcbeb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6aca1daf-af28-46f8-bd7f-7c486cf57d75" xmlns:ns3="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1826bf959a736503351b94de29104941" ns2:_="" ns3:_="">
     <xsd:import namespace="6aca1daf-af28-46f8-bd7f-7c486cf57d75"/>
@@ -7549,12 +8146,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -7565,6 +8156,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EAF4CE-5C55-41AC-946B-5BEC082284DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6920F70-FC70-4BF2-86B7-0FEAC01D1483}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7583,15 +8183,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EAF4CE-5C55-41AC-946B-5BEC082284DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{552A2396-49F4-45F5-9D44-9C3125763CF2}">
   <ds:schemaRefs>

--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\switch\projectg2\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E853F797-0B61-4BEA-8B24-7DD99A8002F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE69D18-CB7F-4043-A0BD-26A9A67564EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{17341BA7-7E24-41D8-A92D-79256BC3D291}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="29692" windowHeight="11949" activeTab="8" xr2:uid="{17341BA7-7E24-41D8-A92D-79256BC3D291}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,6 @@
     <sheet name="SprintBacklog" sheetId="10" r:id="rId11"/>
     <sheet name="SprintTasks" sheetId="11" r:id="rId12"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId13"/>
-  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="301">
   <si>
     <t>id</t>
   </si>
@@ -959,7 +956,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -993,19 +990,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1050,7 +1034,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1068,13 +1052,10 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
@@ -1091,152 +1072,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Users"/>
-      <sheetName val="Profiles"/>
-      <sheetName val="GlobalRoles"/>
-      <sheetName val="Projects"/>
-      <sheetName val="ProjectStatus"/>
-      <sheetName val="ProjectTeams"/>
-      <sheetName val="ProjectSprints"/>
-      <sheetName val="ProjectBacklog"/>
-      <sheetName val="BacklogUSStatus"/>
-      <sheetName val="SprintBacklog"/>
-      <sheetName val="SprintTasks"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="A2">
-            <v>1234</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>Joao Silva</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>1235</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>Manel Costa</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>1236</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>Xico Ferreira</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>1237</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>Tiago Cancado</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>1238</v>
-          </cell>
-          <cell r="B6" t="str">
-            <v>Urbino das Urzes</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>1239</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>Ze da Esquina</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>1241</v>
-          </cell>
-          <cell r="B8" t="str">
-            <v>Nel Moleiro</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>1243</v>
-          </cell>
-          <cell r="B9" t="str">
-            <v>Zé do Bento</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>1246</v>
-          </cell>
-          <cell r="B10" t="str">
-            <v>Tó Farrulo</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>1247</v>
-          </cell>
-          <cell r="B11" t="str">
-            <v>Tino das Cruzes</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>1251</v>
-          </cell>
-          <cell r="B12" t="str">
-            <v>Quim Barreiros</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>1252</v>
-          </cell>
-          <cell r="B13" t="str">
-            <v>Tiago Geringonca</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>1253</v>
-          </cell>
-          <cell r="B14" t="str">
-            <v>Zé Manel</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>1254</v>
-          </cell>
-          <cell r="B15" t="str">
-            <v>Antonio Silva</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1542,23 +1377,23 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
-    <col min="5" max="5" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="4"/>
-    <col min="9" max="9" width="24.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="15.4609375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.3046875" customWidth="1"/>
+    <col min="3" max="3" width="15.84375" customWidth="1"/>
+    <col min="5" max="5" width="19.765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.69140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.84375" style="4"/>
+    <col min="9" max="9" width="24.84375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.4609375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.69140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.69140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.84375" style="4"/>
     <col min="14" max="14" width="10" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>206</v>
       </c>
@@ -1602,7 +1437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
@@ -1644,7 +1479,7 @@
         <v>263650670</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
@@ -1686,7 +1521,7 @@
         <v>263650520</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
@@ -1728,7 +1563,7 @@
         <v>263650532</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>23</v>
       </c>
@@ -1770,7 +1605,7 @@
         <v>263650345</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>25</v>
       </c>
@@ -1812,7 +1647,7 @@
         <v>263650127</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
         <v>28</v>
       </c>
@@ -1854,7 +1689,7 @@
         <v>212349016</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>31</v>
       </c>
@@ -1878,7 +1713,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
         <v>34</v>
       </c>
@@ -1902,7 +1737,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>35</v>
       </c>
@@ -1926,7 +1761,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
         <v>37</v>
       </c>
@@ -1950,7 +1785,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>40</v>
       </c>
@@ -1974,7 +1809,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="10" t="s">
         <v>41</v>
       </c>
@@ -1998,7 +1833,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="10" t="s">
         <v>42</v>
       </c>
@@ -2022,7 +1857,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="10" t="s">
         <v>43</v>
       </c>
@@ -2076,14 +1911,14 @@
       <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.84375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
@@ -2103,7 +1938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>218</v>
       </c>
@@ -2123,7 +1958,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>218</v>
       </c>
@@ -2143,7 +1978,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>218</v>
       </c>
@@ -2163,7 +1998,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>218</v>
       </c>
@@ -2180,7 +2015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>218</v>
       </c>
@@ -2197,7 +2032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>218</v>
       </c>
@@ -2214,7 +2049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>218</v>
       </c>
@@ -2231,7 +2066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>218</v>
       </c>
@@ -2248,7 +2083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>218</v>
       </c>
@@ -2265,7 +2100,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>218</v>
       </c>
@@ -2282,7 +2117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>218</v>
       </c>
@@ -2296,7 +2131,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>218</v>
       </c>
@@ -2310,7 +2145,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>218</v>
       </c>
@@ -2324,7 +2159,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>218</v>
       </c>
@@ -2338,7 +2173,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>218</v>
       </c>
@@ -2352,7 +2187,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>218</v>
       </c>
@@ -2369,7 +2204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>218</v>
       </c>
@@ -2383,7 +2218,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>218</v>
       </c>
@@ -2400,7 +2235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>218</v>
       </c>
@@ -2417,7 +2252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>218</v>
       </c>
@@ -2434,7 +2269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>218</v>
       </c>
@@ -2451,7 +2286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>218</v>
       </c>
@@ -2468,7 +2303,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>218</v>
       </c>
@@ -2485,7 +2320,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>218</v>
       </c>
@@ -2502,7 +2337,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>218</v>
       </c>
@@ -2519,7 +2354,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>218</v>
       </c>
@@ -2536,7 +2371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>218</v>
       </c>
@@ -2553,7 +2388,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>218</v>
       </c>
@@ -2570,7 +2405,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>218</v>
       </c>
@@ -2587,7 +2422,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>218</v>
       </c>
@@ -2604,7 +2439,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
         <v>218</v>
       </c>
@@ -2618,7 +2453,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
         <v>218</v>
       </c>
@@ -2632,7 +2467,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
         <v>218</v>
       </c>
@@ -2646,7 +2481,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
         <v>218</v>
       </c>
@@ -2660,7 +2495,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
         <v>218</v>
       </c>
@@ -2674,7 +2509,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
         <v>218</v>
       </c>
@@ -2688,7 +2523,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="3" t="s">
         <v>218</v>
       </c>
@@ -2705,7 +2540,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
         <v>218</v>
       </c>
@@ -2722,7 +2557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="3" t="s">
         <v>218</v>
       </c>
@@ -2739,7 +2574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
         <v>218</v>
       </c>
@@ -2756,7 +2591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="3" t="s">
         <v>218</v>
       </c>
@@ -2773,7 +2608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="3" t="s">
         <v>218</v>
       </c>
@@ -2790,7 +2625,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="3" t="s">
         <v>218</v>
       </c>
@@ -2807,7 +2642,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="3" t="s">
         <v>218</v>
       </c>
@@ -2824,7 +2659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="3" t="s">
         <v>218</v>
       </c>
@@ -2841,7 +2676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="3" t="s">
         <v>218</v>
       </c>
@@ -2858,7 +2693,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="3" t="s">
         <v>218</v>
       </c>
@@ -2875,7 +2710,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="3" t="s">
         <v>218</v>
       </c>
@@ -2892,7 +2727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="3" t="s">
         <v>218</v>
       </c>
@@ -2909,7 +2744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" s="3" t="s">
         <v>218</v>
       </c>
@@ -2926,7 +2761,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" s="3" t="s">
         <v>218</v>
       </c>
@@ -2943,7 +2778,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" s="3" t="s">
         <v>218</v>
       </c>
@@ -2960,7 +2795,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" s="3" t="s">
         <v>218</v>
       </c>
@@ -2977,7 +2812,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" s="3" t="s">
         <v>218</v>
       </c>
@@ -2994,7 +2829,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>218</v>
       </c>
@@ -3008,7 +2843,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>218</v>
       </c>
@@ -3022,7 +2857,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>218</v>
       </c>
@@ -3036,7 +2871,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>218</v>
       </c>
@@ -3050,7 +2885,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>218</v>
       </c>
@@ -3064,7 +2899,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>218</v>
       </c>
@@ -3078,7 +2913,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>218</v>
       </c>
@@ -3095,7 +2930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>218</v>
       </c>
@@ -3112,7 +2947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>218</v>
       </c>
@@ -3129,7 +2964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>218</v>
       </c>
@@ -3146,7 +2981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>218</v>
       </c>
@@ -3163,7 +2998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>218</v>
       </c>
@@ -3180,7 +3015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>218</v>
       </c>
@@ -3197,7 +3032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>218</v>
       </c>
@@ -3214,7 +3049,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>218</v>
       </c>
@@ -3231,7 +3066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>218</v>
       </c>
@@ -3248,7 +3083,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>218</v>
       </c>
@@ -3265,7 +3100,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>218</v>
       </c>
@@ -3282,7 +3117,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" s="3" t="s">
         <v>218</v>
       </c>
@@ -3296,7 +3131,7 @@
         <v>44337</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75" s="3" t="s">
         <v>218</v>
       </c>
@@ -3310,7 +3145,7 @@
         <v>44337</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76" s="3" t="s">
         <v>218</v>
       </c>
@@ -3324,7 +3159,7 @@
         <v>44337</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77" s="3" t="s">
         <v>218</v>
       </c>
@@ -3338,7 +3173,7 @@
         <v>44337</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78" s="3" t="s">
         <v>218</v>
       </c>
@@ -3355,7 +3190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79" s="3" t="s">
         <v>218</v>
       </c>
@@ -3372,7 +3207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80" s="3" t="s">
         <v>218</v>
       </c>
@@ -3389,7 +3224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81" s="3" t="s">
         <v>218</v>
       </c>
@@ -3406,7 +3241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82" s="3" t="s">
         <v>218</v>
       </c>
@@ -3423,7 +3258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83" s="3" t="s">
         <v>218</v>
       </c>
@@ -3440,7 +3275,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84" s="3" t="s">
         <v>218</v>
       </c>
@@ -3457,7 +3292,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85" s="3" t="s">
         <v>218</v>
       </c>
@@ -3474,7 +3309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>218</v>
       </c>
@@ -3488,7 +3323,7 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>218</v>
       </c>
@@ -3502,7 +3337,7 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>218</v>
       </c>
@@ -3516,7 +3351,7 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>218</v>
       </c>
@@ -3530,7 +3365,7 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>218</v>
       </c>
@@ -3547,7 +3382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>218</v>
       </c>
@@ -3564,7 +3399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>218</v>
       </c>
@@ -3581,7 +3416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>218</v>
       </c>
@@ -3598,7 +3433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A94" s="3" t="s">
         <v>218</v>
       </c>
@@ -3612,7 +3447,7 @@
         <v>44365</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A95" s="3" t="s">
         <v>218</v>
       </c>
@@ -3629,7 +3464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A96" s="3" t="s">
         <v>218</v>
       </c>
@@ -3646,7 +3481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A97" s="3" t="s">
         <v>218</v>
       </c>
@@ -3663,7 +3498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>218</v>
       </c>
@@ -3677,7 +3512,7 @@
         <v>44407</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>218</v>
       </c>
@@ -3691,7 +3526,7 @@
         <v>44407</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>218</v>
       </c>
@@ -3727,17 +3562,17 @@
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.69140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.3046875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>230</v>
       </c>
@@ -3754,7 +3589,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>218</v>
       </c>
@@ -3772,7 +3607,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>218</v>
       </c>
@@ -3790,7 +3625,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>218</v>
       </c>
@@ -3808,7 +3643,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>218</v>
       </c>
@@ -3823,7 +3658,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>218</v>
       </c>
@@ -3838,7 +3673,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
         <v>218</v>
       </c>
@@ -3853,7 +3688,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>218</v>
       </c>
@@ -3868,7 +3703,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
         <v>218</v>
       </c>
@@ -3883,7 +3718,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>218</v>
       </c>
@@ -3898,7 +3733,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
         <v>218</v>
       </c>
@@ -3913,7 +3748,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>218</v>
       </c>
@@ -3928,7 +3763,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="10" t="s">
         <v>218</v>
       </c>
@@ -3943,7 +3778,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="10" t="s">
         <v>218</v>
       </c>
@@ -3958,7 +3793,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="10" t="s">
         <v>218</v>
       </c>
@@ -3973,7 +3808,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
         <v>218</v>
       </c>
@@ -3988,7 +3823,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="10" t="s">
         <v>218</v>
       </c>
@@ -4003,7 +3838,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="10" t="s">
         <v>218</v>
       </c>
@@ -4018,7 +3853,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="10" t="s">
         <v>218</v>
       </c>
@@ -4033,7 +3868,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="10" t="s">
         <v>218</v>
       </c>
@@ -4048,7 +3883,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="10" t="s">
         <v>218</v>
       </c>
@@ -4063,7 +3898,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="10" t="s">
         <v>218</v>
       </c>
@@ -4078,7 +3913,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="10" t="s">
         <v>218</v>
       </c>
@@ -4093,7 +3928,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="10" t="s">
         <v>218</v>
       </c>
@@ -4108,7 +3943,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="10" t="s">
         <v>218</v>
       </c>
@@ -4123,7 +3958,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="10" t="s">
         <v>218</v>
       </c>
@@ -4138,7 +3973,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="10" t="s">
         <v>218</v>
       </c>
@@ -4153,7 +3988,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="10" t="s">
         <v>218</v>
       </c>
@@ -4168,7 +4003,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="10" t="s">
         <v>218</v>
       </c>
@@ -4183,7 +4018,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="10" t="s">
         <v>218</v>
       </c>
@@ -4198,7 +4033,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="10" t="s">
         <v>218</v>
       </c>
@@ -4213,7 +4048,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="10" t="s">
         <v>218</v>
       </c>
@@ -4228,7 +4063,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="10" t="s">
         <v>218</v>
       </c>
@@ -4243,7 +4078,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="10" t="s">
         <v>218</v>
       </c>
@@ -4258,7 +4093,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="10" t="s">
         <v>218</v>
       </c>
@@ -4293,18 +4128,18 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="12.07421875" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.3046875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.84375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>173</v>
       </c>
@@ -4354,7 +4189,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="U2" t="s">
         <v>186</v>
       </c>
@@ -4362,7 +4197,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="U3" t="s">
         <v>187</v>
       </c>
@@ -4370,7 +4205,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="U4" t="s">
         <v>189</v>
       </c>
@@ -4378,7 +4213,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="U5" t="s">
         <v>190</v>
       </c>
@@ -4386,7 +4221,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
       <c r="U6" t="s">
         <v>192</v>
       </c>
@@ -4394,12 +4229,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="U7" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
       <c r="U8" t="s">
         <v>194</v>
       </c>
@@ -4425,13 +4260,13 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="19.07421875" customWidth="1"/>
+    <col min="2" max="2" width="8.84375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -4439,7 +4274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>45</v>
       </c>
@@ -4447,7 +4282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>46</v>
       </c>
@@ -4455,7 +4290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>47</v>
       </c>
@@ -4463,7 +4298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>48</v>
       </c>
@@ -4471,7 +4306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>49</v>
       </c>
@@ -4479,7 +4314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
         <v>50</v>
       </c>
@@ -4487,7 +4322,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>51</v>
       </c>
@@ -4509,17 +4344,17 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="4"/>
-    <col min="4" max="4" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.53515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.07421875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.84375" style="4"/>
+    <col min="4" max="4" width="7.3046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.53515625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4539,7 +4374,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
         <v>26</v>
       </c>
@@ -4560,7 +4395,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
         <v>198</v>
       </c>
@@ -4581,7 +4416,7 @@
         <v>44198</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="12" t="s">
         <v>195</v>
       </c>
@@ -4602,7 +4437,7 @@
         <v>44199</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="12" t="s">
         <v>196</v>
       </c>
@@ -4623,7 +4458,7 @@
         <v>44200</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
         <v>197</v>
       </c>
@@ -4644,7 +4479,7 @@
         <v>44201</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>199</v>
       </c>
@@ -4665,7 +4500,7 @@
         <v>44567</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
         <v>32</v>
       </c>
@@ -4686,7 +4521,7 @@
         <v>44203</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
         <v>200</v>
       </c>
@@ -4707,7 +4542,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
         <v>36</v>
       </c>
@@ -4728,7 +4563,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
@@ -4749,7 +4584,7 @@
         <v>44237</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
         <v>201</v>
       </c>
@@ -4770,7 +4605,7 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
         <v>202</v>
       </c>
@@ -4791,7 +4626,7 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
         <v>203</v>
       </c>
@@ -4812,7 +4647,7 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="12" t="s">
         <v>204</v>
       </c>
@@ -4833,11 +4668,11 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
     </row>
@@ -4868,27 +4703,27 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.3046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.69140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.53515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.3046875" customWidth="1"/>
+    <col min="7" max="7" width="10.53515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.84375" customWidth="1"/>
+    <col min="9" max="9" width="15.53515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.23046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>56</v>
       </c>
@@ -4929,7 +4764,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>218</v>
       </c>
@@ -4948,10 +4783,10 @@
       <c r="F2" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="15">
         <v>44256</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="15">
         <v>44408</v>
       </c>
       <c r="I2" t="str">
@@ -4979,7 +4814,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>219</v>
       </c>
@@ -4998,10 +4833,10 @@
       <c r="F3" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="15">
         <v>44348</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="15">
         <v>44680</v>
       </c>
       <c r="I3" t="str">
@@ -5029,7 +4864,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>220</v>
       </c>
@@ -5048,10 +4883,10 @@
       <c r="F4" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="15">
         <v>44630</v>
       </c>
-      <c r="H4" s="17"/>
+      <c r="H4" s="15"/>
       <c r="I4" t="str">
         <f>TEXT(15,"0")</f>
         <v>15</v>
@@ -5075,7 +4910,7 @@
       <c r="R4" s="10"/>
       <c r="S4" s="10"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -5116,15 +4951,15 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.07421875" customWidth="1"/>
+    <col min="3" max="3" width="10.53515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
@@ -5138,7 +4973,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>218</v>
       </c>
@@ -5152,7 +4987,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>218</v>
       </c>
@@ -5166,7 +5001,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>218</v>
       </c>
@@ -5180,7 +5015,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>218</v>
       </c>
@@ -5194,7 +5029,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>218</v>
       </c>
@@ -5208,7 +5043,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
         <v>219</v>
       </c>
@@ -5222,7 +5057,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>219</v>
       </c>
@@ -5236,7 +5071,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
         <v>219</v>
       </c>
@@ -5247,7 +5082,7 @@
         <v>44354</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>219</v>
       </c>
@@ -5258,7 +5093,7 @@
         <v>44438</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
         <v>219</v>
       </c>
@@ -5269,7 +5104,7 @@
         <v>44627</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>219</v>
       </c>
@@ -5297,74 +5132,75 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="4"/>
-    <col min="9" max="9" width="9.21875" style="4"/>
-    <col min="10" max="10" width="14.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.53515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.4609375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.84375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.3828125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.61328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.61328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>222</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" t="s">
         <v>223</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>212</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>213</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" t="s">
         <v>224</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" t="s">
         <v>225</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>198</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" t="s">
         <v>229</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>44198</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2">
         <v>44408</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2">
         <v>35</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2">
         <v>0.2</v>
       </c>
       <c r="H2" s="4">
@@ -5373,31 +5209,30 @@
       <c r="I2" s="4">
         <v>4</v>
       </c>
-      <c r="J2" s="4" t="str">
-        <f>VLOOKUP(H2,[1]Users!$A$2:$B$50,2,FALSE)</f>
-        <v>Tiago Cancado</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="J2" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>195</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C3" t="s">
         <v>228</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
         <v>44199</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3">
         <v>44408</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3">
         <v>25</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3">
         <v>0.2</v>
       </c>
       <c r="H3" s="4">
@@ -5406,31 +5241,30 @@
       <c r="I3" s="4">
         <v>5</v>
       </c>
-      <c r="J3" s="4" t="str">
-        <f>VLOOKUP(H3,[1]Users!$A$2:$B$50,2,FALSE)</f>
-        <v>Joao Silva</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="J3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>196</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" t="s">
         <v>227</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
         <v>44200</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4">
         <v>44408</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4">
         <v>25</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4">
         <v>0.3</v>
       </c>
       <c r="H4" s="4">
@@ -5439,31 +5273,30 @@
       <c r="I4" s="4">
         <v>6</v>
       </c>
-      <c r="J4" s="4" t="str">
-        <f>VLOOKUP(H4,[1]Users!$A$2:$B$50,2,FALSE)</f>
-        <v>Manel Costa</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="J4" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>197</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="B5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" t="s">
         <v>226</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5">
         <v>44201</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5">
         <v>44408</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5">
         <v>20</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5">
         <v>1</v>
       </c>
       <c r="H5" s="4">
@@ -5472,31 +5305,30 @@
       <c r="I5" s="4">
         <v>7</v>
       </c>
-      <c r="J5" s="4" t="str">
-        <f>VLOOKUP(H5,[1]Users!$A$2:$B$50,2,FALSE)</f>
-        <v>Xico Ferreira</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="J5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="B6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" t="s">
         <v>226</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6">
         <v>44203</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6">
         <v>44408</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6">
         <v>20</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" s="4">
@@ -5505,31 +5337,30 @@
       <c r="I6" s="4">
         <v>7</v>
       </c>
-      <c r="J6" s="4" t="str">
-        <f>VLOOKUP(H6,[1]Users!$A$2:$B$50,2,FALSE)</f>
-        <v>Nel Moleiro</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="J6" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>200</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="B7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" t="s">
         <v>226</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7">
         <v>44204</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7">
         <v>44367</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7">
         <v>20</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7">
         <v>1</v>
       </c>
       <c r="H7" s="4">
@@ -5538,31 +5369,30 @@
       <c r="I7" s="4">
         <v>7</v>
       </c>
-      <c r="J7" s="4" t="str">
-        <f>VLOOKUP(H7,[1]Users!$A$2:$B$50,2,FALSE)</f>
-        <v>Zé do Bento</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="J7" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="B8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" t="s">
         <v>226</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8">
         <v>44204</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8">
         <v>44367</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8">
         <v>20</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" s="4">
@@ -5571,31 +5401,30 @@
       <c r="I8" s="4">
         <v>7</v>
       </c>
-      <c r="J8" s="4" t="str">
-        <f>VLOOKUP(H8,[1]Users!$A$2:$B$50,2,FALSE)</f>
-        <v>Tó Farrulo</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="J8" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="B9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" t="s">
         <v>226</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9">
         <v>44206</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9">
         <v>44367</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9">
         <v>20</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" s="4">
@@ -5604,45 +5433,32 @@
       <c r="I9" s="4">
         <v>7</v>
       </c>
-      <c r="J9" s="4" t="str">
-        <f>VLOOKUP(H9,[1]Users!$A$2:$B$50,2,FALSE)</f>
-        <v>Tino das Cruzes</v>
+      <c r="J9" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{EAEAD8CA-C370-41C4-8B48-57731DCEA4EA}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{BE0FCCDD-8613-404C-9DD1-C53415F77BCE}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{14D5B301-F4AE-4489-9321-75066BF13FFD}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{2CFB36F5-19BC-4729-A122-7B8BAC2C5B9E}"/>
-    <hyperlink ref="A7" r:id="rId5" xr:uid="{ED1F0B00-34ED-4229-A42F-D06D06B0EC53}"/>
-    <hyperlink ref="A6" r:id="rId6" xr:uid="{ED1B573C-BDB0-472B-8F8F-A9F4A7241CB7}"/>
-    <hyperlink ref="A8" r:id="rId7" xr:uid="{B44C5183-07F7-47B9-AAB0-EEBD30DDEE28}"/>
-    <hyperlink ref="A9" r:id="rId8" xr:uid="{9445C0C4-334E-4BC3-BC96-FCAF1B2C5CE9}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7FF6538-20DF-4E13-8107-7AC155FD4D73}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="3" max="3" width="10.3828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>231</v>
@@ -5651,8 +5467,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="18" t="s">
         <v>218</v>
       </c>
       <c r="B2" t="str">
@@ -5663,8 +5479,8 @@
         <v>44277</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="18" t="s">
         <v>218</v>
       </c>
       <c r="B3" t="str">
@@ -5675,8 +5491,8 @@
         <v>44291</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="18" t="s">
         <v>218</v>
       </c>
       <c r="B4" t="str">
@@ -5687,8 +5503,8 @@
         <v>44312</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="18" t="s">
         <v>218</v>
       </c>
       <c r="B5" t="str">
@@ -5699,8 +5515,8 @@
         <v>44326</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="18" t="s">
         <v>218</v>
       </c>
       <c r="B6" t="str">
@@ -5711,8 +5527,8 @@
         <v>44340</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="18" t="s">
         <v>218</v>
       </c>
       <c r="B7" t="str">
@@ -5723,8 +5539,8 @@
         <v>44354</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="18" t="s">
         <v>218</v>
       </c>
       <c r="B8" t="str">
@@ -5735,8 +5551,8 @@
         <v>44368</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="18" t="s">
         <v>218</v>
       </c>
       <c r="B9" t="str">
@@ -5747,8 +5563,8 @@
         <v>44396</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="18" t="s">
         <v>219</v>
       </c>
       <c r="B10" t="str">
@@ -5759,8 +5575,8 @@
         <v>44354</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="18" t="s">
         <v>219</v>
       </c>
       <c r="B11" t="str">
@@ -5771,8 +5587,8 @@
         <v>44382</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="18" t="s">
         <v>219</v>
       </c>
       <c r="B12" t="str">
@@ -5783,8 +5599,8 @@
         <v>44410</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="18" t="s">
         <v>219</v>
       </c>
       <c r="B13" t="str">
@@ -5795,8 +5611,8 @@
         <v>44438</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="18" t="s">
         <v>219</v>
       </c>
       <c r="B14" t="str">
@@ -5807,8 +5623,8 @@
         <v>44466</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="18" t="s">
         <v>219</v>
       </c>
       <c r="B15" t="str">
@@ -5819,8 +5635,8 @@
         <v>44487</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="18" t="s">
         <v>219</v>
       </c>
       <c r="B16" t="str">
@@ -5831,8 +5647,8 @@
         <v>44515</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="18" t="s">
         <v>219</v>
       </c>
       <c r="B17" t="str">
@@ -5843,8 +5659,8 @@
         <v>44536</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="18" t="s">
         <v>219</v>
       </c>
       <c r="B18" t="str">
@@ -5855,8 +5671,8 @@
         <v>44571</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="18" t="s">
         <v>219</v>
       </c>
       <c r="B19" t="str">
@@ -5867,8 +5683,8 @@
         <v>44599</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="18" t="s">
         <v>219</v>
       </c>
       <c r="B20" t="str">
@@ -5879,8 +5695,8 @@
         <v>44627</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="18" t="s">
         <v>219</v>
       </c>
       <c r="B21" t="str">
@@ -5891,12 +5707,10 @@
         <v>44655</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C22" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5908,13 +5722,13 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C1" s="1" t="s">
         <v>206</v>
       </c>
@@ -5937,7 +5751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C2" s="10" t="s">
         <v>11</v>
       </c>
@@ -5971,19 +5785,19 @@
   <dimension ref="A1:O67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.84375" customWidth="1"/>
+    <col min="5" max="5" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>230</v>
       </c>
@@ -6006,20 +5820,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>218</v>
       </c>
       <c r="B2" t="s">
         <v>233</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="16">
         <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="17">
         <v>10</v>
       </c>
       <c r="F2" t="s">
@@ -6029,20 +5843,20 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>218</v>
       </c>
       <c r="B3" t="s">
         <v>234</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="16">
         <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="17">
         <v>15</v>
       </c>
       <c r="F3" t="s">
@@ -6052,20 +5866,20 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>218</v>
       </c>
       <c r="B4" t="s">
         <v>235</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="16">
         <v>3</v>
       </c>
       <c r="D4" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="17">
         <v>11</v>
       </c>
       <c r="F4" t="s">
@@ -6075,1260 +5889,1260 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>218</v>
       </c>
       <c r="B5" t="s">
         <v>236</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="16">
         <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="17">
         <v>13</v>
       </c>
       <c r="F5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>218</v>
       </c>
       <c r="B6" t="s">
         <v>237</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="16">
         <v>5</v>
       </c>
       <c r="D6" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="17">
         <v>13.5</v>
       </c>
       <c r="F6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
         <v>218</v>
       </c>
       <c r="B7" t="s">
         <v>238</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="16">
         <v>1</v>
       </c>
       <c r="D7" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="17">
         <v>14</v>
       </c>
       <c r="F7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>218</v>
       </c>
       <c r="B8" t="s">
         <v>239</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="16">
         <v>2</v>
       </c>
       <c r="D8" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="17">
         <v>14.5</v>
       </c>
       <c r="F8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
         <v>218</v>
       </c>
       <c r="B9" t="s">
         <v>240</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="16">
         <v>3</v>
       </c>
       <c r="D9" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="17">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>218</v>
       </c>
       <c r="B10" t="s">
         <v>241</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="16">
         <v>4</v>
       </c>
       <c r="D10" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="17">
         <v>15.5</v>
       </c>
       <c r="F10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
         <v>218</v>
       </c>
       <c r="B11" t="s">
         <v>242</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="16">
         <v>5</v>
       </c>
       <c r="D11" t="s">
         <v>97</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="17">
         <v>16</v>
       </c>
       <c r="F11" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>218</v>
       </c>
       <c r="B12" t="s">
         <v>243</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="16">
         <v>1</v>
       </c>
       <c r="D12" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="17">
         <v>16.5</v>
       </c>
       <c r="F12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="10" t="s">
         <v>218</v>
       </c>
       <c r="B13" t="s">
         <v>244</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="16">
         <v>2</v>
       </c>
       <c r="D13" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="17">
         <v>17</v>
       </c>
       <c r="F13" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="10" t="s">
         <v>218</v>
       </c>
       <c r="B14" t="s">
         <v>245</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="16">
         <v>3</v>
       </c>
       <c r="D14" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="17">
         <v>17.5</v>
       </c>
       <c r="F14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="10" t="s">
         <v>218</v>
       </c>
       <c r="B15" t="s">
         <v>246</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="16">
         <v>4</v>
       </c>
       <c r="D15" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="17">
         <v>18</v>
       </c>
       <c r="F15" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
         <v>218</v>
       </c>
       <c r="B16" t="s">
         <v>247</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="16">
         <v>5</v>
       </c>
       <c r="D16" t="s">
         <v>102</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="17">
         <v>18.5</v>
       </c>
       <c r="F16" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="10" t="s">
         <v>218</v>
       </c>
       <c r="B17" t="s">
         <v>248</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="16">
         <v>1</v>
       </c>
       <c r="D17" t="s">
         <v>104</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="17">
         <v>19</v>
       </c>
       <c r="F17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="10" t="s">
         <v>218</v>
       </c>
       <c r="B18" t="s">
         <v>249</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="16">
         <v>2</v>
       </c>
       <c r="D18" t="s">
         <v>106</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="17">
         <v>19.5</v>
       </c>
       <c r="F18" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="10" t="s">
         <v>218</v>
       </c>
       <c r="B19" t="s">
         <v>250</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="16">
         <v>3</v>
       </c>
       <c r="D19" t="s">
         <v>108</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="17">
         <v>20</v>
       </c>
       <c r="F19" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="10" t="s">
         <v>218</v>
       </c>
       <c r="B20" t="s">
         <v>251</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="16">
         <v>4</v>
       </c>
       <c r="D20" t="s">
         <v>110</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="17">
         <v>20.5</v>
       </c>
       <c r="F20" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="10" t="s">
         <v>218</v>
       </c>
       <c r="B21" t="s">
         <v>252</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="16">
         <v>5</v>
       </c>
       <c r="D21" t="s">
         <v>111</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="17">
         <v>21</v>
       </c>
       <c r="F21" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="10" t="s">
         <v>218</v>
       </c>
       <c r="B22" t="s">
         <v>253</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="16">
         <v>1</v>
       </c>
       <c r="D22" t="s">
         <v>112</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="17">
         <v>21.5</v>
       </c>
       <c r="F22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="10" t="s">
         <v>218</v>
       </c>
       <c r="B23" t="s">
         <v>254</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="16">
         <v>2</v>
       </c>
       <c r="D23" t="s">
         <v>114</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="17">
         <v>22</v>
       </c>
       <c r="F23" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="10" t="s">
         <v>218</v>
       </c>
       <c r="B24" t="s">
         <v>255</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="16">
         <v>3</v>
       </c>
       <c r="D24" t="s">
         <v>116</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="17">
         <v>22.5</v>
       </c>
       <c r="F24" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="10" t="s">
         <v>218</v>
       </c>
       <c r="B25" t="s">
         <v>256</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="16">
         <v>4</v>
       </c>
       <c r="D25" t="s">
         <v>118</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="17">
         <v>23</v>
       </c>
       <c r="F25" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="10" t="s">
         <v>218</v>
       </c>
       <c r="B26" t="s">
         <v>257</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="16">
         <v>5</v>
       </c>
       <c r="D26" t="s">
         <v>119</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="17">
         <v>23.5</v>
       </c>
       <c r="F26" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="10" t="s">
         <v>218</v>
       </c>
       <c r="B27" t="s">
         <v>258</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="16">
         <v>1</v>
       </c>
       <c r="D27" t="s">
         <v>121</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="17">
         <v>24</v>
       </c>
       <c r="F27" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="10" t="s">
         <v>218</v>
       </c>
       <c r="B28" t="s">
         <v>259</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="16">
         <v>2</v>
       </c>
       <c r="D28" t="s">
         <v>123</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="17">
         <v>24.5</v>
       </c>
       <c r="F28" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="10" t="s">
         <v>218</v>
       </c>
       <c r="B29" t="s">
         <v>260</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="16">
         <v>3</v>
       </c>
       <c r="D29" t="s">
         <v>125</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="17">
         <v>25</v>
       </c>
       <c r="F29" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="10" t="s">
         <v>218</v>
       </c>
       <c r="B30" t="s">
         <v>261</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="16">
         <v>4</v>
       </c>
       <c r="D30" t="s">
         <v>127</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="17">
         <v>25.5</v>
       </c>
       <c r="F30" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="10" t="s">
         <v>218</v>
       </c>
       <c r="B31" t="s">
         <v>262</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="16">
         <v>5</v>
       </c>
       <c r="D31" t="s">
         <v>129</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="17">
         <v>26</v>
       </c>
       <c r="F31" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="10" t="s">
         <v>219</v>
       </c>
       <c r="B32" t="s">
         <v>263</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="16">
         <v>1</v>
       </c>
       <c r="D32" t="s">
         <v>130</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="17">
         <v>26.5</v>
       </c>
       <c r="F32" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="10" t="s">
         <v>219</v>
       </c>
       <c r="B33" t="s">
         <v>264</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="16">
         <v>2</v>
       </c>
       <c r="D33" t="s">
         <v>131</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="17">
         <v>27</v>
       </c>
       <c r="F33" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="10" t="s">
         <v>219</v>
       </c>
       <c r="B34" t="s">
         <v>265</v>
       </c>
-      <c r="C34" s="20">
+      <c r="C34" s="16">
         <v>3</v>
       </c>
       <c r="D34" t="s">
         <v>132</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="17">
         <v>27.5</v>
       </c>
       <c r="F34" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="10" t="s">
         <v>219</v>
       </c>
       <c r="B35" t="s">
         <v>266</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C35" s="16">
         <v>4</v>
       </c>
       <c r="D35" t="s">
         <v>133</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35" s="17">
         <v>28</v>
       </c>
       <c r="F35" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="10" t="s">
         <v>219</v>
       </c>
       <c r="B36" t="s">
         <v>267</v>
       </c>
-      <c r="C36" s="20">
+      <c r="C36" s="16">
         <v>5</v>
       </c>
       <c r="D36" t="s">
         <v>134</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="17">
         <v>28.5</v>
       </c>
       <c r="F36" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="10" t="s">
         <v>219</v>
       </c>
       <c r="B37" t="s">
         <v>268</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C37" s="16">
         <v>1</v>
       </c>
       <c r="D37" t="s">
         <v>135</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E37" s="17">
         <v>29</v>
       </c>
       <c r="F37" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="10" t="s">
         <v>219</v>
       </c>
       <c r="B38" t="s">
         <v>269</v>
       </c>
-      <c r="C38" s="20">
+      <c r="C38" s="16">
         <v>2</v>
       </c>
       <c r="D38" t="s">
         <v>136</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E38" s="17">
         <v>29.5</v>
       </c>
       <c r="F38" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="10" t="s">
         <v>219</v>
       </c>
       <c r="B39" t="s">
         <v>270</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C39" s="16">
         <v>3</v>
       </c>
       <c r="D39" t="s">
         <v>137</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E39" s="17">
         <v>30</v>
       </c>
       <c r="F39" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" s="10" t="s">
         <v>219</v>
       </c>
       <c r="B40" t="s">
         <v>271</v>
       </c>
-      <c r="C40" s="20">
+      <c r="C40" s="16">
         <v>4</v>
       </c>
       <c r="D40" t="s">
         <v>138</v>
       </c>
-      <c r="E40" s="21">
+      <c r="E40" s="17">
         <v>30.5</v>
       </c>
       <c r="F40" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="10" t="s">
         <v>219</v>
       </c>
       <c r="B41" t="s">
         <v>272</v>
       </c>
-      <c r="C41" s="20">
+      <c r="C41" s="16">
         <v>5</v>
       </c>
       <c r="D41" t="s">
         <v>139</v>
       </c>
-      <c r="E41" s="21">
+      <c r="E41" s="17">
         <v>31</v>
       </c>
       <c r="F41" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="10" t="s">
         <v>219</v>
       </c>
       <c r="B42" t="s">
         <v>273</v>
       </c>
-      <c r="C42" s="20">
+      <c r="C42" s="16">
         <v>1</v>
       </c>
       <c r="D42" t="s">
         <v>140</v>
       </c>
-      <c r="E42" s="21">
+      <c r="E42" s="17">
         <v>31.5</v>
       </c>
       <c r="F42" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="10" t="s">
         <v>219</v>
       </c>
       <c r="B43" t="s">
         <v>274</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="16">
         <v>2</v>
       </c>
       <c r="D43" t="s">
         <v>141</v>
       </c>
-      <c r="E43" s="21">
+      <c r="E43" s="17">
         <v>32</v>
       </c>
       <c r="F43" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" s="10" t="s">
         <v>219</v>
       </c>
       <c r="B44" t="s">
         <v>275</v>
       </c>
-      <c r="C44" s="20">
+      <c r="C44" s="16">
         <v>3</v>
       </c>
       <c r="D44" t="s">
         <v>142</v>
       </c>
-      <c r="E44" s="21">
+      <c r="E44" s="17">
         <v>32.5</v>
       </c>
       <c r="F44" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" s="10" t="s">
         <v>219</v>
       </c>
       <c r="B45" t="s">
         <v>276</v>
       </c>
-      <c r="C45" s="20">
+      <c r="C45" s="16">
         <v>4</v>
       </c>
       <c r="D45" t="s">
         <v>143</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E45" s="17">
         <v>33</v>
       </c>
       <c r="F45" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" s="10" t="s">
         <v>219</v>
       </c>
       <c r="B46" t="s">
         <v>277</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C46" s="16">
         <v>5</v>
       </c>
       <c r="D46" t="s">
         <v>144</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E46" s="17">
         <v>33.5</v>
       </c>
       <c r="F46" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" s="10" t="s">
         <v>219</v>
       </c>
       <c r="B47" t="s">
         <v>278</v>
       </c>
-      <c r="C47" s="20">
+      <c r="C47" s="16">
         <v>1</v>
       </c>
       <c r="D47" t="s">
         <v>145</v>
       </c>
-      <c r="E47" s="21">
+      <c r="E47" s="17">
         <v>34</v>
       </c>
       <c r="F47" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" s="10" t="s">
         <v>219</v>
       </c>
       <c r="B48" t="s">
         <v>279</v>
       </c>
-      <c r="C48" s="20">
+      <c r="C48" s="16">
         <v>2</v>
       </c>
       <c r="D48" t="s">
         <v>146</v>
       </c>
-      <c r="E48" s="21">
+      <c r="E48" s="17">
         <v>34.5</v>
       </c>
       <c r="F48" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" s="10" t="s">
         <v>219</v>
       </c>
       <c r="B49" t="s">
         <v>280</v>
       </c>
-      <c r="C49" s="20">
+      <c r="C49" s="16">
         <v>3</v>
       </c>
       <c r="D49" t="s">
         <v>147</v>
       </c>
-      <c r="E49" s="21">
+      <c r="E49" s="17">
         <v>35</v>
       </c>
       <c r="F49" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" s="10" t="s">
         <v>219</v>
       </c>
       <c r="B50" t="s">
         <v>281</v>
       </c>
-      <c r="C50" s="20">
+      <c r="C50" s="16">
         <v>4</v>
       </c>
       <c r="D50" t="s">
         <v>148</v>
       </c>
-      <c r="E50" s="21">
+      <c r="E50" s="17">
         <v>35.5</v>
       </c>
       <c r="F50" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" s="10" t="s">
         <v>219</v>
       </c>
       <c r="B51" t="s">
         <v>282</v>
       </c>
-      <c r="C51" s="20">
+      <c r="C51" s="16">
         <v>5</v>
       </c>
       <c r="D51" t="s">
         <v>149</v>
       </c>
-      <c r="E51" s="21">
+      <c r="E51" s="17">
         <v>36</v>
       </c>
       <c r="F51" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" s="10" t="s">
         <v>219</v>
       </c>
       <c r="B52" t="s">
         <v>283</v>
       </c>
-      <c r="C52" s="20">
+      <c r="C52" s="16">
         <v>1</v>
       </c>
       <c r="D52" t="s">
         <v>150</v>
       </c>
-      <c r="E52" s="21">
+      <c r="E52" s="17">
         <v>36.5</v>
       </c>
       <c r="F52" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" s="10" t="s">
         <v>219</v>
       </c>
       <c r="B53" t="s">
         <v>284</v>
       </c>
-      <c r="C53" s="20">
+      <c r="C53" s="16">
         <v>2</v>
       </c>
       <c r="D53" t="s">
         <v>151</v>
       </c>
-      <c r="E53" s="21">
+      <c r="E53" s="17">
         <v>37</v>
       </c>
       <c r="F53" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" s="10" t="s">
         <v>219</v>
       </c>
       <c r="B54" t="s">
         <v>285</v>
       </c>
-      <c r="C54" s="20">
+      <c r="C54" s="16">
         <v>3</v>
       </c>
       <c r="D54" t="s">
         <v>152</v>
       </c>
-      <c r="E54" s="21">
+      <c r="E54" s="17">
         <v>37.5</v>
       </c>
       <c r="F54" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" s="10" t="s">
         <v>219</v>
       </c>
       <c r="B55" t="s">
         <v>286</v>
       </c>
-      <c r="C55" s="20">
+      <c r="C55" s="16">
         <v>4</v>
       </c>
       <c r="D55" t="s">
         <v>153</v>
       </c>
-      <c r="E55" s="21">
+      <c r="E55" s="17">
         <v>38</v>
       </c>
       <c r="F55" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" s="10" t="s">
         <v>219</v>
       </c>
       <c r="B56" t="s">
         <v>287</v>
       </c>
-      <c r="C56" s="20">
+      <c r="C56" s="16">
         <v>5</v>
       </c>
       <c r="D56" t="s">
         <v>154</v>
       </c>
-      <c r="E56" s="21">
+      <c r="E56" s="17">
         <v>38.5</v>
       </c>
       <c r="F56" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" s="10" t="s">
         <v>219</v>
       </c>
       <c r="B57" t="s">
         <v>288</v>
       </c>
-      <c r="C57" s="20">
+      <c r="C57" s="16">
         <v>1</v>
       </c>
       <c r="D57" t="s">
         <v>155</v>
       </c>
-      <c r="E57" s="21">
+      <c r="E57" s="17">
         <v>39</v>
       </c>
       <c r="F57" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" s="10" t="s">
         <v>219</v>
       </c>
       <c r="B58" t="s">
         <v>289</v>
       </c>
-      <c r="C58" s="20">
+      <c r="C58" s="16">
         <v>2</v>
       </c>
       <c r="D58" t="s">
         <v>156</v>
       </c>
-      <c r="E58" s="21">
+      <c r="E58" s="17">
         <v>39.5</v>
       </c>
       <c r="F58" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" s="10" t="s">
         <v>219</v>
       </c>
       <c r="B59" t="s">
         <v>290</v>
       </c>
-      <c r="C59" s="20">
+      <c r="C59" s="16">
         <v>3</v>
       </c>
       <c r="D59" t="s">
         <v>157</v>
       </c>
-      <c r="E59" s="21">
+      <c r="E59" s="17">
         <v>40</v>
       </c>
       <c r="F59" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" s="10" t="s">
         <v>219</v>
       </c>
       <c r="B60" t="s">
         <v>291</v>
       </c>
-      <c r="C60" s="20">
+      <c r="C60" s="16">
         <v>4</v>
       </c>
       <c r="D60" t="s">
         <v>158</v>
       </c>
-      <c r="E60" s="21">
+      <c r="E60" s="17">
         <v>40.5</v>
       </c>
       <c r="F60" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" s="10" t="s">
         <v>219</v>
       </c>
       <c r="B61" t="s">
         <v>292</v>
       </c>
-      <c r="C61" s="20">
+      <c r="C61" s="16">
         <v>5</v>
       </c>
       <c r="D61" t="s">
         <v>159</v>
       </c>
-      <c r="E61" s="21">
+      <c r="E61" s="17">
         <v>41</v>
       </c>
       <c r="F61" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" s="10" t="s">
         <v>219</v>
       </c>
       <c r="B62" t="s">
         <v>293</v>
       </c>
-      <c r="C62" s="20">
+      <c r="C62" s="16">
         <v>1</v>
       </c>
       <c r="D62" t="s">
         <v>160</v>
       </c>
-      <c r="E62" s="21">
+      <c r="E62" s="17">
         <v>41.5</v>
       </c>
       <c r="F62" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" s="10" t="s">
         <v>219</v>
       </c>
       <c r="B63" t="s">
         <v>294</v>
       </c>
-      <c r="C63" s="20">
+      <c r="C63" s="16">
         <v>2</v>
       </c>
       <c r="D63" t="s">
         <v>161</v>
       </c>
-      <c r="E63" s="21">
+      <c r="E63" s="17">
         <v>42</v>
       </c>
       <c r="F63" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" s="10" t="s">
         <v>219</v>
       </c>
       <c r="B64" t="s">
         <v>295</v>
       </c>
-      <c r="C64" s="20">
+      <c r="C64" s="16">
         <v>3</v>
       </c>
       <c r="D64" t="s">
         <v>162</v>
       </c>
-      <c r="E64" s="21">
+      <c r="E64" s="17">
         <v>42.5</v>
       </c>
       <c r="F64" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65" s="10" t="s">
         <v>219</v>
       </c>
       <c r="B65" t="s">
         <v>296</v>
       </c>
-      <c r="C65" s="20">
+      <c r="C65" s="16">
         <v>4</v>
       </c>
       <c r="D65" t="s">
         <v>163</v>
       </c>
-      <c r="E65" s="21">
+      <c r="E65" s="17">
         <v>43</v>
       </c>
       <c r="F65" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" s="10" t="s">
         <v>219</v>
       </c>
       <c r="B66" t="s">
         <v>297</v>
       </c>
-      <c r="C66" s="20">
+      <c r="C66" s="16">
         <v>5</v>
       </c>
       <c r="D66" t="s">
         <v>164</v>
       </c>
-      <c r="E66" s="21">
+      <c r="E66" s="17">
         <v>43.5</v>
       </c>
       <c r="F66" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" s="10" t="s">
         <v>219</v>
       </c>
       <c r="B67" t="s">
         <v>298</v>
       </c>
-      <c r="C67" s="20">
+      <c r="C67" s="16">
         <v>1</v>
       </c>
       <c r="D67" t="s">
         <v>165</v>
       </c>
-      <c r="E67" s="21">
+      <c r="E67" s="17">
         <v>44</v>
       </c>
       <c r="F67" t="s">
@@ -7347,6 +7161,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005836243B3C47804EAF5FFDD9F066FCC7" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b40f5c691649a4a05e2eddbeb14bcbeb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6aca1daf-af28-46f8-bd7f-7c486cf57d75" xmlns:ns3="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1826bf959a736503351b94de29104941" ns2:_="" ns3:_="">
     <xsd:import namespace="6aca1daf-af28-46f8-bd7f-7c486cf57d75"/>
@@ -7549,22 +7378,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EAF4CE-5C55-41AC-946B-5BEC082284DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{552A2396-49F4-45F5-9D44-9C3125763CF2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6920F70-FC70-4BF2-86B7-0FEAC01D1483}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7581,21 +7412,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EAF4CE-5C55-41AC-946B-5BEC082284DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{552A2396-49F4-45F5-9D44-9C3125763CF2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Desktop\Projeto\projectg2\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\switch\projectg2\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C36AEF6-1AD0-41A7-A5BD-BF76C199944C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D68A96-D6C1-48A0-9A64-3BB600956808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="938" activeTab="8" xr2:uid="{17341BA7-7E24-41D8-A92D-79256BC3D291}"/>
+    <workbookView xWindow="-8472" yWindow="1680" windowWidth="17280" windowHeight="8964" tabRatio="938" firstSheet="4" activeTab="8" xr2:uid="{17341BA7-7E24-41D8-A92D-79256BC3D291}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">BacklogUSStatus!$A$1:$E$100</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">ProjectBacklog!$A$1:$H$67</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,9 +41,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -53,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="400">
   <si>
     <t>id</t>
   </si>
@@ -197,15 +195,6 @@
   </si>
   <si>
     <t>Director</t>
-  </si>
-  <si>
-    <t>Project Manager</t>
-  </si>
-  <si>
-    <t>Product Owner</t>
-  </si>
-  <si>
-    <t>Scrum Master</t>
   </si>
   <si>
     <t>User</t>
@@ -1369,7 +1358,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1400,9 +1389,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1565,7 +1555,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1864,7 +1854,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1885,7 +1875,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1897,10 +1887,10 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>10</v>
@@ -1932,16 +1922,16 @@
         <v>11</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10" t="s">
@@ -1974,16 +1964,16 @@
         <v>19</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10" t="s">
@@ -2016,16 +2006,16 @@
         <v>21</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10" t="s">
@@ -2058,16 +2048,16 @@
         <v>23</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10" t="s">
@@ -2106,10 +2096,10 @@
         <v>12</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10" t="s">
@@ -2142,16 +2132,16 @@
         <v>28</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10" t="s">
@@ -2190,10 +2180,10 @@
         <v>33</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10" t="s">
@@ -2208,16 +2198,16 @@
         <v>34</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10" t="s">
@@ -2238,10 +2228,10 @@
         <v>33</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10" t="s">
@@ -2262,10 +2252,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10" t="s">
@@ -2280,16 +2270,16 @@
         <v>40</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10" t="s">
@@ -2304,16 +2294,16 @@
         <v>41</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10" t="s">
@@ -2328,16 +2318,16 @@
         <v>42</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10" t="s">
@@ -2352,16 +2342,16 @@
         <v>43</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10" t="s">
@@ -2398,7 +2388,7 @@
   <dimension ref="A1:M100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2410,19 +2400,19 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>10</v>
@@ -2430,13 +2420,13 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D2" s="2">
         <v>44215</v>
@@ -2445,18 +2435,18 @@
         <v>3</v>
       </c>
       <c r="M2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2">
         <v>44215</v>
@@ -2465,18 +2455,18 @@
         <v>2</v>
       </c>
       <c r="M3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D4" s="2">
         <v>44215</v>
@@ -2485,18 +2475,18 @@
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D5" s="2">
         <v>44215</v>
@@ -2507,13 +2497,13 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2">
         <v>44215</v>
@@ -2524,13 +2514,13 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D7" s="2">
         <v>44215</v>
@@ -2541,13 +2531,13 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B8" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D8" s="2">
         <v>44215</v>
@@ -2558,13 +2548,13 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B9" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D9" s="2">
         <v>44215</v>
@@ -2575,13 +2565,13 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B10" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D10" s="2">
         <v>44215</v>
@@ -2592,13 +2582,13 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B11" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D11" s="2">
         <v>44215</v>
@@ -2609,13 +2599,13 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B12" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D12" s="2">
         <v>44288</v>
@@ -2623,13 +2613,13 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B13" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D13" s="2">
         <v>44288</v>
@@ -2637,13 +2627,13 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B14" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D14" s="2">
         <v>44288</v>
@@ -2651,13 +2641,13 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B15" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D15" s="2">
         <v>44288</v>
@@ -2665,13 +2655,13 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B16" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D16" s="2">
         <v>44288</v>
@@ -2679,13 +2669,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B17" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D17" s="2">
         <v>44288</v>
@@ -2696,13 +2686,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B18" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D18" s="2">
         <v>44288</v>
@@ -2710,13 +2700,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B19" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D19" s="2">
         <v>44288</v>
@@ -2727,13 +2717,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B20" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D20" s="2">
         <v>44288</v>
@@ -2744,13 +2734,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B21" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D21" s="2">
         <v>44288</v>
@@ -2761,13 +2751,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B22" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D22" s="2">
         <v>44288</v>
@@ -2778,13 +2768,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B23" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D23" s="2">
         <v>44288</v>
@@ -2795,13 +2785,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B24" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D24" s="2">
         <v>44288</v>
@@ -2812,13 +2802,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B25" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D25" s="2">
         <v>44288</v>
@@ -2829,13 +2819,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B26" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D26" s="2">
         <v>44288</v>
@@ -2846,13 +2836,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B27" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D27" s="2">
         <v>44288</v>
@@ -2863,13 +2853,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B28" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D28" s="2">
         <v>44288</v>
@@ -2880,13 +2870,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B29" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C29" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D29" s="2">
         <v>44288</v>
@@ -2897,13 +2887,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B30" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D30" s="2">
         <v>44288</v>
@@ -2914,13 +2904,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B31" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C31" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D31" s="2">
         <v>44288</v>
@@ -2931,13 +2921,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B32" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D32" s="2">
         <v>44309</v>
@@ -2945,13 +2935,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B33" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D33" s="2">
         <v>44309</v>
@@ -2959,13 +2949,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B34" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C34" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D34" s="2">
         <v>44309</v>
@@ -2973,13 +2963,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B35" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D35" s="2">
         <v>44309</v>
@@ -2987,13 +2977,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B36" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D36" s="2">
         <v>44309</v>
@@ -3001,13 +2991,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B37" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C37" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D37" s="2">
         <v>44309</v>
@@ -3015,13 +3005,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B38" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D38" s="2">
         <v>44309</v>
@@ -3032,13 +3022,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D39" s="2">
         <v>44309</v>
@@ -3049,13 +3039,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B40" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C40" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D40" s="2">
         <v>44309</v>
@@ -3066,13 +3056,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B41" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D41" s="2">
         <v>44309</v>
@@ -3083,13 +3073,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B42" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C42" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D42" s="2">
         <v>44309</v>
@@ -3100,13 +3090,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B43" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C43" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D43" s="2">
         <v>44309</v>
@@ -3117,13 +3107,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B44" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D44" s="2">
         <v>44309</v>
@@ -3134,13 +3124,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B45" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C45" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D45" s="2">
         <v>44309</v>
@@ -3151,13 +3141,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B46" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C46" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D46" s="2">
         <v>44309</v>
@@ -3168,13 +3158,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B47" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C47" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D47" s="2">
         <v>44309</v>
@@ -3185,13 +3175,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B48" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C48" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D48" s="2">
         <v>44309</v>
@@ -3202,13 +3192,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B49" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C49" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D49" s="2">
         <v>44309</v>
@@ -3219,13 +3209,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B50" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C50" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D50" s="2">
         <v>44309</v>
@@ -3236,13 +3226,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B51" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C51" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D51" s="2">
         <v>44309</v>
@@ -3253,13 +3243,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B52" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C52" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D52" s="2">
         <v>44309</v>
@@ -3270,13 +3260,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B53" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C53" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D53" s="2">
         <v>44309</v>
@@ -3287,13 +3277,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B54" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C54" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D54" s="2">
         <v>44309</v>
@@ -3304,13 +3294,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B55" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C55" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D55" s="2">
         <v>44309</v>
@@ -3321,13 +3311,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B56" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C56" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D56" s="2">
         <v>44323</v>
@@ -3335,13 +3325,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B57" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C57" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D57" s="2">
         <v>44323</v>
@@ -3349,13 +3339,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B58" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C58" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D58" s="2">
         <v>44323</v>
@@ -3363,13 +3353,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B59" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C59" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D59" s="2">
         <v>44323</v>
@@ -3377,13 +3367,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B60" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C60" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D60" s="2">
         <v>44323</v>
@@ -3391,13 +3381,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B61" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C61" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D61" s="2">
         <v>44323</v>
@@ -3405,13 +3395,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B62" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C62" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D62" s="2">
         <v>44323</v>
@@ -3422,13 +3412,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B63" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C63" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D63" s="2">
         <v>44323</v>
@@ -3439,13 +3429,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B64" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C64" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D64" s="2">
         <v>44323</v>
@@ -3456,13 +3446,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B65" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C65" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D65" s="2">
         <v>44323</v>
@@ -3473,13 +3463,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B66" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C66" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D66" s="2">
         <v>44323</v>
@@ -3490,13 +3480,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B67" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C67" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D67" s="2">
         <v>44323</v>
@@ -3507,13 +3497,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B68" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C68" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D68" s="2">
         <v>44323</v>
@@ -3524,13 +3514,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B69" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C69" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D69" s="2">
         <v>44323</v>
@@ -3541,13 +3531,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B70" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C70" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D70" s="2">
         <v>44323</v>
@@ -3558,13 +3548,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B71" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C71" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D71" s="2">
         <v>44323</v>
@@ -3575,13 +3565,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B72" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C72" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D72" s="2">
         <v>44323</v>
@@ -3592,13 +3582,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B73" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C73" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D73" s="2">
         <v>44323</v>
@@ -3609,13 +3599,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B74" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C74" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D74" s="2">
         <v>44337</v>
@@ -3623,13 +3613,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B75" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C75" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D75" s="2">
         <v>44337</v>
@@ -3637,13 +3627,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B76" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C76" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D76" s="2">
         <v>44337</v>
@@ -3651,13 +3641,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B77" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C77" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D77" s="2">
         <v>44337</v>
@@ -3665,13 +3655,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B78" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C78" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D78" s="2">
         <v>44337</v>
@@ -3682,13 +3672,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B79" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C79" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D79" s="2">
         <v>44337</v>
@@ -3699,13 +3689,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B80" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C80" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D80" s="2">
         <v>44337</v>
@@ -3716,13 +3706,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B81" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C81" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D81" s="2">
         <v>44337</v>
@@ -3733,13 +3723,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B82" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C82" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D82" s="2">
         <v>44337</v>
@@ -3750,13 +3740,13 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B83" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C83" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D83" s="2">
         <v>44337</v>
@@ -3767,13 +3757,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B84" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C84" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D84" s="2">
         <v>44337</v>
@@ -3784,13 +3774,13 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B85" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C85" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D85" s="2">
         <v>44337</v>
@@ -3801,13 +3791,13 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B86" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C86" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D86" s="2">
         <v>44351</v>
@@ -3815,13 +3805,13 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B87" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C87" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D87" s="2">
         <v>44351</v>
@@ -3829,13 +3819,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B88" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C88" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D88" s="2">
         <v>44351</v>
@@ -3843,13 +3833,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B89" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C89" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D89" s="2">
         <v>44351</v>
@@ -3857,13 +3847,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B90" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C90" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D90" s="2">
         <v>44351</v>
@@ -3874,13 +3864,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B91" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C91" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D91" s="2">
         <v>44351</v>
@@ -3891,13 +3881,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B92" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C92" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D92" s="2">
         <v>44351</v>
@@ -3908,13 +3898,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B93" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C93" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D93" s="2">
         <v>44351</v>
@@ -3925,13 +3915,13 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B94" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C94" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D94" s="2">
         <v>44365</v>
@@ -3939,13 +3929,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B95" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C95" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D95" s="2">
         <v>44365</v>
@@ -3956,13 +3946,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B96" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C96" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D96" s="2">
         <v>44365</v>
@@ -3973,13 +3963,13 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B97" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C97" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D97" s="2">
         <v>44365</v>
@@ -3990,13 +3980,13 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B98" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C98" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D98" s="2">
         <v>44407</v>
@@ -4004,13 +3994,13 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B99" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C99" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D99" s="2">
         <v>44407</v>
@@ -4018,13 +4008,13 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B100" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C100" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D100" s="2">
         <v>44407</v>
@@ -4050,7 +4040,7 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4065,538 +4055,538 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B2" t="str">
         <f>TEXT(1,"0")</f>
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B6" si="0">TEXT(1,"0")</f>
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B7" t="str">
         <f>TEXT(2,"0")</f>
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B8" t="str">
         <f>TEXT(2,"0")</f>
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B9" t="str">
         <f>TEXT(2,"0")</f>
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B10" t="str">
         <f>TEXT(3,"0")</f>
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B11" t="str">
         <f>TEXT(3,"0")</f>
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B12" t="str">
         <f>TEXT(3,"0")</f>
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B13" t="str">
         <f>TEXT(3,"0")</f>
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D13" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B14" t="str">
         <f>TEXT(3,"0")</f>
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D14" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" ref="B15:B20" si="1">TEXT(4,"0")</f>
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D15" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D16" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D17" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D18" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D19" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D20" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B21" t="str">
         <f>TEXT(5,"0")</f>
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B22" t="str">
         <f>TEXT(5,"0")</f>
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D22" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B23" t="str">
         <f>TEXT(5,"0")</f>
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D23" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B24" t="str">
         <f>TEXT(5,"0")</f>
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D24" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B25" t="str">
         <f>TEXT(6,"0")</f>
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D25" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B26" t="str">
         <f>TEXT(6,"0")</f>
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D26" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B27" t="str">
         <f>TEXT(6,"0")</f>
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D27" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B28" t="str">
         <f>TEXT(6,"0")</f>
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D28" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B29" t="str">
         <f>TEXT(7,"0")</f>
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D29" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B30" t="str">
         <f>TEXT(7,"0")</f>
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D30" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B31" t="str">
         <f>TEXT(7,"0")</f>
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D31" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B32" t="str">
         <f>TEXT(7,"0")</f>
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D32" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B33" t="str">
         <f>TEXT(8,"0")</f>
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D33" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B34" t="str">
         <f>TEXT(8,"0")</f>
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D34" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B35" t="str">
         <f>TEXT(8,"0")</f>
         <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D35" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -4632,102 +4622,102 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D1" t="s">
         <v>44</v>
       </c>
       <c r="E1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I1" t="s">
         <v>176</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>177</v>
       </c>
-      <c r="G1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>178</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>179</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>180</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>181</v>
       </c>
-      <c r="L1" t="s">
+      <c r="U1" t="s">
         <v>182</v>
       </c>
-      <c r="M1" t="s">
-        <v>183</v>
-      </c>
-      <c r="N1" t="s">
-        <v>184</v>
-      </c>
-      <c r="U1" t="s">
-        <v>185</v>
-      </c>
       <c r="W1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="U2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="W2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="U3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="W3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="U4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="W4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="U5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="W5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="U6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="W6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="U7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="U8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -4745,10 +4735,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A13260C-C42D-4E60-BE2C-2CA24BC2C1E2}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4794,30 +4784,6 @@
         <v>48</v>
       </c>
       <c r="B5" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="4">
         <v>7</v>
       </c>
     </row>
@@ -4832,7 +4798,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4850,19 +4816,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -4888,7 +4854,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>47</v>
@@ -4909,10 +4875,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C4" s="4">
         <v>1234</v>
@@ -4930,10 +4896,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C5" s="4">
         <v>1235</v>
@@ -4951,10 +4917,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C6" s="4">
         <v>1236</v>
@@ -4972,7 +4938,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>46</v>
@@ -4996,7 +4962,7 @@
         <v>32</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C8" s="4">
         <v>1241</v>
@@ -5014,10 +4980,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C9" s="4">
         <v>1243</v>
@@ -5038,7 +5004,7 @@
         <v>36</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C10" s="4">
         <v>1246</v>
@@ -5059,7 +5025,7 @@
         <v>38</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C11" s="4">
         <v>1247</v>
@@ -5077,10 +5043,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C12" s="4">
         <v>1251</v>
@@ -5098,10 +5064,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C13" s="4">
         <v>1252</v>
@@ -5119,10 +5085,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C14" s="4">
         <v>1253</v>
@@ -5140,10 +5106,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C15" s="4">
         <v>1254</v>
@@ -5193,8 +5159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59AF7EF-B12B-4A6F-9425-B1B26B554B1A}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5216,69 +5182,69 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G1" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="H1" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>66</v>
-      </c>
       <c r="F2" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G2" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>301</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>304</v>
       </c>
       <c r="I2" t="str">
         <f>TEXT(8,"0")</f>
@@ -5289,7 +5255,7 @@
         <v>150000</v>
       </c>
       <c r="K2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L2" t="str">
         <f>TEXT(14,"0")</f>
@@ -5301,33 +5267,33 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E3" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>69</v>
-      </c>
       <c r="G3" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>302</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>305</v>
       </c>
       <c r="I3" t="str">
         <f>TEXT(12,"0")</f>
@@ -5338,7 +5304,7 @@
         <v>350000</v>
       </c>
       <c r="K3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L3" t="str">
         <f>TEXT(31,"0")</f>
@@ -5350,30 +5316,30 @@
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
       <c r="R3" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>74</v>
-      </c>
       <c r="E4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>73</v>
-      </c>
       <c r="G4" s="10" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" t="str">
@@ -5385,7 +5351,7 @@
         <v>500000</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L4" t="str">
         <f>TEXT(21,"0")</f>
@@ -5448,122 +5414,122 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2">
         <v>44209</v>
       </c>
       <c r="I2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2">
         <v>44256</v>
       </c>
       <c r="I3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2">
         <v>44277</v>
       </c>
       <c r="I4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2">
         <v>44312</v>
       </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2">
         <v>44408</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2">
         <v>44317</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2">
         <v>44347</v>
       </c>
       <c r="I8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2">
         <v>44354</v>
@@ -5571,10 +5537,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C10" s="2">
         <v>44438</v>
@@ -5582,10 +5548,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C11" s="2">
         <v>44627</v>
@@ -5593,10 +5559,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C12" s="2">
         <v>44680</v>
@@ -5618,8 +5584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8482F8C3-6DCA-424C-81AE-BDA1451F2AAD}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5637,51 +5603,51 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="G1" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>54</v>
+      <c r="H1" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F2" s="17">
         <v>35</v>
@@ -5689,32 +5655,32 @@
       <c r="G2" s="17">
         <v>0.2</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="4">
         <v>1237</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="4">
         <v>4</v>
       </c>
-      <c r="J2" s="7" t="str">
+      <c r="J2" s="4" t="str">
         <f>VLOOKUP(H2,[1]Users!$A$2:$B$50,2,FALSE)</f>
         <v>Tiago Cancado</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F3" s="17">
         <v>25</v>
@@ -5722,32 +5688,32 @@
       <c r="G3" s="17">
         <v>0.2</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="4">
         <v>1234</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="4">
         <v>5</v>
       </c>
-      <c r="J3" s="7" t="str">
+      <c r="J3" s="4" t="str">
         <f>VLOOKUP(H3,[1]Users!$A$2:$B$50,2,FALSE)</f>
         <v>Joao Silva</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F4" s="17">
         <v>25</v>
@@ -5755,32 +5721,32 @@
       <c r="G4" s="17">
         <v>0.3</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="4">
         <v>1235</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="4">
         <v>6</v>
       </c>
-      <c r="J4" s="7" t="str">
+      <c r="J4" s="4" t="str">
         <f>VLOOKUP(H4,[1]Users!$A$2:$B$50,2,FALSE)</f>
         <v>Manel Costa</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F5" s="17">
         <v>20</v>
@@ -5788,13 +5754,13 @@
       <c r="G5" s="17">
         <v>1</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="4">
         <v>1236</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="4">
         <v>7</v>
       </c>
-      <c r="J5" s="7" t="str">
+      <c r="J5" s="4" t="str">
         <f>VLOOKUP(H5,[1]Users!$A$2:$B$50,2,FALSE)</f>
         <v>Xico Ferreira</v>
       </c>
@@ -5804,16 +5770,16 @@
         <v>32</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F6" s="17">
         <v>20</v>
@@ -5821,32 +5787,32 @@
       <c r="G6" s="17">
         <v>1</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="4">
         <v>1241</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="4">
         <v>7</v>
       </c>
-      <c r="J6" s="7" t="str">
+      <c r="J6" s="4" t="str">
         <f>VLOOKUP(H6,[1]Users!$A$2:$B$50,2,FALSE)</f>
         <v>Nel Moleiro</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F7" s="17">
         <v>20</v>
@@ -5854,13 +5820,13 @@
       <c r="G7" s="17">
         <v>1</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="4">
         <v>1243</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="4">
         <v>7</v>
       </c>
-      <c r="J7" s="7" t="str">
+      <c r="J7" s="4" t="str">
         <f>VLOOKUP(H7,[1]Users!$A$2:$B$50,2,FALSE)</f>
         <v>Zé do Bento</v>
       </c>
@@ -5870,16 +5836,16 @@
         <v>36</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F8" s="17">
         <v>20</v>
@@ -5887,13 +5853,13 @@
       <c r="G8" s="17">
         <v>1</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="4">
         <v>1246</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="4">
         <v>7</v>
       </c>
-      <c r="J8" s="7" t="str">
+      <c r="J8" s="4" t="str">
         <f>VLOOKUP(H8,[1]Users!$A$2:$B$50,2,FALSE)</f>
         <v>Tó Farrulo</v>
       </c>
@@ -5903,16 +5869,16 @@
         <v>38</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F9" s="17">
         <v>20</v>
@@ -5920,13 +5886,13 @@
       <c r="G9" s="17">
         <v>1</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="4">
         <v>1247</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="4">
         <v>7</v>
       </c>
-      <c r="J9" s="7" t="str">
+      <c r="J9" s="4" t="str">
         <f>VLOOKUP(H9,[1]Users!$A$2:$B$50,2,FALSE)</f>
         <v>Tino das Cruzes</v>
       </c>
@@ -5943,7 +5909,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5955,253 +5921,253 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B2" t="str">
         <f>TEXT(1,"0")</f>
         <v>1</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B3" t="str">
         <f>TEXT(2,"0")</f>
         <v>2</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B4" t="str">
         <f>TEXT(3,"0")</f>
         <v>3</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B5" t="str">
         <f>TEXT(4,"0")</f>
         <v>4</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B6" t="str">
         <f>TEXT(5,"0")</f>
         <v>5</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B7" t="str">
         <f>TEXT(6,"0")</f>
         <v>6</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B8" t="str">
         <f>TEXT(7,"0")</f>
         <v>7</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B9" t="str">
         <f>TEXT(8,"0")</f>
         <v>8</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B10" t="str">
         <f>TEXT(1,"0")</f>
         <v>1</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B11" t="str">
         <f>TEXT(2,"0")</f>
         <v>2</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B12" t="str">
         <f>TEXT(3,"0")</f>
         <v>3</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B13" t="str">
         <f>TEXT(4,"0")</f>
         <v>4</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B14" t="str">
         <f>TEXT(5,"0")</f>
         <v>5</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B15" t="str">
         <f>TEXT(6,"0")</f>
         <v>6</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B16" t="str">
         <f>TEXT(7,"0")</f>
         <v>7</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B17" t="str">
         <f>TEXT(8,"0")</f>
         <v>8</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B18" t="str">
         <f>TEXT(9,"0")</f>
         <v>9</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B19" t="str">
         <f>TEXT(10,"0")</f>
         <v>10</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B20" t="str">
         <f>TEXT(11,"0")</f>
         <v>11</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B21" t="str">
         <f>TEXT(12,"0")</f>
         <v>12</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -6226,7 +6192,7 @@
   <sheetData>
     <row r="1" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -6238,10 +6204,10 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>10</v>
@@ -6252,16 +6218,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10" t="s">
@@ -6280,13 +6246,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC3EF37-2BA8-4EC6-92A1-22C0C9AA6791}">
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42:H66"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" style="25" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" style="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="18"/>
     <col min="4" max="4" width="15.88671875" style="10" customWidth="1"/>
@@ -6297,28 +6263,28 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>10</v>
@@ -6326,1603 +6292,1603 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C2" s="18">
         <v>1</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E2" s="19">
         <v>10</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="O2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C3" s="18">
         <v>2</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E3" s="19">
         <v>15</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H3" s="13"/>
       <c r="O3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C4" s="18">
         <v>3</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E4" s="19">
         <v>11</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H4" s="13"/>
       <c r="O4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C5" s="18">
         <v>4</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E5" s="19">
         <v>13</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C6" s="18">
         <v>5</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E6" s="19">
         <v>13.5</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C7" s="18">
         <v>1</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E7" s="19">
         <v>14</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C8" s="18">
         <v>2</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E8" s="19">
         <v>14.5</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C9" s="18">
         <v>3</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E9" s="19">
         <v>15</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C10" s="18">
         <v>4</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E10" s="19">
         <v>15.5</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C11" s="18">
         <v>5</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E11" s="19">
         <v>16</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C12" s="18">
         <v>1</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E12" s="19">
         <v>16.5</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C13" s="18">
         <v>2</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E13" s="19">
         <v>17</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C14" s="18">
         <v>3</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E14" s="19">
         <v>17.5</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C15" s="18">
         <v>4</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E15" s="19">
         <v>18</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C16" s="18">
         <v>5</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E16" s="19">
         <v>18.5</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H16" s="13"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C17" s="18">
         <v>1</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E17" s="19">
         <v>19</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C18" s="18">
         <v>2</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E18" s="19">
         <v>19.5</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C19" s="18">
         <v>3</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E19" s="19">
         <v>20</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C20" s="18">
         <v>4</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E20" s="19">
         <v>20.5</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C21" s="18">
         <v>5</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E21" s="19">
         <v>21</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C22" s="18">
         <v>1</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E22" s="19">
         <v>21.5</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H22" s="13"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C23" s="18">
         <v>2</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E23" s="19">
         <v>22</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H23" s="13"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C24" s="18">
         <v>3</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E24" s="19">
         <v>22.5</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H24" s="13"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C25" s="18">
         <v>4</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E25" s="19">
         <v>23</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C26" s="18">
         <v>5</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E26" s="19">
         <v>23.5</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H26" s="13"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C27" s="18">
         <v>1</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E27" s="19">
         <v>24</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H27" s="13"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C28" s="18">
         <v>2</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E28" s="19">
         <v>24.5</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H28" s="13"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C29" s="18">
         <v>3</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E29" s="19">
         <v>25</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H29" s="13"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C30" s="18">
         <v>4</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E30" s="19">
         <v>25.5</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H30" s="13"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C31" s="18">
         <v>5</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E31" s="19">
         <v>26</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H31" s="13"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="25" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C32" s="18">
         <v>1</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E32" s="19">
         <v>26.5</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C33" s="18">
         <v>2</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E33" s="19">
         <v>27</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H33" s="13"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C34" s="18">
         <v>3</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E34" s="19">
         <v>27.5</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H34" s="13"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C35" s="18">
         <v>4</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E35" s="19">
         <v>28</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H35" s="13"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C36" s="18">
         <v>5</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E36" s="19">
         <v>28.5</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H36" s="13"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C37" s="18">
         <v>1</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E37" s="19">
         <v>29</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H37" s="13"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C38" s="18">
         <v>2</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E38" s="19">
         <v>29.5</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="H38" s="13"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C39" s="18">
         <v>3</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E39" s="19">
         <v>30</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H39" s="13"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C40" s="18">
         <v>4</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E40" s="19">
         <v>30.5</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H40" s="13"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C41" s="18">
         <v>5</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E41" s="19">
         <v>31</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H41" s="26" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C42" s="18">
         <v>1</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E42" s="19">
         <v>31.5</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H42" s="13"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C43" s="18">
         <v>2</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E43" s="19">
         <v>32</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="H43" s="13"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C44" s="18">
         <v>3</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E44" s="19">
         <v>32.5</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H44" s="13"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C45" s="18">
         <v>4</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E45" s="19">
         <v>33</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="H45" s="13"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C46" s="18">
         <v>5</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E46" s="19">
         <v>33.5</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="H46" s="13"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C47" s="18">
         <v>1</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E47" s="19">
         <v>34</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H47" s="13"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C48" s="18">
         <v>2</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E48" s="19">
         <v>34.5</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H48" s="13"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C49" s="18">
         <v>3</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E49" s="19">
         <v>35</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H49" s="13"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C50" s="18">
         <v>4</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E50" s="19">
         <v>35.5</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H50" s="13"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C51" s="18">
         <v>5</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E51" s="19">
         <v>36</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H51" s="13"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C52" s="18">
         <v>1</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E52" s="19">
         <v>36.5</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H52" s="13"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C53" s="18">
         <v>2</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E53" s="19">
         <v>37</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H53" s="13"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C54" s="18">
         <v>3</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E54" s="19">
         <v>37.5</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H54" s="13"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C55" s="18">
         <v>4</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E55" s="19">
         <v>38</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="H55" s="13"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C56" s="18">
         <v>5</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E56" s="19">
         <v>38.5</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H56" s="13"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C57" s="18">
         <v>1</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E57" s="19">
         <v>39</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H57" s="13"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C58" s="18">
         <v>2</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E58" s="19">
         <v>39.5</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H58" s="13"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C59" s="18">
         <v>3</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E59" s="19">
         <v>40</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H59" s="13"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C60" s="18">
         <v>4</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E60" s="19">
         <v>40.5</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H60" s="13"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C61" s="18">
         <v>5</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E61" s="19">
         <v>41</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H61" s="13"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C62" s="18">
         <v>1</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E62" s="19">
         <v>41.5</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="H62" s="13"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C63" s="18">
         <v>2</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E63" s="19">
         <v>42</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H63" s="13"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C64" s="18">
         <v>3</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E64" s="19">
         <v>42.5</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H64" s="13"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C65" s="18">
         <v>4</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E65" s="19">
         <v>43</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H65" s="13"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C66" s="18">
         <v>5</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E66" s="19">
         <v>43.5</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="H66" s="13"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C67" s="18">
         <v>1</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E67" s="19">
         <v>44</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H67" s="26" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -7938,9 +7904,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8147,19 +8116,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EAF4CE-5C55-41AC-946B-5BEC082284DF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{552A2396-49F4-45F5-9D44-9C3125763CF2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8184,9 +8149,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{552A2396-49F4-45F5-9D44-9C3125763CF2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EAF4CE-5C55-41AC-946B-5BEC082284DF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\switch\projectg2\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D68A96-D6C1-48A0-9A64-3BB600956808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3CC546-E7A8-4352-8C05-B44A4945CFAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8472" yWindow="1680" windowWidth="17280" windowHeight="8964" tabRatio="938" firstSheet="4" activeTab="8" xr2:uid="{17341BA7-7E24-41D8-A92D-79256BC3D291}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="938" activeTab="2" xr2:uid="{17341BA7-7E24-41D8-A92D-79256BC3D291}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="400">
   <si>
     <t>id</t>
   </si>
@@ -1319,7 +1319,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1344,6 +1344,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1358,22 +1364,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1390,6 +1391,7 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
@@ -1854,7 +1856,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1918,23 +1920,23 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H2" s="4">
@@ -1960,23 +1962,23 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H3" s="4">
@@ -2002,23 +2004,23 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10" t="s">
+      <c r="F4" s="8"/>
+      <c r="G4" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H4" s="4">
@@ -2044,23 +2046,23 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H5" s="4">
@@ -2086,23 +2088,23 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10" t="s">
+      <c r="F6" s="8"/>
+      <c r="G6" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="4">
@@ -2128,23 +2130,23 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10" t="s">
+      <c r="F7" s="8"/>
+      <c r="G7" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="4">
@@ -2170,23 +2172,23 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10" t="s">
+      <c r="F8" s="8"/>
+      <c r="G8" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="4">
@@ -2194,23 +2196,23 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10" t="s">
+      <c r="F9" s="8"/>
+      <c r="G9" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H9" s="4">
@@ -2218,23 +2220,23 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10" t="s">
+      <c r="F10" s="8"/>
+      <c r="G10" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H10" s="4">
@@ -2242,23 +2244,23 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10" t="s">
+      <c r="F11" s="8"/>
+      <c r="G11" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H11" s="4">
@@ -2266,23 +2268,23 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10" t="s">
+      <c r="F12" s="8"/>
+      <c r="G12" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H12" s="4">
@@ -2290,23 +2292,23 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10" t="s">
+      <c r="F13" s="8"/>
+      <c r="G13" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H13" s="4">
@@ -2314,23 +2316,23 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10" t="s">
+      <c r="F14" s="8"/>
+      <c r="G14" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H14" s="4">
@@ -2338,23 +2340,23 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10" t="s">
+      <c r="F15" s="8"/>
+      <c r="G15" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H15" s="4">
@@ -4071,7 +4073,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B2" t="str">
@@ -4089,7 +4091,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B3" t="str">
@@ -4107,7 +4109,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B4" t="str">
@@ -4125,7 +4127,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B5" t="str">
@@ -4140,7 +4142,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B6" t="str">
@@ -4155,7 +4157,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B7" t="str">
@@ -4170,7 +4172,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B8" t="str">
@@ -4185,7 +4187,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B9" t="str">
@@ -4200,7 +4202,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B10" t="str">
@@ -4215,7 +4217,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B11" t="str">
@@ -4230,7 +4232,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B12" t="str">
@@ -4245,7 +4247,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B13" t="str">
@@ -4260,7 +4262,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B14" t="str">
@@ -4275,7 +4277,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B15" t="str">
@@ -4290,7 +4292,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B16" t="str">
@@ -4305,7 +4307,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B17" t="str">
@@ -4320,7 +4322,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B18" t="str">
@@ -4335,7 +4337,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B19" t="str">
@@ -4350,7 +4352,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B20" t="str">
@@ -4365,7 +4367,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B21" t="str">
@@ -4380,7 +4382,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B22" t="str">
@@ -4395,7 +4397,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B23" t="str">
@@ -4410,7 +4412,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B24" t="str">
@@ -4425,7 +4427,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B25" t="str">
@@ -4440,7 +4442,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B26" t="str">
@@ -4455,7 +4457,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B27" t="str">
@@ -4470,7 +4472,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B28" t="str">
@@ -4485,7 +4487,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B29" t="str">
@@ -4500,7 +4502,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B30" t="str">
@@ -4515,7 +4517,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B31" t="str">
@@ -4530,7 +4532,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B32" t="str">
@@ -4545,7 +4547,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B33" t="str">
@@ -4560,7 +4562,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B34" t="str">
@@ -4575,7 +4577,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B35" t="str">
@@ -4738,7 +4740,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4756,7 +4758,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B2" s="4">
@@ -4764,7 +4766,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B3" s="4">
@@ -4772,7 +4774,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>47</v>
       </c>
       <c r="B4" s="4">
@@ -4780,7 +4782,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>48</v>
       </c>
       <c r="B5" s="4">
@@ -4795,363 +4797,363 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D077A5-E46E-4ED9-B547-F70AD3D26657}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="4"/>
-    <col min="4" max="4" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="26" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="26">
         <v>1238</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="26">
         <v>1</v>
       </c>
-      <c r="E2" s="4" t="e">
-        <f>VLOOKUP(C2,Users!$H$2:$H$50,2,FALSE)</f>
+      <c r="E2" s="26" t="e">
         <v>#REF!</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="26">
         <v>44197</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="T2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>195</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="26">
         <v>1237</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="26">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="e">
-        <f>VLOOKUP(C3,Users!$H$2:$H$50,2,FALSE)</f>
+      <c r="E3" s="26" t="e">
         <v>#REF!</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="26">
         <v>44198</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="T3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>192</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="26">
         <v>1234</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="26">
         <v>7</v>
       </c>
-      <c r="E4" s="4" t="e">
-        <f>VLOOKUP(C4,Users!$H$2:$H$50,2,FALSE)</f>
+      <c r="E4" s="26" t="e">
         <v>#REF!</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="26">
         <v>44199</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="T4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>193</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="26">
         <v>1235</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="26">
         <v>7</v>
       </c>
-      <c r="E5" s="4" t="e">
-        <f>VLOOKUP(C5,Users!$H$2:$H$50,2,FALSE)</f>
+      <c r="E5" s="26" t="e">
         <v>#REF!</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="26">
         <v>44200</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="T5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>194</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="26">
         <v>1236</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="26">
         <v>7</v>
       </c>
-      <c r="E6" s="4" t="e">
-        <f>VLOOKUP(C6,Users!$H$2:$H$50,2,FALSE)</f>
+      <c r="E6" s="26" t="e">
         <v>#REF!</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="26">
         <v>44201</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="T6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>196</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="26">
         <v>1239</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="26">
         <v>2</v>
       </c>
-      <c r="E7" s="4" t="e">
-        <f>VLOOKUP(C7,Users!$H$2:$H$50,2,FALSE)</f>
+      <c r="E7" s="26" t="e">
         <v>#REF!</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="26">
         <v>44567</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="T7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="26">
         <v>1241</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="26">
         <v>7</v>
       </c>
-      <c r="E8" s="4" t="e">
-        <f>VLOOKUP(C8,Users!$H$2:$H$50,2,FALSE)</f>
+      <c r="E8" s="26" t="e">
         <v>#REF!</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="26">
         <v>44203</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="T8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>197</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="26">
         <v>1243</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="26">
         <v>7</v>
       </c>
-      <c r="E9" s="4" t="e">
-        <f>VLOOKUP(C9,Users!$H$2:$H$50,2,FALSE)</f>
+      <c r="E9" s="26" t="e">
         <v>#REF!</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="26">
         <v>44235</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="T9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="26">
         <v>1246</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="26">
         <v>7</v>
       </c>
-      <c r="E10" s="4" t="e">
-        <f>VLOOKUP(C10,Users!$H$2:$H$50,2,FALSE)</f>
+      <c r="E10" s="26" t="e">
         <v>#REF!</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="26">
         <v>44235</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="T10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="26">
         <v>1247</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="26">
         <v>7</v>
       </c>
-      <c r="E11" s="4" t="e">
-        <f>VLOOKUP(C11,Users!$H$2:$H$50,2,FALSE)</f>
+      <c r="E11" s="26" t="e">
         <v>#REF!</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="26">
         <v>44237</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="T11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>198</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="26">
         <v>1251</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="26">
         <v>7</v>
       </c>
-      <c r="E12" s="4" t="e">
-        <f>VLOOKUP(C12,Users!$H$2:$H$50,2,FALSE)</f>
+      <c r="E12" s="26" t="e">
         <v>#REF!</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="26">
         <v>44242</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="T12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>199</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="26">
         <v>1252</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="26">
         <v>7</v>
       </c>
-      <c r="E13" s="4" t="e">
-        <f>VLOOKUP(C13,Users!$H$2:$H$50,2,FALSE)</f>
+      <c r="E13" s="26" t="e">
         <v>#REF!</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="26">
         <v>44242</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="T13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>200</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="26">
         <v>1253</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="26">
         <v>7</v>
       </c>
-      <c r="E14" s="4" t="e">
-        <f>VLOOKUP(C14,Users!$H$2:$H$50,2,FALSE)</f>
+      <c r="E14" s="26" t="e">
         <v>#REF!</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="26">
         <v>44242</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="T14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>201</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="26">
         <v>1254</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="26">
         <v>7</v>
       </c>
-      <c r="E15" s="4" t="e">
-        <f>VLOOKUP(C15,Users!$H$2:$H$50,2,FALSE)</f>
+      <c r="E15" s="26" t="e">
         <v>#REF!</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="26">
         <v>44242</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
+      <c r="T15" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{D04358BC-8EBE-4E9A-B854-DE94FF48D5B2}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{291ED731-B6BB-4060-B30B-089A7EE0995A}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{7D3AC3DC-AD1D-4985-9A02-7E2C4A503094}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{95201822-ACB4-40DD-A100-CDF1A558E8EB}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{6219A1B5-C944-408F-B968-A37CE3ECBC00}"/>
-    <hyperlink ref="A7" r:id="rId6" xr:uid="{900CAA79-2D9D-46EF-ADF7-E5F00343880E}"/>
-    <hyperlink ref="A8" r:id="rId7" xr:uid="{D5736D46-1203-41EB-8387-A26E559592FD}"/>
-    <hyperlink ref="A9" r:id="rId8" xr:uid="{68577AE4-7EEF-47DD-9AE7-CEB103660249}"/>
-    <hyperlink ref="A10" r:id="rId9" xr:uid="{B7689584-A398-4C4B-A02A-379C99951EA2}"/>
-    <hyperlink ref="A11" r:id="rId10" xr:uid="{010AADBE-2DFD-41A7-B67D-16B3364317F8}"/>
-    <hyperlink ref="A12" r:id="rId11" xr:uid="{2AE3AE20-4CC2-4837-A6AA-99E43F135152}"/>
-    <hyperlink ref="A13" r:id="rId12" xr:uid="{BE9B25CE-21C8-4ECD-BA7D-B5CB3EF54A49}"/>
-    <hyperlink ref="A14" r:id="rId13" xr:uid="{8282D371-DB4B-481B-9D4D-B0F030766E5D}"/>
-    <hyperlink ref="A15" r:id="rId14" xr:uid="{AAE83D6C-2671-4ABB-A512-4C096F064091}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5160,7 +5162,7 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5181,7 +5183,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -5199,10 +5201,10 @@
       <c r="F1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="18" t="s">
         <v>210</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -5211,7 +5213,7 @@
       <c r="J1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="11" t="s">
         <v>213</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -5222,28 +5224,28 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="8" t="s">
         <v>301</v>
       </c>
       <c r="I2" t="str">
@@ -5261,38 +5263,38 @@
         <f>TEXT(14,"0")</f>
         <v>14</v>
       </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10" t="s">
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="8" t="s">
         <v>302</v>
       </c>
       <c r="I3" t="str">
@@ -5310,38 +5312,38 @@
         <f>TEXT(31,"0")</f>
         <v>31</v>
       </c>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10" t="s">
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="H4" s="15"/>
+      <c r="H4" s="12"/>
       <c r="I4" t="str">
         <f>TEXT(15,"0")</f>
         <v>15</v>
@@ -5350,39 +5352,39 @@
         <f>TEXT(500000,"0")</f>
         <v>500000</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="8" t="s">
         <v>74</v>
       </c>
       <c r="L4" t="str">
         <f>TEXT(21,"0")</f>
         <v>21</v>
       </c>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5427,7 +5429,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B2" t="s">
@@ -5441,7 +5443,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B3" t="s">
@@ -5455,7 +5457,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B4" t="s">
@@ -5469,7 +5471,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B5" t="s">
@@ -5483,7 +5485,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B6" t="s">
@@ -5497,7 +5499,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>216</v>
       </c>
       <c r="B7" t="s">
@@ -5511,7 +5513,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>216</v>
       </c>
       <c r="B8" t="s">
@@ -5525,7 +5527,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>216</v>
       </c>
       <c r="B9" t="s">
@@ -5536,7 +5538,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>216</v>
       </c>
       <c r="B10" t="s">
@@ -5547,7 +5549,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>216</v>
       </c>
       <c r="B11" t="s">
@@ -5558,7 +5560,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="8" t="s">
         <v>216</v>
       </c>
       <c r="B12" t="s">
@@ -5592,23 +5594,23 @@
   <cols>
     <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="7"/>
-    <col min="9" max="9" width="9.21875" style="7"/>
-    <col min="10" max="10" width="14.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="5"/>
+    <col min="9" max="9" width="9.21875" style="5"/>
+    <col min="10" max="10" width="14.88671875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>220</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -5617,42 +5619,42 @@
       <c r="E1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="25" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="14">
         <v>35</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="14">
         <v>0.2</v>
       </c>
       <c r="H2" s="4">
@@ -5667,25 +5669,25 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="14">
         <v>25</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="14">
         <v>0.2</v>
       </c>
       <c r="H3" s="4">
@@ -5700,25 +5702,25 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="14">
         <v>25</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="14">
         <v>0.3</v>
       </c>
       <c r="H4" s="4">
@@ -5733,25 +5735,25 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="14">
         <v>20</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="14">
         <v>1</v>
       </c>
       <c r="H5" s="4">
@@ -5766,25 +5768,25 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="14">
         <v>20</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="14">
         <v>1</v>
       </c>
       <c r="H6" s="4">
@@ -5799,25 +5801,25 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="14">
         <v>20</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="14">
         <v>1</v>
       </c>
       <c r="H7" s="4">
@@ -5832,25 +5834,25 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="14">
         <v>20</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="14">
         <v>1</v>
       </c>
       <c r="H8" s="4">
@@ -5865,25 +5867,25 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="14">
         <v>20</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="14">
         <v>1</v>
       </c>
       <c r="H9" s="4">
@@ -5920,253 +5922,253 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>227</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B2" t="str">
         <f>TEXT(1,"0")</f>
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B3" t="str">
         <f>TEXT(2,"0")</f>
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B4" t="str">
         <f>TEXT(3,"0")</f>
         <v>3</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B5" t="str">
         <f>TEXT(4,"0")</f>
         <v>4</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B6" t="str">
         <f>TEXT(5,"0")</f>
         <v>5</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B7" t="str">
         <f>TEXT(6,"0")</f>
         <v>6</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B8" t="str">
         <f>TEXT(7,"0")</f>
         <v>7</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B9" t="str">
         <f>TEXT(8,"0")</f>
         <v>8</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>216</v>
       </c>
       <c r="B10" t="str">
         <f>TEXT(1,"0")</f>
         <v>1</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>216</v>
       </c>
       <c r="B11" t="str">
         <f>TEXT(2,"0")</f>
         <v>2</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="8" t="s">
         <v>216</v>
       </c>
       <c r="B12" t="str">
         <f>TEXT(3,"0")</f>
         <v>3</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="8" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>216</v>
       </c>
       <c r="B13" t="str">
         <f>TEXT(4,"0")</f>
         <v>4</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="8" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="8" t="s">
         <v>216</v>
       </c>
       <c r="B14" t="str">
         <f>TEXT(5,"0")</f>
         <v>5</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>216</v>
       </c>
       <c r="B15" t="str">
         <f>TEXT(6,"0")</f>
         <v>6</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="8" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>216</v>
       </c>
       <c r="B16" t="str">
         <f>TEXT(7,"0")</f>
         <v>7</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="8" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="8" t="s">
         <v>216</v>
       </c>
       <c r="B17" t="str">
         <f>TEXT(8,"0")</f>
         <v>8</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="8" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="8" t="s">
         <v>216</v>
       </c>
       <c r="B18" t="str">
         <f>TEXT(9,"0")</f>
         <v>9</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="8" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="8" t="s">
         <v>216</v>
       </c>
       <c r="B19" t="str">
         <f>TEXT(10,"0")</f>
         <v>10</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="8" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="8" t="s">
         <v>216</v>
       </c>
       <c r="B20" t="str">
         <f>TEXT(11,"0")</f>
         <v>11</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="8" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="8" t="s">
         <v>216</v>
       </c>
       <c r="B21" t="str">
         <f>TEXT(12,"0")</f>
         <v>12</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="8" t="s">
         <v>329</v>
       </c>
     </row>
@@ -6214,23 +6216,23 @@
       </c>
     </row>
     <row r="2" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6246,44 +6248,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC3EF37-2BA8-4EC6-92A1-22C0C9AA6791}">
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" style="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="18"/>
-    <col min="4" max="4" width="15.88671875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" style="10" customWidth="1"/>
-    <col min="7" max="7" width="27.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="15"/>
+    <col min="4" max="4" width="15.88671875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="27.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="21" t="s">
         <v>227</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="24" t="s">
         <v>333</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>332</v>
       </c>
       <c r="O1" s="1" t="s">
@@ -6291,28 +6294,28 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="15">
         <v>1</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="16">
         <v>10</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G2" s="25" t="s">
+      <c r="F2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="22" t="s">
         <v>334</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="23" t="s">
         <v>304</v>
       </c>
       <c r="O2" t="s">
@@ -6320,1574 +6323,1574 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="15">
         <v>2</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="16">
         <v>15</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" s="25" t="s">
+      <c r="F3" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="22" t="s">
         <v>335</v>
       </c>
-      <c r="H3" s="13"/>
+      <c r="H3" s="10"/>
       <c r="O3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="15">
         <v>3</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="16">
         <v>11</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" s="25" t="s">
+      <c r="F4" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="H4" s="13"/>
+      <c r="H4" s="10"/>
       <c r="O4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="15">
         <v>4</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="16">
         <v>13</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G5" s="25" t="s">
+      <c r="F5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="22" t="s">
         <v>337</v>
       </c>
-      <c r="H5" s="13"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="15">
         <v>5</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="16">
         <v>13.5</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G6" s="25" t="s">
+      <c r="F6" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="22" t="s">
         <v>338</v>
       </c>
-      <c r="H6" s="13"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="15">
         <v>1</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="16">
         <v>14</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G7" s="25" t="s">
+      <c r="F7" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="22" t="s">
         <v>339</v>
       </c>
-      <c r="H7" s="13"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="15">
         <v>2</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="16">
         <v>14.5</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="22" t="s">
         <v>340</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="23" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="15">
         <v>3</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="16">
         <v>15</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G9" s="25" t="s">
+      <c r="F9" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" s="22" t="s">
         <v>341</v>
       </c>
-      <c r="H9" s="13"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="15">
         <v>4</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="16">
         <v>15.5</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G10" s="25" t="s">
+      <c r="F10" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="22" t="s">
         <v>342</v>
       </c>
-      <c r="H10" s="13"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="15">
         <v>5</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="16">
         <v>16</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="22" t="s">
         <v>343</v>
       </c>
-      <c r="H11" s="13"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="15">
         <v>1</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="16">
         <v>16.5</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G12" s="25" t="s">
+      <c r="F12" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="H12" s="13"/>
+      <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="15">
         <v>2</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="16">
         <v>17</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G13" s="25" t="s">
+      <c r="F13" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="22" t="s">
         <v>345</v>
       </c>
-      <c r="H13" s="13"/>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="15">
         <v>3</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="16">
         <v>17.5</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" s="25" t="s">
+      <c r="F14" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="22" t="s">
         <v>346</v>
       </c>
-      <c r="H14" s="13"/>
+      <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B15" s="10" t="s">
+      <c r="A15" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="15">
         <v>4</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="16">
         <v>18</v>
       </c>
-      <c r="F15" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G15" s="25" t="s">
+      <c r="F15" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="22" t="s">
         <v>347</v>
       </c>
-      <c r="H15" s="13"/>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="15">
         <v>5</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="16">
         <v>18.5</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G16" s="25" t="s">
+      <c r="F16" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="H16" s="13"/>
+      <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B17" s="10" t="s">
+      <c r="A17" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="15">
         <v>1</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="16">
         <v>19</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G17" s="25" t="s">
+      <c r="F17" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="22" t="s">
         <v>349</v>
       </c>
-      <c r="H17" s="13"/>
+      <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B18" s="10" t="s">
+      <c r="A18" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="15">
         <v>2</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="16">
         <v>19.5</v>
       </c>
-      <c r="F18" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18" s="25" t="s">
+      <c r="F18" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="22" t="s">
         <v>350</v>
       </c>
-      <c r="H18" s="13"/>
+      <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B19" s="10" t="s">
+      <c r="A19" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="15">
         <v>3</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="16">
         <v>20</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G19" s="25" t="s">
+      <c r="F19" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="22" t="s">
         <v>351</v>
       </c>
-      <c r="H19" s="13"/>
+      <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B20" s="10" t="s">
+      <c r="A20" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="15">
         <v>4</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="16">
         <v>20.5</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" s="25" t="s">
+      <c r="F20" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="H20" s="13"/>
+      <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B21" s="10" t="s">
+      <c r="A21" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="15">
         <v>5</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="16">
         <v>21</v>
       </c>
-      <c r="F21" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G21" s="25" t="s">
+      <c r="F21" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="22" t="s">
         <v>353</v>
       </c>
-      <c r="H21" s="13"/>
+      <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B22" s="10" t="s">
+      <c r="A22" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="15">
         <v>1</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="16">
         <v>21.5</v>
       </c>
-      <c r="F22" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G22" s="25" t="s">
+      <c r="F22" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="22" t="s">
         <v>354</v>
       </c>
-      <c r="H22" s="13"/>
+      <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B23" s="10" t="s">
+      <c r="A23" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="15">
         <v>2</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="16">
         <v>22</v>
       </c>
-      <c r="F23" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G23" s="25" t="s">
+      <c r="F23" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="22" t="s">
         <v>355</v>
       </c>
-      <c r="H23" s="13"/>
+      <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B24" s="10" t="s">
+      <c r="A24" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="15">
         <v>3</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="16">
         <v>22.5</v>
       </c>
-      <c r="F24" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G24" s="25" t="s">
+      <c r="F24" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="22" t="s">
         <v>356</v>
       </c>
-      <c r="H24" s="13"/>
+      <c r="H24" s="10"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B25" s="10" t="s">
+      <c r="A25" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="15">
         <v>4</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="16">
         <v>23</v>
       </c>
-      <c r="F25" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G25" s="25" t="s">
+      <c r="F25" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="H25" s="13"/>
+      <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B26" s="10" t="s">
+      <c r="A26" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="15">
         <v>5</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="16">
         <v>23.5</v>
       </c>
-      <c r="F26" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G26" s="25" t="s">
+      <c r="F26" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" s="22" t="s">
         <v>358</v>
       </c>
-      <c r="H26" s="13"/>
+      <c r="H26" s="10"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B27" s="10" t="s">
+      <c r="A27" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="15">
         <v>1</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="16">
         <v>24</v>
       </c>
-      <c r="F27" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G27" s="25" t="s">
+      <c r="F27" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" s="22" t="s">
         <v>359</v>
       </c>
-      <c r="H27" s="13"/>
+      <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B28" s="10" t="s">
+      <c r="A28" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="15">
         <v>2</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="16">
         <v>24.5</v>
       </c>
-      <c r="F28" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G28" s="25" t="s">
+      <c r="F28" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G28" s="22" t="s">
         <v>360</v>
       </c>
-      <c r="H28" s="13"/>
+      <c r="H28" s="10"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B29" s="10" t="s">
+      <c r="A29" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="15">
         <v>3</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="16">
         <v>25</v>
       </c>
-      <c r="F29" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G29" s="25" t="s">
+      <c r="F29" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G29" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="H29" s="13"/>
+      <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B30" s="10" t="s">
+      <c r="A30" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="15">
         <v>4</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="16">
         <v>25.5</v>
       </c>
-      <c r="F30" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G30" s="25" t="s">
+      <c r="F30" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" s="22" t="s">
         <v>362</v>
       </c>
-      <c r="H30" s="13"/>
+      <c r="H30" s="10"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B31" s="10" t="s">
+      <c r="A31" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="15">
         <v>5</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="16">
         <v>26</v>
       </c>
-      <c r="F31" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G31" s="25" t="s">
+      <c r="F31" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" s="22" t="s">
         <v>363</v>
       </c>
-      <c r="H31" s="13"/>
+      <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="15">
         <v>1</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="16">
         <v>26.5</v>
       </c>
-      <c r="F32" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G32" s="25" t="s">
+      <c r="F32" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G32" s="22" t="s">
         <v>364</v>
       </c>
-      <c r="H32" s="13"/>
+      <c r="H32" s="10"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="15">
         <v>2</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="16">
         <v>27</v>
       </c>
-      <c r="F33" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G33" s="25" t="s">
+      <c r="F33" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="H33" s="13"/>
+      <c r="H33" s="10"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="15">
         <v>3</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="16">
         <v>27.5</v>
       </c>
-      <c r="F34" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G34" s="25" t="s">
+      <c r="F34" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G34" s="22" t="s">
         <v>366</v>
       </c>
-      <c r="H34" s="13"/>
+      <c r="H34" s="10"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="15">
         <v>4</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E35" s="16">
         <v>28</v>
       </c>
-      <c r="F35" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G35" s="25" t="s">
+      <c r="F35" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G35" s="22" t="s">
         <v>367</v>
       </c>
-      <c r="H35" s="13"/>
+      <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="15">
         <v>5</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E36" s="16">
         <v>28.5</v>
       </c>
-      <c r="F36" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G36" s="25" t="s">
+      <c r="F36" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G36" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="H36" s="13"/>
+      <c r="H36" s="10"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C37" s="15">
         <v>1</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E37" s="16">
         <v>29</v>
       </c>
-      <c r="F37" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G37" s="25" t="s">
+      <c r="F37" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G37" s="22" t="s">
         <v>369</v>
       </c>
-      <c r="H37" s="13"/>
+      <c r="H37" s="10"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C38" s="18">
+      <c r="C38" s="15">
         <v>2</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E38" s="16">
         <v>29.5</v>
       </c>
-      <c r="F38" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G38" s="25" t="s">
+      <c r="F38" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G38" s="22" t="s">
         <v>370</v>
       </c>
-      <c r="H38" s="13"/>
+      <c r="H38" s="10"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="C39" s="18">
+      <c r="C39" s="15">
         <v>3</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E39" s="19">
+      <c r="E39" s="16">
         <v>30</v>
       </c>
-      <c r="F39" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G39" s="25" t="s">
+      <c r="F39" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G39" s="22" t="s">
         <v>371</v>
       </c>
-      <c r="H39" s="13"/>
+      <c r="H39" s="10"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="C40" s="18">
+      <c r="C40" s="15">
         <v>4</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E40" s="16">
         <v>30.5</v>
       </c>
-      <c r="F40" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G40" s="25" t="s">
+      <c r="F40" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G40" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="H40" s="13"/>
+      <c r="H40" s="10"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="C41" s="18">
+      <c r="C41" s="15">
         <v>5</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E41" s="19">
+      <c r="E41" s="16">
         <v>31</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="F41" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G41" s="25" t="s">
+      <c r="G41" s="22" t="s">
         <v>373</v>
       </c>
-      <c r="H41" s="26" t="s">
+      <c r="H41" s="23" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="C42" s="18">
+      <c r="C42" s="15">
         <v>1</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E42" s="19">
+      <c r="E42" s="16">
         <v>31.5</v>
       </c>
-      <c r="F42" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G42" s="25" t="s">
+      <c r="F42" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G42" s="22" t="s">
         <v>374</v>
       </c>
-      <c r="H42" s="13"/>
+      <c r="H42" s="10"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C43" s="18">
+      <c r="C43" s="15">
         <v>2</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="E43" s="19">
+      <c r="E43" s="16">
         <v>32</v>
       </c>
-      <c r="F43" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G43" s="25" t="s">
+      <c r="F43" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G43" s="22" t="s">
         <v>375</v>
       </c>
-      <c r="H43" s="13"/>
+      <c r="H43" s="10"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="C44" s="18">
+      <c r="C44" s="15">
         <v>3</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="E44" s="19">
+      <c r="E44" s="16">
         <v>32.5</v>
       </c>
-      <c r="F44" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G44" s="25" t="s">
+      <c r="F44" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G44" s="22" t="s">
         <v>376</v>
       </c>
-      <c r="H44" s="13"/>
+      <c r="H44" s="10"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="C45" s="18">
+      <c r="C45" s="15">
         <v>4</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="E45" s="19">
+      <c r="E45" s="16">
         <v>33</v>
       </c>
-      <c r="F45" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G45" s="25" t="s">
+      <c r="F45" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G45" s="22" t="s">
         <v>377</v>
       </c>
-      <c r="H45" s="13"/>
+      <c r="H45" s="10"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="C46" s="18">
+      <c r="C46" s="15">
         <v>5</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="E46" s="19">
+      <c r="E46" s="16">
         <v>33.5</v>
       </c>
-      <c r="F46" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G46" s="25" t="s">
+      <c r="F46" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G46" s="22" t="s">
         <v>378</v>
       </c>
-      <c r="H46" s="13"/>
+      <c r="H46" s="10"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="C47" s="18">
+      <c r="C47" s="15">
         <v>1</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E47" s="19">
+      <c r="E47" s="16">
         <v>34</v>
       </c>
-      <c r="F47" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G47" s="25" t="s">
+      <c r="F47" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G47" s="22" t="s">
         <v>379</v>
       </c>
-      <c r="H47" s="13"/>
+      <c r="H47" s="10"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="C48" s="18">
+      <c r="C48" s="15">
         <v>2</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E48" s="19">
+      <c r="E48" s="16">
         <v>34.5</v>
       </c>
-      <c r="F48" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G48" s="25" t="s">
+      <c r="F48" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G48" s="22" t="s">
         <v>380</v>
       </c>
-      <c r="H48" s="13"/>
+      <c r="H48" s="10"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="C49" s="18">
+      <c r="C49" s="15">
         <v>3</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="E49" s="19">
+      <c r="E49" s="16">
         <v>35</v>
       </c>
-      <c r="F49" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G49" s="25" t="s">
+      <c r="F49" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G49" s="22" t="s">
         <v>381</v>
       </c>
-      <c r="H49" s="13"/>
+      <c r="H49" s="10"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="C50" s="18">
+      <c r="C50" s="15">
         <v>4</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="E50" s="19">
+      <c r="E50" s="16">
         <v>35.5</v>
       </c>
-      <c r="F50" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G50" s="25" t="s">
+      <c r="F50" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G50" s="22" t="s">
         <v>382</v>
       </c>
-      <c r="H50" s="13"/>
+      <c r="H50" s="10"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="C51" s="18">
+      <c r="C51" s="15">
         <v>5</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E51" s="19">
+      <c r="E51" s="16">
         <v>36</v>
       </c>
-      <c r="F51" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G51" s="25" t="s">
+      <c r="F51" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G51" s="22" t="s">
         <v>383</v>
       </c>
-      <c r="H51" s="13"/>
+      <c r="H51" s="10"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="C52" s="18">
+      <c r="C52" s="15">
         <v>1</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D52" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="E52" s="19">
+      <c r="E52" s="16">
         <v>36.5</v>
       </c>
-      <c r="F52" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G52" s="25" t="s">
+      <c r="F52" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G52" s="22" t="s">
         <v>384</v>
       </c>
-      <c r="H52" s="13"/>
+      <c r="H52" s="10"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="C53" s="18">
+      <c r="C53" s="15">
         <v>2</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="E53" s="19">
+      <c r="E53" s="16">
         <v>37</v>
       </c>
-      <c r="F53" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G53" s="25" t="s">
+      <c r="F53" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G53" s="22" t="s">
         <v>385</v>
       </c>
-      <c r="H53" s="13"/>
+      <c r="H53" s="10"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="C54" s="18">
+      <c r="C54" s="15">
         <v>3</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="E54" s="19">
+      <c r="E54" s="16">
         <v>37.5</v>
       </c>
-      <c r="F54" s="10" t="s">
+      <c r="F54" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="G54" s="25" t="s">
+      <c r="G54" s="22" t="s">
         <v>386</v>
       </c>
-      <c r="H54" s="13"/>
+      <c r="H54" s="10"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="C55" s="18">
+      <c r="C55" s="15">
         <v>4</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="E55" s="19">
+      <c r="E55" s="16">
         <v>38</v>
       </c>
-      <c r="F55" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G55" s="25" t="s">
+      <c r="F55" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G55" s="22" t="s">
         <v>387</v>
       </c>
-      <c r="H55" s="13"/>
+      <c r="H55" s="10"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="C56" s="18">
+      <c r="C56" s="15">
         <v>5</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D56" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="E56" s="19">
+      <c r="E56" s="16">
         <v>38.5</v>
       </c>
-      <c r="F56" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G56" s="25" t="s">
+      <c r="F56" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G56" s="22" t="s">
         <v>388</v>
       </c>
-      <c r="H56" s="13"/>
+      <c r="H56" s="10"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="C57" s="18">
+      <c r="C57" s="15">
         <v>1</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E57" s="19">
+      <c r="E57" s="16">
         <v>39</v>
       </c>
-      <c r="F57" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G57" s="25" t="s">
+      <c r="F57" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G57" s="22" t="s">
         <v>389</v>
       </c>
-      <c r="H57" s="13"/>
+      <c r="H57" s="10"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C58" s="18">
+      <c r="C58" s="15">
         <v>2</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E58" s="19">
+      <c r="E58" s="16">
         <v>39.5</v>
       </c>
-      <c r="F58" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G58" s="25" t="s">
+      <c r="F58" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G58" s="22" t="s">
         <v>390</v>
       </c>
-      <c r="H58" s="13"/>
+      <c r="H58" s="10"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="C59" s="18">
+      <c r="C59" s="15">
         <v>3</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="E59" s="19">
+      <c r="E59" s="16">
         <v>40</v>
       </c>
-      <c r="F59" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G59" s="25" t="s">
+      <c r="F59" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G59" s="22" t="s">
         <v>391</v>
       </c>
-      <c r="H59" s="13"/>
+      <c r="H59" s="10"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="C60" s="18">
+      <c r="C60" s="15">
         <v>4</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="E60" s="19">
+      <c r="E60" s="16">
         <v>40.5</v>
       </c>
-      <c r="F60" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G60" s="25" t="s">
+      <c r="F60" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G60" s="22" t="s">
         <v>392</v>
       </c>
-      <c r="H60" s="13"/>
+      <c r="H60" s="10"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="C61" s="18">
+      <c r="C61" s="15">
         <v>5</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D61" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="E61" s="19">
+      <c r="E61" s="16">
         <v>41</v>
       </c>
-      <c r="F61" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G61" s="25" t="s">
+      <c r="F61" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G61" s="22" t="s">
         <v>393</v>
       </c>
-      <c r="H61" s="13"/>
+      <c r="H61" s="10"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="C62" s="18">
+      <c r="C62" s="15">
         <v>1</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D62" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="E62" s="19">
+      <c r="E62" s="16">
         <v>41.5</v>
       </c>
-      <c r="F62" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G62" s="25" t="s">
+      <c r="F62" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G62" s="22" t="s">
         <v>394</v>
       </c>
-      <c r="H62" s="13"/>
+      <c r="H62" s="10"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="C63" s="18">
+      <c r="C63" s="15">
         <v>2</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="D63" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="E63" s="19">
+      <c r="E63" s="16">
         <v>42</v>
       </c>
-      <c r="F63" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G63" s="25" t="s">
+      <c r="F63" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G63" s="22" t="s">
         <v>395</v>
       </c>
-      <c r="H63" s="13"/>
+      <c r="H63" s="10"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="C64" s="18">
+      <c r="C64" s="15">
         <v>3</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D64" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="E64" s="19">
+      <c r="E64" s="16">
         <v>42.5</v>
       </c>
-      <c r="F64" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G64" s="25" t="s">
+      <c r="F64" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G64" s="22" t="s">
         <v>396</v>
       </c>
-      <c r="H64" s="13"/>
+      <c r="H64" s="10"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="C65" s="18">
+      <c r="C65" s="15">
         <v>4</v>
       </c>
-      <c r="D65" s="10" t="s">
+      <c r="D65" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="E65" s="19">
+      <c r="E65" s="16">
         <v>43</v>
       </c>
-      <c r="F65" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G65" s="25" t="s">
+      <c r="F65" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G65" s="22" t="s">
         <v>397</v>
       </c>
-      <c r="H65" s="13"/>
+      <c r="H65" s="10"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="C66" s="18">
+      <c r="C66" s="15">
         <v>5</v>
       </c>
-      <c r="D66" s="10" t="s">
+      <c r="D66" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="E66" s="19">
+      <c r="E66" s="16">
         <v>43.5</v>
       </c>
-      <c r="F66" s="10" t="s">
+      <c r="F66" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="G66" s="25" t="s">
+      <c r="G66" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="H66" s="13"/>
+      <c r="H66" s="10"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="C67" s="18">
+      <c r="C67" s="15">
         <v>1</v>
       </c>
-      <c r="D67" s="10" t="s">
+      <c r="D67" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="E67" s="19">
+      <c r="E67" s="16">
         <v>44</v>
       </c>
-      <c r="F67" s="10" t="s">
+      <c r="F67" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G67" s="25" t="s">
+      <c r="G67" s="22" t="s">
         <v>399</v>
       </c>
-      <c r="H67" s="26" t="s">
+      <c r="H67" s="23" t="s">
         <v>331</v>
       </c>
     </row>
@@ -7904,15 +7907,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005836243B3C47804EAF5FFDD9F066FCC7" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b40f5c691649a4a05e2eddbeb14bcbeb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6aca1daf-af28-46f8-bd7f-7c486cf57d75" xmlns:ns3="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1826bf959a736503351b94de29104941" ns2:_="" ns3:_="">
     <xsd:import namespace="6aca1daf-af28-46f8-bd7f-7c486cf57d75"/>
@@ -8115,21 +8109,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{552A2396-49F4-45F5-9D44-9C3125763CF2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6920F70-FC70-4BF2-86B7-0FEAC01D1483}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8148,11 +8143,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EAF4CE-5C55-41AC-946B-5BEC082284DF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{552A2396-49F4-45F5-9D44-9C3125763CF2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Desktop\Projeto\projectg2\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\switch\projectg2\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C36AEF6-1AD0-41A7-A5BD-BF76C199944C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312147F4-7E5B-4769-9E9B-B99089702DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="938" activeTab="8" xr2:uid="{17341BA7-7E24-41D8-A92D-79256BC3D291}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="938" activeTab="2" xr2:uid="{17341BA7-7E24-41D8-A92D-79256BC3D291}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">BacklogUSStatus!$A$1:$E$100</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">ProjectBacklog!$A$1:$H$67</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,9 +41,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -53,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="400">
   <si>
     <t>id</t>
   </si>
@@ -197,15 +195,6 @@
   </si>
   <si>
     <t>Director</t>
-  </si>
-  <si>
-    <t>Project Manager</t>
-  </si>
-  <si>
-    <t>Product Owner</t>
-  </si>
-  <si>
-    <t>Scrum Master</t>
   </si>
   <si>
     <t>User</t>
@@ -1402,7 +1391,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1565,7 +1554,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1885,7 +1874,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1897,10 +1886,10 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>10</v>
@@ -1932,16 +1921,16 @@
         <v>11</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10" t="s">
@@ -1974,16 +1963,16 @@
         <v>19</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10" t="s">
@@ -2016,16 +2005,16 @@
         <v>21</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10" t="s">
@@ -2058,16 +2047,16 @@
         <v>23</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10" t="s">
@@ -2106,10 +2095,10 @@
         <v>12</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10" t="s">
@@ -2142,16 +2131,16 @@
         <v>28</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10" t="s">
@@ -2190,10 +2179,10 @@
         <v>33</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10" t="s">
@@ -2208,16 +2197,16 @@
         <v>34</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10" t="s">
@@ -2238,10 +2227,10 @@
         <v>33</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10" t="s">
@@ -2262,10 +2251,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10" t="s">
@@ -2280,16 +2269,16 @@
         <v>40</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10" t="s">
@@ -2304,16 +2293,16 @@
         <v>41</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10" t="s">
@@ -2328,16 +2317,16 @@
         <v>42</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10" t="s">
@@ -2352,16 +2341,16 @@
         <v>43</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10" t="s">
@@ -2410,19 +2399,19 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>10</v>
@@ -2430,13 +2419,13 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D2" s="2">
         <v>44215</v>
@@ -2445,18 +2434,18 @@
         <v>3</v>
       </c>
       <c r="M2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2">
         <v>44215</v>
@@ -2465,18 +2454,18 @@
         <v>2</v>
       </c>
       <c r="M3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D4" s="2">
         <v>44215</v>
@@ -2485,18 +2474,18 @@
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D5" s="2">
         <v>44215</v>
@@ -2507,13 +2496,13 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2">
         <v>44215</v>
@@ -2524,13 +2513,13 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D7" s="2">
         <v>44215</v>
@@ -2541,13 +2530,13 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B8" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D8" s="2">
         <v>44215</v>
@@ -2558,13 +2547,13 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B9" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D9" s="2">
         <v>44215</v>
@@ -2575,13 +2564,13 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B10" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D10" s="2">
         <v>44215</v>
@@ -2592,13 +2581,13 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B11" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D11" s="2">
         <v>44215</v>
@@ -2609,13 +2598,13 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B12" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D12" s="2">
         <v>44288</v>
@@ -2623,13 +2612,13 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B13" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D13" s="2">
         <v>44288</v>
@@ -2637,13 +2626,13 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B14" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D14" s="2">
         <v>44288</v>
@@ -2651,13 +2640,13 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B15" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D15" s="2">
         <v>44288</v>
@@ -2665,13 +2654,13 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B16" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D16" s="2">
         <v>44288</v>
@@ -2679,13 +2668,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B17" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D17" s="2">
         <v>44288</v>
@@ -2696,13 +2685,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B18" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D18" s="2">
         <v>44288</v>
@@ -2710,13 +2699,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B19" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D19" s="2">
         <v>44288</v>
@@ -2727,13 +2716,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B20" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D20" s="2">
         <v>44288</v>
@@ -2744,13 +2733,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B21" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D21" s="2">
         <v>44288</v>
@@ -2761,13 +2750,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B22" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D22" s="2">
         <v>44288</v>
@@ -2778,13 +2767,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B23" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D23" s="2">
         <v>44288</v>
@@ -2795,13 +2784,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B24" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D24" s="2">
         <v>44288</v>
@@ -2812,13 +2801,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B25" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D25" s="2">
         <v>44288</v>
@@ -2829,13 +2818,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B26" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D26" s="2">
         <v>44288</v>
@@ -2846,13 +2835,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B27" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D27" s="2">
         <v>44288</v>
@@ -2863,13 +2852,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B28" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D28" s="2">
         <v>44288</v>
@@ -2880,13 +2869,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B29" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C29" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D29" s="2">
         <v>44288</v>
@@ -2897,13 +2886,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B30" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D30" s="2">
         <v>44288</v>
@@ -2914,13 +2903,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B31" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C31" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D31" s="2">
         <v>44288</v>
@@ -2931,13 +2920,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B32" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D32" s="2">
         <v>44309</v>
@@ -2945,13 +2934,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B33" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D33" s="2">
         <v>44309</v>
@@ -2959,13 +2948,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B34" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C34" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D34" s="2">
         <v>44309</v>
@@ -2973,13 +2962,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B35" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D35" s="2">
         <v>44309</v>
@@ -2987,13 +2976,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B36" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D36" s="2">
         <v>44309</v>
@@ -3001,13 +2990,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B37" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C37" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D37" s="2">
         <v>44309</v>
@@ -3015,13 +3004,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B38" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D38" s="2">
         <v>44309</v>
@@ -3032,13 +3021,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B39" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D39" s="2">
         <v>44309</v>
@@ -3049,13 +3038,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B40" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C40" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D40" s="2">
         <v>44309</v>
@@ -3066,13 +3055,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B41" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D41" s="2">
         <v>44309</v>
@@ -3083,13 +3072,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B42" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C42" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D42" s="2">
         <v>44309</v>
@@ -3100,13 +3089,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B43" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C43" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D43" s="2">
         <v>44309</v>
@@ -3117,13 +3106,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B44" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D44" s="2">
         <v>44309</v>
@@ -3134,13 +3123,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B45" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C45" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D45" s="2">
         <v>44309</v>
@@ -3151,13 +3140,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B46" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C46" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D46" s="2">
         <v>44309</v>
@@ -3168,13 +3157,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B47" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C47" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D47" s="2">
         <v>44309</v>
@@ -3185,13 +3174,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B48" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C48" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D48" s="2">
         <v>44309</v>
@@ -3202,13 +3191,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B49" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C49" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D49" s="2">
         <v>44309</v>
@@ -3219,13 +3208,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B50" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C50" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D50" s="2">
         <v>44309</v>
@@ -3236,13 +3225,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B51" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C51" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D51" s="2">
         <v>44309</v>
@@ -3253,13 +3242,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B52" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C52" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D52" s="2">
         <v>44309</v>
@@ -3270,13 +3259,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B53" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C53" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D53" s="2">
         <v>44309</v>
@@ -3287,13 +3276,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B54" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C54" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D54" s="2">
         <v>44309</v>
@@ -3304,13 +3293,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B55" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C55" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D55" s="2">
         <v>44309</v>
@@ -3321,13 +3310,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B56" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C56" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D56" s="2">
         <v>44323</v>
@@ -3335,13 +3324,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B57" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C57" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D57" s="2">
         <v>44323</v>
@@ -3349,13 +3338,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B58" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C58" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D58" s="2">
         <v>44323</v>
@@ -3363,13 +3352,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B59" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C59" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D59" s="2">
         <v>44323</v>
@@ -3377,13 +3366,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B60" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C60" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D60" s="2">
         <v>44323</v>
@@ -3391,13 +3380,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B61" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C61" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D61" s="2">
         <v>44323</v>
@@ -3405,13 +3394,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B62" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C62" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D62" s="2">
         <v>44323</v>
@@ -3422,13 +3411,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B63" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C63" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D63" s="2">
         <v>44323</v>
@@ -3439,13 +3428,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B64" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C64" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D64" s="2">
         <v>44323</v>
@@ -3456,13 +3445,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B65" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C65" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D65" s="2">
         <v>44323</v>
@@ -3473,13 +3462,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B66" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C66" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D66" s="2">
         <v>44323</v>
@@ -3490,13 +3479,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B67" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C67" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D67" s="2">
         <v>44323</v>
@@ -3507,13 +3496,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B68" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C68" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D68" s="2">
         <v>44323</v>
@@ -3524,13 +3513,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B69" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C69" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D69" s="2">
         <v>44323</v>
@@ -3541,13 +3530,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B70" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C70" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D70" s="2">
         <v>44323</v>
@@ -3558,13 +3547,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B71" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C71" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D71" s="2">
         <v>44323</v>
@@ -3575,13 +3564,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B72" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C72" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D72" s="2">
         <v>44323</v>
@@ -3592,13 +3581,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B73" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C73" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D73" s="2">
         <v>44323</v>
@@ -3609,13 +3598,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B74" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C74" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D74" s="2">
         <v>44337</v>
@@ -3623,13 +3612,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B75" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C75" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D75" s="2">
         <v>44337</v>
@@ -3637,13 +3626,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B76" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C76" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D76" s="2">
         <v>44337</v>
@@ -3651,13 +3640,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B77" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C77" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D77" s="2">
         <v>44337</v>
@@ -3665,13 +3654,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B78" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C78" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D78" s="2">
         <v>44337</v>
@@ -3682,13 +3671,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B79" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C79" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D79" s="2">
         <v>44337</v>
@@ -3699,13 +3688,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B80" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C80" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D80" s="2">
         <v>44337</v>
@@ -3716,13 +3705,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B81" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C81" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D81" s="2">
         <v>44337</v>
@@ -3733,13 +3722,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B82" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C82" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D82" s="2">
         <v>44337</v>
@@ -3750,13 +3739,13 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B83" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C83" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D83" s="2">
         <v>44337</v>
@@ -3767,13 +3756,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B84" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C84" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D84" s="2">
         <v>44337</v>
@@ -3784,13 +3773,13 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B85" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C85" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D85" s="2">
         <v>44337</v>
@@ -3801,13 +3790,13 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B86" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C86" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D86" s="2">
         <v>44351</v>
@@ -3815,13 +3804,13 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B87" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C87" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D87" s="2">
         <v>44351</v>
@@ -3829,13 +3818,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B88" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C88" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D88" s="2">
         <v>44351</v>
@@ -3843,13 +3832,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B89" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C89" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D89" s="2">
         <v>44351</v>
@@ -3857,13 +3846,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B90" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C90" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D90" s="2">
         <v>44351</v>
@@ -3874,13 +3863,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B91" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C91" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D91" s="2">
         <v>44351</v>
@@ -3891,13 +3880,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B92" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C92" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D92" s="2">
         <v>44351</v>
@@ -3908,13 +3897,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B93" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C93" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D93" s="2">
         <v>44351</v>
@@ -3925,13 +3914,13 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B94" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C94" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D94" s="2">
         <v>44365</v>
@@ -3939,13 +3928,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B95" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C95" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D95" s="2">
         <v>44365</v>
@@ -3956,13 +3945,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B96" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C96" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D96" s="2">
         <v>44365</v>
@@ -3973,13 +3962,13 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B97" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C97" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D97" s="2">
         <v>44365</v>
@@ -3990,13 +3979,13 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B98" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C98" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D98" s="2">
         <v>44407</v>
@@ -4004,13 +3993,13 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B99" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C99" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D99" s="2">
         <v>44407</v>
@@ -4018,13 +4007,13 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B100" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C100" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D100" s="2">
         <v>44407</v>
@@ -4065,538 +4054,538 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B2" t="str">
         <f>TEXT(1,"0")</f>
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B6" si="0">TEXT(1,"0")</f>
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B7" t="str">
         <f>TEXT(2,"0")</f>
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B8" t="str">
         <f>TEXT(2,"0")</f>
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B9" t="str">
         <f>TEXT(2,"0")</f>
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B10" t="str">
         <f>TEXT(3,"0")</f>
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B11" t="str">
         <f>TEXT(3,"0")</f>
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B12" t="str">
         <f>TEXT(3,"0")</f>
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B13" t="str">
         <f>TEXT(3,"0")</f>
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D13" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B14" t="str">
         <f>TEXT(3,"0")</f>
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D14" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" ref="B15:B20" si="1">TEXT(4,"0")</f>
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D15" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D16" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D17" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D18" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D19" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D20" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B21" t="str">
         <f>TEXT(5,"0")</f>
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B22" t="str">
         <f>TEXT(5,"0")</f>
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D22" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B23" t="str">
         <f>TEXT(5,"0")</f>
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D23" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B24" t="str">
         <f>TEXT(5,"0")</f>
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D24" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B25" t="str">
         <f>TEXT(6,"0")</f>
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D25" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B26" t="str">
         <f>TEXT(6,"0")</f>
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D26" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B27" t="str">
         <f>TEXT(6,"0")</f>
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D27" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B28" t="str">
         <f>TEXT(6,"0")</f>
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D28" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B29" t="str">
         <f>TEXT(7,"0")</f>
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D29" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B30" t="str">
         <f>TEXT(7,"0")</f>
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D30" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B31" t="str">
         <f>TEXT(7,"0")</f>
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D31" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B32" t="str">
         <f>TEXT(7,"0")</f>
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D32" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B33" t="str">
         <f>TEXT(8,"0")</f>
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D33" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B34" t="str">
         <f>TEXT(8,"0")</f>
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D34" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B35" t="str">
         <f>TEXT(8,"0")</f>
         <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D35" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -4632,102 +4621,102 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D1" t="s">
         <v>44</v>
       </c>
       <c r="E1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I1" t="s">
         <v>176</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>177</v>
       </c>
-      <c r="G1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>178</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>179</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>180</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>181</v>
       </c>
-      <c r="L1" t="s">
+      <c r="U1" t="s">
         <v>182</v>
       </c>
-      <c r="M1" t="s">
-        <v>183</v>
-      </c>
-      <c r="N1" t="s">
-        <v>184</v>
-      </c>
-      <c r="U1" t="s">
-        <v>185</v>
-      </c>
       <c r="W1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="U2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="W2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="U3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="W3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="U4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="W4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="U5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="W5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="U6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="W6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="U7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="U8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -4745,10 +4734,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A13260C-C42D-4E60-BE2C-2CA24BC2C1E2}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4794,30 +4783,6 @@
         <v>48</v>
       </c>
       <c r="B5" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="4">
         <v>7</v>
       </c>
     </row>
@@ -4831,8 +4796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D077A5-E46E-4ED9-B547-F70AD3D26657}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4850,19 +4815,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -4888,7 +4853,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>47</v>
@@ -4909,10 +4874,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C4" s="4">
         <v>1234</v>
@@ -4930,10 +4895,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C5" s="4">
         <v>1235</v>
@@ -4951,10 +4916,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C6" s="4">
         <v>1236</v>
@@ -4972,7 +4937,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>46</v>
@@ -4996,7 +4961,7 @@
         <v>32</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C8" s="4">
         <v>1241</v>
@@ -5014,10 +4979,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C9" s="4">
         <v>1243</v>
@@ -5038,7 +5003,7 @@
         <v>36</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C10" s="4">
         <v>1246</v>
@@ -5059,7 +5024,7 @@
         <v>38</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C11" s="4">
         <v>1247</v>
@@ -5077,10 +5042,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C12" s="4">
         <v>1251</v>
@@ -5098,10 +5063,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C13" s="4">
         <v>1252</v>
@@ -5119,10 +5084,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C14" s="4">
         <v>1253</v>
@@ -5140,10 +5105,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C15" s="4">
         <v>1254</v>
@@ -5194,7 +5159,7 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5216,69 +5181,69 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G1" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="H1" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>66</v>
-      </c>
       <c r="F2" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G2" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>301</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>304</v>
       </c>
       <c r="I2" t="str">
         <f>TEXT(8,"0")</f>
@@ -5289,7 +5254,7 @@
         <v>150000</v>
       </c>
       <c r="K2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L2" t="str">
         <f>TEXT(14,"0")</f>
@@ -5301,33 +5266,33 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E3" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>69</v>
-      </c>
       <c r="G3" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>302</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>305</v>
       </c>
       <c r="I3" t="str">
         <f>TEXT(12,"0")</f>
@@ -5338,7 +5303,7 @@
         <v>350000</v>
       </c>
       <c r="K3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L3" t="str">
         <f>TEXT(31,"0")</f>
@@ -5350,30 +5315,30 @@
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
       <c r="R3" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>74</v>
-      </c>
       <c r="E4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>73</v>
-      </c>
       <c r="G4" s="10" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" t="str">
@@ -5385,7 +5350,7 @@
         <v>500000</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L4" t="str">
         <f>TEXT(21,"0")</f>
@@ -5448,122 +5413,122 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2">
         <v>44209</v>
       </c>
       <c r="I2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2">
         <v>44256</v>
       </c>
       <c r="I3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2">
         <v>44277</v>
       </c>
       <c r="I4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2">
         <v>44312</v>
       </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2">
         <v>44408</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2">
         <v>44317</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2">
         <v>44347</v>
       </c>
       <c r="I8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2">
         <v>44354</v>
@@ -5571,10 +5536,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C10" s="2">
         <v>44438</v>
@@ -5582,10 +5547,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C11" s="2">
         <v>44627</v>
@@ -5593,10 +5558,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C12" s="2">
         <v>44680</v>
@@ -5619,7 +5584,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5637,51 +5602,51 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="G1" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>225</v>
-      </c>
       <c r="H1" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F2" s="17">
         <v>35</v>
@@ -5702,19 +5667,19 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F3" s="17">
         <v>25</v>
@@ -5735,19 +5700,19 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F4" s="17">
         <v>25</v>
@@ -5768,19 +5733,19 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F5" s="17">
         <v>20</v>
@@ -5804,16 +5769,16 @@
         <v>32</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F6" s="17">
         <v>20</v>
@@ -5834,19 +5799,19 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F7" s="17">
         <v>20</v>
@@ -5870,16 +5835,16 @@
         <v>36</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F8" s="17">
         <v>20</v>
@@ -5903,16 +5868,16 @@
         <v>38</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F9" s="17">
         <v>20</v>
@@ -5943,7 +5908,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5955,253 +5920,253 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B2" t="str">
         <f>TEXT(1,"0")</f>
         <v>1</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B3" t="str">
         <f>TEXT(2,"0")</f>
         <v>2</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B4" t="str">
         <f>TEXT(3,"0")</f>
         <v>3</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B5" t="str">
         <f>TEXT(4,"0")</f>
         <v>4</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B6" t="str">
         <f>TEXT(5,"0")</f>
         <v>5</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B7" t="str">
         <f>TEXT(6,"0")</f>
         <v>6</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B8" t="str">
         <f>TEXT(7,"0")</f>
         <v>7</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B9" t="str">
         <f>TEXT(8,"0")</f>
         <v>8</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B10" t="str">
         <f>TEXT(1,"0")</f>
         <v>1</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B11" t="str">
         <f>TEXT(2,"0")</f>
         <v>2</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B12" t="str">
         <f>TEXT(3,"0")</f>
         <v>3</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B13" t="str">
         <f>TEXT(4,"0")</f>
         <v>4</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B14" t="str">
         <f>TEXT(5,"0")</f>
         <v>5</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B15" t="str">
         <f>TEXT(6,"0")</f>
         <v>6</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B16" t="str">
         <f>TEXT(7,"0")</f>
         <v>7</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B17" t="str">
         <f>TEXT(8,"0")</f>
         <v>8</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B18" t="str">
         <f>TEXT(9,"0")</f>
         <v>9</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B19" t="str">
         <f>TEXT(10,"0")</f>
         <v>10</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B20" t="str">
         <f>TEXT(11,"0")</f>
         <v>11</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B21" t="str">
         <f>TEXT(12,"0")</f>
         <v>12</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -6226,7 +6191,7 @@
   <sheetData>
     <row r="1" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -6238,10 +6203,10 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>10</v>
@@ -6252,16 +6217,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10" t="s">
@@ -6280,7 +6245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC3EF37-2BA8-4EC6-92A1-22C0C9AA6791}">
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H42" sqref="H42:H66"/>
     </sheetView>
   </sheetViews>
@@ -6297,28 +6262,28 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>10</v>
@@ -6326,1603 +6291,1603 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C2" s="18">
         <v>1</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E2" s="19">
         <v>10</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="O2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C3" s="18">
         <v>2</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E3" s="19">
         <v>15</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H3" s="13"/>
       <c r="O3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C4" s="18">
         <v>3</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E4" s="19">
         <v>11</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H4" s="13"/>
       <c r="O4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C5" s="18">
         <v>4</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E5" s="19">
         <v>13</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C6" s="18">
         <v>5</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E6" s="19">
         <v>13.5</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C7" s="18">
         <v>1</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E7" s="19">
         <v>14</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C8" s="18">
         <v>2</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E8" s="19">
         <v>14.5</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C9" s="18">
         <v>3</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E9" s="19">
         <v>15</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C10" s="18">
         <v>4</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E10" s="19">
         <v>15.5</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C11" s="18">
         <v>5</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E11" s="19">
         <v>16</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C12" s="18">
         <v>1</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E12" s="19">
         <v>16.5</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C13" s="18">
         <v>2</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E13" s="19">
         <v>17</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C14" s="18">
         <v>3</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E14" s="19">
         <v>17.5</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C15" s="18">
         <v>4</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E15" s="19">
         <v>18</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C16" s="18">
         <v>5</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E16" s="19">
         <v>18.5</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H16" s="13"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C17" s="18">
         <v>1</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E17" s="19">
         <v>19</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C18" s="18">
         <v>2</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E18" s="19">
         <v>19.5</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C19" s="18">
         <v>3</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E19" s="19">
         <v>20</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C20" s="18">
         <v>4</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E20" s="19">
         <v>20.5</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C21" s="18">
         <v>5</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E21" s="19">
         <v>21</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C22" s="18">
         <v>1</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E22" s="19">
         <v>21.5</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H22" s="13"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C23" s="18">
         <v>2</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E23" s="19">
         <v>22</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H23" s="13"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C24" s="18">
         <v>3</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E24" s="19">
         <v>22.5</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H24" s="13"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C25" s="18">
         <v>4</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E25" s="19">
         <v>23</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C26" s="18">
         <v>5</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E26" s="19">
         <v>23.5</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H26" s="13"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C27" s="18">
         <v>1</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E27" s="19">
         <v>24</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H27" s="13"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C28" s="18">
         <v>2</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E28" s="19">
         <v>24.5</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H28" s="13"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C29" s="18">
         <v>3</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E29" s="19">
         <v>25</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H29" s="13"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C30" s="18">
         <v>4</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E30" s="19">
         <v>25.5</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H30" s="13"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C31" s="18">
         <v>5</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E31" s="19">
         <v>26</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H31" s="13"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="25" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C32" s="18">
         <v>1</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E32" s="19">
         <v>26.5</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C33" s="18">
         <v>2</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E33" s="19">
         <v>27</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H33" s="13"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C34" s="18">
         <v>3</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E34" s="19">
         <v>27.5</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H34" s="13"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C35" s="18">
         <v>4</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E35" s="19">
         <v>28</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H35" s="13"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C36" s="18">
         <v>5</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E36" s="19">
         <v>28.5</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H36" s="13"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C37" s="18">
         <v>1</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E37" s="19">
         <v>29</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H37" s="13"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C38" s="18">
         <v>2</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E38" s="19">
         <v>29.5</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="H38" s="13"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C39" s="18">
         <v>3</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E39" s="19">
         <v>30</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H39" s="13"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C40" s="18">
         <v>4</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E40" s="19">
         <v>30.5</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H40" s="13"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C41" s="18">
         <v>5</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E41" s="19">
         <v>31</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H41" s="26" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C42" s="18">
         <v>1</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E42" s="19">
         <v>31.5</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H42" s="13"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C43" s="18">
         <v>2</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E43" s="19">
         <v>32</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="H43" s="13"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C44" s="18">
         <v>3</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E44" s="19">
         <v>32.5</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H44" s="13"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C45" s="18">
         <v>4</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E45" s="19">
         <v>33</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="H45" s="13"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C46" s="18">
         <v>5</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E46" s="19">
         <v>33.5</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="H46" s="13"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C47" s="18">
         <v>1</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E47" s="19">
         <v>34</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H47" s="13"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C48" s="18">
         <v>2</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E48" s="19">
         <v>34.5</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H48" s="13"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C49" s="18">
         <v>3</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E49" s="19">
         <v>35</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H49" s="13"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C50" s="18">
         <v>4</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E50" s="19">
         <v>35.5</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H50" s="13"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C51" s="18">
         <v>5</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E51" s="19">
         <v>36</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H51" s="13"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C52" s="18">
         <v>1</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E52" s="19">
         <v>36.5</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H52" s="13"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C53" s="18">
         <v>2</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E53" s="19">
         <v>37</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H53" s="13"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C54" s="18">
         <v>3</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E54" s="19">
         <v>37.5</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H54" s="13"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C55" s="18">
         <v>4</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E55" s="19">
         <v>38</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="H55" s="13"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C56" s="18">
         <v>5</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E56" s="19">
         <v>38.5</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H56" s="13"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C57" s="18">
         <v>1</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E57" s="19">
         <v>39</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H57" s="13"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C58" s="18">
         <v>2</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E58" s="19">
         <v>39.5</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H58" s="13"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C59" s="18">
         <v>3</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E59" s="19">
         <v>40</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H59" s="13"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C60" s="18">
         <v>4</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E60" s="19">
         <v>40.5</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H60" s="13"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C61" s="18">
         <v>5</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E61" s="19">
         <v>41</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H61" s="13"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C62" s="18">
         <v>1</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E62" s="19">
         <v>41.5</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="H62" s="13"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C63" s="18">
         <v>2</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E63" s="19">
         <v>42</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H63" s="13"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C64" s="18">
         <v>3</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E64" s="19">
         <v>42.5</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H64" s="13"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C65" s="18">
         <v>4</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E65" s="19">
         <v>43</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H65" s="13"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C66" s="18">
         <v>5</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E66" s="19">
         <v>43.5</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="H66" s="13"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C67" s="18">
         <v>1</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E67" s="19">
         <v>44</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H67" s="26" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -7938,12 +7903,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005836243B3C47804EAF5FFDD9F066FCC7" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b40f5c691649a4a05e2eddbeb14bcbeb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6aca1daf-af28-46f8-bd7f-7c486cf57d75" xmlns:ns3="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1826bf959a736503351b94de29104941" ns2:_="" ns3:_="">
     <xsd:import namespace="6aca1daf-af28-46f8-bd7f-7c486cf57d75"/>
@@ -8146,6 +8105,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -8156,15 +8121,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EAF4CE-5C55-41AC-946B-5BEC082284DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6920F70-FC70-4BF2-86B7-0FEAC01D1483}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8183,6 +8139,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EAF4CE-5C55-41AC-946B-5BEC082284DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{552A2396-49F4-45F5-9D44-9C3125763CF2}">
   <ds:schemaRefs>

--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\switch\projectg2\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312147F4-7E5B-4769-9E9B-B99089702DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9536C1E6-8137-42F1-8737-23B4F8511567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="938" activeTab="2" xr2:uid="{17341BA7-7E24-41D8-A92D-79256BC3D291}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="29692" windowHeight="11949" tabRatio="938" activeTab="3" xr2:uid="{17341BA7-7E24-41D8-A92D-79256BC3D291}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -1853,26 +1853,26 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
-    <col min="5" max="5" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="4"/>
-    <col min="9" max="9" width="24.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="15.4609375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.3046875" customWidth="1"/>
+    <col min="3" max="3" width="15.84375" customWidth="1"/>
+    <col min="5" max="5" width="19.765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.69140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.84375" style="4"/>
+    <col min="9" max="9" width="24.84375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.4609375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.69140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.69140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.84375" style="4"/>
     <col min="14" max="14" width="10" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>203</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>263650670</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>263650520</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>263650532</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>23</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>263650345</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>25</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>263650127</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
         <v>28</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>212349016</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>31</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
         <v>34</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>35</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
         <v>37</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>40</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="10" t="s">
         <v>41</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="10" t="s">
         <v>42</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="10" t="s">
         <v>43</v>
       </c>
@@ -2390,14 +2390,14 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.84375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>215</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>215</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>215</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>215</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>215</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>215</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>215</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>215</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>215</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>215</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>215</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>215</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>215</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>215</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>215</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>215</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>215</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>215</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>215</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>215</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>215</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>215</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>215</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>215</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>215</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>215</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>215</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>215</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>215</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>215</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
         <v>215</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
         <v>215</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
         <v>215</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
         <v>215</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
         <v>215</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
         <v>215</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="3" t="s">
         <v>215</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
         <v>215</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="3" t="s">
         <v>215</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
         <v>215</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="3" t="s">
         <v>215</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="3" t="s">
         <v>215</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="3" t="s">
         <v>215</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="3" t="s">
         <v>215</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="3" t="s">
         <v>215</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="3" t="s">
         <v>215</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="3" t="s">
         <v>215</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="3" t="s">
         <v>215</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="3" t="s">
         <v>215</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" s="3" t="s">
         <v>215</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" s="3" t="s">
         <v>215</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" s="3" t="s">
         <v>215</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" s="3" t="s">
         <v>215</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" s="3" t="s">
         <v>215</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>215</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>215</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>215</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>215</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>215</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>215</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>215</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>215</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>215</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>215</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>215</v>
       </c>
@@ -3477,7 +3477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>215</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>215</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>215</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>215</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>215</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>215</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>215</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" s="3" t="s">
         <v>215</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>44337</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75" s="3" t="s">
         <v>215</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>44337</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76" s="3" t="s">
         <v>215</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>44337</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77" s="3" t="s">
         <v>215</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>44337</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78" s="3" t="s">
         <v>215</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79" s="3" t="s">
         <v>215</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80" s="3" t="s">
         <v>215</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81" s="3" t="s">
         <v>215</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82" s="3" t="s">
         <v>215</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83" s="3" t="s">
         <v>215</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84" s="3" t="s">
         <v>215</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85" s="3" t="s">
         <v>215</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>215</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>215</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>215</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>215</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>215</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>215</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>215</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>215</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A94" s="3" t="s">
         <v>215</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>44365</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A95" s="3" t="s">
         <v>215</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A96" s="3" t="s">
         <v>215</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A97" s="3" t="s">
         <v>215</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>215</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>44407</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>215</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>44407</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>215</v>
       </c>
@@ -4038,21 +4038,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CAB123-B6B8-4C37-9FBC-A6CD32606951}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.69140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.3046875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>227</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>215</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>215</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>215</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>215</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>215</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
         <v>215</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>215</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
         <v>215</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>215</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
         <v>215</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>215</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="10" t="s">
         <v>215</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="10" t="s">
         <v>215</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="10" t="s">
         <v>215</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
         <v>215</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="10" t="s">
         <v>215</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="10" t="s">
         <v>215</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="10" t="s">
         <v>215</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="10" t="s">
         <v>215</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="10" t="s">
         <v>215</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="10" t="s">
         <v>215</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="10" t="s">
         <v>215</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="10" t="s">
         <v>215</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="10" t="s">
         <v>215</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="10" t="s">
         <v>215</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="10" t="s">
         <v>215</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="10" t="s">
         <v>215</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="10" t="s">
         <v>215</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="10" t="s">
         <v>215</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="10" t="s">
         <v>215</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="10" t="s">
         <v>215</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="10" t="s">
         <v>215</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="10" t="s">
         <v>215</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="10" t="s">
         <v>215</v>
       </c>
@@ -4608,18 +4608,18 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="12.07421875" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.3046875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.84375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>170</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="U2" t="s">
         <v>183</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="U3" t="s">
         <v>184</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="U4" t="s">
         <v>186</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="U5" t="s">
         <v>187</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
       <c r="U6" t="s">
         <v>189</v>
       </c>
@@ -4709,12 +4709,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="U7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
       <c r="U8" t="s">
         <v>191</v>
       </c>
@@ -4737,16 +4737,16 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="19.07421875" customWidth="1"/>
+    <col min="2" max="2" width="8.84375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>45</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>46</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>47</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>48</v>
       </c>
@@ -4796,21 +4796,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D077A5-E46E-4ED9-B547-F70AD3D26657}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="4"/>
-    <col min="4" max="4" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.53515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.07421875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.84375" style="4"/>
+    <col min="4" max="4" width="7.3046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.53515625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
         <v>26</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
         <v>195</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>44198</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="12" t="s">
         <v>192</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>44199</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="12" t="s">
         <v>193</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>44200</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
         <v>194</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>44201</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>196</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>44567</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
         <v>32</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>44203</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
         <v>197</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
         <v>36</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>44237</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
         <v>198</v>
       </c>
@@ -5061,7 +5061,7 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
         <v>199</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
         <v>200</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="12" t="s">
         <v>201</v>
       </c>
@@ -5124,11 +5124,11 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
     </row>
@@ -5158,28 +5158,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59AF7EF-B12B-4A6F-9425-B1B26B554B1A}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.3046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.69140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.53515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.3046875" customWidth="1"/>
+    <col min="7" max="7" width="10.53515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.84375" customWidth="1"/>
+    <col min="9" max="9" width="15.53515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.23046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>53</v>
       </c>
@@ -5220,7 +5220,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>215</v>
       </c>
@@ -5269,7 +5269,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>216</v>
       </c>
@@ -5318,7 +5318,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>217</v>
       </c>
@@ -5363,7 +5363,7 @@
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -5385,7 +5385,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:F4 G7:G8 E7:F14" xr:uid="{67CE1979-44A6-4EF0-9F88-D467BDB4AAA6}">
       <formula1>$R$2:$R$3</formula1>
     </dataValidation>
@@ -5400,18 +5400,18 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.07421875" customWidth="1"/>
+    <col min="3" max="3" width="10.53515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>215</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>215</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>215</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>215</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>215</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
         <v>216</v>
       </c>
@@ -5509,7 +5509,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>216</v>
       </c>
@@ -5523,7 +5523,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
         <v>216</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>44354</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>216</v>
       </c>
@@ -5545,7 +5545,7 @@
         <v>44438</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
         <v>216</v>
       </c>
@@ -5556,7 +5556,7 @@
         <v>44627</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>216</v>
       </c>
@@ -5584,23 +5584,23 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="7"/>
-    <col min="9" max="9" width="9.21875" style="7"/>
-    <col min="10" max="10" width="14.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.53515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.53515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.53515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.07421875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.69140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.84375" style="7"/>
+    <col min="9" max="9" width="9.23046875" style="7"/>
+    <col min="10" max="10" width="14.84375" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="20" t="s">
         <v>218</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
         <v>195</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>Tiago Cancado</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="13" t="s">
         <v>192</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>Joao Silva</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="13" t="s">
         <v>193</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>Manel Costa</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="13" t="s">
         <v>194</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>Xico Ferreira</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="13" t="s">
         <v>32</v>
       </c>
@@ -5797,7 +5797,7 @@
         <v>Nel Moleiro</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="13" t="s">
         <v>197</v>
       </c>
@@ -5830,7 +5830,7 @@
         <v>Zé do Bento</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="13" t="s">
         <v>36</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>Tó Farrulo</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="13" t="s">
         <v>38</v>
       </c>
@@ -5911,14 +5911,14 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.84375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="20" t="s">
         <v>227</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>215</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>215</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>215</v>
       </c>
@@ -5965,7 +5965,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>215</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>215</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
         <v>215</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>215</v>
       </c>
@@ -6013,7 +6013,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
         <v>215</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>216</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
         <v>216</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>216</v>
       </c>
@@ -6061,7 +6061,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="10" t="s">
         <v>216</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="10" t="s">
         <v>216</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="10" t="s">
         <v>216</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
         <v>216</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="10" t="s">
         <v>216</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="10" t="s">
         <v>216</v>
       </c>
@@ -6133,7 +6133,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="10" t="s">
         <v>216</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="10" t="s">
         <v>216</v>
       </c>
@@ -6157,7 +6157,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="10" t="s">
         <v>216</v>
       </c>
@@ -6183,13 +6183,13 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C1" s="1" t="s">
         <v>203</v>
       </c>
@@ -6212,7 +6212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C2" s="10" t="s">
         <v>11</v>
       </c>
@@ -6249,18 +6249,18 @@
       <selection activeCell="H42" sqref="H42:H66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" style="25" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="18"/>
-    <col min="4" max="4" width="15.88671875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" style="10" customWidth="1"/>
-    <col min="7" max="7" width="27.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.4609375" style="25" customWidth="1"/>
+    <col min="2" max="2" width="12.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.84375" style="18"/>
+    <col min="4" max="4" width="15.84375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="12.3046875" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.07421875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="27.53515625" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" s="24" t="s">
         <v>227</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>215</v>
       </c>
@@ -6318,7 +6318,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>215</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>215</v>
       </c>
@@ -6372,7 +6372,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>215</v>
       </c>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>215</v>
       </c>
@@ -6420,7 +6420,7 @@
       </c>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
         <v>215</v>
       </c>
@@ -6444,7 +6444,7 @@
       </c>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>215</v>
       </c>
@@ -6470,7 +6470,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
         <v>215</v>
       </c>
@@ -6494,7 +6494,7 @@
       </c>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>215</v>
       </c>
@@ -6518,7 +6518,7 @@
       </c>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
         <v>215</v>
       </c>
@@ -6542,7 +6542,7 @@
       </c>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>215</v>
       </c>
@@ -6566,7 +6566,7 @@
       </c>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="10" t="s">
         <v>215</v>
       </c>
@@ -6590,7 +6590,7 @@
       </c>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="10" t="s">
         <v>215</v>
       </c>
@@ -6614,7 +6614,7 @@
       </c>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="10" t="s">
         <v>215</v>
       </c>
@@ -6638,7 +6638,7 @@
       </c>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
         <v>215</v>
       </c>
@@ -6662,7 +6662,7 @@
       </c>
       <c r="H16" s="13"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="10" t="s">
         <v>215</v>
       </c>
@@ -6686,7 +6686,7 @@
       </c>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="10" t="s">
         <v>215</v>
       </c>
@@ -6710,7 +6710,7 @@
       </c>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="10" t="s">
         <v>215</v>
       </c>
@@ -6734,7 +6734,7 @@
       </c>
       <c r="H19" s="13"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="10" t="s">
         <v>215</v>
       </c>
@@ -6758,7 +6758,7 @@
       </c>
       <c r="H20" s="13"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="10" t="s">
         <v>215</v>
       </c>
@@ -6782,7 +6782,7 @@
       </c>
       <c r="H21" s="13"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="10" t="s">
         <v>215</v>
       </c>
@@ -6806,7 +6806,7 @@
       </c>
       <c r="H22" s="13"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="10" t="s">
         <v>215</v>
       </c>
@@ -6830,7 +6830,7 @@
       </c>
       <c r="H23" s="13"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="10" t="s">
         <v>215</v>
       </c>
@@ -6854,7 +6854,7 @@
       </c>
       <c r="H24" s="13"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="10" t="s">
         <v>215</v>
       </c>
@@ -6878,7 +6878,7 @@
       </c>
       <c r="H25" s="13"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="10" t="s">
         <v>215</v>
       </c>
@@ -6902,7 +6902,7 @@
       </c>
       <c r="H26" s="13"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="10" t="s">
         <v>215</v>
       </c>
@@ -6926,7 +6926,7 @@
       </c>
       <c r="H27" s="13"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="10" t="s">
         <v>215</v>
       </c>
@@ -6950,7 +6950,7 @@
       </c>
       <c r="H28" s="13"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="10" t="s">
         <v>215</v>
       </c>
@@ -6974,7 +6974,7 @@
       </c>
       <c r="H29" s="13"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="10" t="s">
         <v>215</v>
       </c>
@@ -6998,7 +6998,7 @@
       </c>
       <c r="H30" s="13"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="10" t="s">
         <v>215</v>
       </c>
@@ -7022,7 +7022,7 @@
       </c>
       <c r="H31" s="13"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="25" t="s">
         <v>216</v>
       </c>
@@ -7046,7 +7046,7 @@
       </c>
       <c r="H32" s="13"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="10" t="s">
         <v>216</v>
       </c>
@@ -7070,7 +7070,7 @@
       </c>
       <c r="H33" s="13"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="10" t="s">
         <v>216</v>
       </c>
@@ -7094,7 +7094,7 @@
       </c>
       <c r="H34" s="13"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="10" t="s">
         <v>216</v>
       </c>
@@ -7118,7 +7118,7 @@
       </c>
       <c r="H35" s="13"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="10" t="s">
         <v>216</v>
       </c>
@@ -7142,7 +7142,7 @@
       </c>
       <c r="H36" s="13"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="10" t="s">
         <v>216</v>
       </c>
@@ -7166,7 +7166,7 @@
       </c>
       <c r="H37" s="13"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="10" t="s">
         <v>216</v>
       </c>
@@ -7190,7 +7190,7 @@
       </c>
       <c r="H38" s="13"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" s="10" t="s">
         <v>216</v>
       </c>
@@ -7214,7 +7214,7 @@
       </c>
       <c r="H39" s="13"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="10" t="s">
         <v>216</v>
       </c>
@@ -7238,7 +7238,7 @@
       </c>
       <c r="H40" s="13"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" s="10" t="s">
         <v>216</v>
       </c>
@@ -7264,7 +7264,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" s="10" t="s">
         <v>216</v>
       </c>
@@ -7288,7 +7288,7 @@
       </c>
       <c r="H42" s="13"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" s="10" t="s">
         <v>216</v>
       </c>
@@ -7312,7 +7312,7 @@
       </c>
       <c r="H43" s="13"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="10" t="s">
         <v>216</v>
       </c>
@@ -7336,7 +7336,7 @@
       </c>
       <c r="H44" s="13"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" s="10" t="s">
         <v>216</v>
       </c>
@@ -7360,7 +7360,7 @@
       </c>
       <c r="H45" s="13"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" s="10" t="s">
         <v>216</v>
       </c>
@@ -7384,7 +7384,7 @@
       </c>
       <c r="H46" s="13"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="10" t="s">
         <v>216</v>
       </c>
@@ -7408,7 +7408,7 @@
       </c>
       <c r="H47" s="13"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="10" t="s">
         <v>216</v>
       </c>
@@ -7432,7 +7432,7 @@
       </c>
       <c r="H48" s="13"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" s="10" t="s">
         <v>216</v>
       </c>
@@ -7456,7 +7456,7 @@
       </c>
       <c r="H49" s="13"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" s="10" t="s">
         <v>216</v>
       </c>
@@ -7480,7 +7480,7 @@
       </c>
       <c r="H50" s="13"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" s="10" t="s">
         <v>216</v>
       </c>
@@ -7504,7 +7504,7 @@
       </c>
       <c r="H51" s="13"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" s="10" t="s">
         <v>216</v>
       </c>
@@ -7528,7 +7528,7 @@
       </c>
       <c r="H52" s="13"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" s="10" t="s">
         <v>216</v>
       </c>
@@ -7552,7 +7552,7 @@
       </c>
       <c r="H53" s="13"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" s="10" t="s">
         <v>216</v>
       </c>
@@ -7576,7 +7576,7 @@
       </c>
       <c r="H54" s="13"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" s="10" t="s">
         <v>216</v>
       </c>
@@ -7600,7 +7600,7 @@
       </c>
       <c r="H55" s="13"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56" s="10" t="s">
         <v>216</v>
       </c>
@@ -7624,7 +7624,7 @@
       </c>
       <c r="H56" s="13"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" s="10" t="s">
         <v>216</v>
       </c>
@@ -7648,7 +7648,7 @@
       </c>
       <c r="H57" s="13"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58" s="10" t="s">
         <v>216</v>
       </c>
@@ -7672,7 +7672,7 @@
       </c>
       <c r="H58" s="13"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59" s="10" t="s">
         <v>216</v>
       </c>
@@ -7696,7 +7696,7 @@
       </c>
       <c r="H59" s="13"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60" s="10" t="s">
         <v>216</v>
       </c>
@@ -7720,7 +7720,7 @@
       </c>
       <c r="H60" s="13"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61" s="10" t="s">
         <v>216</v>
       </c>
@@ -7744,7 +7744,7 @@
       </c>
       <c r="H61" s="13"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62" s="10" t="s">
         <v>216</v>
       </c>
@@ -7768,7 +7768,7 @@
       </c>
       <c r="H62" s="13"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63" s="10" t="s">
         <v>216</v>
       </c>
@@ -7792,7 +7792,7 @@
       </c>
       <c r="H63" s="13"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64" s="10" t="s">
         <v>216</v>
       </c>
@@ -7816,7 +7816,7 @@
       </c>
       <c r="H64" s="13"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65" s="10" t="s">
         <v>216</v>
       </c>
@@ -7840,7 +7840,7 @@
       </c>
       <c r="H65" s="13"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66" s="10" t="s">
         <v>216</v>
       </c>
@@ -7864,7 +7864,7 @@
       </c>
       <c r="H66" s="13"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67" s="10" t="s">
         <v>216</v>
       </c>

--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\switch\projectg2\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D68A96-D6C1-48A0-9A64-3BB600956808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B39A58-3F76-48B8-932F-598FD2B3ECF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8472" yWindow="1680" windowWidth="17280" windowHeight="8964" tabRatio="938" firstSheet="4" activeTab="8" xr2:uid="{17341BA7-7E24-41D8-A92D-79256BC3D291}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="29692" windowHeight="11949" tabRatio="938" activeTab="3" xr2:uid="{17341BA7-7E24-41D8-A92D-79256BC3D291}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="408">
   <si>
     <t>id</t>
   </si>
@@ -1251,16 +1251,37 @@
   </si>
   <si>
     <t>Project_2022_2&amp;as want US036</t>
+  </si>
+  <si>
+    <t>2023-01-20</t>
+  </si>
+  <si>
+    <t>2022-03-02</t>
+  </si>
+  <si>
+    <t>2022-03-03</t>
+  </si>
+  <si>
+    <t>2022-03-04</t>
+  </si>
+  <si>
+    <t>2022-03-05</t>
+  </si>
+  <si>
+    <t>2022-03-08</t>
+  </si>
+  <si>
+    <t>2022-03-10</t>
+  </si>
+  <si>
+    <t>2022-11-18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1318,6 +1339,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1358,7 +1386,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1376,7 +1404,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1390,6 +1417,10 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
@@ -1857,23 +1888,23 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
-    <col min="5" max="5" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="4"/>
-    <col min="9" max="9" width="24.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="15.4609375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.3046875" customWidth="1"/>
+    <col min="3" max="3" width="15.84375" customWidth="1"/>
+    <col min="5" max="5" width="19.765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.69140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.84375" style="4"/>
+    <col min="9" max="9" width="24.84375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.4609375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.69140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.69140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.84375" style="4"/>
     <col min="14" max="14" width="10" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>203</v>
       </c>
@@ -1917,7 +1948,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
@@ -1959,7 +1990,7 @@
         <v>263650670</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
@@ -2001,7 +2032,7 @@
         <v>263650520</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
@@ -2043,7 +2074,7 @@
         <v>263650532</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>23</v>
       </c>
@@ -2085,7 +2116,7 @@
         <v>263650345</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>25</v>
       </c>
@@ -2127,7 +2158,7 @@
         <v>263650127</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
         <v>28</v>
       </c>
@@ -2169,7 +2200,7 @@
         <v>212349016</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>31</v>
       </c>
@@ -2193,7 +2224,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
         <v>34</v>
       </c>
@@ -2217,7 +2248,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>35</v>
       </c>
@@ -2241,7 +2272,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
         <v>37</v>
       </c>
@@ -2265,7 +2296,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>40</v>
       </c>
@@ -2289,7 +2320,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="10" t="s">
         <v>41</v>
       </c>
@@ -2313,7 +2344,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="10" t="s">
         <v>42</v>
       </c>
@@ -2337,7 +2368,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="10" t="s">
         <v>43</v>
       </c>
@@ -2388,17 +2419,17 @@
   <dimension ref="A1:M100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.84375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
@@ -2418,7 +2449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>215</v>
       </c>
@@ -2438,7 +2469,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>215</v>
       </c>
@@ -2458,7 +2489,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>215</v>
       </c>
@@ -2478,7 +2509,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>215</v>
       </c>
@@ -2495,7 +2526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>215</v>
       </c>
@@ -2512,7 +2543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>215</v>
       </c>
@@ -2529,7 +2560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>215</v>
       </c>
@@ -2546,7 +2577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>215</v>
       </c>
@@ -2563,7 +2594,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>215</v>
       </c>
@@ -2580,7 +2611,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>215</v>
       </c>
@@ -2597,7 +2628,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>215</v>
       </c>
@@ -2611,7 +2642,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>215</v>
       </c>
@@ -2625,7 +2656,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>215</v>
       </c>
@@ -2639,7 +2670,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>215</v>
       </c>
@@ -2653,7 +2684,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>215</v>
       </c>
@@ -2667,7 +2698,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>215</v>
       </c>
@@ -2684,7 +2715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>215</v>
       </c>
@@ -2698,7 +2729,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>215</v>
       </c>
@@ -2715,7 +2746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>215</v>
       </c>
@@ -2732,7 +2763,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>215</v>
       </c>
@@ -2749,7 +2780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>215</v>
       </c>
@@ -2766,7 +2797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>215</v>
       </c>
@@ -2783,7 +2814,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>215</v>
       </c>
@@ -2800,7 +2831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>215</v>
       </c>
@@ -2817,7 +2848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>215</v>
       </c>
@@ -2834,7 +2865,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>215</v>
       </c>
@@ -2851,7 +2882,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>215</v>
       </c>
@@ -2868,7 +2899,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>215</v>
       </c>
@@ -2885,7 +2916,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>215</v>
       </c>
@@ -2902,7 +2933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>215</v>
       </c>
@@ -2919,7 +2950,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
         <v>215</v>
       </c>
@@ -2933,7 +2964,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
         <v>215</v>
       </c>
@@ -2947,7 +2978,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
         <v>215</v>
       </c>
@@ -2961,7 +2992,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
         <v>215</v>
       </c>
@@ -2975,7 +3006,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
         <v>215</v>
       </c>
@@ -2989,7 +3020,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
         <v>215</v>
       </c>
@@ -3003,7 +3034,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="3" t="s">
         <v>215</v>
       </c>
@@ -3020,7 +3051,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
         <v>215</v>
       </c>
@@ -3037,7 +3068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="3" t="s">
         <v>215</v>
       </c>
@@ -3054,7 +3085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
         <v>215</v>
       </c>
@@ -3071,7 +3102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="3" t="s">
         <v>215</v>
       </c>
@@ -3088,7 +3119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="3" t="s">
         <v>215</v>
       </c>
@@ -3105,7 +3136,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="3" t="s">
         <v>215</v>
       </c>
@@ -3122,7 +3153,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="3" t="s">
         <v>215</v>
       </c>
@@ -3139,7 +3170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="3" t="s">
         <v>215</v>
       </c>
@@ -3156,7 +3187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="3" t="s">
         <v>215</v>
       </c>
@@ -3173,7 +3204,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="3" t="s">
         <v>215</v>
       </c>
@@ -3190,7 +3221,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="3" t="s">
         <v>215</v>
       </c>
@@ -3207,7 +3238,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="3" t="s">
         <v>215</v>
       </c>
@@ -3224,7 +3255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" s="3" t="s">
         <v>215</v>
       </c>
@@ -3241,7 +3272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" s="3" t="s">
         <v>215</v>
       </c>
@@ -3258,7 +3289,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" s="3" t="s">
         <v>215</v>
       </c>
@@ -3275,7 +3306,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" s="3" t="s">
         <v>215</v>
       </c>
@@ -3292,7 +3323,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" s="3" t="s">
         <v>215</v>
       </c>
@@ -3309,7 +3340,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>215</v>
       </c>
@@ -3323,7 +3354,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>215</v>
       </c>
@@ -3337,7 +3368,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>215</v>
       </c>
@@ -3351,7 +3382,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>215</v>
       </c>
@@ -3365,7 +3396,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>215</v>
       </c>
@@ -3379,7 +3410,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>215</v>
       </c>
@@ -3393,7 +3424,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>215</v>
       </c>
@@ -3410,7 +3441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>215</v>
       </c>
@@ -3427,7 +3458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>215</v>
       </c>
@@ -3444,7 +3475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>215</v>
       </c>
@@ -3461,7 +3492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>215</v>
       </c>
@@ -3478,7 +3509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>215</v>
       </c>
@@ -3495,7 +3526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>215</v>
       </c>
@@ -3512,7 +3543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>215</v>
       </c>
@@ -3529,7 +3560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>215</v>
       </c>
@@ -3546,7 +3577,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>215</v>
       </c>
@@ -3563,7 +3594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>215</v>
       </c>
@@ -3580,7 +3611,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>215</v>
       </c>
@@ -3597,7 +3628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" s="3" t="s">
         <v>215</v>
       </c>
@@ -3611,7 +3642,7 @@
         <v>44337</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75" s="3" t="s">
         <v>215</v>
       </c>
@@ -3625,7 +3656,7 @@
         <v>44337</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76" s="3" t="s">
         <v>215</v>
       </c>
@@ -3639,7 +3670,7 @@
         <v>44337</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77" s="3" t="s">
         <v>215</v>
       </c>
@@ -3653,7 +3684,7 @@
         <v>44337</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78" s="3" t="s">
         <v>215</v>
       </c>
@@ -3670,7 +3701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79" s="3" t="s">
         <v>215</v>
       </c>
@@ -3687,7 +3718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80" s="3" t="s">
         <v>215</v>
       </c>
@@ -3704,7 +3735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81" s="3" t="s">
         <v>215</v>
       </c>
@@ -3721,7 +3752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82" s="3" t="s">
         <v>215</v>
       </c>
@@ -3738,7 +3769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83" s="3" t="s">
         <v>215</v>
       </c>
@@ -3755,7 +3786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84" s="3" t="s">
         <v>215</v>
       </c>
@@ -3772,7 +3803,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85" s="3" t="s">
         <v>215</v>
       </c>
@@ -3789,7 +3820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>215</v>
       </c>
@@ -3803,7 +3834,7 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>215</v>
       </c>
@@ -3817,7 +3848,7 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>215</v>
       </c>
@@ -3831,7 +3862,7 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>215</v>
       </c>
@@ -3845,7 +3876,7 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>215</v>
       </c>
@@ -3862,7 +3893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>215</v>
       </c>
@@ -3879,7 +3910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>215</v>
       </c>
@@ -3896,7 +3927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>215</v>
       </c>
@@ -3913,7 +3944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A94" s="3" t="s">
         <v>215</v>
       </c>
@@ -3927,7 +3958,7 @@
         <v>44365</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A95" s="3" t="s">
         <v>215</v>
       </c>
@@ -3944,7 +3975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A96" s="3" t="s">
         <v>215</v>
       </c>
@@ -3961,7 +3992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A97" s="3" t="s">
         <v>215</v>
       </c>
@@ -3978,7 +4009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>215</v>
       </c>
@@ -3992,7 +4023,7 @@
         <v>44407</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>215</v>
       </c>
@@ -4006,7 +4037,7 @@
         <v>44407</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>215</v>
       </c>
@@ -4040,20 +4071,20 @@
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.69140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.3046875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>227</v>
       </c>
@@ -4070,7 +4101,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>215</v>
       </c>
@@ -4088,7 +4119,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>215</v>
       </c>
@@ -4106,7 +4137,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>215</v>
       </c>
@@ -4124,7 +4155,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>215</v>
       </c>
@@ -4139,7 +4170,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>215</v>
       </c>
@@ -4154,7 +4185,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
         <v>215</v>
       </c>
@@ -4169,7 +4200,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>215</v>
       </c>
@@ -4184,7 +4215,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
         <v>215</v>
       </c>
@@ -4199,7 +4230,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>215</v>
       </c>
@@ -4214,7 +4245,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
         <v>215</v>
       </c>
@@ -4229,7 +4260,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>215</v>
       </c>
@@ -4244,7 +4275,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="10" t="s">
         <v>215</v>
       </c>
@@ -4259,7 +4290,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="10" t="s">
         <v>215</v>
       </c>
@@ -4274,7 +4305,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="10" t="s">
         <v>215</v>
       </c>
@@ -4289,7 +4320,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
         <v>215</v>
       </c>
@@ -4304,7 +4335,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="10" t="s">
         <v>215</v>
       </c>
@@ -4319,7 +4350,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="10" t="s">
         <v>215</v>
       </c>
@@ -4334,7 +4365,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="10" t="s">
         <v>215</v>
       </c>
@@ -4349,7 +4380,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="10" t="s">
         <v>215</v>
       </c>
@@ -4364,7 +4395,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="10" t="s">
         <v>215</v>
       </c>
@@ -4379,7 +4410,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="10" t="s">
         <v>215</v>
       </c>
@@ -4394,7 +4425,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="10" t="s">
         <v>215</v>
       </c>
@@ -4409,7 +4440,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="10" t="s">
         <v>215</v>
       </c>
@@ -4424,7 +4455,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="10" t="s">
         <v>215</v>
       </c>
@@ -4439,7 +4470,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="10" t="s">
         <v>215</v>
       </c>
@@ -4454,7 +4485,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="10" t="s">
         <v>215</v>
       </c>
@@ -4469,7 +4500,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="10" t="s">
         <v>215</v>
       </c>
@@ -4484,7 +4515,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="10" t="s">
         <v>215</v>
       </c>
@@ -4499,7 +4530,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="10" t="s">
         <v>215</v>
       </c>
@@ -4514,7 +4545,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="10" t="s">
         <v>215</v>
       </c>
@@ -4529,7 +4560,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="10" t="s">
         <v>215</v>
       </c>
@@ -4544,7 +4575,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="10" t="s">
         <v>215</v>
       </c>
@@ -4559,7 +4590,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="10" t="s">
         <v>215</v>
       </c>
@@ -4574,7 +4605,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="10" t="s">
         <v>215</v>
       </c>
@@ -4609,18 +4640,18 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="12.07421875" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.3046875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.84375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>170</v>
       </c>
@@ -4670,7 +4701,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="U2" t="s">
         <v>183</v>
       </c>
@@ -4678,7 +4709,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="U3" t="s">
         <v>184</v>
       </c>
@@ -4686,7 +4717,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="U4" t="s">
         <v>186</v>
       </c>
@@ -4694,7 +4725,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="U5" t="s">
         <v>187</v>
       </c>
@@ -4702,7 +4733,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
       <c r="U6" t="s">
         <v>189</v>
       </c>
@@ -4710,12 +4741,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="U7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
       <c r="U8" t="s">
         <v>191</v>
       </c>
@@ -4741,13 +4772,13 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="19.07421875" customWidth="1"/>
+    <col min="2" max="2" width="8.84375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -4755,7 +4786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>45</v>
       </c>
@@ -4763,7 +4794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>46</v>
       </c>
@@ -4771,7 +4802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>47</v>
       </c>
@@ -4779,7 +4810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>48</v>
       </c>
@@ -4797,21 +4828,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D077A5-E46E-4ED9-B547-F70AD3D26657}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="4"/>
-    <col min="4" max="4" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.53515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.07421875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.84375" style="4"/>
+    <col min="4" max="4" width="7.3046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.53515625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4831,7 +4862,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
         <v>26</v>
       </c>
@@ -4852,7 +4883,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
         <v>195</v>
       </c>
@@ -4873,7 +4904,7 @@
         <v>44198</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="12" t="s">
         <v>192</v>
       </c>
@@ -4894,7 +4925,7 @@
         <v>44199</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="12" t="s">
         <v>193</v>
       </c>
@@ -4915,7 +4946,7 @@
         <v>44200</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
         <v>194</v>
       </c>
@@ -4936,7 +4967,7 @@
         <v>44201</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>196</v>
       </c>
@@ -4957,7 +4988,7 @@
         <v>44567</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
         <v>32</v>
       </c>
@@ -4978,7 +5009,7 @@
         <v>44203</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
         <v>197</v>
       </c>
@@ -4999,7 +5030,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
         <v>36</v>
       </c>
@@ -5020,7 +5051,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
@@ -5041,7 +5072,7 @@
         <v>44237</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
         <v>198</v>
       </c>
@@ -5062,7 +5093,7 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
         <v>199</v>
       </c>
@@ -5083,7 +5114,7 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
         <v>200</v>
       </c>
@@ -5104,7 +5135,7 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="12" t="s">
         <v>201</v>
       </c>
@@ -5125,11 +5156,11 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
     </row>
@@ -5159,28 +5190,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59AF7EF-B12B-4A6F-9425-B1B26B554B1A}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.3046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.69140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.53515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.3046875" customWidth="1"/>
+    <col min="7" max="7" width="10.53515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.84375" customWidth="1"/>
+    <col min="9" max="9" width="15.53515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.23046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>53</v>
       </c>
@@ -5199,10 +5230,10 @@
       <c r="F1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>210</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -5221,7 +5252,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>215</v>
       </c>
@@ -5270,7 +5301,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>216</v>
       </c>
@@ -5319,7 +5350,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>217</v>
       </c>
@@ -5341,7 +5372,9 @@
       <c r="G4" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="H4" s="15"/>
+      <c r="H4" s="28" t="s">
+        <v>400</v>
+      </c>
       <c r="I4" t="str">
         <f>TEXT(15,"0")</f>
         <v>15</v>
@@ -5364,7 +5397,7 @@
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -5386,7 +5419,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:F4 G7:G8 E7:F14" xr:uid="{67CE1979-44A6-4EF0-9F88-D467BDB4AAA6}">
       <formula1>$R$2:$R$3</formula1>
     </dataValidation>
@@ -5404,15 +5437,15 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.07421875" customWidth="1"/>
+    <col min="3" max="3" width="10.53515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
@@ -5426,7 +5459,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>215</v>
       </c>
@@ -5440,7 +5473,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>215</v>
       </c>
@@ -5454,7 +5487,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>215</v>
       </c>
@@ -5468,7 +5501,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>215</v>
       </c>
@@ -5482,7 +5515,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>215</v>
       </c>
@@ -5496,7 +5529,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
         <v>216</v>
       </c>
@@ -5510,7 +5543,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>216</v>
       </c>
@@ -5524,7 +5557,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
         <v>216</v>
       </c>
@@ -5535,7 +5568,7 @@
         <v>44354</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>216</v>
       </c>
@@ -5546,7 +5579,7 @@
         <v>44438</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
         <v>216</v>
       </c>
@@ -5557,7 +5590,7 @@
         <v>44627</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>216</v>
       </c>
@@ -5582,30 +5615,30 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8482F8C3-6DCA-424C-81AE-BDA1451F2AAD}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="7"/>
-    <col min="9" max="9" width="9.21875" style="7"/>
-    <col min="10" max="10" width="14.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.53515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.53515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.53515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.07421875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.69140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.84375" style="7"/>
+    <col min="9" max="9" width="9.23046875" style="7"/>
+    <col min="10" max="10" width="14.84375" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>219</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -5617,23 +5650,23 @@
       <c r="E1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="27" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="13" t="s">
         <v>195</v>
       </c>
@@ -5649,10 +5682,10 @@
       <c r="E2" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="16">
         <v>35</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="16">
         <v>0.2</v>
       </c>
       <c r="H2" s="4">
@@ -5666,7 +5699,7 @@
         <v>Tiago Cancado</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="13" t="s">
         <v>192</v>
       </c>
@@ -5682,10 +5715,10 @@
       <c r="E3" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="16">
         <v>25</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="16">
         <v>0.2</v>
       </c>
       <c r="H3" s="4">
@@ -5699,7 +5732,7 @@
         <v>Joao Silva</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="13" t="s">
         <v>193</v>
       </c>
@@ -5715,10 +5748,10 @@
       <c r="E4" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="16">
         <v>25</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="16">
         <v>0.3</v>
       </c>
       <c r="H4" s="4">
@@ -5732,7 +5765,7 @@
         <v>Manel Costa</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="13" t="s">
         <v>194</v>
       </c>
@@ -5748,10 +5781,10 @@
       <c r="E5" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="16">
         <v>20</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="16">
         <v>1</v>
       </c>
       <c r="H5" s="4">
@@ -5765,7 +5798,7 @@
         <v>Xico Ferreira</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="13" t="s">
         <v>32</v>
       </c>
@@ -5781,10 +5814,10 @@
       <c r="E6" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="16">
         <v>20</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="16">
         <v>1</v>
       </c>
       <c r="H6" s="4">
@@ -5798,7 +5831,7 @@
         <v>Nel Moleiro</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="13" t="s">
         <v>197</v>
       </c>
@@ -5814,10 +5847,10 @@
       <c r="E7" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="16">
         <v>20</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="16">
         <v>1</v>
       </c>
       <c r="H7" s="4">
@@ -5831,7 +5864,7 @@
         <v>Zé do Bento</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="13" t="s">
         <v>36</v>
       </c>
@@ -5847,10 +5880,10 @@
       <c r="E8" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="16">
         <v>20</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="16">
         <v>1</v>
       </c>
       <c r="H8" s="4">
@@ -5864,7 +5897,7 @@
         <v>Tó Farrulo</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="13" t="s">
         <v>38</v>
       </c>
@@ -5880,10 +5913,10 @@
       <c r="E9" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="16">
         <v>20</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="16">
         <v>1</v>
       </c>
       <c r="H9" s="4">
@@ -5894,6 +5927,270 @@
       </c>
       <c r="J9" s="4" t="str">
         <f>VLOOKUP(H9,[1]Users!$A$2:$B$50,2,FALSE)</f>
+        <v>Tino das Cruzes</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="F10" s="31">
+        <v>35</v>
+      </c>
+      <c r="G10" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1237</v>
+      </c>
+      <c r="I10" s="4">
+        <v>4</v>
+      </c>
+      <c r="J10" s="4" t="str">
+        <f>VLOOKUP(H10,[1]Users!$A$2:$B$50,2,FALSE)</f>
+        <v>Tiago Cancado</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="F11" s="31">
+        <v>25</v>
+      </c>
+      <c r="G11" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1234</v>
+      </c>
+      <c r="I11" s="4">
+        <v>5</v>
+      </c>
+      <c r="J11" s="4" t="str">
+        <f>VLOOKUP(H11,[1]Users!$A$2:$B$50,2,FALSE)</f>
+        <v>Joao Silva</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="F12" s="31">
+        <v>25</v>
+      </c>
+      <c r="G12" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1235</v>
+      </c>
+      <c r="I12" s="4">
+        <v>6</v>
+      </c>
+      <c r="J12" s="4" t="str">
+        <f>VLOOKUP(H12,[1]Users!$A$2:$B$50,2,FALSE)</f>
+        <v>Manel Costa</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="F13" s="31">
+        <v>20</v>
+      </c>
+      <c r="G13" s="31">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1236</v>
+      </c>
+      <c r="I13" s="4">
+        <v>7</v>
+      </c>
+      <c r="J13" s="4" t="str">
+        <f>VLOOKUP(H13,[1]Users!$A$2:$B$50,2,FALSE)</f>
+        <v>Xico Ferreira</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>328</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="F14" s="31">
+        <v>20</v>
+      </c>
+      <c r="G14" s="31">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1241</v>
+      </c>
+      <c r="I14" s="4">
+        <v>7</v>
+      </c>
+      <c r="J14" s="4" t="str">
+        <f>VLOOKUP(H14,[1]Users!$A$2:$B$50,2,FALSE)</f>
+        <v>Nel Moleiro</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="F15" s="31">
+        <v>20</v>
+      </c>
+      <c r="G15" s="31">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1243</v>
+      </c>
+      <c r="I15" s="4">
+        <v>7</v>
+      </c>
+      <c r="J15" s="4" t="str">
+        <f>VLOOKUP(H15,[1]Users!$A$2:$B$50,2,FALSE)</f>
+        <v>Zé do Bento</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="F16" s="31">
+        <v>20</v>
+      </c>
+      <c r="G16" s="31">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1246</v>
+      </c>
+      <c r="I16" s="4">
+        <v>7</v>
+      </c>
+      <c r="J16" s="4" t="str">
+        <f>VLOOKUP(H16,[1]Users!$A$2:$B$50,2,FALSE)</f>
+        <v>Tó Farrulo</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>406</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="F17" s="31">
+        <v>20</v>
+      </c>
+      <c r="G17" s="31">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1247</v>
+      </c>
+      <c r="I17" s="4">
+        <v>7</v>
+      </c>
+      <c r="J17" s="4" t="str">
+        <f>VLOOKUP(H17,[1]Users!$A$2:$B$50,2,FALSE)</f>
         <v>Tino das Cruzes</v>
       </c>
     </row>
@@ -5912,15 +6209,15 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.84375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="19" t="s">
         <v>227</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -5930,7 +6227,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>215</v>
       </c>
@@ -5942,7 +6239,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>215</v>
       </c>
@@ -5954,7 +6251,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>215</v>
       </c>
@@ -5966,7 +6263,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>215</v>
       </c>
@@ -5978,7 +6275,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>215</v>
       </c>
@@ -5990,7 +6287,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
         <v>215</v>
       </c>
@@ -6002,7 +6299,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>215</v>
       </c>
@@ -6014,7 +6311,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
         <v>215</v>
       </c>
@@ -6026,7 +6323,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>216</v>
       </c>
@@ -6038,7 +6335,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
         <v>216</v>
       </c>
@@ -6050,7 +6347,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>216</v>
       </c>
@@ -6062,7 +6359,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="10" t="s">
         <v>216</v>
       </c>
@@ -6074,7 +6371,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="10" t="s">
         <v>216</v>
       </c>
@@ -6086,7 +6383,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="10" t="s">
         <v>216</v>
       </c>
@@ -6098,7 +6395,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
         <v>216</v>
       </c>
@@ -6110,7 +6407,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="10" t="s">
         <v>216</v>
       </c>
@@ -6122,7 +6419,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="10" t="s">
         <v>216</v>
       </c>
@@ -6134,7 +6431,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="10" t="s">
         <v>216</v>
       </c>
@@ -6146,7 +6443,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="10" t="s">
         <v>216</v>
       </c>
@@ -6158,7 +6455,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="10" t="s">
         <v>216</v>
       </c>
@@ -6184,13 +6481,13 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C1" s="1" t="s">
         <v>203</v>
       </c>
@@ -6213,7 +6510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C2" s="10" t="s">
         <v>11</v>
       </c>
@@ -6246,41 +6543,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC3EF37-2BA8-4EC6-92A1-22C0C9AA6791}">
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="18"/>
-    <col min="4" max="4" width="15.88671875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" style="10" customWidth="1"/>
-    <col min="7" max="7" width="27.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.84375" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.84375" style="17"/>
+    <col min="4" max="4" width="15.84375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="12.3046875" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.07421875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="27.53515625" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A1" s="23" t="s">
         <v>227</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>333</v>
       </c>
       <c r="H1" s="10" t="s">
@@ -6290,55 +6587,55 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>215</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="17">
         <v>1</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="18">
         <v>10</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="24" t="s">
         <v>334</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="25" t="s">
         <v>304</v>
       </c>
       <c r="O2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>215</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="17">
         <v>2</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="18">
         <v>15</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="24" t="s">
         <v>335</v>
       </c>
       <c r="H3" s="13"/>
@@ -6346,26 +6643,26 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>215</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <v>3</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="18">
         <v>11</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="24" t="s">
         <v>336</v>
       </c>
       <c r="H4" s="13"/>
@@ -6373,1521 +6670,1521 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>215</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="17">
         <v>4</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="18">
         <v>13</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="24" t="s">
         <v>337</v>
       </c>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>215</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="17">
         <v>5</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="18">
         <v>13.5</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="24" t="s">
         <v>338</v>
       </c>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
         <v>215</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="17">
         <v>1</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="18">
         <v>14</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="24" t="s">
         <v>339</v>
       </c>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>215</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="17">
         <v>2</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="18">
         <v>14.5</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="24" t="s">
         <v>340</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="25" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
         <v>215</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="17">
         <v>3</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="18">
         <v>15</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="24" t="s">
         <v>341</v>
       </c>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>215</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="17">
         <v>4</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="18">
         <v>15.5</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="24" t="s">
         <v>342</v>
       </c>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
         <v>215</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="17">
         <v>5</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="18">
         <v>16</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="24" t="s">
         <v>343</v>
       </c>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>215</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="17">
         <v>1</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="18">
         <v>16.5</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="24" t="s">
         <v>344</v>
       </c>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="10" t="s">
         <v>215</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="17">
         <v>2</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="18">
         <v>17</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="24" t="s">
         <v>345</v>
       </c>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="10" t="s">
         <v>215</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="17">
         <v>3</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="18">
         <v>17.5</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="24" t="s">
         <v>346</v>
       </c>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="10" t="s">
         <v>215</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="17">
         <v>4</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="18">
         <v>18</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="24" t="s">
         <v>347</v>
       </c>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
         <v>215</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="17">
         <v>5</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="18">
         <v>18.5</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="24" t="s">
         <v>348</v>
       </c>
       <c r="H16" s="13"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="10" t="s">
         <v>215</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="17">
         <v>1</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="18">
         <v>19</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="24" t="s">
         <v>349</v>
       </c>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="10" t="s">
         <v>215</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="17">
         <v>2</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="18">
         <v>19.5</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G18" s="25" t="s">
+      <c r="G18" s="24" t="s">
         <v>350</v>
       </c>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="10" t="s">
         <v>215</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="17">
         <v>3</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="18">
         <v>20</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="G19" s="24" t="s">
         <v>351</v>
       </c>
       <c r="H19" s="13"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="10" t="s">
         <v>215</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="17">
         <v>4</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="18">
         <v>20.5</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="24" t="s">
         <v>352</v>
       </c>
       <c r="H20" s="13"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="10" t="s">
         <v>215</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="17">
         <v>5</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="18">
         <v>21</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="24" t="s">
         <v>353</v>
       </c>
       <c r="H21" s="13"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="10" t="s">
         <v>215</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="17">
         <v>1</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="18">
         <v>21.5</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="G22" s="24" t="s">
         <v>354</v>
       </c>
       <c r="H22" s="13"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="10" t="s">
         <v>215</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="17">
         <v>2</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="18">
         <v>22</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G23" s="25" t="s">
+      <c r="G23" s="24" t="s">
         <v>355</v>
       </c>
       <c r="H23" s="13"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="10" t="s">
         <v>215</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="17">
         <v>3</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="18">
         <v>22.5</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="G24" s="24" t="s">
         <v>356</v>
       </c>
       <c r="H24" s="13"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="10" t="s">
         <v>215</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="17">
         <v>4</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="18">
         <v>23</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="G25" s="24" t="s">
         <v>357</v>
       </c>
       <c r="H25" s="13"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="10" t="s">
         <v>215</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="17">
         <v>5</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="18">
         <v>23.5</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G26" s="25" t="s">
+      <c r="G26" s="24" t="s">
         <v>358</v>
       </c>
       <c r="H26" s="13"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="10" t="s">
         <v>215</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="17">
         <v>1</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="18">
         <v>24</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="G27" s="24" t="s">
         <v>359</v>
       </c>
       <c r="H27" s="13"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="10" t="s">
         <v>215</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="17">
         <v>2</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="18">
         <v>24.5</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="G28" s="24" t="s">
         <v>360</v>
       </c>
       <c r="H28" s="13"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="10" t="s">
         <v>215</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="17">
         <v>3</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="18">
         <v>25</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G29" s="25" t="s">
+      <c r="G29" s="24" t="s">
         <v>361</v>
       </c>
       <c r="H29" s="13"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="10" t="s">
         <v>215</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="17">
         <v>4</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="18">
         <v>25.5</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G30" s="25" t="s">
+      <c r="G30" s="24" t="s">
         <v>362</v>
       </c>
       <c r="H30" s="13"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="10" t="s">
         <v>215</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="17">
         <v>5</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="18">
         <v>26</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G31" s="25" t="s">
+      <c r="G31" s="24" t="s">
         <v>363</v>
       </c>
       <c r="H31" s="13"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="25" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32" s="24" t="s">
         <v>216</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="17">
         <v>1</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="18">
         <v>26.5</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="24" t="s">
         <v>364</v>
       </c>
       <c r="H32" s="13"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="10" t="s">
         <v>216</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="17">
         <v>2</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="18">
         <v>27</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G33" s="25" t="s">
+      <c r="G33" s="24" t="s">
         <v>365</v>
       </c>
       <c r="H33" s="13"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="10" t="s">
         <v>216</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="17">
         <v>3</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="18">
         <v>27.5</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G34" s="25" t="s">
+      <c r="G34" s="24" t="s">
         <v>366</v>
       </c>
       <c r="H34" s="13"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="10" t="s">
         <v>216</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="17">
         <v>4</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E35" s="18">
         <v>28</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G35" s="25" t="s">
+      <c r="G35" s="24" t="s">
         <v>367</v>
       </c>
       <c r="H35" s="13"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="10" t="s">
         <v>216</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="17">
         <v>5</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E36" s="18">
         <v>28.5</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G36" s="25" t="s">
+      <c r="G36" s="24" t="s">
         <v>368</v>
       </c>
       <c r="H36" s="13"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="10" t="s">
         <v>216</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C37" s="17">
         <v>1</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E37" s="18">
         <v>29</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G37" s="25" t="s">
+      <c r="G37" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H37" s="13"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="10" t="s">
         <v>216</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="C38" s="18">
+      <c r="C38" s="17">
         <v>2</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E38" s="18">
         <v>29.5</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G38" s="25" t="s">
+      <c r="G38" s="24" t="s">
         <v>370</v>
       </c>
       <c r="H38" s="13"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" s="10" t="s">
         <v>216</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="C39" s="18">
+      <c r="C39" s="17">
         <v>3</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="E39" s="19">
+      <c r="E39" s="18">
         <v>30</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G39" s="25" t="s">
+      <c r="G39" s="24" t="s">
         <v>371</v>
       </c>
       <c r="H39" s="13"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="10" t="s">
         <v>216</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="C40" s="18">
+      <c r="C40" s="17">
         <v>4</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E40" s="18">
         <v>30.5</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G40" s="25" t="s">
+      <c r="G40" s="24" t="s">
         <v>372</v>
       </c>
       <c r="H40" s="13"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" s="10" t="s">
         <v>216</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="C41" s="18">
+      <c r="C41" s="17">
         <v>5</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="E41" s="19">
+      <c r="E41" s="18">
         <v>31</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="G41" s="25" t="s">
+      <c r="G41" s="24" t="s">
         <v>373</v>
       </c>
-      <c r="H41" s="26" t="s">
+      <c r="H41" s="25" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" s="10" t="s">
         <v>216</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="C42" s="18">
+      <c r="C42" s="17">
         <v>1</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E42" s="19">
+      <c r="E42" s="18">
         <v>31.5</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G42" s="25" t="s">
+      <c r="G42" s="24" t="s">
         <v>374</v>
       </c>
       <c r="H42" s="13"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" s="10" t="s">
         <v>216</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="C43" s="18">
+      <c r="C43" s="17">
         <v>2</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="E43" s="19">
+      <c r="E43" s="18">
         <v>32</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G43" s="25" t="s">
+      <c r="G43" s="24" t="s">
         <v>375</v>
       </c>
       <c r="H43" s="13"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="10" t="s">
         <v>216</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="C44" s="18">
+      <c r="C44" s="17">
         <v>3</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="E44" s="19">
+      <c r="E44" s="18">
         <v>32.5</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G44" s="25" t="s">
+      <c r="G44" s="24" t="s">
         <v>376</v>
       </c>
       <c r="H44" s="13"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" s="10" t="s">
         <v>216</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="C45" s="18">
+      <c r="C45" s="17">
         <v>4</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="E45" s="19">
+      <c r="E45" s="18">
         <v>33</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G45" s="25" t="s">
+      <c r="G45" s="24" t="s">
         <v>377</v>
       </c>
       <c r="H45" s="13"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" s="10" t="s">
         <v>216</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="C46" s="18">
+      <c r="C46" s="17">
         <v>5</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="E46" s="19">
+      <c r="E46" s="18">
         <v>33.5</v>
       </c>
       <c r="F46" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G46" s="25" t="s">
+      <c r="G46" s="24" t="s">
         <v>378</v>
       </c>
       <c r="H46" s="13"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="10" t="s">
         <v>216</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="C47" s="18">
+      <c r="C47" s="17">
         <v>1</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="E47" s="19">
+      <c r="E47" s="18">
         <v>34</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G47" s="25" t="s">
+      <c r="G47" s="24" t="s">
         <v>379</v>
       </c>
       <c r="H47" s="13"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="10" t="s">
         <v>216</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="C48" s="18">
+      <c r="C48" s="17">
         <v>2</v>
       </c>
       <c r="D48" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="E48" s="19">
+      <c r="E48" s="18">
         <v>34.5</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G48" s="25" t="s">
+      <c r="G48" s="24" t="s">
         <v>380</v>
       </c>
       <c r="H48" s="13"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" s="10" t="s">
         <v>216</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="C49" s="18">
+      <c r="C49" s="17">
         <v>3</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="E49" s="19">
+      <c r="E49" s="18">
         <v>35</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G49" s="25" t="s">
+      <c r="G49" s="24" t="s">
         <v>381</v>
       </c>
       <c r="H49" s="13"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" s="10" t="s">
         <v>216</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="C50" s="18">
+      <c r="C50" s="17">
         <v>4</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="E50" s="19">
+      <c r="E50" s="18">
         <v>35.5</v>
       </c>
       <c r="F50" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G50" s="25" t="s">
+      <c r="G50" s="24" t="s">
         <v>382</v>
       </c>
       <c r="H50" s="13"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" s="10" t="s">
         <v>216</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="C51" s="18">
+      <c r="C51" s="17">
         <v>5</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="E51" s="19">
+      <c r="E51" s="18">
         <v>36</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G51" s="25" t="s">
+      <c r="G51" s="24" t="s">
         <v>383</v>
       </c>
       <c r="H51" s="13"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" s="10" t="s">
         <v>216</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="C52" s="18">
+      <c r="C52" s="17">
         <v>1</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E52" s="19">
+      <c r="E52" s="18">
         <v>36.5</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G52" s="25" t="s">
+      <c r="G52" s="24" t="s">
         <v>384</v>
       </c>
       <c r="H52" s="13"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" s="10" t="s">
         <v>216</v>
       </c>
       <c r="B53" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="C53" s="18">
+      <c r="C53" s="17">
         <v>2</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E53" s="19">
+      <c r="E53" s="18">
         <v>37</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G53" s="25" t="s">
+      <c r="G53" s="24" t="s">
         <v>385</v>
       </c>
       <c r="H53" s="13"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" s="10" t="s">
         <v>216</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="C54" s="18">
+      <c r="C54" s="17">
         <v>3</v>
       </c>
       <c r="D54" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="E54" s="19">
+      <c r="E54" s="18">
         <v>37.5</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G54" s="25" t="s">
+      <c r="G54" s="24" t="s">
         <v>386</v>
       </c>
       <c r="H54" s="13"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" s="10" t="s">
         <v>216</v>
       </c>
       <c r="B55" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="C55" s="18">
+      <c r="C55" s="17">
         <v>4</v>
       </c>
       <c r="D55" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="E55" s="19">
+      <c r="E55" s="18">
         <v>38</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G55" s="25" t="s">
+      <c r="G55" s="24" t="s">
         <v>387</v>
       </c>
       <c r="H55" s="13"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56" s="10" t="s">
         <v>216</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="C56" s="18">
+      <c r="C56" s="17">
         <v>5</v>
       </c>
       <c r="D56" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="E56" s="19">
+      <c r="E56" s="18">
         <v>38.5</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G56" s="25" t="s">
+      <c r="G56" s="24" t="s">
         <v>388</v>
       </c>
       <c r="H56" s="13"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" s="10" t="s">
         <v>216</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="C57" s="18">
+      <c r="C57" s="17">
         <v>1</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="E57" s="19">
+      <c r="E57" s="18">
         <v>39</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G57" s="25" t="s">
+      <c r="G57" s="24" t="s">
         <v>389</v>
       </c>
       <c r="H57" s="13"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58" s="10" t="s">
         <v>216</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C58" s="18">
+      <c r="C58" s="17">
         <v>2</v>
       </c>
       <c r="D58" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="E58" s="19">
+      <c r="E58" s="18">
         <v>39.5</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G58" s="25" t="s">
+      <c r="G58" s="24" t="s">
         <v>390</v>
       </c>
       <c r="H58" s="13"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59" s="10" t="s">
         <v>216</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="C59" s="18">
+      <c r="C59" s="17">
         <v>3</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="E59" s="19">
+      <c r="E59" s="18">
         <v>40</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G59" s="25" t="s">
+      <c r="G59" s="24" t="s">
         <v>391</v>
       </c>
       <c r="H59" s="13"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60" s="10" t="s">
         <v>216</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="C60" s="18">
+      <c r="C60" s="17">
         <v>4</v>
       </c>
       <c r="D60" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="E60" s="19">
+      <c r="E60" s="18">
         <v>40.5</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G60" s="25" t="s">
+      <c r="G60" s="24" t="s">
         <v>392</v>
       </c>
       <c r="H60" s="13"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61" s="10" t="s">
         <v>216</v>
       </c>
       <c r="B61" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="C61" s="18">
+      <c r="C61" s="17">
         <v>5</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E61" s="19">
+      <c r="E61" s="18">
         <v>41</v>
       </c>
       <c r="F61" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G61" s="25" t="s">
+      <c r="G61" s="24" t="s">
         <v>393</v>
       </c>
       <c r="H61" s="13"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62" s="10" t="s">
         <v>216</v>
       </c>
       <c r="B62" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="C62" s="18">
+      <c r="C62" s="17">
         <v>1</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E62" s="19">
+      <c r="E62" s="18">
         <v>41.5</v>
       </c>
       <c r="F62" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G62" s="25" t="s">
+      <c r="G62" s="24" t="s">
         <v>394</v>
       </c>
       <c r="H62" s="13"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63" s="10" t="s">
         <v>216</v>
       </c>
       <c r="B63" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="C63" s="18">
+      <c r="C63" s="17">
         <v>2</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="E63" s="19">
+      <c r="E63" s="18">
         <v>42</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G63" s="25" t="s">
+      <c r="G63" s="24" t="s">
         <v>395</v>
       </c>
       <c r="H63" s="13"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64" s="10" t="s">
         <v>216</v>
       </c>
       <c r="B64" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="C64" s="18">
+      <c r="C64" s="17">
         <v>3</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="E64" s="19">
+      <c r="E64" s="18">
         <v>42.5</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G64" s="25" t="s">
+      <c r="G64" s="24" t="s">
         <v>396</v>
       </c>
       <c r="H64" s="13"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65" s="10" t="s">
         <v>216</v>
       </c>
       <c r="B65" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="C65" s="18">
+      <c r="C65" s="17">
         <v>4</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="E65" s="19">
+      <c r="E65" s="18">
         <v>43</v>
       </c>
       <c r="F65" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G65" s="25" t="s">
+      <c r="G65" s="24" t="s">
         <v>397</v>
       </c>
       <c r="H65" s="13"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66" s="10" t="s">
         <v>216</v>
       </c>
       <c r="B66" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="C66" s="18">
+      <c r="C66" s="17">
         <v>5</v>
       </c>
       <c r="D66" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="E66" s="19">
+      <c r="E66" s="18">
         <v>43.5</v>
       </c>
       <c r="F66" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G66" s="25" t="s">
+      <c r="G66" s="24" t="s">
         <v>398</v>
       </c>
       <c r="H66" s="13"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67" s="10" t="s">
         <v>216</v>
       </c>
       <c r="B67" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="C67" s="18">
+      <c r="C67" s="17">
         <v>1</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="E67" s="19">
+      <c r="E67" s="18">
         <v>44</v>
       </c>
       <c r="F67" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="G67" s="25" t="s">
+      <c r="G67" s="24" t="s">
         <v>399</v>
       </c>
-      <c r="H67" s="26" t="s">
+      <c r="H67" s="25" t="s">
         <v>331</v>
       </c>
     </row>
@@ -7904,12 +8201,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8116,15 +8410,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{552A2396-49F4-45F5-9D44-9C3125763CF2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EAF4CE-5C55-41AC-946B-5BEC082284DF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8149,10 +8447,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EAF4CE-5C55-41AC-946B-5BEC082284DF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{552A2396-49F4-45F5-9D44-9C3125763CF2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\switch\projectg2\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Desktop\Projeto\projectg2\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D68A96-D6C1-48A0-9A64-3BB600956808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F21B369-9F9A-4113-A1F9-FD092C491900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8472" yWindow="1680" windowWidth="17280" windowHeight="8964" tabRatio="938" firstSheet="4" activeTab="8" xr2:uid="{17341BA7-7E24-41D8-A92D-79256BC3D291}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="938" activeTab="8" xr2:uid="{17341BA7-7E24-41D8-A92D-79256BC3D291}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,9 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">BacklogUSStatus!$A$1:$E$100</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">ProjectBacklog!$A$1:$H$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">ProjectBacklog!$A$1:$I$67</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="402">
   <si>
     <t>id</t>
   </si>
@@ -1251,6 +1253,12 @@
   </si>
   <si>
     <t>Project_2022_2&amp;as want US036</t>
+  </si>
+  <si>
+    <t>us_end</t>
+  </si>
+  <si>
+    <t>2021-04-02</t>
   </si>
 </sst>
 </file>
@@ -1392,7 +1400,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1555,7 +1563,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2385,10 +2393,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E62CEF3-4F99-4CE5-B31F-511FA523F4D9}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2418,7 +2427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>215</v>
       </c>
@@ -2438,7 +2447,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>215</v>
       </c>
@@ -2458,7 +2467,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>215</v>
       </c>
@@ -2478,7 +2487,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>215</v>
       </c>
@@ -2495,7 +2504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>215</v>
       </c>
@@ -2512,7 +2521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>215</v>
       </c>
@@ -2529,7 +2538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>215</v>
       </c>
@@ -2546,7 +2555,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>215</v>
       </c>
@@ -2563,7 +2572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>215</v>
       </c>
@@ -2580,7 +2589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>215</v>
       </c>
@@ -2667,7 +2676,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>215</v>
       </c>
@@ -2684,7 +2693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>215</v>
       </c>
@@ -2698,7 +2707,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>215</v>
       </c>
@@ -2715,7 +2724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>215</v>
       </c>
@@ -2732,7 +2741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>215</v>
       </c>
@@ -2749,7 +2758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>215</v>
       </c>
@@ -2766,7 +2775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>215</v>
       </c>
@@ -2783,7 +2792,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>215</v>
       </c>
@@ -2800,7 +2809,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>215</v>
       </c>
@@ -2817,7 +2826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>215</v>
       </c>
@@ -2834,7 +2843,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>215</v>
       </c>
@@ -2851,7 +2860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>215</v>
       </c>
@@ -2868,7 +2877,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>215</v>
       </c>
@@ -2885,7 +2894,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>215</v>
       </c>
@@ -2902,7 +2911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>215</v>
       </c>
@@ -3003,7 +3012,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>215</v>
       </c>
@@ -3020,7 +3029,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>215</v>
       </c>
@@ -3037,7 +3046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>215</v>
       </c>
@@ -3054,7 +3063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>215</v>
       </c>
@@ -3071,7 +3080,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>215</v>
       </c>
@@ -3088,7 +3097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>215</v>
       </c>
@@ -3105,7 +3114,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>215</v>
       </c>
@@ -3122,7 +3131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>215</v>
       </c>
@@ -3139,7 +3148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>215</v>
       </c>
@@ -3156,7 +3165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>215</v>
       </c>
@@ -3173,7 +3182,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>215</v>
       </c>
@@ -3190,7 +3199,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>215</v>
       </c>
@@ -3207,7 +3216,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>215</v>
       </c>
@@ -3224,7 +3233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>215</v>
       </c>
@@ -3241,7 +3250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>215</v>
       </c>
@@ -3258,7 +3267,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>215</v>
       </c>
@@ -3275,7 +3284,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>215</v>
       </c>
@@ -3292,7 +3301,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>215</v>
       </c>
@@ -3379,7 +3388,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>215</v>
       </c>
@@ -3393,7 +3402,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>215</v>
       </c>
@@ -3410,7 +3419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>215</v>
       </c>
@@ -3427,7 +3436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>215</v>
       </c>
@@ -3444,7 +3453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>215</v>
       </c>
@@ -3461,7 +3470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>215</v>
       </c>
@@ -3478,7 +3487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>215</v>
       </c>
@@ -3495,7 +3504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>215</v>
       </c>
@@ -3512,7 +3521,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>215</v>
       </c>
@@ -3529,7 +3538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>215</v>
       </c>
@@ -3546,7 +3555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>215</v>
       </c>
@@ -3563,7 +3572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>215</v>
       </c>
@@ -3580,7 +3589,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>215</v>
       </c>
@@ -3653,7 +3662,7 @@
         <v>44337</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>215</v>
       </c>
@@ -3670,7 +3679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>215</v>
       </c>
@@ -3687,7 +3696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>215</v>
       </c>
@@ -3704,7 +3713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>215</v>
       </c>
@@ -3721,7 +3730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>215</v>
       </c>
@@ -3738,7 +3747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>215</v>
       </c>
@@ -3755,7 +3764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>215</v>
       </c>
@@ -3772,7 +3781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>215</v>
       </c>
@@ -3845,7 +3854,7 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>215</v>
       </c>
@@ -3862,7 +3871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>215</v>
       </c>
@@ -3879,7 +3888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>215</v>
       </c>
@@ -3896,7 +3905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>215</v>
       </c>
@@ -3927,7 +3936,7 @@
         <v>44365</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>215</v>
       </c>
@@ -3944,7 +3953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>215</v>
       </c>
@@ -3961,7 +3970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>215</v>
       </c>
@@ -4021,7 +4030,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E100" xr:uid="{9E62CEF3-4F99-4CE5-B31F-511FA523F4D9}"/>
+  <autoFilter ref="A1:E100" xr:uid="{9E62CEF3-4F99-4CE5-B31F-511FA523F4D9}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Finished"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B94:B97">
     <sortCondition ref="B94:B97"/>
   </sortState>
@@ -6246,8 +6261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC3EF37-2BA8-4EC6-92A1-22C0C9AA6791}">
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6259,6 +6274,7 @@
     <col min="5" max="5" width="12.33203125" style="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.109375" style="10" customWidth="1"/>
     <col min="7" max="7" width="27.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -6286,6 +6302,9 @@
       <c r="H1" s="10" t="s">
         <v>332</v>
       </c>
+      <c r="I1" s="10" t="s">
+        <v>400</v>
+      </c>
       <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
@@ -6315,6 +6334,9 @@
       <c r="H2" s="26" t="s">
         <v>304</v>
       </c>
+      <c r="I2" s="26" t="s">
+        <v>401</v>
+      </c>
       <c r="O2" t="s">
         <v>85</v>
       </c>
@@ -6342,6 +6364,7 @@
         <v>335</v>
       </c>
       <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
       <c r="O3" t="s">
         <v>84</v>
       </c>
@@ -6369,6 +6392,7 @@
         <v>336</v>
       </c>
       <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
       <c r="O4" t="s">
         <v>87</v>
       </c>
@@ -6396,6 +6420,7 @@
         <v>337</v>
       </c>
       <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
@@ -6420,6 +6445,7 @@
         <v>338</v>
       </c>
       <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -6444,6 +6470,7 @@
         <v>339</v>
       </c>
       <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
@@ -6470,6 +6497,7 @@
       <c r="H8" s="26" t="s">
         <v>304</v>
       </c>
+      <c r="I8" s="26"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
@@ -6494,6 +6522,7 @@
         <v>341</v>
       </c>
       <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
@@ -6518,6 +6547,7 @@
         <v>342</v>
       </c>
       <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
@@ -6542,6 +6572,7 @@
         <v>343</v>
       </c>
       <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
@@ -6566,6 +6597,7 @@
         <v>344</v>
       </c>
       <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
@@ -6590,6 +6622,7 @@
         <v>345</v>
       </c>
       <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -6614,6 +6647,7 @@
         <v>346</v>
       </c>
       <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
@@ -6638,6 +6672,7 @@
         <v>347</v>
       </c>
       <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
@@ -6662,8 +6697,9 @@
         <v>348</v>
       </c>
       <c r="H16" s="13"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>215</v>
       </c>
@@ -6686,8 +6722,9 @@
         <v>349</v>
       </c>
       <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="13"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>215</v>
       </c>
@@ -6710,8 +6747,9 @@
         <v>350</v>
       </c>
       <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="13"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>215</v>
       </c>
@@ -6734,8 +6772,9 @@
         <v>351</v>
       </c>
       <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19" s="13"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>215</v>
       </c>
@@ -6758,8 +6797,9 @@
         <v>352</v>
       </c>
       <c r="H20" s="13"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20" s="13"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>215</v>
       </c>
@@ -6782,8 +6822,9 @@
         <v>353</v>
       </c>
       <c r="H21" s="13"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="13"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>215</v>
       </c>
@@ -6806,8 +6847,9 @@
         <v>354</v>
       </c>
       <c r="H22" s="13"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22" s="13"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>215</v>
       </c>
@@ -6830,8 +6872,9 @@
         <v>355</v>
       </c>
       <c r="H23" s="13"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23" s="13"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>215</v>
       </c>
@@ -6854,8 +6897,9 @@
         <v>356</v>
       </c>
       <c r="H24" s="13"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24" s="13"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>215</v>
       </c>
@@ -6878,8 +6922,9 @@
         <v>357</v>
       </c>
       <c r="H25" s="13"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25" s="13"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>215</v>
       </c>
@@ -6902,8 +6947,9 @@
         <v>358</v>
       </c>
       <c r="H26" s="13"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26" s="13"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>215</v>
       </c>
@@ -6926,8 +6972,9 @@
         <v>359</v>
       </c>
       <c r="H27" s="13"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27" s="13"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>215</v>
       </c>
@@ -6950,8 +6997,9 @@
         <v>360</v>
       </c>
       <c r="H28" s="13"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I28" s="13"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>215</v>
       </c>
@@ -6974,8 +7022,9 @@
         <v>361</v>
       </c>
       <c r="H29" s="13"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I29" s="13"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>215</v>
       </c>
@@ -6998,8 +7047,9 @@
         <v>362</v>
       </c>
       <c r="H30" s="13"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I30" s="13"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>215</v>
       </c>
@@ -7022,8 +7072,9 @@
         <v>363</v>
       </c>
       <c r="H31" s="13"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I31" s="13"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="25" t="s">
         <v>216</v>
       </c>
@@ -7046,8 +7097,9 @@
         <v>364</v>
       </c>
       <c r="H32" s="13"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I32" s="13"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>216</v>
       </c>
@@ -7070,8 +7122,9 @@
         <v>365</v>
       </c>
       <c r="H33" s="13"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I33" s="13"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>216</v>
       </c>
@@ -7094,8 +7147,9 @@
         <v>366</v>
       </c>
       <c r="H34" s="13"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I34" s="13"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>216</v>
       </c>
@@ -7118,8 +7172,9 @@
         <v>367</v>
       </c>
       <c r="H35" s="13"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I35" s="13"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>216</v>
       </c>
@@ -7142,8 +7197,9 @@
         <v>368</v>
       </c>
       <c r="H36" s="13"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I36" s="13"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>216</v>
       </c>
@@ -7166,8 +7222,9 @@
         <v>369</v>
       </c>
       <c r="H37" s="13"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I37" s="13"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>216</v>
       </c>
@@ -7190,8 +7247,9 @@
         <v>370</v>
       </c>
       <c r="H38" s="13"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I38" s="13"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>216</v>
       </c>
@@ -7214,8 +7272,9 @@
         <v>371</v>
       </c>
       <c r="H39" s="13"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I39" s="13"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>216</v>
       </c>
@@ -7238,8 +7297,9 @@
         <v>372</v>
       </c>
       <c r="H40" s="13"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I40" s="13"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>216</v>
       </c>
@@ -7264,8 +7324,9 @@
       <c r="H41" s="26" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I41" s="26"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>216</v>
       </c>
@@ -7287,9 +7348,14 @@
       <c r="G42" s="25" t="s">
         <v>374</v>
       </c>
-      <c r="H42" s="13"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H42" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="I42" s="26" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>216</v>
       </c>
@@ -7311,9 +7377,14 @@
       <c r="G43" s="25" t="s">
         <v>375</v>
       </c>
-      <c r="H43" s="13"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H43" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="I43" s="26" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>216</v>
       </c>
@@ -7335,9 +7406,14 @@
       <c r="G44" s="25" t="s">
         <v>376</v>
       </c>
-      <c r="H44" s="13"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H44" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="I44" s="26" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>216</v>
       </c>
@@ -7359,9 +7435,14 @@
       <c r="G45" s="25" t="s">
         <v>377</v>
       </c>
-      <c r="H45" s="13"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H45" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="I45" s="26" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>216</v>
       </c>
@@ -7383,9 +7464,14 @@
       <c r="G46" s="25" t="s">
         <v>378</v>
       </c>
-      <c r="H46" s="13"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H46" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="I46" s="26" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>216</v>
       </c>
@@ -7407,9 +7493,14 @@
       <c r="G47" s="25" t="s">
         <v>379</v>
       </c>
-      <c r="H47" s="13"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H47" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="I47" s="26" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>216</v>
       </c>
@@ -7431,9 +7522,14 @@
       <c r="G48" s="25" t="s">
         <v>380</v>
       </c>
-      <c r="H48" s="13"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H48" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="I48" s="26" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>216</v>
       </c>
@@ -7455,9 +7551,14 @@
       <c r="G49" s="25" t="s">
         <v>381</v>
       </c>
-      <c r="H49" s="13"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H49" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="I49" s="26" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>216</v>
       </c>
@@ -7479,9 +7580,14 @@
       <c r="G50" s="25" t="s">
         <v>382</v>
       </c>
-      <c r="H50" s="13"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H50" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="I50" s="26" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>216</v>
       </c>
@@ -7504,8 +7610,9 @@
         <v>383</v>
       </c>
       <c r="H51" s="13"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I51" s="13"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>216</v>
       </c>
@@ -7528,8 +7635,9 @@
         <v>384</v>
       </c>
       <c r="H52" s="13"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I52" s="13"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>216</v>
       </c>
@@ -7552,8 +7660,9 @@
         <v>385</v>
       </c>
       <c r="H53" s="13"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I53" s="13"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>216</v>
       </c>
@@ -7576,8 +7685,9 @@
         <v>386</v>
       </c>
       <c r="H54" s="13"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I54" s="13"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>216</v>
       </c>
@@ -7600,8 +7710,9 @@
         <v>387</v>
       </c>
       <c r="H55" s="13"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I55" s="13"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>216</v>
       </c>
@@ -7624,8 +7735,9 @@
         <v>388</v>
       </c>
       <c r="H56" s="13"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I56" s="13"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
         <v>216</v>
       </c>
@@ -7648,8 +7760,9 @@
         <v>389</v>
       </c>
       <c r="H57" s="13"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I57" s="13"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>216</v>
       </c>
@@ -7672,8 +7785,9 @@
         <v>390</v>
       </c>
       <c r="H58" s="13"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I58" s="13"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>216</v>
       </c>
@@ -7696,8 +7810,9 @@
         <v>391</v>
       </c>
       <c r="H59" s="13"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I59" s="13"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>216</v>
       </c>
@@ -7720,8 +7835,9 @@
         <v>392</v>
       </c>
       <c r="H60" s="13"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I60" s="13"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
         <v>216</v>
       </c>
@@ -7744,8 +7860,9 @@
         <v>393</v>
       </c>
       <c r="H61" s="13"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I61" s="13"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>216</v>
       </c>
@@ -7768,8 +7885,9 @@
         <v>394</v>
       </c>
       <c r="H62" s="13"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I62" s="13"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>216</v>
       </c>
@@ -7792,8 +7910,9 @@
         <v>395</v>
       </c>
       <c r="H63" s="13"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I63" s="13"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>216</v>
       </c>
@@ -7816,8 +7935,9 @@
         <v>396</v>
       </c>
       <c r="H64" s="13"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I64" s="13"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>216</v>
       </c>
@@ -7840,8 +7960,9 @@
         <v>397</v>
       </c>
       <c r="H65" s="13"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I65" s="13"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>216</v>
       </c>
@@ -7864,8 +7985,9 @@
         <v>398</v>
       </c>
       <c r="H66" s="13"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I66" s="13"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
         <v>216</v>
       </c>
@@ -7890,8 +8012,10 @@
       <c r="H67" s="26" t="s">
         <v>331</v>
       </c>
+      <c r="I67" s="26"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I67" xr:uid="{EDC3EF37-2BA8-4EC6-92A1-22C0C9AA6791}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F67" xr:uid="{A0E105BA-CF51-4401-B710-6BE9E69B1788}">
@@ -7904,12 +8028,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8116,15 +8237,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{552A2396-49F4-45F5-9D44-9C3125763CF2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EAF4CE-5C55-41AC-946B-5BEC082284DF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8149,10 +8274,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EAF4CE-5C55-41AC-946B-5BEC082284DF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{552A2396-49F4-45F5-9D44-9C3125763CF2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\switch\projectg2\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Desktop\Projeto\projectg2\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B39A58-3F76-48B8-932F-598FD2B3ECF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDCEFB5-4405-468D-A388-F4137C2353BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="29692" windowHeight="11949" tabRatio="938" activeTab="3" xr2:uid="{17341BA7-7E24-41D8-A92D-79256BC3D291}"/>
+    <workbookView xWindow="2880" yWindow="2868" windowWidth="21624" windowHeight="11244" tabRatio="938" activeTab="5" xr2:uid="{17341BA7-7E24-41D8-A92D-79256BC3D291}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">BacklogUSStatus!$A$1:$E$100</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">ProjectBacklog!$A$1:$H$67</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="410">
   <si>
     <t>id</t>
   </si>
@@ -1275,6 +1277,12 @@
   </si>
   <si>
     <t>2022-11-18</t>
+  </si>
+  <si>
+    <t>us_end</t>
+  </si>
+  <si>
+    <t>2021-04-02</t>
   </si>
 </sst>
 </file>
@@ -1423,7 +1431,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1586,7 +1594,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1888,23 +1896,23 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.4609375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.3046875" customWidth="1"/>
-    <col min="3" max="3" width="15.84375" customWidth="1"/>
-    <col min="5" max="5" width="19.765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.69140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.84375" style="4"/>
-    <col min="9" max="9" width="24.84375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.4609375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.69140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.69140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.84375" style="4"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="4"/>
+    <col min="9" max="9" width="24.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="4"/>
     <col min="14" max="14" width="10" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>203</v>
       </c>
@@ -1948,7 +1956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
@@ -1990,7 +1998,7 @@
         <v>263650670</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
@@ -2032,7 +2040,7 @@
         <v>263650520</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
@@ -2074,7 +2082,7 @@
         <v>263650532</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>23</v>
       </c>
@@ -2116,7 +2124,7 @@
         <v>263650345</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>25</v>
       </c>
@@ -2158,7 +2166,7 @@
         <v>263650127</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>28</v>
       </c>
@@ -2200,7 +2208,7 @@
         <v>212349016</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>31</v>
       </c>
@@ -2224,7 +2232,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>34</v>
       </c>
@@ -2248,7 +2256,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>35</v>
       </c>
@@ -2272,7 +2280,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>37</v>
       </c>
@@ -2296,7 +2304,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>40</v>
       </c>
@@ -2320,7 +2328,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>41</v>
       </c>
@@ -2344,7 +2352,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>42</v>
       </c>
@@ -2368,7 +2376,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>43</v>
       </c>
@@ -2422,14 +2430,14 @@
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
@@ -2449,7 +2457,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>215</v>
       </c>
@@ -2469,7 +2477,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>215</v>
       </c>
@@ -2489,7 +2497,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>215</v>
       </c>
@@ -2509,7 +2517,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>215</v>
       </c>
@@ -2526,7 +2534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>215</v>
       </c>
@@ -2543,7 +2551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>215</v>
       </c>
@@ -2560,7 +2568,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>215</v>
       </c>
@@ -2577,7 +2585,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>215</v>
       </c>
@@ -2594,7 +2602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>215</v>
       </c>
@@ -2611,7 +2619,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>215</v>
       </c>
@@ -2628,7 +2636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>215</v>
       </c>
@@ -2642,7 +2650,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>215</v>
       </c>
@@ -2656,7 +2664,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>215</v>
       </c>
@@ -2670,7 +2678,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>215</v>
       </c>
@@ -2684,7 +2692,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>215</v>
       </c>
@@ -2698,7 +2706,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>215</v>
       </c>
@@ -2715,7 +2723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>215</v>
       </c>
@@ -2729,7 +2737,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>215</v>
       </c>
@@ -2746,7 +2754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>215</v>
       </c>
@@ -2763,7 +2771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>215</v>
       </c>
@@ -2780,7 +2788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>215</v>
       </c>
@@ -2797,7 +2805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>215</v>
       </c>
@@ -2814,7 +2822,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>215</v>
       </c>
@@ -2831,7 +2839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>215</v>
       </c>
@@ -2848,7 +2856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>215</v>
       </c>
@@ -2865,7 +2873,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>215</v>
       </c>
@@ -2882,7 +2890,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>215</v>
       </c>
@@ -2899,7 +2907,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>215</v>
       </c>
@@ -2916,7 +2924,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>215</v>
       </c>
@@ -2933,7 +2941,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>215</v>
       </c>
@@ -2950,7 +2958,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>215</v>
       </c>
@@ -2964,7 +2972,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>215</v>
       </c>
@@ -2978,7 +2986,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>215</v>
       </c>
@@ -2992,7 +3000,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>215</v>
       </c>
@@ -3006,7 +3014,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>215</v>
       </c>
@@ -3020,7 +3028,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>215</v>
       </c>
@@ -3034,7 +3042,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>215</v>
       </c>
@@ -3051,7 +3059,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>215</v>
       </c>
@@ -3068,7 +3076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>215</v>
       </c>
@@ -3085,7 +3093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>215</v>
       </c>
@@ -3102,7 +3110,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>215</v>
       </c>
@@ -3119,7 +3127,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>215</v>
       </c>
@@ -3136,7 +3144,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>215</v>
       </c>
@@ -3153,7 +3161,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>215</v>
       </c>
@@ -3170,7 +3178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>215</v>
       </c>
@@ -3187,7 +3195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>215</v>
       </c>
@@ -3204,7 +3212,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>215</v>
       </c>
@@ -3221,7 +3229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>215</v>
       </c>
@@ -3238,7 +3246,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>215</v>
       </c>
@@ -3255,7 +3263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>215</v>
       </c>
@@ -3272,7 +3280,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>215</v>
       </c>
@@ -3289,7 +3297,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>215</v>
       </c>
@@ -3306,7 +3314,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>215</v>
       </c>
@@ -3323,7 +3331,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>215</v>
       </c>
@@ -3340,7 +3348,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>215</v>
       </c>
@@ -3354,7 +3362,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>215</v>
       </c>
@@ -3368,7 +3376,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>215</v>
       </c>
@@ -3382,7 +3390,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>215</v>
       </c>
@@ -3396,7 +3404,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>215</v>
       </c>
@@ -3410,7 +3418,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>215</v>
       </c>
@@ -3424,7 +3432,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>215</v>
       </c>
@@ -3441,7 +3449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>215</v>
       </c>
@@ -3458,7 +3466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>215</v>
       </c>
@@ -3475,7 +3483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>215</v>
       </c>
@@ -3492,7 +3500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>215</v>
       </c>
@@ -3509,7 +3517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>215</v>
       </c>
@@ -3526,7 +3534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>215</v>
       </c>
@@ -3543,7 +3551,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>215</v>
       </c>
@@ -3560,7 +3568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>215</v>
       </c>
@@ -3577,7 +3585,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>215</v>
       </c>
@@ -3594,7 +3602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>215</v>
       </c>
@@ -3611,7 +3619,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>215</v>
       </c>
@@ -3628,7 +3636,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>215</v>
       </c>
@@ -3642,7 +3650,7 @@
         <v>44337</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>215</v>
       </c>
@@ -3656,7 +3664,7 @@
         <v>44337</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>215</v>
       </c>
@@ -3670,7 +3678,7 @@
         <v>44337</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>215</v>
       </c>
@@ -3684,7 +3692,7 @@
         <v>44337</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>215</v>
       </c>
@@ -3701,7 +3709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>215</v>
       </c>
@@ -3718,7 +3726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>215</v>
       </c>
@@ -3735,7 +3743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>215</v>
       </c>
@@ -3752,7 +3760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>215</v>
       </c>
@@ -3769,7 +3777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>215</v>
       </c>
@@ -3786,7 +3794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>215</v>
       </c>
@@ -3803,7 +3811,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>215</v>
       </c>
@@ -3820,7 +3828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>215</v>
       </c>
@@ -3834,7 +3842,7 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>215</v>
       </c>
@@ -3848,7 +3856,7 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>215</v>
       </c>
@@ -3862,7 +3870,7 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>215</v>
       </c>
@@ -3876,7 +3884,7 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>215</v>
       </c>
@@ -3893,7 +3901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>215</v>
       </c>
@@ -3910,7 +3918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>215</v>
       </c>
@@ -3927,7 +3935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>215</v>
       </c>
@@ -3944,7 +3952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>215</v>
       </c>
@@ -3958,7 +3966,7 @@
         <v>44365</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>215</v>
       </c>
@@ -3975,7 +3983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>215</v>
       </c>
@@ -3992,7 +4000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>215</v>
       </c>
@@ -4009,7 +4017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>215</v>
       </c>
@@ -4023,7 +4031,7 @@
         <v>44407</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>215</v>
       </c>
@@ -4037,7 +4045,7 @@
         <v>44407</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>215</v>
       </c>
@@ -4074,17 +4082,17 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.69140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.84375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.69140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.3046875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.07421875" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>227</v>
       </c>
@@ -4101,7 +4109,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>215</v>
       </c>
@@ -4119,7 +4127,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>215</v>
       </c>
@@ -4137,7 +4145,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>215</v>
       </c>
@@ -4155,7 +4163,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>215</v>
       </c>
@@ -4170,7 +4178,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>215</v>
       </c>
@@ -4185,7 +4193,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>215</v>
       </c>
@@ -4200,7 +4208,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>215</v>
       </c>
@@ -4215,7 +4223,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>215</v>
       </c>
@@ -4230,7 +4238,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>215</v>
       </c>
@@ -4245,7 +4253,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>215</v>
       </c>
@@ -4260,7 +4268,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>215</v>
       </c>
@@ -4275,7 +4283,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>215</v>
       </c>
@@ -4290,7 +4298,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>215</v>
       </c>
@@ -4305,7 +4313,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>215</v>
       </c>
@@ -4320,7 +4328,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>215</v>
       </c>
@@ -4335,7 +4343,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>215</v>
       </c>
@@ -4350,7 +4358,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>215</v>
       </c>
@@ -4365,7 +4373,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>215</v>
       </c>
@@ -4380,7 +4388,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>215</v>
       </c>
@@ -4395,7 +4403,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>215</v>
       </c>
@@ -4410,7 +4418,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>215</v>
       </c>
@@ -4425,7 +4433,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>215</v>
       </c>
@@ -4440,7 +4448,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>215</v>
       </c>
@@ -4455,7 +4463,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>215</v>
       </c>
@@ -4470,7 +4478,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>215</v>
       </c>
@@ -4485,7 +4493,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>215</v>
       </c>
@@ -4500,7 +4508,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>215</v>
       </c>
@@ -4515,7 +4523,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>215</v>
       </c>
@@ -4530,7 +4538,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>215</v>
       </c>
@@ -4545,7 +4553,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>215</v>
       </c>
@@ -4560,7 +4568,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>215</v>
       </c>
@@ -4575,7 +4583,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>215</v>
       </c>
@@ -4590,7 +4598,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>215</v>
       </c>
@@ -4605,7 +4613,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>215</v>
       </c>
@@ -4640,18 +4648,18 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.07421875" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.3046875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.84375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.53515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>170</v>
       </c>
@@ -4701,7 +4709,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="U2" t="s">
         <v>183</v>
       </c>
@@ -4709,7 +4717,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="U3" t="s">
         <v>184</v>
       </c>
@@ -4717,7 +4725,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="U4" t="s">
         <v>186</v>
       </c>
@@ -4725,7 +4733,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="U5" t="s">
         <v>187</v>
       </c>
@@ -4733,7 +4741,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="U6" t="s">
         <v>189</v>
       </c>
@@ -4741,12 +4749,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="U7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="U8" t="s">
         <v>191</v>
       </c>
@@ -4772,13 +4780,13 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.07421875" customWidth="1"/>
-    <col min="2" max="2" width="8.84375" style="4"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -4786,7 +4794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>45</v>
       </c>
@@ -4794,7 +4802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>46</v>
       </c>
@@ -4802,7 +4810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>47</v>
       </c>
@@ -4810,7 +4818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>48</v>
       </c>
@@ -4832,17 +4840,17 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.53515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.07421875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.84375" style="4"/>
-    <col min="4" max="4" width="7.3046875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3046875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.53515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="4"/>
+    <col min="4" max="4" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4862,7 +4870,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>26</v>
       </c>
@@ -4883,7 +4891,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>195</v>
       </c>
@@ -4904,7 +4912,7 @@
         <v>44198</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>192</v>
       </c>
@@ -4925,7 +4933,7 @@
         <v>44199</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>193</v>
       </c>
@@ -4946,7 +4954,7 @@
         <v>44200</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>194</v>
       </c>
@@ -4967,7 +4975,7 @@
         <v>44201</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>196</v>
       </c>
@@ -4988,7 +4996,7 @@
         <v>44567</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>32</v>
       </c>
@@ -5009,7 +5017,7 @@
         <v>44203</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>197</v>
       </c>
@@ -5030,7 +5038,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>36</v>
       </c>
@@ -5051,7 +5059,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
@@ -5072,7 +5080,7 @@
         <v>44237</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>198</v>
       </c>
@@ -5093,7 +5101,7 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>199</v>
       </c>
@@ -5114,7 +5122,7 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>200</v>
       </c>
@@ -5135,7 +5143,7 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>201</v>
       </c>
@@ -5156,11 +5164,11 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
     </row>
@@ -5190,28 +5198,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59AF7EF-B12B-4A6F-9425-B1B26B554B1A}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.84375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.53515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.3046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.69140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.53515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.3046875" customWidth="1"/>
-    <col min="7" max="7" width="10.53515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.84375" customWidth="1"/>
-    <col min="9" max="9" width="15.53515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.69140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.23046875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.53515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.53515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>53</v>
       </c>
@@ -5252,7 +5260,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>215</v>
       </c>
@@ -5301,7 +5309,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>216</v>
       </c>
@@ -5350,7 +5358,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>217</v>
       </c>
@@ -5397,7 +5405,7 @@
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -5437,15 +5445,15 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.84375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.07421875" customWidth="1"/>
-    <col min="3" max="3" width="10.53515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
@@ -5459,7 +5467,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>215</v>
       </c>
@@ -5473,7 +5481,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>215</v>
       </c>
@@ -5487,7 +5495,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>215</v>
       </c>
@@ -5501,7 +5509,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>215</v>
       </c>
@@ -5515,7 +5523,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>215</v>
       </c>
@@ -5529,7 +5537,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>216</v>
       </c>
@@ -5543,7 +5551,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>216</v>
       </c>
@@ -5557,7 +5565,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>216</v>
       </c>
@@ -5568,7 +5576,7 @@
         <v>44354</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>216</v>
       </c>
@@ -5579,7 +5587,7 @@
         <v>44438</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>216</v>
       </c>
@@ -5590,7 +5598,7 @@
         <v>44627</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>216</v>
       </c>
@@ -5617,24 +5625,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8482F8C3-6DCA-424C-81AE-BDA1451F2AAD}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.53515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.84375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.53515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.53515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.07421875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.69140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.84375" style="7"/>
-    <col min="9" max="9" width="9.23046875" style="7"/>
-    <col min="10" max="10" width="14.84375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="7"/>
+    <col min="9" max="9" width="9.21875" style="7"/>
+    <col min="10" max="10" width="14.88671875" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>218</v>
       </c>
@@ -5666,7 +5674,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>195</v>
       </c>
@@ -5699,7 +5707,7 @@
         <v>Tiago Cancado</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>192</v>
       </c>
@@ -5732,7 +5740,7 @@
         <v>Joao Silva</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>193</v>
       </c>
@@ -5765,7 +5773,7 @@
         <v>Manel Costa</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>194</v>
       </c>
@@ -5798,7 +5806,7 @@
         <v>Xico Ferreira</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>32</v>
       </c>
@@ -5831,7 +5839,7 @@
         <v>Nel Moleiro</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>197</v>
       </c>
@@ -5864,7 +5872,7 @@
         <v>Zé do Bento</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>36</v>
       </c>
@@ -5897,7 +5905,7 @@
         <v>Tó Farrulo</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>38</v>
       </c>
@@ -5930,7 +5938,7 @@
         <v>Tino das Cruzes</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>195</v>
       </c>
@@ -5963,7 +5971,7 @@
         <v>Tiago Cancado</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>192</v>
       </c>
@@ -5996,7 +6004,7 @@
         <v>Joao Silva</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
         <v>193</v>
       </c>
@@ -6029,7 +6037,7 @@
         <v>Manel Costa</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>194</v>
       </c>
@@ -6062,7 +6070,7 @@
         <v>Xico Ferreira</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>32</v>
       </c>
@@ -6095,7 +6103,7 @@
         <v>Nel Moleiro</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>197</v>
       </c>
@@ -6128,7 +6136,7 @@
         <v>Zé do Bento</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>36</v>
       </c>
@@ -6161,7 +6169,7 @@
         <v>Tó Farrulo</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>38</v>
       </c>
@@ -6209,14 +6217,14 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>227</v>
       </c>
@@ -6227,7 +6235,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>215</v>
       </c>
@@ -6239,7 +6247,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>215</v>
       </c>
@@ -6251,7 +6259,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>215</v>
       </c>
@@ -6263,7 +6271,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>215</v>
       </c>
@@ -6275,7 +6283,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>215</v>
       </c>
@@ -6287,7 +6295,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>215</v>
       </c>
@@ -6299,7 +6307,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>215</v>
       </c>
@@ -6311,7 +6319,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>215</v>
       </c>
@@ -6323,7 +6331,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>216</v>
       </c>
@@ -6335,7 +6343,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>216</v>
       </c>
@@ -6347,7 +6355,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>216</v>
       </c>
@@ -6359,7 +6367,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>216</v>
       </c>
@@ -6371,7 +6379,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>216</v>
       </c>
@@ -6383,7 +6391,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>216</v>
       </c>
@@ -6395,7 +6403,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>216</v>
       </c>
@@ -6407,7 +6415,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>216</v>
       </c>
@@ -6419,7 +6427,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>216</v>
       </c>
@@ -6431,7 +6439,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>216</v>
       </c>
@@ -6443,7 +6451,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>216</v>
       </c>
@@ -6455,7 +6463,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>216</v>
       </c>
@@ -6481,13 +6489,13 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.53515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
         <v>203</v>
       </c>
@@ -6510,7 +6518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C2" s="10" t="s">
         <v>11</v>
       </c>
@@ -6544,21 +6552,22 @@
   <dimension ref="A1:O67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.84375" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.84375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.84375" style="17"/>
-    <col min="4" max="4" width="15.84375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="12.3046875" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.07421875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="27.53515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="17"/>
+    <col min="4" max="4" width="15.88671875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="27.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>227</v>
       </c>
@@ -6583,11 +6592,14 @@
       <c r="H1" s="10" t="s">
         <v>332</v>
       </c>
+      <c r="I1" s="10" t="s">
+        <v>408</v>
+      </c>
       <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>215</v>
       </c>
@@ -6612,11 +6624,14 @@
       <c r="H2" s="25" t="s">
         <v>304</v>
       </c>
+      <c r="I2" s="25" t="s">
+        <v>409</v>
+      </c>
       <c r="O2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>215</v>
       </c>
@@ -6639,11 +6654,12 @@
         <v>335</v>
       </c>
       <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
       <c r="O3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>215</v>
       </c>
@@ -6666,11 +6682,12 @@
         <v>336</v>
       </c>
       <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
       <c r="O4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>215</v>
       </c>
@@ -6693,8 +6710,9 @@
         <v>337</v>
       </c>
       <c r="H5" s="13"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>215</v>
       </c>
@@ -6717,8 +6735,9 @@
         <v>338</v>
       </c>
       <c r="H6" s="13"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>215</v>
       </c>
@@ -6741,8 +6760,9 @@
         <v>339</v>
       </c>
       <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>215</v>
       </c>
@@ -6767,8 +6787,9 @@
       <c r="H8" s="25" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="I8" s="25"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>215</v>
       </c>
@@ -6791,8 +6812,9 @@
         <v>341</v>
       </c>
       <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>215</v>
       </c>
@@ -6815,8 +6837,9 @@
         <v>342</v>
       </c>
       <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>215</v>
       </c>
@@ -6839,8 +6862,9 @@
         <v>343</v>
       </c>
       <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>215</v>
       </c>
@@ -6863,8 +6887,9 @@
         <v>344</v>
       </c>
       <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>215</v>
       </c>
@@ -6887,8 +6912,9 @@
         <v>345</v>
       </c>
       <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>215</v>
       </c>
@@ -6911,8 +6937,9 @@
         <v>346</v>
       </c>
       <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>215</v>
       </c>
@@ -6935,8 +6962,9 @@
         <v>347</v>
       </c>
       <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>215</v>
       </c>
@@ -6959,8 +6987,9 @@
         <v>348</v>
       </c>
       <c r="H16" s="13"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>215</v>
       </c>
@@ -6983,8 +7012,9 @@
         <v>349</v>
       </c>
       <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I17" s="13"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>215</v>
       </c>
@@ -7007,8 +7037,9 @@
         <v>350</v>
       </c>
       <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I18" s="13"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>215</v>
       </c>
@@ -7031,8 +7062,9 @@
         <v>351</v>
       </c>
       <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I19" s="13"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>215</v>
       </c>
@@ -7055,8 +7087,9 @@
         <v>352</v>
       </c>
       <c r="H20" s="13"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I20" s="13"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>215</v>
       </c>
@@ -7079,8 +7112,9 @@
         <v>353</v>
       </c>
       <c r="H21" s="13"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I21" s="13"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>215</v>
       </c>
@@ -7103,8 +7137,9 @@
         <v>354</v>
       </c>
       <c r="H22" s="13"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I22" s="13"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>215</v>
       </c>
@@ -7127,8 +7162,9 @@
         <v>355</v>
       </c>
       <c r="H23" s="13"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I23" s="13"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>215</v>
       </c>
@@ -7151,8 +7187,9 @@
         <v>356</v>
       </c>
       <c r="H24" s="13"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I24" s="13"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>215</v>
       </c>
@@ -7175,8 +7212,9 @@
         <v>357</v>
       </c>
       <c r="H25" s="13"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I25" s="13"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>215</v>
       </c>
@@ -7199,8 +7237,9 @@
         <v>358</v>
       </c>
       <c r="H26" s="13"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I26" s="13"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>215</v>
       </c>
@@ -7223,8 +7262,9 @@
         <v>359</v>
       </c>
       <c r="H27" s="13"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I27" s="13"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>215</v>
       </c>
@@ -7247,8 +7287,9 @@
         <v>360</v>
       </c>
       <c r="H28" s="13"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I28" s="13"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>215</v>
       </c>
@@ -7271,8 +7312,9 @@
         <v>361</v>
       </c>
       <c r="H29" s="13"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I29" s="13"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>215</v>
       </c>
@@ -7295,8 +7337,9 @@
         <v>362</v>
       </c>
       <c r="H30" s="13"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I30" s="13"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>215</v>
       </c>
@@ -7319,8 +7362,9 @@
         <v>363</v>
       </c>
       <c r="H31" s="13"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I31" s="13"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="24" t="s">
         <v>216</v>
       </c>
@@ -7343,8 +7387,9 @@
         <v>364</v>
       </c>
       <c r="H32" s="13"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I32" s="13"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>216</v>
       </c>
@@ -7367,8 +7412,9 @@
         <v>365</v>
       </c>
       <c r="H33" s="13"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I33" s="13"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>216</v>
       </c>
@@ -7391,8 +7437,9 @@
         <v>366</v>
       </c>
       <c r="H34" s="13"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I34" s="13"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>216</v>
       </c>
@@ -7414,9 +7461,14 @@
       <c r="G35" s="24" t="s">
         <v>367</v>
       </c>
-      <c r="H35" s="13"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H35" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="I35" s="25" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>216</v>
       </c>
@@ -7438,9 +7490,14 @@
       <c r="G36" s="24" t="s">
         <v>368</v>
       </c>
-      <c r="H36" s="13"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H36" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="I36" s="25" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>216</v>
       </c>
@@ -7462,9 +7519,14 @@
       <c r="G37" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="H37" s="13"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H37" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="I37" s="25" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>216</v>
       </c>
@@ -7486,9 +7548,14 @@
       <c r="G38" s="24" t="s">
         <v>370</v>
       </c>
-      <c r="H38" s="13"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H38" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="I38" s="25" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>216</v>
       </c>
@@ -7510,9 +7577,14 @@
       <c r="G39" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="H39" s="13"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H39" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="I39" s="25" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>216</v>
       </c>
@@ -7534,9 +7606,14 @@
       <c r="G40" s="24" t="s">
         <v>372</v>
       </c>
-      <c r="H40" s="13"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H40" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="I40" s="25" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>216</v>
       </c>
@@ -7561,8 +7638,11 @@
       <c r="H41" s="25" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I41" s="25" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>216</v>
       </c>
@@ -7585,8 +7665,9 @@
         <v>374</v>
       </c>
       <c r="H42" s="13"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I42" s="13"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>216</v>
       </c>
@@ -7609,8 +7690,9 @@
         <v>375</v>
       </c>
       <c r="H43" s="13"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I43" s="13"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>216</v>
       </c>
@@ -7633,8 +7715,9 @@
         <v>376</v>
       </c>
       <c r="H44" s="13"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I44" s="13"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>216</v>
       </c>
@@ -7657,8 +7740,9 @@
         <v>377</v>
       </c>
       <c r="H45" s="13"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I45" s="13"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>216</v>
       </c>
@@ -7681,8 +7765,9 @@
         <v>378</v>
       </c>
       <c r="H46" s="13"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I46" s="13"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>216</v>
       </c>
@@ -7705,8 +7790,9 @@
         <v>379</v>
       </c>
       <c r="H47" s="13"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I47" s="13"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>216</v>
       </c>
@@ -7729,8 +7815,9 @@
         <v>380</v>
       </c>
       <c r="H48" s="13"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I48" s="13"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>216</v>
       </c>
@@ -7753,8 +7840,9 @@
         <v>381</v>
       </c>
       <c r="H49" s="13"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I49" s="13"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>216</v>
       </c>
@@ -7777,8 +7865,9 @@
         <v>382</v>
       </c>
       <c r="H50" s="13"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I50" s="13"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>216</v>
       </c>
@@ -7801,8 +7890,9 @@
         <v>383</v>
       </c>
       <c r="H51" s="13"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I51" s="13"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>216</v>
       </c>
@@ -7825,8 +7915,9 @@
         <v>384</v>
       </c>
       <c r="H52" s="13"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I52" s="13"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>216</v>
       </c>
@@ -7849,8 +7940,9 @@
         <v>385</v>
       </c>
       <c r="H53" s="13"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I53" s="13"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>216</v>
       </c>
@@ -7873,8 +7965,9 @@
         <v>386</v>
       </c>
       <c r="H54" s="13"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I54" s="13"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>216</v>
       </c>
@@ -7897,8 +7990,9 @@
         <v>387</v>
       </c>
       <c r="H55" s="13"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I55" s="13"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>216</v>
       </c>
@@ -7921,8 +8015,9 @@
         <v>388</v>
       </c>
       <c r="H56" s="13"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I56" s="13"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
         <v>216</v>
       </c>
@@ -7945,8 +8040,9 @@
         <v>389</v>
       </c>
       <c r="H57" s="13"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I57" s="13"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>216</v>
       </c>
@@ -7969,8 +8065,9 @@
         <v>390</v>
       </c>
       <c r="H58" s="13"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I58" s="13"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>216</v>
       </c>
@@ -7993,8 +8090,9 @@
         <v>391</v>
       </c>
       <c r="H59" s="13"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I59" s="13"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>216</v>
       </c>
@@ -8017,8 +8115,9 @@
         <v>392</v>
       </c>
       <c r="H60" s="13"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I60" s="13"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
         <v>216</v>
       </c>
@@ -8041,8 +8140,9 @@
         <v>393</v>
       </c>
       <c r="H61" s="13"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I61" s="13"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>216</v>
       </c>
@@ -8065,8 +8165,9 @@
         <v>394</v>
       </c>
       <c r="H62" s="13"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I62" s="13"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>216</v>
       </c>
@@ -8089,8 +8190,9 @@
         <v>395</v>
       </c>
       <c r="H63" s="13"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I63" s="13"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>216</v>
       </c>
@@ -8113,8 +8215,9 @@
         <v>396</v>
       </c>
       <c r="H64" s="13"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I64" s="13"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>216</v>
       </c>
@@ -8137,8 +8240,9 @@
         <v>397</v>
       </c>
       <c r="H65" s="13"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I65" s="13"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>216</v>
       </c>
@@ -8161,8 +8265,9 @@
         <v>398</v>
       </c>
       <c r="H66" s="13"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I66" s="13"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
         <v>216</v>
       </c>
@@ -8185,6 +8290,9 @@
         <v>399</v>
       </c>
       <c r="H67" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="I67" s="25" t="s">
         <v>331</v>
       </c>
     </row>
@@ -8201,9 +8309,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8410,19 +8521,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EAF4CE-5C55-41AC-946B-5BEC082284DF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{552A2396-49F4-45F5-9D44-9C3125763CF2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8447,9 +8554,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{552A2396-49F4-45F5-9D44-9C3125763CF2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EAF4CE-5C55-41AC-946B-5BEC082284DF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Desktop\Projeto\projectg2\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\switch\projectg2\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDCEFB5-4405-468D-A388-F4137C2353BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B453E981-3115-4D9E-A144-5BB13B24889A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="2868" windowWidth="21624" windowHeight="11244" tabRatio="938" activeTab="5" xr2:uid="{17341BA7-7E24-41D8-A92D-79256BC3D291}"/>
+    <workbookView xWindow="6540" yWindow="2880" windowWidth="22114" windowHeight="8520" tabRatio="938" activeTab="5" xr2:uid="{17341BA7-7E24-41D8-A92D-79256BC3D291}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">BacklogUSStatus!$A$1:$E$100</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">ProjectBacklog!$A$1:$H$67</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,9 +41,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -1394,7 +1392,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1426,12 +1424,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1594,7 +1590,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1893,26 +1889,26 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
-    <col min="5" max="5" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="4"/>
-    <col min="9" max="9" width="24.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="15.4609375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.3046875" customWidth="1"/>
+    <col min="3" max="3" width="15.84375" customWidth="1"/>
+    <col min="5" max="5" width="19.765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.69140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.84375" style="4"/>
+    <col min="9" max="9" width="24.84375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.4609375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.69140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.69140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.84375" style="4"/>
     <col min="14" max="14" width="10" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>203</v>
       </c>
@@ -1956,7 +1952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
@@ -1998,7 +1994,7 @@
         <v>263650670</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
@@ -2040,7 +2036,7 @@
         <v>263650520</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
@@ -2082,7 +2078,7 @@
         <v>263650532</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>23</v>
       </c>
@@ -2124,7 +2120,7 @@
         <v>263650345</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>25</v>
       </c>
@@ -2166,7 +2162,7 @@
         <v>263650127</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
         <v>28</v>
       </c>
@@ -2208,7 +2204,7 @@
         <v>212349016</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>31</v>
       </c>
@@ -2232,7 +2228,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
         <v>34</v>
       </c>
@@ -2256,7 +2252,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>35</v>
       </c>
@@ -2280,7 +2276,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
         <v>37</v>
       </c>
@@ -2304,7 +2300,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>40</v>
       </c>
@@ -2328,7 +2324,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="10" t="s">
         <v>41</v>
       </c>
@@ -2352,7 +2348,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="10" t="s">
         <v>42</v>
       </c>
@@ -2376,7 +2372,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="10" t="s">
         <v>43</v>
       </c>
@@ -2427,17 +2423,17 @@
   <dimension ref="A1:M100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.84375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
@@ -2457,7 +2453,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>215</v>
       </c>
@@ -2477,7 +2473,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>215</v>
       </c>
@@ -2497,7 +2493,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>215</v>
       </c>
@@ -2517,7 +2513,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>215</v>
       </c>
@@ -2534,7 +2530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>215</v>
       </c>
@@ -2551,7 +2547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>215</v>
       </c>
@@ -2568,7 +2564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>215</v>
       </c>
@@ -2585,7 +2581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>215</v>
       </c>
@@ -2602,7 +2598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>215</v>
       </c>
@@ -2619,7 +2615,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>215</v>
       </c>
@@ -2636,7 +2632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>215</v>
       </c>
@@ -2650,7 +2646,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>215</v>
       </c>
@@ -2664,7 +2660,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>215</v>
       </c>
@@ -2678,7 +2674,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>215</v>
       </c>
@@ -2692,7 +2688,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>215</v>
       </c>
@@ -2706,7 +2702,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>215</v>
       </c>
@@ -2723,7 +2719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>215</v>
       </c>
@@ -2737,7 +2733,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>215</v>
       </c>
@@ -2754,7 +2750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>215</v>
       </c>
@@ -2771,7 +2767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>215</v>
       </c>
@@ -2788,7 +2784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>215</v>
       </c>
@@ -2805,7 +2801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>215</v>
       </c>
@@ -2822,7 +2818,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>215</v>
       </c>
@@ -2839,7 +2835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>215</v>
       </c>
@@ -2856,7 +2852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>215</v>
       </c>
@@ -2873,7 +2869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>215</v>
       </c>
@@ -2890,7 +2886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>215</v>
       </c>
@@ -2907,7 +2903,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>215</v>
       </c>
@@ -2924,7 +2920,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>215</v>
       </c>
@@ -2941,7 +2937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>215</v>
       </c>
@@ -2958,7 +2954,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
         <v>215</v>
       </c>
@@ -2972,7 +2968,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
         <v>215</v>
       </c>
@@ -2986,7 +2982,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
         <v>215</v>
       </c>
@@ -3000,7 +2996,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
         <v>215</v>
       </c>
@@ -3014,7 +3010,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
         <v>215</v>
       </c>
@@ -3028,7 +3024,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
         <v>215</v>
       </c>
@@ -3042,7 +3038,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="3" t="s">
         <v>215</v>
       </c>
@@ -3059,7 +3055,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
         <v>215</v>
       </c>
@@ -3076,7 +3072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="3" t="s">
         <v>215</v>
       </c>
@@ -3093,7 +3089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
         <v>215</v>
       </c>
@@ -3110,7 +3106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="3" t="s">
         <v>215</v>
       </c>
@@ -3127,7 +3123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="3" t="s">
         <v>215</v>
       </c>
@@ -3144,7 +3140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="3" t="s">
         <v>215</v>
       </c>
@@ -3161,7 +3157,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="3" t="s">
         <v>215</v>
       </c>
@@ -3178,7 +3174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="3" t="s">
         <v>215</v>
       </c>
@@ -3195,7 +3191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="3" t="s">
         <v>215</v>
       </c>
@@ -3212,7 +3208,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="3" t="s">
         <v>215</v>
       </c>
@@ -3229,7 +3225,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="3" t="s">
         <v>215</v>
       </c>
@@ -3246,7 +3242,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="3" t="s">
         <v>215</v>
       </c>
@@ -3263,7 +3259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" s="3" t="s">
         <v>215</v>
       </c>
@@ -3280,7 +3276,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" s="3" t="s">
         <v>215</v>
       </c>
@@ -3297,7 +3293,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" s="3" t="s">
         <v>215</v>
       </c>
@@ -3314,7 +3310,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" s="3" t="s">
         <v>215</v>
       </c>
@@ -3331,7 +3327,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" s="3" t="s">
         <v>215</v>
       </c>
@@ -3348,7 +3344,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>215</v>
       </c>
@@ -3362,7 +3358,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>215</v>
       </c>
@@ -3376,7 +3372,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>215</v>
       </c>
@@ -3390,7 +3386,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>215</v>
       </c>
@@ -3404,7 +3400,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>215</v>
       </c>
@@ -3418,7 +3414,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>215</v>
       </c>
@@ -3432,7 +3428,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>215</v>
       </c>
@@ -3449,7 +3445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>215</v>
       </c>
@@ -3466,7 +3462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>215</v>
       </c>
@@ -3483,7 +3479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>215</v>
       </c>
@@ -3500,7 +3496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>215</v>
       </c>
@@ -3517,7 +3513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>215</v>
       </c>
@@ -3534,7 +3530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>215</v>
       </c>
@@ -3551,7 +3547,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>215</v>
       </c>
@@ -3568,7 +3564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>215</v>
       </c>
@@ -3585,7 +3581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>215</v>
       </c>
@@ -3602,7 +3598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>215</v>
       </c>
@@ -3619,7 +3615,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>215</v>
       </c>
@@ -3636,7 +3632,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" s="3" t="s">
         <v>215</v>
       </c>
@@ -3650,7 +3646,7 @@
         <v>44337</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75" s="3" t="s">
         <v>215</v>
       </c>
@@ -3664,7 +3660,7 @@
         <v>44337</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76" s="3" t="s">
         <v>215</v>
       </c>
@@ -3678,7 +3674,7 @@
         <v>44337</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77" s="3" t="s">
         <v>215</v>
       </c>
@@ -3692,7 +3688,7 @@
         <v>44337</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78" s="3" t="s">
         <v>215</v>
       </c>
@@ -3709,7 +3705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79" s="3" t="s">
         <v>215</v>
       </c>
@@ -3726,7 +3722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80" s="3" t="s">
         <v>215</v>
       </c>
@@ -3743,7 +3739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81" s="3" t="s">
         <v>215</v>
       </c>
@@ -3760,7 +3756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82" s="3" t="s">
         <v>215</v>
       </c>
@@ -3777,7 +3773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83" s="3" t="s">
         <v>215</v>
       </c>
@@ -3794,7 +3790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84" s="3" t="s">
         <v>215</v>
       </c>
@@ -3811,7 +3807,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85" s="3" t="s">
         <v>215</v>
       </c>
@@ -3828,7 +3824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>215</v>
       </c>
@@ -3842,7 +3838,7 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>215</v>
       </c>
@@ -3856,7 +3852,7 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>215</v>
       </c>
@@ -3870,7 +3866,7 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>215</v>
       </c>
@@ -3884,7 +3880,7 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>215</v>
       </c>
@@ -3901,7 +3897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>215</v>
       </c>
@@ -3918,7 +3914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>215</v>
       </c>
@@ -3935,7 +3931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>215</v>
       </c>
@@ -3952,7 +3948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A94" s="3" t="s">
         <v>215</v>
       </c>
@@ -3966,7 +3962,7 @@
         <v>44365</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A95" s="3" t="s">
         <v>215</v>
       </c>
@@ -3983,7 +3979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A96" s="3" t="s">
         <v>215</v>
       </c>
@@ -4000,7 +3996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A97" s="3" t="s">
         <v>215</v>
       </c>
@@ -4017,7 +4013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>215</v>
       </c>
@@ -4031,7 +4027,7 @@
         <v>44407</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>215</v>
       </c>
@@ -4045,7 +4041,7 @@
         <v>44407</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>215</v>
       </c>
@@ -4082,17 +4078,17 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.69140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.3046875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>227</v>
       </c>
@@ -4109,7 +4105,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>215</v>
       </c>
@@ -4127,7 +4123,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>215</v>
       </c>
@@ -4145,7 +4141,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>215</v>
       </c>
@@ -4163,7 +4159,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>215</v>
       </c>
@@ -4178,7 +4174,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>215</v>
       </c>
@@ -4193,7 +4189,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
         <v>215</v>
       </c>
@@ -4208,7 +4204,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>215</v>
       </c>
@@ -4223,7 +4219,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
         <v>215</v>
       </c>
@@ -4238,7 +4234,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>215</v>
       </c>
@@ -4253,7 +4249,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
         <v>215</v>
       </c>
@@ -4268,7 +4264,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>215</v>
       </c>
@@ -4283,7 +4279,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="10" t="s">
         <v>215</v>
       </c>
@@ -4298,7 +4294,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="10" t="s">
         <v>215</v>
       </c>
@@ -4313,7 +4309,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="10" t="s">
         <v>215</v>
       </c>
@@ -4328,7 +4324,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
         <v>215</v>
       </c>
@@ -4343,7 +4339,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="10" t="s">
         <v>215</v>
       </c>
@@ -4358,7 +4354,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="10" t="s">
         <v>215</v>
       </c>
@@ -4373,7 +4369,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="10" t="s">
         <v>215</v>
       </c>
@@ -4388,7 +4384,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="10" t="s">
         <v>215</v>
       </c>
@@ -4403,7 +4399,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="10" t="s">
         <v>215</v>
       </c>
@@ -4418,7 +4414,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="10" t="s">
         <v>215</v>
       </c>
@@ -4433,7 +4429,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="10" t="s">
         <v>215</v>
       </c>
@@ -4448,7 +4444,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="10" t="s">
         <v>215</v>
       </c>
@@ -4463,7 +4459,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="10" t="s">
         <v>215</v>
       </c>
@@ -4478,7 +4474,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="10" t="s">
         <v>215</v>
       </c>
@@ -4493,7 +4489,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="10" t="s">
         <v>215</v>
       </c>
@@ -4508,7 +4504,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="10" t="s">
         <v>215</v>
       </c>
@@ -4523,7 +4519,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="10" t="s">
         <v>215</v>
       </c>
@@ -4538,7 +4534,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="10" t="s">
         <v>215</v>
       </c>
@@ -4553,7 +4549,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="10" t="s">
         <v>215</v>
       </c>
@@ -4568,7 +4564,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="10" t="s">
         <v>215</v>
       </c>
@@ -4583,7 +4579,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="10" t="s">
         <v>215</v>
       </c>
@@ -4598,7 +4594,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="10" t="s">
         <v>215</v>
       </c>
@@ -4613,7 +4609,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="10" t="s">
         <v>215</v>
       </c>
@@ -4648,18 +4644,18 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="12.07421875" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.3046875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.84375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>170</v>
       </c>
@@ -4709,7 +4705,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="U2" t="s">
         <v>183</v>
       </c>
@@ -4717,7 +4713,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="U3" t="s">
         <v>184</v>
       </c>
@@ -4725,7 +4721,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="U4" t="s">
         <v>186</v>
       </c>
@@ -4733,7 +4729,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="U5" t="s">
         <v>187</v>
       </c>
@@ -4741,7 +4737,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
       <c r="U6" t="s">
         <v>189</v>
       </c>
@@ -4749,12 +4745,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="U7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
       <c r="U8" t="s">
         <v>191</v>
       </c>
@@ -4780,13 +4776,13 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="19.07421875" customWidth="1"/>
+    <col min="2" max="2" width="8.84375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -4794,7 +4790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>45</v>
       </c>
@@ -4802,7 +4798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>46</v>
       </c>
@@ -4810,7 +4806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>47</v>
       </c>
@@ -4818,7 +4814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>48</v>
       </c>
@@ -4840,17 +4836,17 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="4"/>
-    <col min="4" max="4" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.53515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.07421875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.84375" style="4"/>
+    <col min="4" max="4" width="7.3046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.53515625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4870,7 +4866,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
         <v>26</v>
       </c>
@@ -4891,7 +4887,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
         <v>195</v>
       </c>
@@ -4912,7 +4908,7 @@
         <v>44198</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="12" t="s">
         <v>192</v>
       </c>
@@ -4933,7 +4929,7 @@
         <v>44199</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="12" t="s">
         <v>193</v>
       </c>
@@ -4954,7 +4950,7 @@
         <v>44200</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
         <v>194</v>
       </c>
@@ -4975,7 +4971,7 @@
         <v>44201</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>196</v>
       </c>
@@ -4996,7 +4992,7 @@
         <v>44567</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
         <v>32</v>
       </c>
@@ -5017,7 +5013,7 @@
         <v>44203</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
         <v>197</v>
       </c>
@@ -5038,7 +5034,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
         <v>36</v>
       </c>
@@ -5059,7 +5055,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
@@ -5080,7 +5076,7 @@
         <v>44237</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
         <v>198</v>
       </c>
@@ -5101,7 +5097,7 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
         <v>199</v>
       </c>
@@ -5122,7 +5118,7 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
         <v>200</v>
       </c>
@@ -5143,7 +5139,7 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="12" t="s">
         <v>201</v>
       </c>
@@ -5164,11 +5160,11 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
     </row>
@@ -5202,24 +5198,24 @@
       <selection activeCell="D11" sqref="D11:Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.3046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.69140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.53515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.3046875" customWidth="1"/>
+    <col min="7" max="7" width="10.53515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.84375" customWidth="1"/>
+    <col min="9" max="9" width="15.53515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.23046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>53</v>
       </c>
@@ -5260,7 +5256,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>215</v>
       </c>
@@ -5309,7 +5305,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>216</v>
       </c>
@@ -5358,7 +5354,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>217</v>
       </c>
@@ -5405,7 +5401,7 @@
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -5445,15 +5441,15 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.07421875" customWidth="1"/>
+    <col min="3" max="3" width="10.53515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
@@ -5467,7 +5463,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>215</v>
       </c>
@@ -5481,7 +5477,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>215</v>
       </c>
@@ -5495,7 +5491,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>215</v>
       </c>
@@ -5509,7 +5505,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>215</v>
       </c>
@@ -5523,7 +5519,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>215</v>
       </c>
@@ -5537,7 +5533,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
         <v>216</v>
       </c>
@@ -5551,7 +5547,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>216</v>
       </c>
@@ -5565,7 +5561,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
         <v>216</v>
       </c>
@@ -5576,7 +5572,7 @@
         <v>44354</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>216</v>
       </c>
@@ -5587,7 +5583,7 @@
         <v>44438</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
         <v>216</v>
       </c>
@@ -5598,7 +5594,7 @@
         <v>44627</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>216</v>
       </c>
@@ -5626,30 +5622,30 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="7"/>
-    <col min="9" max="9" width="9.21875" style="7"/>
-    <col min="10" max="10" width="14.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.53515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.53515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.53515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.07421875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.69140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.84375" style="7"/>
+    <col min="9" max="9" width="9.23046875" style="7"/>
+    <col min="10" max="10" width="14.84375" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
         <v>218</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="1" t="s">
         <v>220</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -5674,14 +5670,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" s="10" t="s">
         <v>195</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" t="s">
         <v>226</v>
       </c>
       <c r="D2" s="10" t="s">
@@ -5707,14 +5703,14 @@
         <v>Tiago Cancado</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="10" t="s">
         <v>192</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" t="s">
         <v>225</v>
       </c>
       <c r="D3" s="10" t="s">
@@ -5740,14 +5736,14 @@
         <v>Joao Silva</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="10" t="s">
         <v>193</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" t="s">
         <v>224</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -5773,14 +5769,14 @@
         <v>Manel Costa</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="10" t="s">
         <v>194</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" t="s">
         <v>223</v>
       </c>
       <c r="D5" s="10" t="s">
@@ -5806,14 +5802,14 @@
         <v>Xico Ferreira</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" t="s">
         <v>223</v>
       </c>
       <c r="D6" s="10" t="s">
@@ -5839,14 +5835,14 @@
         <v>Nel Moleiro</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="10" t="s">
         <v>197</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" t="s">
         <v>223</v>
       </c>
       <c r="D7" s="10" t="s">
@@ -5872,14 +5868,14 @@
         <v>Zé do Bento</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" t="s">
         <v>223</v>
       </c>
       <c r="D8" s="10" t="s">
@@ -5905,14 +5901,14 @@
         <v>Tó Farrulo</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="10" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" t="s">
         <v>223</v>
       </c>
       <c r="D9" s="10" t="s">
@@ -5938,14 +5934,14 @@
         <v>Tino das Cruzes</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="28" t="s">
         <v>195</v>
       </c>
       <c r="B10" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="29" t="s">
         <v>226</v>
       </c>
       <c r="D10" s="28" t="s">
@@ -5954,10 +5950,10 @@
       <c r="E10" s="28" t="s">
         <v>400</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="29">
         <v>35</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="29">
         <v>0.2</v>
       </c>
       <c r="H10" s="4">
@@ -5971,14 +5967,14 @@
         <v>Tiago Cancado</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="28" t="s">
         <v>192</v>
       </c>
       <c r="B11" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="29" t="s">
         <v>225</v>
       </c>
       <c r="D11" s="28" t="s">
@@ -5987,10 +5983,10 @@
       <c r="E11" s="28" t="s">
         <v>400</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="29">
         <v>25</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="29">
         <v>0.2</v>
       </c>
       <c r="H11" s="4">
@@ -6004,14 +6000,14 @@
         <v>Joao Silva</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" s="28" t="s">
         <v>193</v>
       </c>
       <c r="B12" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="29" t="s">
         <v>224</v>
       </c>
       <c r="D12" s="28" t="s">
@@ -6020,10 +6016,10 @@
       <c r="E12" s="28" t="s">
         <v>400</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="29">
         <v>25</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="29">
         <v>0.3</v>
       </c>
       <c r="H12" s="4">
@@ -6037,14 +6033,14 @@
         <v>Manel Costa</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" s="28" t="s">
         <v>194</v>
       </c>
       <c r="B13" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="29" t="s">
         <v>223</v>
       </c>
       <c r="D13" s="28" t="s">
@@ -6053,10 +6049,10 @@
       <c r="E13" s="28" t="s">
         <v>400</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="29">
         <v>20</v>
       </c>
-      <c r="G13" s="31">
+      <c r="G13" s="29">
         <v>1</v>
       </c>
       <c r="H13" s="4">
@@ -6070,14 +6066,14 @@
         <v>Xico Ferreira</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="29" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" s="28" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="29" t="s">
         <v>223</v>
       </c>
       <c r="D14" s="28" t="s">
@@ -6086,10 +6082,10 @@
       <c r="E14" s="28" t="s">
         <v>400</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="29">
         <v>20</v>
       </c>
-      <c r="G14" s="31">
+      <c r="G14" s="29">
         <v>1</v>
       </c>
       <c r="H14" s="4">
@@ -6103,14 +6099,14 @@
         <v>Nel Moleiro</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="29" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" s="28" t="s">
         <v>197</v>
       </c>
       <c r="B15" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="29" t="s">
         <v>223</v>
       </c>
       <c r="D15" s="28" t="s">
@@ -6119,10 +6115,10 @@
       <c r="E15" s="28" t="s">
         <v>407</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="29">
         <v>20</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="29">
         <v>1</v>
       </c>
       <c r="H15" s="4">
@@ -6136,14 +6132,14 @@
         <v>Zé do Bento</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="29" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" s="28" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="29" t="s">
         <v>223</v>
       </c>
       <c r="D16" s="28" t="s">
@@ -6152,10 +6148,10 @@
       <c r="E16" s="28" t="s">
         <v>407</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="29">
         <v>20</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="29">
         <v>1</v>
       </c>
       <c r="H16" s="4">
@@ -6169,14 +6165,14 @@
         <v>Tó Farrulo</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17" s="28" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="29" t="s">
         <v>223</v>
       </c>
       <c r="D17" s="28" t="s">
@@ -6185,10 +6181,10 @@
       <c r="E17" s="28" t="s">
         <v>407</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="29">
         <v>20</v>
       </c>
-      <c r="G17" s="31">
+      <c r="G17" s="29">
         <v>1</v>
       </c>
       <c r="H17" s="4">
@@ -6217,14 +6213,14 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.84375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
         <v>227</v>
       </c>
@@ -6235,7 +6231,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>215</v>
       </c>
@@ -6247,7 +6243,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>215</v>
       </c>
@@ -6259,7 +6255,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>215</v>
       </c>
@@ -6271,7 +6267,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>215</v>
       </c>
@@ -6283,7 +6279,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>215</v>
       </c>
@@ -6295,7 +6291,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
         <v>215</v>
       </c>
@@ -6307,7 +6303,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>215</v>
       </c>
@@ -6319,7 +6315,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
         <v>215</v>
       </c>
@@ -6331,7 +6327,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>216</v>
       </c>
@@ -6343,7 +6339,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
         <v>216</v>
       </c>
@@ -6355,7 +6351,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>216</v>
       </c>
@@ -6367,7 +6363,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="10" t="s">
         <v>216</v>
       </c>
@@ -6379,7 +6375,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="10" t="s">
         <v>216</v>
       </c>
@@ -6391,7 +6387,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="10" t="s">
         <v>216</v>
       </c>
@@ -6403,7 +6399,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
         <v>216</v>
       </c>
@@ -6415,7 +6411,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="10" t="s">
         <v>216</v>
       </c>
@@ -6427,7 +6423,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="10" t="s">
         <v>216</v>
       </c>
@@ -6439,7 +6435,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="10" t="s">
         <v>216</v>
       </c>
@@ -6451,7 +6447,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="10" t="s">
         <v>216</v>
       </c>
@@ -6463,7 +6459,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="10" t="s">
         <v>216</v>
       </c>
@@ -6489,13 +6485,13 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C1" s="1" t="s">
         <v>203</v>
       </c>
@@ -6518,7 +6514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C2" s="10" t="s">
         <v>11</v>
       </c>
@@ -6551,23 +6547,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC3EF37-2BA8-4EC6-92A1-22C0C9AA6791}">
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="17"/>
-    <col min="4" max="4" width="15.88671875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" style="10" customWidth="1"/>
-    <col min="7" max="7" width="27.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.84375" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.84375" style="17"/>
+    <col min="4" max="4" width="15.84375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="12.3046875" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.07421875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="27.53515625" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" s="23" t="s">
         <v>227</v>
       </c>
@@ -6599,7 +6595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>215</v>
       </c>
@@ -6631,7 +6627,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>215</v>
       </c>
@@ -6659,7 +6655,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>215</v>
       </c>
@@ -6687,7 +6683,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>215</v>
       </c>
@@ -6712,7 +6708,7 @@
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>215</v>
       </c>
@@ -6737,7 +6733,7 @@
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
         <v>215</v>
       </c>
@@ -6762,7 +6758,7 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>215</v>
       </c>
@@ -6789,7 +6785,7 @@
       </c>
       <c r="I8" s="25"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
         <v>215</v>
       </c>
@@ -6814,7 +6810,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>215</v>
       </c>
@@ -6839,7 +6835,7 @@
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
         <v>215</v>
       </c>
@@ -6864,7 +6860,7 @@
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>215</v>
       </c>
@@ -6889,7 +6885,7 @@
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="10" t="s">
         <v>215</v>
       </c>
@@ -6914,7 +6910,7 @@
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="10" t="s">
         <v>215</v>
       </c>
@@ -6939,7 +6935,7 @@
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="10" t="s">
         <v>215</v>
       </c>
@@ -6964,7 +6960,7 @@
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
         <v>215</v>
       </c>
@@ -6989,7 +6985,7 @@
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="10" t="s">
         <v>215</v>
       </c>
@@ -7014,7 +7010,7 @@
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="10" t="s">
         <v>215</v>
       </c>
@@ -7039,7 +7035,7 @@
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="10" t="s">
         <v>215</v>
       </c>
@@ -7064,7 +7060,7 @@
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="10" t="s">
         <v>215</v>
       </c>
@@ -7089,7 +7085,7 @@
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="10" t="s">
         <v>215</v>
       </c>
@@ -7114,7 +7110,7 @@
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="10" t="s">
         <v>215</v>
       </c>
@@ -7139,7 +7135,7 @@
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="10" t="s">
         <v>215</v>
       </c>
@@ -7164,7 +7160,7 @@
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="10" t="s">
         <v>215</v>
       </c>
@@ -7189,7 +7185,7 @@
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="10" t="s">
         <v>215</v>
       </c>
@@ -7214,7 +7210,7 @@
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="10" t="s">
         <v>215</v>
       </c>
@@ -7239,7 +7235,7 @@
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="10" t="s">
         <v>215</v>
       </c>
@@ -7264,7 +7260,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="10" t="s">
         <v>215</v>
       </c>
@@ -7289,7 +7285,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="10" t="s">
         <v>215</v>
       </c>
@@ -7314,7 +7310,7 @@
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="10" t="s">
         <v>215</v>
       </c>
@@ -7339,7 +7335,7 @@
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="10" t="s">
         <v>215</v>
       </c>
@@ -7364,7 +7360,7 @@
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="24" t="s">
         <v>216</v>
       </c>
@@ -7389,7 +7385,7 @@
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="10" t="s">
         <v>216</v>
       </c>
@@ -7414,7 +7410,7 @@
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="10" t="s">
         <v>216</v>
       </c>
@@ -7439,7 +7435,7 @@
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="10" t="s">
         <v>216</v>
       </c>
@@ -7468,7 +7464,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="10" t="s">
         <v>216</v>
       </c>
@@ -7497,7 +7493,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="10" t="s">
         <v>216</v>
       </c>
@@ -7526,7 +7522,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="10" t="s">
         <v>216</v>
       </c>
@@ -7555,7 +7551,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="10" t="s">
         <v>216</v>
       </c>
@@ -7584,7 +7580,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" s="10" t="s">
         <v>216</v>
       </c>
@@ -7613,7 +7609,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="10" t="s">
         <v>216</v>
       </c>
@@ -7642,7 +7638,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" s="10" t="s">
         <v>216</v>
       </c>
@@ -7667,7 +7663,7 @@
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" s="10" t="s">
         <v>216</v>
       </c>
@@ -7692,7 +7688,7 @@
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="10" t="s">
         <v>216</v>
       </c>
@@ -7717,7 +7713,7 @@
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" s="10" t="s">
         <v>216</v>
       </c>
@@ -7742,7 +7738,7 @@
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" s="10" t="s">
         <v>216</v>
       </c>
@@ -7767,7 +7763,7 @@
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" s="10" t="s">
         <v>216</v>
       </c>
@@ -7792,7 +7788,7 @@
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" s="10" t="s">
         <v>216</v>
       </c>
@@ -7817,7 +7813,7 @@
       <c r="H48" s="13"/>
       <c r="I48" s="13"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" s="10" t="s">
         <v>216</v>
       </c>
@@ -7842,7 +7838,7 @@
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50" s="10" t="s">
         <v>216</v>
       </c>
@@ -7867,7 +7863,7 @@
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" s="10" t="s">
         <v>216</v>
       </c>
@@ -7892,7 +7888,7 @@
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" s="10" t="s">
         <v>216</v>
       </c>
@@ -7917,7 +7913,7 @@
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" s="10" t="s">
         <v>216</v>
       </c>
@@ -7942,7 +7938,7 @@
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54" s="10" t="s">
         <v>216</v>
       </c>
@@ -7967,7 +7963,7 @@
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" s="10" t="s">
         <v>216</v>
       </c>
@@ -7992,7 +7988,7 @@
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56" s="10" t="s">
         <v>216</v>
       </c>
@@ -8017,7 +8013,7 @@
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" s="10" t="s">
         <v>216</v>
       </c>
@@ -8042,7 +8038,7 @@
       <c r="H57" s="13"/>
       <c r="I57" s="13"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58" s="10" t="s">
         <v>216</v>
       </c>
@@ -8067,7 +8063,7 @@
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59" s="10" t="s">
         <v>216</v>
       </c>
@@ -8092,7 +8088,7 @@
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60" s="10" t="s">
         <v>216</v>
       </c>
@@ -8117,7 +8113,7 @@
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A61" s="10" t="s">
         <v>216</v>
       </c>
@@ -8142,7 +8138,7 @@
       <c r="H61" s="13"/>
       <c r="I61" s="13"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62" s="10" t="s">
         <v>216</v>
       </c>
@@ -8167,7 +8163,7 @@
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63" s="10" t="s">
         <v>216</v>
       </c>
@@ -8192,7 +8188,7 @@
       <c r="H63" s="13"/>
       <c r="I63" s="13"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64" s="10" t="s">
         <v>216</v>
       </c>
@@ -8217,7 +8213,7 @@
       <c r="H64" s="13"/>
       <c r="I64" s="13"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65" s="10" t="s">
         <v>216</v>
       </c>
@@ -8242,7 +8238,7 @@
       <c r="H65" s="13"/>
       <c r="I65" s="13"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66" s="10" t="s">
         <v>216</v>
       </c>
@@ -8267,7 +8263,7 @@
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67" s="10" t="s">
         <v>216</v>
       </c>
@@ -8309,12 +8305,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8521,15 +8514,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{552A2396-49F4-45F5-9D44-9C3125763CF2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EAF4CE-5C55-41AC-946B-5BEC082284DF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8554,10 +8551,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EAF4CE-5C55-41AC-946B-5BEC082284DF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{552A2396-49F4-45F5-9D44-9C3125763CF2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\switch\projectg2\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulo\projectg2\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B453E981-3115-4D9E-A144-5BB13B24889A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C6BB5E-C63D-425E-A7B3-F278A90207C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="2880" windowWidth="22114" windowHeight="8520" tabRatio="938" activeTab="5" xr2:uid="{17341BA7-7E24-41D8-A92D-79256BC3D291}"/>
+    <workbookView xWindow="3690" yWindow="675" windowWidth="21600" windowHeight="11835" tabRatio="938" activeTab="10" xr2:uid="{17341BA7-7E24-41D8-A92D-79256BC3D291}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">BacklogUSStatus!$A$1:$E$100</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">ProjectBacklog!$A$1:$H$67</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="409">
   <si>
     <t>id</t>
   </si>
@@ -554,15 +556,6 @@
     <t>Result</t>
   </si>
   <si>
-    <t>Accepted</t>
-  </si>
-  <si>
-    <t>Rejected</t>
-  </si>
-  <si>
-    <t>Unfinished</t>
-  </si>
-  <si>
     <t>sprint</t>
   </si>
   <si>
@@ -1281,6 +1274,12 @@
   </si>
   <si>
     <t>2021-04-02</t>
+  </si>
+  <si>
+    <t>Todo</t>
+  </si>
+  <si>
+    <t>InProgress</t>
   </si>
 </sst>
 </file>
@@ -1892,25 +1891,25 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.4609375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.3046875" customWidth="1"/>
-    <col min="3" max="3" width="15.84375" customWidth="1"/>
-    <col min="5" max="5" width="19.765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.69140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.84375" style="4"/>
-    <col min="9" max="9" width="24.84375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.4609375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.69140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.69140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.84375" style="4"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="4"/>
+    <col min="9" max="9" width="24.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="4"/>
     <col min="14" max="14" width="10" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1922,10 +1921,10 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>10</v>
@@ -1952,21 +1951,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10" t="s">
@@ -1994,21 +1993,21 @@
         <v>263650670</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10" t="s">
@@ -2036,21 +2035,21 @@
         <v>263650520</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10" t="s">
@@ -2078,21 +2077,21 @@
         <v>263650532</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10" t="s">
@@ -2120,7 +2119,7 @@
         <v>263650345</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>25</v>
       </c>
@@ -2131,10 +2130,10 @@
         <v>12</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10" t="s">
@@ -2162,21 +2161,21 @@
         <v>263650127</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10" t="s">
@@ -2204,7 +2203,7 @@
         <v>212349016</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>31</v>
       </c>
@@ -2215,10 +2214,10 @@
         <v>33</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10" t="s">
@@ -2228,21 +2227,21 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10" t="s">
@@ -2252,7 +2251,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>35</v>
       </c>
@@ -2263,10 +2262,10 @@
         <v>33</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10" t="s">
@@ -2276,7 +2275,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>37</v>
       </c>
@@ -2287,10 +2286,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10" t="s">
@@ -2300,21 +2299,21 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10" t="s">
@@ -2324,21 +2323,21 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10" t="s">
@@ -2348,21 +2347,21 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10" t="s">
@@ -2372,21 +2371,21 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10" t="s">
@@ -2426,14 +2425,14 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
@@ -2453,12 +2452,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C2" t="s">
         <v>85</v>
@@ -2473,12 +2472,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C3" t="s">
         <v>85</v>
@@ -2493,12 +2492,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C4" t="s">
         <v>85</v>
@@ -2513,12 +2512,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C5" t="s">
         <v>85</v>
@@ -2530,12 +2529,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C6" t="s">
         <v>85</v>
@@ -2547,12 +2546,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C7" t="s">
         <v>85</v>
@@ -2564,12 +2563,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B8" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C8" t="s">
         <v>85</v>
@@ -2581,12 +2580,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B9" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C9" t="s">
         <v>85</v>
@@ -2598,12 +2597,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B10" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C10" t="s">
         <v>85</v>
@@ -2615,12 +2614,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B11" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C11" t="s">
         <v>85</v>
@@ -2632,12 +2631,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B12" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C12" t="s">
         <v>84</v>
@@ -2646,12 +2645,12 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C13" t="s">
         <v>84</v>
@@ -2660,12 +2659,12 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B14" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C14" t="s">
         <v>84</v>
@@ -2674,12 +2673,12 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B15" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C15" t="s">
         <v>84</v>
@@ -2688,12 +2687,12 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C16" t="s">
         <v>84</v>
@@ -2702,12 +2701,12 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B17" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C17" t="s">
         <v>85</v>
@@ -2719,12 +2718,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B18" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C18" t="s">
         <v>87</v>
@@ -2733,12 +2732,12 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C19" t="s">
         <v>85</v>
@@ -2750,12 +2749,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B20" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C20" t="s">
         <v>85</v>
@@ -2767,12 +2766,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B21" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C21" t="s">
         <v>85</v>
@@ -2784,12 +2783,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B22" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C22" t="s">
         <v>85</v>
@@ -2801,12 +2800,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B23" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C23" t="s">
         <v>85</v>
@@ -2818,12 +2817,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B24" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C24" t="s">
         <v>85</v>
@@ -2835,12 +2834,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B25" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C25" t="s">
         <v>85</v>
@@ -2852,12 +2851,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B26" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C26" t="s">
         <v>85</v>
@@ -2869,12 +2868,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B27" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C27" t="s">
         <v>85</v>
@@ -2886,12 +2885,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B28" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C28" t="s">
         <v>85</v>
@@ -2903,12 +2902,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B29" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C29" t="s">
         <v>85</v>
@@ -2920,12 +2919,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B30" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C30" t="s">
         <v>85</v>
@@ -2937,12 +2936,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B31" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C31" t="s">
         <v>85</v>
@@ -2954,12 +2953,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B32" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C32" t="s">
         <v>84</v>
@@ -2968,12 +2967,12 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B33" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C33" t="s">
         <v>84</v>
@@ -2982,12 +2981,12 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B34" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C34" t="s">
         <v>84</v>
@@ -2996,12 +2995,12 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B35" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C35" t="s">
         <v>84</v>
@@ -3010,12 +3009,12 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B36" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C36" t="s">
         <v>84</v>
@@ -3024,12 +3023,12 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B37" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C37" t="s">
         <v>84</v>
@@ -3038,12 +3037,12 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B38" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C38" t="s">
         <v>85</v>
@@ -3055,12 +3054,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B39" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C39" t="s">
         <v>85</v>
@@ -3072,12 +3071,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B40" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C40" t="s">
         <v>85</v>
@@ -3089,12 +3088,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B41" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C41" t="s">
         <v>85</v>
@@ -3106,12 +3105,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B42" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C42" t="s">
         <v>85</v>
@@ -3123,12 +3122,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B43" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C43" t="s">
         <v>85</v>
@@ -3140,12 +3139,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B44" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C44" t="s">
         <v>85</v>
@@ -3157,12 +3156,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B45" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C45" t="s">
         <v>85</v>
@@ -3174,12 +3173,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B46" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C46" t="s">
         <v>85</v>
@@ -3191,12 +3190,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B47" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C47" t="s">
         <v>85</v>
@@ -3208,12 +3207,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B48" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C48" t="s">
         <v>85</v>
@@ -3225,12 +3224,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B49" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C49" t="s">
         <v>85</v>
@@ -3242,12 +3241,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B50" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C50" t="s">
         <v>85</v>
@@ -3259,12 +3258,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B51" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C51" t="s">
         <v>85</v>
@@ -3276,12 +3275,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B52" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C52" t="s">
         <v>85</v>
@@ -3293,12 +3292,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B53" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C53" t="s">
         <v>85</v>
@@ -3310,12 +3309,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B54" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C54" t="s">
         <v>85</v>
@@ -3327,12 +3326,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B55" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C55" t="s">
         <v>85</v>
@@ -3344,12 +3343,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B56" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C56" t="s">
         <v>84</v>
@@ -3358,12 +3357,12 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B57" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C57" t="s">
         <v>84</v>
@@ -3372,12 +3371,12 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B58" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C58" t="s">
         <v>84</v>
@@ -3386,12 +3385,12 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B59" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C59" t="s">
         <v>84</v>
@@ -3400,12 +3399,12 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B60" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C60" t="s">
         <v>84</v>
@@ -3414,12 +3413,12 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B61" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C61" t="s">
         <v>87</v>
@@ -3428,12 +3427,12 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B62" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C62" t="s">
         <v>85</v>
@@ -3445,12 +3444,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B63" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C63" t="s">
         <v>85</v>
@@ -3462,12 +3461,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B64" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C64" t="s">
         <v>85</v>
@@ -3479,12 +3478,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B65" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C65" t="s">
         <v>85</v>
@@ -3496,12 +3495,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B66" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C66" t="s">
         <v>85</v>
@@ -3513,9 +3512,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B67" t="s">
         <v>112</v>
@@ -3530,9 +3529,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B68" t="s">
         <v>114</v>
@@ -3547,9 +3546,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B69" t="s">
         <v>119</v>
@@ -3564,9 +3563,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B70" t="s">
         <v>117</v>
@@ -3581,9 +3580,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B71" t="s">
         <v>121</v>
@@ -3598,9 +3597,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B72" t="s">
         <v>123</v>
@@ -3615,9 +3614,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B73" t="s">
         <v>125</v>
@@ -3632,9 +3631,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B74" t="s">
         <v>100</v>
@@ -3646,9 +3645,9 @@
         <v>44337</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B75" t="s">
         <v>102</v>
@@ -3660,9 +3659,9 @@
         <v>44337</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B76" t="s">
         <v>104</v>
@@ -3674,9 +3673,9 @@
         <v>44337</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B77" t="s">
         <v>106</v>
@@ -3688,9 +3687,9 @@
         <v>44337</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B78" t="s">
         <v>110</v>
@@ -3705,9 +3704,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B79" t="s">
         <v>112</v>
@@ -3722,9 +3721,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B80" t="s">
         <v>114</v>
@@ -3739,9 +3738,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B81" t="s">
         <v>117</v>
@@ -3756,9 +3755,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B82" t="s">
         <v>119</v>
@@ -3773,9 +3772,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B83" t="s">
         <v>121</v>
@@ -3790,9 +3789,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B84" t="s">
         <v>123</v>
@@ -3807,9 +3806,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B85" t="s">
         <v>125</v>
@@ -3824,9 +3823,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B86" t="s">
         <v>110</v>
@@ -3838,9 +3837,9 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B87" t="s">
         <v>112</v>
@@ -3852,9 +3851,9 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B88" t="s">
         <v>114</v>
@@ -3866,9 +3865,9 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B89" t="s">
         <v>117</v>
@@ -3880,9 +3879,9 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B90" t="s">
         <v>125</v>
@@ -3897,9 +3896,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B91" t="s">
         <v>123</v>
@@ -3914,9 +3913,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B92" t="s">
         <v>121</v>
@@ -3931,9 +3930,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B93" t="s">
         <v>119</v>
@@ -3948,9 +3947,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B94" t="s">
         <v>119</v>
@@ -3962,9 +3961,9 @@
         <v>44365</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B95" t="s">
         <v>121</v>
@@ -3979,9 +3978,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B96" t="s">
         <v>123</v>
@@ -3996,9 +3995,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B97" t="s">
         <v>125</v>
@@ -4013,9 +4012,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B98" t="s">
         <v>121</v>
@@ -4027,9 +4026,9 @@
         <v>44407</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B99" t="s">
         <v>123</v>
@@ -4041,9 +4040,9 @@
         <v>44407</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B100" t="s">
         <v>125</v>
@@ -4074,26 +4073,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CAB123-B6B8-4C37-9FBC-A6CD32606951}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.69140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.84375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.69140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.3046875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.07421875" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>81</v>
@@ -4105,523 +4104,523 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B2" t="str">
         <f>TEXT(1,"0")</f>
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D2" t="s">
-        <v>167</v>
+        <v>407</v>
       </c>
       <c r="N2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B6" si="0">TEXT(1,"0")</f>
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D3" t="s">
-        <v>167</v>
+        <v>407</v>
       </c>
       <c r="N3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D4" t="s">
-        <v>167</v>
+        <v>407</v>
       </c>
       <c r="N4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B7" t="str">
         <f>TEXT(2,"0")</f>
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B8" t="str">
         <f>TEXT(2,"0")</f>
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B9" t="str">
         <f>TEXT(2,"0")</f>
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B10" t="str">
         <f>TEXT(3,"0")</f>
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B11" t="str">
         <f>TEXT(3,"0")</f>
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D11" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B12" t="str">
         <f>TEXT(3,"0")</f>
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D12" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B13" t="str">
         <f>TEXT(3,"0")</f>
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D13" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B14" t="str">
         <f>TEXT(3,"0")</f>
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D14" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" ref="B15:B20" si="1">TEXT(4,"0")</f>
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D16" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D17" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D18" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D19" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D20" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B21" t="str">
         <f>TEXT(5,"0")</f>
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D21" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B22" t="str">
         <f>TEXT(5,"0")</f>
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D22" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B23" t="str">
         <f>TEXT(5,"0")</f>
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D23" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B24" t="str">
         <f>TEXT(5,"0")</f>
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D24" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B25" t="str">
         <f>TEXT(6,"0")</f>
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D25" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B26" t="str">
         <f>TEXT(6,"0")</f>
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D26" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B27" t="str">
         <f>TEXT(6,"0")</f>
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D27" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B28" t="str">
         <f>TEXT(6,"0")</f>
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D28" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B29" t="str">
         <f>TEXT(7,"0")</f>
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D29" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B30" t="str">
         <f>TEXT(7,"0")</f>
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D30" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B31" t="str">
         <f>TEXT(7,"0")</f>
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D31" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B32" t="str">
         <f>TEXT(7,"0")</f>
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D32" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B33" t="str">
         <f>TEXT(8,"0")</f>
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D33" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B34" t="str">
         <f>TEXT(8,"0")</f>
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D34" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B35" t="str">
         <f>TEXT(8,"0")</f>
         <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D35" t="s">
-        <v>167</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -4644,115 +4643,115 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.07421875" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.3046875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.84375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.53515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D1" t="s">
         <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G1" t="s">
         <v>55</v>
       </c>
       <c r="H1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K1" t="s">
         <v>175</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>176</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>177</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>178</v>
       </c>
-      <c r="L1" t="s">
+      <c r="U1" t="s">
         <v>179</v>
-      </c>
-      <c r="M1" t="s">
-        <v>180</v>
-      </c>
-      <c r="N1" t="s">
-        <v>181</v>
-      </c>
-      <c r="U1" t="s">
-        <v>182</v>
       </c>
       <c r="W1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="U2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="W2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="U3" t="s">
+        <v>181</v>
+      </c>
+      <c r="W3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U4" t="s">
+        <v>183</v>
+      </c>
+      <c r="W4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U5" t="s">
         <v>184</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W5" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="U4" t="s">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U6" t="s">
         <v>186</v>
-      </c>
-      <c r="W4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="U5" t="s">
-        <v>187</v>
-      </c>
-      <c r="W5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="U6" t="s">
-        <v>189</v>
       </c>
       <c r="W6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="U7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="U8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -4776,13 +4775,13 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.07421875" customWidth="1"/>
-    <col min="2" max="2" width="8.84375" style="4"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -4790,7 +4789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>45</v>
       </c>
@@ -4798,7 +4797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>46</v>
       </c>
@@ -4806,7 +4805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>47</v>
       </c>
@@ -4814,7 +4813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>48</v>
       </c>
@@ -4836,22 +4835,22 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.53515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.07421875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.84375" style="4"/>
-    <col min="4" max="4" width="7.3046875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3046875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.53515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="4"/>
+    <col min="4" max="4" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>49</v>
@@ -4866,7 +4865,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>26</v>
       </c>
@@ -4887,9 +4886,9 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>47</v>
@@ -4908,9 +4907,9 @@
         <v>44198</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>48</v>
@@ -4929,9 +4928,9 @@
         <v>44199</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>48</v>
@@ -4950,9 +4949,9 @@
         <v>44200</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>48</v>
@@ -4971,9 +4970,9 @@
         <v>44201</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>46</v>
@@ -4992,7 +4991,7 @@
         <v>44567</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>32</v>
       </c>
@@ -5013,9 +5012,9 @@
         <v>44203</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>48</v>
@@ -5034,7 +5033,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>36</v>
       </c>
@@ -5055,7 +5054,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
@@ -5076,9 +5075,9 @@
         <v>44237</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>48</v>
@@ -5097,9 +5096,9 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>48</v>
@@ -5118,9 +5117,9 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>48</v>
@@ -5139,9 +5138,9 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>48</v>
@@ -5160,11 +5159,11 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
     </row>
@@ -5198,29 +5197,29 @@
       <selection activeCell="D11" sqref="D11:Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.84375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.53515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.3046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.69140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.53515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.3046875" customWidth="1"/>
-    <col min="7" max="7" width="10.53515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.84375" customWidth="1"/>
-    <col min="9" max="9" width="15.53515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.69140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.23046875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.53515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.53515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>44</v>
@@ -5229,36 +5228,36 @@
         <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>56</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>59</v>
@@ -5276,10 +5275,10 @@
         <v>61</v>
       </c>
       <c r="G2" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>298</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>301</v>
       </c>
       <c r="I2" t="str">
         <f>TEXT(8,"0")</f>
@@ -5305,9 +5304,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>64</v>
@@ -5325,10 +5324,10 @@
         <v>66</v>
       </c>
       <c r="G3" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>299</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>302</v>
       </c>
       <c r="I3" t="str">
         <f>TEXT(12,"0")</f>
@@ -5354,9 +5353,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>68</v>
@@ -5374,10 +5373,10 @@
         <v>70</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="I4" t="str">
         <f>TEXT(15,"0")</f>
@@ -5401,7 +5400,7 @@
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -5441,15 +5440,15 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.84375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.07421875" customWidth="1"/>
-    <col min="3" max="3" width="10.53515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
@@ -5463,9 +5462,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s">
         <v>74</v>
@@ -5477,9 +5476,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
@@ -5491,9 +5490,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
@@ -5505,9 +5504,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
@@ -5519,9 +5518,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B6" t="s">
         <v>78</v>
@@ -5533,9 +5532,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B7" t="s">
         <v>74</v>
@@ -5547,9 +5546,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
@@ -5561,9 +5560,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
@@ -5572,9 +5571,9 @@
         <v>44354</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B10" t="s">
         <v>77</v>
@@ -5583,9 +5582,9 @@
         <v>44438</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B11" t="s">
         <v>79</v>
@@ -5594,9 +5593,9 @@
         <v>44627</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B12" t="s">
         <v>78</v>
@@ -5621,44 +5620,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8482F8C3-6DCA-424C-81AE-BDA1451F2AAD}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.53515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.84375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.53515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.53515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.07421875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.69140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.84375" style="7"/>
-    <col min="9" max="9" width="9.23046875" style="7"/>
-    <col min="10" max="10" width="14.84375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="7"/>
+    <col min="9" max="9" width="9.28515625" style="7"/>
+    <col min="10" max="10" width="14.85546875" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="G1" s="15" t="s">
         <v>219</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>222</v>
       </c>
       <c r="H1" s="27" t="s">
         <v>49</v>
@@ -5670,21 +5669,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F2" s="16">
         <v>35</v>
@@ -5703,21 +5702,21 @@
         <v>Tiago Cancado</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F3" s="16">
         <v>25</v>
@@ -5736,21 +5735,21 @@
         <v>Joao Silva</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F4" s="16">
         <v>25</v>
@@ -5769,21 +5768,21 @@
         <v>Manel Costa</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F5" s="16">
         <v>20</v>
@@ -5802,21 +5801,21 @@
         <v>Xico Ferreira</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F6" s="16">
         <v>20</v>
@@ -5835,21 +5834,21 @@
         <v>Nel Moleiro</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F7" s="16">
         <v>20</v>
@@ -5868,21 +5867,21 @@
         <v>Zé do Bento</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C8" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F8" s="16">
         <v>20</v>
@@ -5901,21 +5900,21 @@
         <v>Tó Farrulo</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F9" s="16">
         <v>20</v>
@@ -5934,21 +5933,21 @@
         <v>Tino das Cruzes</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F10" s="29">
         <v>35</v>
@@ -5967,21 +5966,21 @@
         <v>Tiago Cancado</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F11" s="29">
         <v>25</v>
@@ -6000,21 +5999,21 @@
         <v>Joao Silva</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F12" s="29">
         <v>25</v>
@@ -6033,21 +6032,21 @@
         <v>Manel Costa</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F13" s="29">
         <v>20</v>
@@ -6066,21 +6065,21 @@
         <v>Xico Ferreira</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F14" s="29">
         <v>20</v>
@@ -6099,21 +6098,21 @@
         <v>Nel Moleiro</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F15" s="29">
         <v>20</v>
@@ -6132,21 +6131,21 @@
         <v>Zé do Bento</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F16" s="29">
         <v>20</v>
@@ -6165,21 +6164,21 @@
         <v>Tó Farrulo</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F17" s="29">
         <v>20</v>
@@ -6213,262 +6212,262 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B2" t="str">
         <f>TEXT(1,"0")</f>
         <v>1</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B3" t="str">
         <f>TEXT(2,"0")</f>
         <v>2</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B4" t="str">
         <f>TEXT(3,"0")</f>
         <v>3</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B5" t="str">
         <f>TEXT(4,"0")</f>
         <v>4</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B6" t="str">
         <f>TEXT(5,"0")</f>
         <v>5</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B7" t="str">
         <f>TEXT(6,"0")</f>
         <v>6</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B8" t="str">
         <f>TEXT(7,"0")</f>
         <v>7</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B9" t="str">
         <f>TEXT(8,"0")</f>
         <v>8</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B10" t="str">
         <f>TEXT(1,"0")</f>
         <v>1</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B11" t="str">
         <f>TEXT(2,"0")</f>
         <v>2</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B12" t="str">
         <f>TEXT(3,"0")</f>
         <v>3</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B13" t="str">
         <f>TEXT(4,"0")</f>
         <v>4</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B14" t="str">
         <f>TEXT(5,"0")</f>
         <v>5</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B15" t="str">
         <f>TEXT(6,"0")</f>
         <v>6</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B16" t="str">
         <f>TEXT(7,"0")</f>
         <v>7</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B17" t="str">
         <f>TEXT(8,"0")</f>
         <v>8</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B18" t="str">
         <f>TEXT(9,"0")</f>
         <v>9</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B19" t="str">
         <f>TEXT(10,"0")</f>
         <v>10</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B20" t="str">
         <f>TEXT(11,"0")</f>
         <v>11</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B21" t="str">
         <f>TEXT(12,"0")</f>
         <v>12</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -6485,15 +6484,15 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.53515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -6505,30 +6504,30 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C2" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10" t="s">
@@ -6547,28 +6546,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC3EF37-2BA8-4EC6-92A1-22C0C9AA6791}">
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.84375" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.84375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.84375" style="17"/>
-    <col min="4" max="4" width="15.84375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="12.3046875" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.07421875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="27.53515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="17"/>
+    <col min="4" max="4" width="15.85546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>164</v>
@@ -6577,30 +6576,30 @@
         <v>82</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F1" s="20" t="s">
         <v>83</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C2" s="17">
         <v>1</v>
@@ -6615,24 +6614,24 @@
         <v>84</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="O2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C3" s="17">
         <v>2</v>
@@ -6647,7 +6646,7 @@
         <v>84</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
@@ -6655,12 +6654,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C4" s="17">
         <v>3</v>
@@ -6675,7 +6674,7 @@
         <v>84</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
@@ -6683,12 +6682,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C5" s="17">
         <v>4</v>
@@ -6703,17 +6702,17 @@
         <v>84</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C6" s="17">
         <v>5</v>
@@ -6728,17 +6727,17 @@
         <v>84</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C7" s="17">
         <v>1</v>
@@ -6753,17 +6752,17 @@
         <v>84</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C8" s="17">
         <v>2</v>
@@ -6778,19 +6777,19 @@
         <v>85</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="I8" s="25"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C9" s="17">
         <v>3</v>
@@ -6805,17 +6804,17 @@
         <v>84</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C10" s="17">
         <v>4</v>
@@ -6830,17 +6829,17 @@
         <v>84</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C11" s="17">
         <v>5</v>
@@ -6855,17 +6854,17 @@
         <v>87</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C12" s="17">
         <v>1</v>
@@ -6880,17 +6879,17 @@
         <v>84</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C13" s="17">
         <v>2</v>
@@ -6905,17 +6904,17 @@
         <v>84</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C14" s="17">
         <v>3</v>
@@ -6930,17 +6929,17 @@
         <v>84</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C15" s="17">
         <v>4</v>
@@ -6955,17 +6954,17 @@
         <v>84</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C16" s="17">
         <v>5</v>
@@ -6980,17 +6979,17 @@
         <v>84</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C17" s="17">
         <v>1</v>
@@ -7005,17 +7004,17 @@
         <v>84</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C18" s="17">
         <v>2</v>
@@ -7030,17 +7029,17 @@
         <v>84</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C19" s="17">
         <v>3</v>
@@ -7055,17 +7054,17 @@
         <v>84</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C20" s="17">
         <v>4</v>
@@ -7080,17 +7079,17 @@
         <v>84</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C21" s="17">
         <v>5</v>
@@ -7105,17 +7104,17 @@
         <v>84</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C22" s="17">
         <v>1</v>
@@ -7130,17 +7129,17 @@
         <v>84</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C23" s="17">
         <v>2</v>
@@ -7155,17 +7154,17 @@
         <v>84</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C24" s="17">
         <v>3</v>
@@ -7180,17 +7179,17 @@
         <v>84</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C25" s="17">
         <v>4</v>
@@ -7205,17 +7204,17 @@
         <v>84</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C26" s="17">
         <v>5</v>
@@ -7230,17 +7229,17 @@
         <v>84</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C27" s="17">
         <v>1</v>
@@ -7255,17 +7254,17 @@
         <v>84</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C28" s="17">
         <v>2</v>
@@ -7280,17 +7279,17 @@
         <v>84</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C29" s="17">
         <v>3</v>
@@ -7305,17 +7304,17 @@
         <v>84</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C30" s="17">
         <v>4</v>
@@ -7330,17 +7329,17 @@
         <v>84</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C31" s="17">
         <v>5</v>
@@ -7355,17 +7354,17 @@
         <v>84</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C32" s="17">
         <v>1</v>
@@ -7380,17 +7379,17 @@
         <v>84</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C33" s="17">
         <v>2</v>
@@ -7405,17 +7404,17 @@
         <v>84</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C34" s="17">
         <v>3</v>
@@ -7430,17 +7429,17 @@
         <v>84</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C35" s="17">
         <v>4</v>
@@ -7455,21 +7454,21 @@
         <v>84</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I35" s="25" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C36" s="17">
         <v>5</v>
@@ -7484,21 +7483,21 @@
         <v>84</v>
       </c>
       <c r="G36" s="24" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I36" s="25" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C37" s="17">
         <v>1</v>
@@ -7513,21 +7512,21 @@
         <v>84</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I37" s="25" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C38" s="17">
         <v>2</v>
@@ -7542,21 +7541,21 @@
         <v>84</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I38" s="25" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C39" s="17">
         <v>3</v>
@@ -7571,21 +7570,21 @@
         <v>84</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I39" s="25" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C40" s="17">
         <v>4</v>
@@ -7600,21 +7599,21 @@
         <v>84</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I40" s="25" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C41" s="17">
         <v>5</v>
@@ -7629,21 +7628,21 @@
         <v>85</v>
       </c>
       <c r="G41" s="24" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I41" s="25" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C42" s="17">
         <v>1</v>
@@ -7658,17 +7657,17 @@
         <v>84</v>
       </c>
       <c r="G42" s="24" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C43" s="17">
         <v>2</v>
@@ -7683,17 +7682,17 @@
         <v>84</v>
       </c>
       <c r="G43" s="24" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C44" s="17">
         <v>3</v>
@@ -7708,17 +7707,17 @@
         <v>84</v>
       </c>
       <c r="G44" s="24" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C45" s="17">
         <v>4</v>
@@ -7733,17 +7732,17 @@
         <v>84</v>
       </c>
       <c r="G45" s="24" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C46" s="17">
         <v>5</v>
@@ -7758,17 +7757,17 @@
         <v>84</v>
       </c>
       <c r="G46" s="24" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C47" s="17">
         <v>1</v>
@@ -7783,17 +7782,17 @@
         <v>84</v>
       </c>
       <c r="G47" s="24" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C48" s="17">
         <v>2</v>
@@ -7808,17 +7807,17 @@
         <v>84</v>
       </c>
       <c r="G48" s="24" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="H48" s="13"/>
       <c r="I48" s="13"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C49" s="17">
         <v>3</v>
@@ -7833,17 +7832,17 @@
         <v>84</v>
       </c>
       <c r="G49" s="24" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C50" s="17">
         <v>4</v>
@@ -7858,17 +7857,17 @@
         <v>84</v>
       </c>
       <c r="G50" s="24" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C51" s="17">
         <v>5</v>
@@ -7883,17 +7882,17 @@
         <v>84</v>
       </c>
       <c r="G51" s="24" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C52" s="17">
         <v>1</v>
@@ -7908,17 +7907,17 @@
         <v>84</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C53" s="17">
         <v>2</v>
@@ -7933,17 +7932,17 @@
         <v>84</v>
       </c>
       <c r="G53" s="24" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C54" s="17">
         <v>3</v>
@@ -7958,17 +7957,17 @@
         <v>87</v>
       </c>
       <c r="G54" s="24" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C55" s="17">
         <v>4</v>
@@ -7983,17 +7982,17 @@
         <v>84</v>
       </c>
       <c r="G55" s="24" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C56" s="17">
         <v>5</v>
@@ -8008,17 +8007,17 @@
         <v>84</v>
       </c>
       <c r="G56" s="24" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C57" s="17">
         <v>1</v>
@@ -8033,17 +8032,17 @@
         <v>84</v>
       </c>
       <c r="G57" s="24" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H57" s="13"/>
       <c r="I57" s="13"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C58" s="17">
         <v>2</v>
@@ -8058,17 +8057,17 @@
         <v>84</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C59" s="17">
         <v>3</v>
@@ -8083,17 +8082,17 @@
         <v>84</v>
       </c>
       <c r="G59" s="24" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C60" s="17">
         <v>4</v>
@@ -8108,17 +8107,17 @@
         <v>84</v>
       </c>
       <c r="G60" s="24" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C61" s="17">
         <v>5</v>
@@ -8133,17 +8132,17 @@
         <v>84</v>
       </c>
       <c r="G61" s="24" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H61" s="13"/>
       <c r="I61" s="13"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C62" s="17">
         <v>1</v>
@@ -8158,17 +8157,17 @@
         <v>84</v>
       </c>
       <c r="G62" s="24" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C63" s="17">
         <v>2</v>
@@ -8183,17 +8182,17 @@
         <v>84</v>
       </c>
       <c r="G63" s="24" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H63" s="13"/>
       <c r="I63" s="13"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C64" s="17">
         <v>3</v>
@@ -8208,17 +8207,17 @@
         <v>84</v>
       </c>
       <c r="G64" s="24" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H64" s="13"/>
       <c r="I64" s="13"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C65" s="17">
         <v>4</v>
@@ -8233,17 +8232,17 @@
         <v>84</v>
       </c>
       <c r="G65" s="24" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="H65" s="13"/>
       <c r="I65" s="13"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C66" s="17">
         <v>5</v>
@@ -8258,17 +8257,17 @@
         <v>87</v>
       </c>
       <c r="G66" s="24" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C67" s="17">
         <v>1</v>
@@ -8283,13 +8282,13 @@
         <v>85</v>
       </c>
       <c r="G67" s="24" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="I67" s="25" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\switch\projectg2\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B453E981-3115-4D9E-A144-5BB13B24889A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B65AC9-02EF-4190-BAC1-2381C4ABF416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="2880" windowWidth="22114" windowHeight="8520" tabRatio="938" activeTab="5" xr2:uid="{17341BA7-7E24-41D8-A92D-79256BC3D291}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="938" activeTab="8" xr2:uid="{17341BA7-7E24-41D8-A92D-79256BC3D291}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="412">
   <si>
     <t>id</t>
   </si>
@@ -1281,6 +1281,12 @@
   </si>
   <si>
     <t>2021-04-02</t>
+  </si>
+  <si>
+    <t>A3 dummy 001</t>
+  </si>
+  <si>
+    <t>Project_2022_3&amp;as want US001</t>
   </si>
 </sst>
 </file>
@@ -1892,23 +1898,23 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.4609375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.3046875" customWidth="1"/>
-    <col min="3" max="3" width="15.84375" customWidth="1"/>
-    <col min="5" max="5" width="19.765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.69140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.84375" style="4"/>
-    <col min="9" max="9" width="24.84375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.4609375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.69140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.69140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.84375" style="4"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="4"/>
+    <col min="9" max="9" width="24.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="4"/>
     <col min="14" max="14" width="10" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>203</v>
       </c>
@@ -1952,7 +1958,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
@@ -1994,7 +2000,7 @@
         <v>263650670</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
@@ -2036,7 +2042,7 @@
         <v>263650520</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
@@ -2078,7 +2084,7 @@
         <v>263650532</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>23</v>
       </c>
@@ -2120,7 +2126,7 @@
         <v>263650345</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>25</v>
       </c>
@@ -2162,7 +2168,7 @@
         <v>263650127</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>28</v>
       </c>
@@ -2204,7 +2210,7 @@
         <v>212349016</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>31</v>
       </c>
@@ -2228,7 +2234,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>34</v>
       </c>
@@ -2252,7 +2258,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>35</v>
       </c>
@@ -2276,7 +2282,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>37</v>
       </c>
@@ -2300,7 +2306,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>40</v>
       </c>
@@ -2324,7 +2330,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>41</v>
       </c>
@@ -2348,7 +2354,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>42</v>
       </c>
@@ -2372,7 +2378,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>43</v>
       </c>
@@ -2426,14 +2432,14 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
@@ -2453,7 +2459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>215</v>
       </c>
@@ -2473,7 +2479,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>215</v>
       </c>
@@ -2493,7 +2499,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>215</v>
       </c>
@@ -2513,7 +2519,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>215</v>
       </c>
@@ -2530,7 +2536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>215</v>
       </c>
@@ -2547,7 +2553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>215</v>
       </c>
@@ -2564,7 +2570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>215</v>
       </c>
@@ -2581,7 +2587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>215</v>
       </c>
@@ -2598,7 +2604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>215</v>
       </c>
@@ -2615,7 +2621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>215</v>
       </c>
@@ -2632,7 +2638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>215</v>
       </c>
@@ -2646,7 +2652,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>215</v>
       </c>
@@ -2660,7 +2666,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>215</v>
       </c>
@@ -2674,7 +2680,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>215</v>
       </c>
@@ -2688,7 +2694,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>215</v>
       </c>
@@ -2702,7 +2708,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>215</v>
       </c>
@@ -2719,7 +2725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>215</v>
       </c>
@@ -2733,7 +2739,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>215</v>
       </c>
@@ -2750,7 +2756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>215</v>
       </c>
@@ -2767,7 +2773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>215</v>
       </c>
@@ -2784,7 +2790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>215</v>
       </c>
@@ -2801,7 +2807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>215</v>
       </c>
@@ -2818,7 +2824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>215</v>
       </c>
@@ -2835,7 +2841,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>215</v>
       </c>
@@ -2852,7 +2858,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>215</v>
       </c>
@@ -2869,7 +2875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>215</v>
       </c>
@@ -2886,7 +2892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>215</v>
       </c>
@@ -2903,7 +2909,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>215</v>
       </c>
@@ -2920,7 +2926,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>215</v>
       </c>
@@ -2937,7 +2943,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>215</v>
       </c>
@@ -2954,7 +2960,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>215</v>
       </c>
@@ -2968,7 +2974,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>215</v>
       </c>
@@ -2982,7 +2988,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>215</v>
       </c>
@@ -2996,7 +3002,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>215</v>
       </c>
@@ -3010,7 +3016,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>215</v>
       </c>
@@ -3024,7 +3030,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>215</v>
       </c>
@@ -3038,7 +3044,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>215</v>
       </c>
@@ -3055,7 +3061,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>215</v>
       </c>
@@ -3072,7 +3078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>215</v>
       </c>
@@ -3089,7 +3095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>215</v>
       </c>
@@ -3106,7 +3112,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>215</v>
       </c>
@@ -3123,7 +3129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>215</v>
       </c>
@@ -3140,7 +3146,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>215</v>
       </c>
@@ -3157,7 +3163,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>215</v>
       </c>
@@ -3174,7 +3180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>215</v>
       </c>
@@ -3191,7 +3197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>215</v>
       </c>
@@ -3208,7 +3214,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>215</v>
       </c>
@@ -3225,7 +3231,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>215</v>
       </c>
@@ -3242,7 +3248,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>215</v>
       </c>
@@ -3259,7 +3265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>215</v>
       </c>
@@ -3276,7 +3282,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>215</v>
       </c>
@@ -3293,7 +3299,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>215</v>
       </c>
@@ -3310,7 +3316,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>215</v>
       </c>
@@ -3327,7 +3333,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>215</v>
       </c>
@@ -3344,7 +3350,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>215</v>
       </c>
@@ -3358,7 +3364,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>215</v>
       </c>
@@ -3372,7 +3378,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>215</v>
       </c>
@@ -3386,7 +3392,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>215</v>
       </c>
@@ -3400,7 +3406,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>215</v>
       </c>
@@ -3414,7 +3420,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>215</v>
       </c>
@@ -3428,7 +3434,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>215</v>
       </c>
@@ -3445,7 +3451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>215</v>
       </c>
@@ -3462,7 +3468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>215</v>
       </c>
@@ -3479,7 +3485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>215</v>
       </c>
@@ -3496,7 +3502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>215</v>
       </c>
@@ -3513,7 +3519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>215</v>
       </c>
@@ -3530,7 +3536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>215</v>
       </c>
@@ -3547,7 +3553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>215</v>
       </c>
@@ -3564,7 +3570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>215</v>
       </c>
@@ -3581,7 +3587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>215</v>
       </c>
@@ -3598,7 +3604,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>215</v>
       </c>
@@ -3615,7 +3621,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>215</v>
       </c>
@@ -3632,7 +3638,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>215</v>
       </c>
@@ -3646,7 +3652,7 @@
         <v>44337</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>215</v>
       </c>
@@ -3660,7 +3666,7 @@
         <v>44337</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>215</v>
       </c>
@@ -3674,7 +3680,7 @@
         <v>44337</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>215</v>
       </c>
@@ -3688,7 +3694,7 @@
         <v>44337</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>215</v>
       </c>
@@ -3705,7 +3711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>215</v>
       </c>
@@ -3722,7 +3728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>215</v>
       </c>
@@ -3739,7 +3745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>215</v>
       </c>
@@ -3756,7 +3762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>215</v>
       </c>
@@ -3773,7 +3779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>215</v>
       </c>
@@ -3790,7 +3796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>215</v>
       </c>
@@ -3807,7 +3813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>215</v>
       </c>
@@ -3824,7 +3830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>215</v>
       </c>
@@ -3838,7 +3844,7 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>215</v>
       </c>
@@ -3852,7 +3858,7 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>215</v>
       </c>
@@ -3866,7 +3872,7 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>215</v>
       </c>
@@ -3880,7 +3886,7 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>215</v>
       </c>
@@ -3897,7 +3903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>215</v>
       </c>
@@ -3914,7 +3920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>215</v>
       </c>
@@ -3931,7 +3937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>215</v>
       </c>
@@ -3948,7 +3954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>215</v>
       </c>
@@ -3962,7 +3968,7 @@
         <v>44365</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>215</v>
       </c>
@@ -3979,7 +3985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>215</v>
       </c>
@@ -3996,7 +4002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>215</v>
       </c>
@@ -4013,7 +4019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>215</v>
       </c>
@@ -4027,7 +4033,7 @@
         <v>44407</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>215</v>
       </c>
@@ -4041,7 +4047,7 @@
         <v>44407</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>215</v>
       </c>
@@ -4078,17 +4084,17 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.69140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.84375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.69140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.3046875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.07421875" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>227</v>
       </c>
@@ -4105,7 +4111,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>215</v>
       </c>
@@ -4123,7 +4129,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>215</v>
       </c>
@@ -4141,7 +4147,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>215</v>
       </c>
@@ -4159,7 +4165,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>215</v>
       </c>
@@ -4174,7 +4180,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>215</v>
       </c>
@@ -4189,7 +4195,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>215</v>
       </c>
@@ -4204,7 +4210,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>215</v>
       </c>
@@ -4219,7 +4225,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>215</v>
       </c>
@@ -4234,7 +4240,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>215</v>
       </c>
@@ -4249,7 +4255,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>215</v>
       </c>
@@ -4264,7 +4270,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>215</v>
       </c>
@@ -4279,7 +4285,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>215</v>
       </c>
@@ -4294,7 +4300,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>215</v>
       </c>
@@ -4309,7 +4315,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>215</v>
       </c>
@@ -4324,7 +4330,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>215</v>
       </c>
@@ -4339,7 +4345,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>215</v>
       </c>
@@ -4354,7 +4360,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>215</v>
       </c>
@@ -4369,7 +4375,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>215</v>
       </c>
@@ -4384,7 +4390,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>215</v>
       </c>
@@ -4399,7 +4405,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>215</v>
       </c>
@@ -4414,7 +4420,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>215</v>
       </c>
@@ -4429,7 +4435,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>215</v>
       </c>
@@ -4444,7 +4450,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>215</v>
       </c>
@@ -4459,7 +4465,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>215</v>
       </c>
@@ -4474,7 +4480,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>215</v>
       </c>
@@ -4489,7 +4495,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>215</v>
       </c>
@@ -4504,7 +4510,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>215</v>
       </c>
@@ -4519,7 +4525,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>215</v>
       </c>
@@ -4534,7 +4540,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>215</v>
       </c>
@@ -4549,7 +4555,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>215</v>
       </c>
@@ -4564,7 +4570,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>215</v>
       </c>
@@ -4579,7 +4585,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>215</v>
       </c>
@@ -4594,7 +4600,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>215</v>
       </c>
@@ -4609,7 +4615,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>215</v>
       </c>
@@ -4644,18 +4650,18 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.07421875" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.3046875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.84375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.53515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>170</v>
       </c>
@@ -4705,7 +4711,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="U2" t="s">
         <v>183</v>
       </c>
@@ -4713,7 +4719,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="U3" t="s">
         <v>184</v>
       </c>
@@ -4721,7 +4727,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="U4" t="s">
         <v>186</v>
       </c>
@@ -4729,7 +4735,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="U5" t="s">
         <v>187</v>
       </c>
@@ -4737,7 +4743,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="U6" t="s">
         <v>189</v>
       </c>
@@ -4745,12 +4751,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="U7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="U8" t="s">
         <v>191</v>
       </c>
@@ -4776,13 +4782,13 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.07421875" customWidth="1"/>
-    <col min="2" max="2" width="8.84375" style="4"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -4790,7 +4796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>45</v>
       </c>
@@ -4798,7 +4804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>46</v>
       </c>
@@ -4806,7 +4812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>47</v>
       </c>
@@ -4814,7 +4820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>48</v>
       </c>
@@ -4836,17 +4842,17 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.53515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.07421875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.84375" style="4"/>
-    <col min="4" max="4" width="7.3046875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3046875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.53515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="4"/>
+    <col min="4" max="4" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4866,7 +4872,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>26</v>
       </c>
@@ -4887,7 +4893,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>195</v>
       </c>
@@ -4908,7 +4914,7 @@
         <v>44198</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>192</v>
       </c>
@@ -4929,7 +4935,7 @@
         <v>44199</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>193</v>
       </c>
@@ -4950,7 +4956,7 @@
         <v>44200</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>194</v>
       </c>
@@ -4971,7 +4977,7 @@
         <v>44201</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>196</v>
       </c>
@@ -4992,7 +4998,7 @@
         <v>44567</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>32</v>
       </c>
@@ -5013,7 +5019,7 @@
         <v>44203</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>197</v>
       </c>
@@ -5034,7 +5040,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>36</v>
       </c>
@@ -5055,7 +5061,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
@@ -5076,7 +5082,7 @@
         <v>44237</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>198</v>
       </c>
@@ -5097,7 +5103,7 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>199</v>
       </c>
@@ -5118,7 +5124,7 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>200</v>
       </c>
@@ -5139,7 +5145,7 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>201</v>
       </c>
@@ -5160,11 +5166,11 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
     </row>
@@ -5198,24 +5204,24 @@
       <selection activeCell="D11" sqref="D11:Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.84375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.53515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.3046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.69140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.53515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.3046875" customWidth="1"/>
-    <col min="7" max="7" width="10.53515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.84375" customWidth="1"/>
-    <col min="9" max="9" width="15.53515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.69140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.23046875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.53515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.53515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>53</v>
       </c>
@@ -5256,7 +5262,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>215</v>
       </c>
@@ -5305,7 +5311,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>216</v>
       </c>
@@ -5354,7 +5360,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>217</v>
       </c>
@@ -5401,7 +5407,7 @@
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -5441,15 +5447,15 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.84375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.07421875" customWidth="1"/>
-    <col min="3" max="3" width="10.53515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
@@ -5463,7 +5469,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>215</v>
       </c>
@@ -5477,7 +5483,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>215</v>
       </c>
@@ -5491,7 +5497,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>215</v>
       </c>
@@ -5505,7 +5511,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>215</v>
       </c>
@@ -5519,7 +5525,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>215</v>
       </c>
@@ -5533,7 +5539,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>216</v>
       </c>
@@ -5547,7 +5553,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>216</v>
       </c>
@@ -5561,7 +5567,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>216</v>
       </c>
@@ -5572,7 +5578,7 @@
         <v>44354</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>216</v>
       </c>
@@ -5583,7 +5589,7 @@
         <v>44438</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>216</v>
       </c>
@@ -5594,7 +5600,7 @@
         <v>44627</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>216</v>
       </c>
@@ -5621,24 +5627,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8482F8C3-6DCA-424C-81AE-BDA1451F2AAD}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.53515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.84375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.53515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.53515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.07421875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.69140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.84375" style="7"/>
-    <col min="9" max="9" width="9.23046875" style="7"/>
-    <col min="10" max="10" width="14.84375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="7"/>
+    <col min="9" max="9" width="9.21875" style="7"/>
+    <col min="10" max="10" width="14.88671875" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>218</v>
       </c>
@@ -5670,7 +5676,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>195</v>
       </c>
@@ -5703,7 +5709,7 @@
         <v>Tiago Cancado</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>192</v>
       </c>
@@ -5736,7 +5742,7 @@
         <v>Joao Silva</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>193</v>
       </c>
@@ -5769,7 +5775,7 @@
         <v>Manel Costa</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>194</v>
       </c>
@@ -5802,7 +5808,7 @@
         <v>Xico Ferreira</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>32</v>
       </c>
@@ -5835,7 +5841,7 @@
         <v>Nel Moleiro</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>197</v>
       </c>
@@ -5868,7 +5874,7 @@
         <v>Zé do Bento</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>36</v>
       </c>
@@ -5901,7 +5907,7 @@
         <v>Tó Farrulo</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>38</v>
       </c>
@@ -5934,7 +5940,7 @@
         <v>Tino das Cruzes</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>195</v>
       </c>
@@ -5967,7 +5973,7 @@
         <v>Tiago Cancado</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>192</v>
       </c>
@@ -6000,7 +6006,7 @@
         <v>Joao Silva</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>193</v>
       </c>
@@ -6033,7 +6039,7 @@
         <v>Manel Costa</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>194</v>
       </c>
@@ -6066,7 +6072,7 @@
         <v>Xico Ferreira</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>32</v>
       </c>
@@ -6099,7 +6105,7 @@
         <v>Nel Moleiro</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>197</v>
       </c>
@@ -6132,7 +6138,7 @@
         <v>Zé do Bento</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>36</v>
       </c>
@@ -6165,7 +6171,7 @@
         <v>Tó Farrulo</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
         <v>38</v>
       </c>
@@ -6207,20 +6213,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7FF6538-20DF-4E13-8107-7AC155FD4D73}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>227</v>
       </c>
@@ -6231,7 +6237,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>215</v>
       </c>
@@ -6243,7 +6249,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>215</v>
       </c>
@@ -6255,7 +6261,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>215</v>
       </c>
@@ -6267,7 +6273,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>215</v>
       </c>
@@ -6279,7 +6285,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>215</v>
       </c>
@@ -6291,7 +6297,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>215</v>
       </c>
@@ -6303,7 +6309,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>215</v>
       </c>
@@ -6315,7 +6321,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>215</v>
       </c>
@@ -6327,7 +6333,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>216</v>
       </c>
@@ -6339,7 +6345,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>216</v>
       </c>
@@ -6351,7 +6357,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>216</v>
       </c>
@@ -6363,7 +6369,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>216</v>
       </c>
@@ -6375,7 +6381,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>216</v>
       </c>
@@ -6387,7 +6393,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>216</v>
       </c>
@@ -6399,7 +6405,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>216</v>
       </c>
@@ -6411,7 +6417,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>216</v>
       </c>
@@ -6423,7 +6429,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>216</v>
       </c>
@@ -6435,7 +6441,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>216</v>
       </c>
@@ -6447,7 +6453,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>216</v>
       </c>
@@ -6459,7 +6465,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>216</v>
       </c>
@@ -6469,6 +6475,18 @@
       </c>
       <c r="C21" s="10" t="s">
         <v>329</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B22" t="str">
+        <f>TEXT(1,"0")</f>
+        <v>1</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -6485,13 +6503,13 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.53515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
         <v>203</v>
       </c>
@@ -6514,7 +6532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C2" s="10" t="s">
         <v>11</v>
       </c>
@@ -6545,25 +6563,25 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC3EF37-2BA8-4EC6-92A1-22C0C9AA6791}">
-  <dimension ref="A1:O67"/>
+  <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.84375" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.84375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.84375" style="17"/>
-    <col min="4" max="4" width="15.84375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="12.3046875" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.07421875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="27.53515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="17"/>
+    <col min="4" max="4" width="15.88671875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="27.5546875" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>227</v>
       </c>
@@ -6595,7 +6613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>215</v>
       </c>
@@ -6627,7 +6645,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>215</v>
       </c>
@@ -6655,7 +6673,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>215</v>
       </c>
@@ -6683,7 +6701,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>215</v>
       </c>
@@ -6708,7 +6726,7 @@
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>215</v>
       </c>
@@ -6733,7 +6751,7 @@
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>215</v>
       </c>
@@ -6758,7 +6776,7 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>215</v>
       </c>
@@ -6785,7 +6803,7 @@
       </c>
       <c r="I8" s="25"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>215</v>
       </c>
@@ -6810,7 +6828,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>215</v>
       </c>
@@ -6835,7 +6853,7 @@
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>215</v>
       </c>
@@ -6860,7 +6878,7 @@
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>215</v>
       </c>
@@ -6885,7 +6903,7 @@
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>215</v>
       </c>
@@ -6910,7 +6928,7 @@
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>215</v>
       </c>
@@ -6935,7 +6953,7 @@
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>215</v>
       </c>
@@ -6960,7 +6978,7 @@
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>215</v>
       </c>
@@ -6985,7 +7003,7 @@
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>215</v>
       </c>
@@ -7010,7 +7028,7 @@
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>215</v>
       </c>
@@ -7035,7 +7053,7 @@
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>215</v>
       </c>
@@ -7060,7 +7078,7 @@
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>215</v>
       </c>
@@ -7085,7 +7103,7 @@
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>215</v>
       </c>
@@ -7110,7 +7128,7 @@
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>215</v>
       </c>
@@ -7135,7 +7153,7 @@
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>215</v>
       </c>
@@ -7160,7 +7178,7 @@
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>215</v>
       </c>
@@ -7185,7 +7203,7 @@
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>215</v>
       </c>
@@ -7210,7 +7228,7 @@
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>215</v>
       </c>
@@ -7235,7 +7253,7 @@
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>215</v>
       </c>
@@ -7260,7 +7278,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>215</v>
       </c>
@@ -7285,7 +7303,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>215</v>
       </c>
@@ -7310,7 +7328,7 @@
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>215</v>
       </c>
@@ -7335,7 +7353,7 @@
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>215</v>
       </c>
@@ -7360,7 +7378,7 @@
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="24" t="s">
         <v>216</v>
       </c>
@@ -7385,7 +7403,7 @@
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>216</v>
       </c>
@@ -7410,7 +7428,7 @@
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>216</v>
       </c>
@@ -7435,7 +7453,7 @@
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>216</v>
       </c>
@@ -7464,7 +7482,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>216</v>
       </c>
@@ -7493,7 +7511,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>216</v>
       </c>
@@ -7522,7 +7540,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>216</v>
       </c>
@@ -7551,7 +7569,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>216</v>
       </c>
@@ -7580,7 +7598,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>216</v>
       </c>
@@ -7609,7 +7627,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>216</v>
       </c>
@@ -7638,7 +7656,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>216</v>
       </c>
@@ -7663,7 +7681,7 @@
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>216</v>
       </c>
@@ -7688,7 +7706,7 @@
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>216</v>
       </c>
@@ -7713,7 +7731,7 @@
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>216</v>
       </c>
@@ -7738,7 +7756,7 @@
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>216</v>
       </c>
@@ -7763,7 +7781,7 @@
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>216</v>
       </c>
@@ -7788,7 +7806,7 @@
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>216</v>
       </c>
@@ -7813,7 +7831,7 @@
       <c r="H48" s="13"/>
       <c r="I48" s="13"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>216</v>
       </c>
@@ -7838,7 +7856,7 @@
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>216</v>
       </c>
@@ -7863,7 +7881,7 @@
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>216</v>
       </c>
@@ -7888,7 +7906,7 @@
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>216</v>
       </c>
@@ -7913,7 +7931,7 @@
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>216</v>
       </c>
@@ -7938,7 +7956,7 @@
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>216</v>
       </c>
@@ -7963,7 +7981,7 @@
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>216</v>
       </c>
@@ -7988,7 +8006,7 @@
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>216</v>
       </c>
@@ -8013,7 +8031,7 @@
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
         <v>216</v>
       </c>
@@ -8038,7 +8056,7 @@
       <c r="H57" s="13"/>
       <c r="I57" s="13"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>216</v>
       </c>
@@ -8063,7 +8081,7 @@
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>216</v>
       </c>
@@ -8088,7 +8106,7 @@
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>216</v>
       </c>
@@ -8113,7 +8131,7 @@
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
         <v>216</v>
       </c>
@@ -8138,7 +8156,7 @@
       <c r="H61" s="13"/>
       <c r="I61" s="13"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>216</v>
       </c>
@@ -8163,7 +8181,7 @@
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>216</v>
       </c>
@@ -8188,7 +8206,7 @@
       <c r="H63" s="13"/>
       <c r="I63" s="13"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>216</v>
       </c>
@@ -8213,7 +8231,7 @@
       <c r="H64" s="13"/>
       <c r="I64" s="13"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>216</v>
       </c>
@@ -8238,7 +8256,7 @@
       <c r="H65" s="13"/>
       <c r="I65" s="13"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>216</v>
       </c>
@@ -8263,7 +8281,7 @@
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
         <v>216</v>
       </c>
@@ -8291,11 +8309,36 @@
       <c r="I67" s="25" t="s">
         <v>331</v>
       </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C68" s="17">
+        <v>1</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="E68" s="18">
+        <v>26.5</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G68" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F67" xr:uid="{A0E105BA-CF51-4401-B710-6BE9E69B1788}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F68" xr:uid="{A0E105BA-CF51-4401-B710-6BE9E69B1788}">
       <formula1>$O$2:$O$4</formula1>
     </dataValidation>
   </dataValidations>
@@ -8305,9 +8348,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8514,19 +8560,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EAF4CE-5C55-41AC-946B-5BEC082284DF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{552A2396-49F4-45F5-9D44-9C3125763CF2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8551,9 +8593,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{552A2396-49F4-45F5-9D44-9C3125763CF2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EAF4CE-5C55-41AC-946B-5BEC082284DF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\switch\projectg2\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B65AC9-02EF-4190-BAC1-2381C4ABF416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFCC498-6C4D-445F-BABD-7A26CACB6376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="938" activeTab="8" xr2:uid="{17341BA7-7E24-41D8-A92D-79256BC3D291}"/>
+    <workbookView xWindow="2263" yWindow="2263" windowWidth="22114" windowHeight="8520" tabRatio="938" firstSheet="5" activeTab="13" xr2:uid="{17341BA7-7E24-41D8-A92D-79256BC3D291}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,11 @@
     <sheet name="BacklogUSStatus" sheetId="12" r:id="rId10"/>
     <sheet name="SprintBacklog" sheetId="10" r:id="rId11"/>
     <sheet name="SprintTasks" sheetId="11" r:id="rId12"/>
+    <sheet name="Tasks" sheetId="14" r:id="rId13"/>
+    <sheet name="Efforts" sheetId="15" r:id="rId14"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId13"/>
+    <externalReference r:id="rId15"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">BacklogUSStatus!$A$1:$E$100</definedName>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="486">
   <si>
     <t>id</t>
   </si>
@@ -1287,6 +1289,228 @@
   </si>
   <si>
     <t>Project_2022_3&amp;as want US001</t>
+  </si>
+  <si>
+    <t>sprintName</t>
+  </si>
+  <si>
+    <t>resourceStartDate</t>
+  </si>
+  <si>
+    <t>taskTitle</t>
+  </si>
+  <si>
+    <t>taskDescription</t>
+  </si>
+  <si>
+    <t>taskEffortEstimate</t>
+  </si>
+  <si>
+    <t>taskType</t>
+  </si>
+  <si>
+    <t>ustittle</t>
+  </si>
+  <si>
+    <t>MEETING</t>
+  </si>
+  <si>
+    <t>2022-06-13</t>
+  </si>
+  <si>
+    <t>2022-03-21</t>
+  </si>
+  <si>
+    <t>2022-04-11</t>
+  </si>
+  <si>
+    <t>2022-05-02</t>
+  </si>
+  <si>
+    <t>2022-05-23</t>
+  </si>
+  <si>
+    <t>2022-07-04</t>
+  </si>
+  <si>
+    <t>2022-07-25</t>
+  </si>
+  <si>
+    <t>2022-08-15</t>
+  </si>
+  <si>
+    <t>2022-09-05</t>
+  </si>
+  <si>
+    <t>2022-09-26</t>
+  </si>
+  <si>
+    <t>2022-10-17</t>
+  </si>
+  <si>
+    <t>2022-11-07</t>
+  </si>
+  <si>
+    <t>2022-11-28</t>
+  </si>
+  <si>
+    <t>2023-01-02</t>
+  </si>
+  <si>
+    <t>Daily meeting</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>DESIGN</t>
+  </si>
+  <si>
+    <t>IMPLEMENTATION</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>createTaskSD</t>
+  </si>
+  <si>
+    <t>createTask</t>
+  </si>
+  <si>
+    <t>createTaskTest</t>
+  </si>
+  <si>
+    <t>Sequence Diagram</t>
+  </si>
+  <si>
+    <t>Implement</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>addUS_SD</t>
+  </si>
+  <si>
+    <t>addUS</t>
+  </si>
+  <si>
+    <t>addUSTest</t>
+  </si>
+  <si>
+    <t>DEPLOYMENT</t>
+  </si>
+  <si>
+    <t>deploy</t>
+  </si>
+  <si>
+    <t>sprint review</t>
+  </si>
+  <si>
+    <t>review</t>
+  </si>
+  <si>
+    <t>2022-06-24</t>
+  </si>
+  <si>
+    <t>Project_2022_3&amp;as want US002</t>
+  </si>
+  <si>
+    <t>Project_2022_3&amp;as want US003</t>
+  </si>
+  <si>
+    <t>A3 dummy 002</t>
+  </si>
+  <si>
+    <t>A3 dummy 003</t>
+  </si>
+  <si>
+    <t>sprint6</t>
+  </si>
+  <si>
+    <t>sprint1</t>
+  </si>
+  <si>
+    <t>sprint2</t>
+  </si>
+  <si>
+    <t>sprint3</t>
+  </si>
+  <si>
+    <t>sprint4</t>
+  </si>
+  <si>
+    <t>sprint5</t>
+  </si>
+  <si>
+    <t>sprint7</t>
+  </si>
+  <si>
+    <t>sprint8</t>
+  </si>
+  <si>
+    <t>sprint9</t>
+  </si>
+  <si>
+    <t>sprint10</t>
+  </si>
+  <si>
+    <t>sprint11</t>
+  </si>
+  <si>
+    <t>sprint12</t>
+  </si>
+  <si>
+    <t>sprint13</t>
+  </si>
+  <si>
+    <t>sprint14</t>
+  </si>
+  <si>
+    <t>sprint15</t>
+  </si>
+  <si>
+    <t>effortHours</t>
+  </si>
+  <si>
+    <t>effortMinutes</t>
+  </si>
+  <si>
+    <t>effortDate</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>attachment</t>
+  </si>
+  <si>
+    <t>2022-06-25</t>
+  </si>
+  <si>
+    <t>in schedule</t>
+  </si>
+  <si>
+    <t>Project_2022_3&amp;sprint6&amp;daily</t>
+  </si>
+  <si>
+    <t>note.pdf</t>
+  </si>
+  <si>
+    <t>define strategy</t>
+  </si>
+  <si>
+    <t>boardPhoto.pdf</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>snapshot.pdf</t>
+  </si>
+  <si>
+    <t>Project_2022_3&amp;as want US002&amp;createTaskSD</t>
   </si>
 </sst>
 </file>
@@ -1898,23 +2122,23 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
-    <col min="5" max="5" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="4"/>
-    <col min="9" max="9" width="24.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="15.4609375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.3046875" customWidth="1"/>
+    <col min="3" max="3" width="15.84375" customWidth="1"/>
+    <col min="5" max="5" width="19.765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.69140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.84375" style="4"/>
+    <col min="9" max="9" width="24.84375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.4609375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.69140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.69140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.84375" style="4"/>
     <col min="14" max="14" width="10" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>203</v>
       </c>
@@ -1958,7 +2182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
@@ -2000,7 +2224,7 @@
         <v>263650670</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
@@ -2042,7 +2266,7 @@
         <v>263650520</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
@@ -2084,7 +2308,7 @@
         <v>263650532</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>23</v>
       </c>
@@ -2126,7 +2350,7 @@
         <v>263650345</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>25</v>
       </c>
@@ -2168,7 +2392,7 @@
         <v>263650127</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
         <v>28</v>
       </c>
@@ -2210,7 +2434,7 @@
         <v>212349016</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>31</v>
       </c>
@@ -2234,7 +2458,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
         <v>34</v>
       </c>
@@ -2258,7 +2482,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>35</v>
       </c>
@@ -2282,7 +2506,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
         <v>37</v>
       </c>
@@ -2306,7 +2530,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>40</v>
       </c>
@@ -2330,7 +2554,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="10" t="s">
         <v>41</v>
       </c>
@@ -2354,7 +2578,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="10" t="s">
         <v>42</v>
       </c>
@@ -2378,7 +2602,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="10" t="s">
         <v>43</v>
       </c>
@@ -2429,17 +2653,17 @@
   <dimension ref="A1:M100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.84375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
@@ -2459,7 +2683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>215</v>
       </c>
@@ -2479,7 +2703,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>215</v>
       </c>
@@ -2499,7 +2723,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>215</v>
       </c>
@@ -2519,7 +2743,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>215</v>
       </c>
@@ -2536,7 +2760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>215</v>
       </c>
@@ -2553,7 +2777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>215</v>
       </c>
@@ -2570,7 +2794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>215</v>
       </c>
@@ -2587,7 +2811,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>215</v>
       </c>
@@ -2604,7 +2828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>215</v>
       </c>
@@ -2621,7 +2845,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>215</v>
       </c>
@@ -2638,7 +2862,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>215</v>
       </c>
@@ -2652,7 +2876,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>215</v>
       </c>
@@ -2666,7 +2890,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>215</v>
       </c>
@@ -2680,7 +2904,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>215</v>
       </c>
@@ -2694,7 +2918,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>215</v>
       </c>
@@ -2708,7 +2932,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>215</v>
       </c>
@@ -2725,7 +2949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>215</v>
       </c>
@@ -2739,7 +2963,7 @@
         <v>44288</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>215</v>
       </c>
@@ -2756,7 +2980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>215</v>
       </c>
@@ -2773,7 +2997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>215</v>
       </c>
@@ -2790,7 +3014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>215</v>
       </c>
@@ -2807,7 +3031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>215</v>
       </c>
@@ -2824,7 +3048,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>215</v>
       </c>
@@ -2841,7 +3065,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>215</v>
       </c>
@@ -2858,7 +3082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>215</v>
       </c>
@@ -2875,7 +3099,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>215</v>
       </c>
@@ -2892,7 +3116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>215</v>
       </c>
@@ -2909,7 +3133,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>215</v>
       </c>
@@ -2926,7 +3150,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>215</v>
       </c>
@@ -2943,7 +3167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>215</v>
       </c>
@@ -2960,7 +3184,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
         <v>215</v>
       </c>
@@ -2974,7 +3198,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
         <v>215</v>
       </c>
@@ -2988,7 +3212,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
         <v>215</v>
       </c>
@@ -3002,7 +3226,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
         <v>215</v>
       </c>
@@ -3016,7 +3240,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
         <v>215</v>
       </c>
@@ -3030,7 +3254,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
         <v>215</v>
       </c>
@@ -3044,7 +3268,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="3" t="s">
         <v>215</v>
       </c>
@@ -3061,7 +3285,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
         <v>215</v>
       </c>
@@ -3078,7 +3302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="3" t="s">
         <v>215</v>
       </c>
@@ -3095,7 +3319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
         <v>215</v>
       </c>
@@ -3112,7 +3336,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="3" t="s">
         <v>215</v>
       </c>
@@ -3129,7 +3353,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="3" t="s">
         <v>215</v>
       </c>
@@ -3146,7 +3370,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="3" t="s">
         <v>215</v>
       </c>
@@ -3163,7 +3387,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="3" t="s">
         <v>215</v>
       </c>
@@ -3180,7 +3404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="3" t="s">
         <v>215</v>
       </c>
@@ -3197,7 +3421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="3" t="s">
         <v>215</v>
       </c>
@@ -3214,7 +3438,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="3" t="s">
         <v>215</v>
       </c>
@@ -3231,7 +3455,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="3" t="s">
         <v>215</v>
       </c>
@@ -3248,7 +3472,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="3" t="s">
         <v>215</v>
       </c>
@@ -3265,7 +3489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" s="3" t="s">
         <v>215</v>
       </c>
@@ -3282,7 +3506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" s="3" t="s">
         <v>215</v>
       </c>
@@ -3299,7 +3523,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" s="3" t="s">
         <v>215</v>
       </c>
@@ -3316,7 +3540,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" s="3" t="s">
         <v>215</v>
       </c>
@@ -3333,7 +3557,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" s="3" t="s">
         <v>215</v>
       </c>
@@ -3350,7 +3574,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>215</v>
       </c>
@@ -3364,7 +3588,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>215</v>
       </c>
@@ -3378,7 +3602,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>215</v>
       </c>
@@ -3392,7 +3616,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>215</v>
       </c>
@@ -3406,7 +3630,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>215</v>
       </c>
@@ -3420,7 +3644,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>215</v>
       </c>
@@ -3434,7 +3658,7 @@
         <v>44323</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>215</v>
       </c>
@@ -3451,7 +3675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>215</v>
       </c>
@@ -3468,7 +3692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>215</v>
       </c>
@@ -3485,7 +3709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>215</v>
       </c>
@@ -3502,7 +3726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>215</v>
       </c>
@@ -3519,7 +3743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>215</v>
       </c>
@@ -3536,7 +3760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>215</v>
       </c>
@@ -3553,7 +3777,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>215</v>
       </c>
@@ -3570,7 +3794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>215</v>
       </c>
@@ -3587,7 +3811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>215</v>
       </c>
@@ -3604,7 +3828,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>215</v>
       </c>
@@ -3621,7 +3845,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>215</v>
       </c>
@@ -3638,7 +3862,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" s="3" t="s">
         <v>215</v>
       </c>
@@ -3652,7 +3876,7 @@
         <v>44337</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75" s="3" t="s">
         <v>215</v>
       </c>
@@ -3666,7 +3890,7 @@
         <v>44337</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76" s="3" t="s">
         <v>215</v>
       </c>
@@ -3680,7 +3904,7 @@
         <v>44337</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77" s="3" t="s">
         <v>215</v>
       </c>
@@ -3694,7 +3918,7 @@
         <v>44337</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78" s="3" t="s">
         <v>215</v>
       </c>
@@ -3711,7 +3935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79" s="3" t="s">
         <v>215</v>
       </c>
@@ -3728,7 +3952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80" s="3" t="s">
         <v>215</v>
       </c>
@@ -3745,7 +3969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81" s="3" t="s">
         <v>215</v>
       </c>
@@ -3762,7 +3986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82" s="3" t="s">
         <v>215</v>
       </c>
@@ -3779,7 +4003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83" s="3" t="s">
         <v>215</v>
       </c>
@@ -3796,7 +4020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84" s="3" t="s">
         <v>215</v>
       </c>
@@ -3813,7 +4037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85" s="3" t="s">
         <v>215</v>
       </c>
@@ -3830,7 +4054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>215</v>
       </c>
@@ -3844,7 +4068,7 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>215</v>
       </c>
@@ -3858,7 +4082,7 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>215</v>
       </c>
@@ -3872,7 +4096,7 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>215</v>
       </c>
@@ -3886,7 +4110,7 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>215</v>
       </c>
@@ -3903,7 +4127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>215</v>
       </c>
@@ -3920,7 +4144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>215</v>
       </c>
@@ -3937,7 +4161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>215</v>
       </c>
@@ -3954,7 +4178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A94" s="3" t="s">
         <v>215</v>
       </c>
@@ -3968,7 +4192,7 @@
         <v>44365</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A95" s="3" t="s">
         <v>215</v>
       </c>
@@ -3985,7 +4209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A96" s="3" t="s">
         <v>215</v>
       </c>
@@ -4002,7 +4226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A97" s="3" t="s">
         <v>215</v>
       </c>
@@ -4019,7 +4243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>215</v>
       </c>
@@ -4033,7 +4257,7 @@
         <v>44407</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>215</v>
       </c>
@@ -4047,7 +4271,7 @@
         <v>44407</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>215</v>
       </c>
@@ -4080,21 +4304,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CAB123-B6B8-4C37-9FBC-A6CD32606951}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.69140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.3046875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>227</v>
       </c>
@@ -4111,7 +4335,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>215</v>
       </c>
@@ -4129,7 +4353,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>215</v>
       </c>
@@ -4147,7 +4371,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>215</v>
       </c>
@@ -4165,7 +4389,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>215</v>
       </c>
@@ -4180,7 +4404,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>215</v>
       </c>
@@ -4195,7 +4419,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
         <v>215</v>
       </c>
@@ -4210,7 +4434,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>215</v>
       </c>
@@ -4225,7 +4449,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
         <v>215</v>
       </c>
@@ -4240,7 +4464,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>215</v>
       </c>
@@ -4255,7 +4479,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
         <v>215</v>
       </c>
@@ -4270,7 +4494,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>215</v>
       </c>
@@ -4285,7 +4509,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="10" t="s">
         <v>215</v>
       </c>
@@ -4300,7 +4524,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="10" t="s">
         <v>215</v>
       </c>
@@ -4315,7 +4539,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="10" t="s">
         <v>215</v>
       </c>
@@ -4330,7 +4554,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
         <v>215</v>
       </c>
@@ -4345,7 +4569,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="10" t="s">
         <v>215</v>
       </c>
@@ -4360,7 +4584,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="10" t="s">
         <v>215</v>
       </c>
@@ -4375,7 +4599,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="10" t="s">
         <v>215</v>
       </c>
@@ -4390,7 +4614,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="10" t="s">
         <v>215</v>
       </c>
@@ -4405,7 +4629,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="10" t="s">
         <v>215</v>
       </c>
@@ -4420,7 +4644,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="10" t="s">
         <v>215</v>
       </c>
@@ -4435,7 +4659,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="10" t="s">
         <v>215</v>
       </c>
@@ -4450,7 +4674,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="10" t="s">
         <v>215</v>
       </c>
@@ -4465,7 +4689,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="10" t="s">
         <v>215</v>
       </c>
@@ -4480,7 +4704,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="10" t="s">
         <v>215</v>
       </c>
@@ -4495,7 +4719,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="10" t="s">
         <v>215</v>
       </c>
@@ -4510,7 +4734,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="10" t="s">
         <v>215</v>
       </c>
@@ -4525,7 +4749,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="10" t="s">
         <v>215</v>
       </c>
@@ -4540,7 +4764,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="10" t="s">
         <v>215</v>
       </c>
@@ -4555,7 +4779,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="10" t="s">
         <v>215</v>
       </c>
@@ -4570,7 +4794,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="10" t="s">
         <v>215</v>
       </c>
@@ -4585,7 +4809,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="10" t="s">
         <v>215</v>
       </c>
@@ -4600,7 +4824,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="10" t="s">
         <v>215</v>
       </c>
@@ -4615,7 +4839,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="10" t="s">
         <v>215</v>
       </c>
@@ -4650,18 +4874,18 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="12.07421875" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.3046875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.84375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>170</v>
       </c>
@@ -4711,7 +4935,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="U2" t="s">
         <v>183</v>
       </c>
@@ -4719,7 +4943,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="U3" t="s">
         <v>184</v>
       </c>
@@ -4727,7 +4951,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="U4" t="s">
         <v>186</v>
       </c>
@@ -4735,7 +4959,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="U5" t="s">
         <v>187</v>
       </c>
@@ -4743,7 +4967,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
       <c r="U6" t="s">
         <v>189</v>
       </c>
@@ -4751,12 +4975,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="U7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
       <c r="U8" t="s">
         <v>191</v>
       </c>
@@ -4774,6 +4998,438 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA25EC97-4F87-49A8-B3C7-E2A18A77C856}">
+  <dimension ref="A1:N10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.69140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.3828125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.15234375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.3046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.23046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.3046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A2" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="H2" s="18">
+        <v>4</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A3" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="H3" s="18">
+        <v>15</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A4" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="H4" s="18">
+        <v>30</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A5" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="H5" s="18">
+        <v>20</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A6" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="H6" s="18">
+        <v>7.5</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A7" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="H7" s="18">
+        <v>15</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A8" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="H8" s="18">
+        <v>10</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A9" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="H9" s="18">
+        <v>4</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A10" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="H10" s="18">
+        <v>4</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>419</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{BAF48CC2-26FD-46FF-9951-A42E1BAB59A1}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{D97BF529-3583-461E-9C47-16812B9A7808}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{931797C7-3760-442C-ACA9-010BAC442FD8}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{A43BE419-EB66-42CD-A53E-5483DAE0B7A4}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{5CD5B1A3-4E23-4FFB-AEF0-D6A7DA389801}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{76BD29EF-9EF3-43EB-AC20-721F79F8F708}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{5622DCA8-B2E7-47FF-BF19-E3C0EA87C8AE}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{3AF8B547-E50D-449C-A393-2F761C9AB110}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{DE66F1F2-A7AF-4AD8-BF89-CF5313D75667}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA51A6B7-E36D-420E-A2B8-AD7FB5872218}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3828125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.07421875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.23046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.3046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="17">
+        <v>2</v>
+      </c>
+      <c r="B2" s="17">
+        <v>30</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="F2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="17">
+        <v>0</v>
+      </c>
+      <c r="B3" s="17">
+        <v>30</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="F3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17">
+        <v>15</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="F4" t="s">
+        <v>485</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A13260C-C42D-4E60-BE2C-2CA24BC2C1E2}">
   <dimension ref="A1:B5"/>
@@ -4782,13 +5438,13 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="19.07421875" customWidth="1"/>
+    <col min="2" max="2" width="8.84375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -4796,7 +5452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>45</v>
       </c>
@@ -4804,7 +5460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>46</v>
       </c>
@@ -4812,7 +5468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>47</v>
       </c>
@@ -4820,7 +5476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>48</v>
       </c>
@@ -4842,17 +5498,17 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="4"/>
-    <col min="4" max="4" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.53515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.07421875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.84375" style="4"/>
+    <col min="4" max="4" width="7.3046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.53515625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4872,7 +5528,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="12" t="s">
         <v>26</v>
       </c>
@@ -4893,7 +5549,7 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
         <v>195</v>
       </c>
@@ -4914,7 +5570,7 @@
         <v>44198</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="12" t="s">
         <v>192</v>
       </c>
@@ -4935,7 +5591,7 @@
         <v>44199</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="12" t="s">
         <v>193</v>
       </c>
@@ -4956,7 +5612,7 @@
         <v>44200</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
         <v>194</v>
       </c>
@@ -4977,7 +5633,7 @@
         <v>44201</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
         <v>196</v>
       </c>
@@ -4998,7 +5654,7 @@
         <v>44567</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
         <v>32</v>
       </c>
@@ -5019,7 +5675,7 @@
         <v>44203</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
         <v>197</v>
       </c>
@@ -5040,7 +5696,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
         <v>36</v>
       </c>
@@ -5061,7 +5717,7 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
@@ -5082,7 +5738,7 @@
         <v>44237</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
         <v>198</v>
       </c>
@@ -5103,7 +5759,7 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
         <v>199</v>
       </c>
@@ -5124,7 +5780,7 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
         <v>200</v>
       </c>
@@ -5145,7 +5801,7 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="12" t="s">
         <v>201</v>
       </c>
@@ -5166,11 +5822,11 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
     </row>
@@ -5200,28 +5856,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59AF7EF-B12B-4A6F-9425-B1B26B554B1A}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:Q12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.3046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.69140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.53515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.3046875" customWidth="1"/>
+    <col min="7" max="7" width="10.53515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.84375" customWidth="1"/>
+    <col min="9" max="9" width="15.53515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.23046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>53</v>
       </c>
@@ -5262,7 +5918,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>215</v>
       </c>
@@ -5311,7 +5967,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>216</v>
       </c>
@@ -5360,7 +6016,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>217</v>
       </c>
@@ -5407,7 +6063,7 @@
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -5444,18 +6100,18 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.07421875" customWidth="1"/>
+    <col min="3" max="3" width="10.53515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
@@ -5469,7 +6125,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>215</v>
       </c>
@@ -5483,7 +6139,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>215</v>
       </c>
@@ -5497,7 +6153,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>215</v>
       </c>
@@ -5511,7 +6167,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>215</v>
       </c>
@@ -5525,7 +6181,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>215</v>
       </c>
@@ -5539,7 +6195,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
         <v>216</v>
       </c>
@@ -5553,7 +6209,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>216</v>
       </c>
@@ -5567,7 +6223,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
         <v>216</v>
       </c>
@@ -5578,7 +6234,7 @@
         <v>44354</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>216</v>
       </c>
@@ -5589,7 +6245,7 @@
         <v>44438</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
         <v>216</v>
       </c>
@@ -5600,7 +6256,7 @@
         <v>44627</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>216</v>
       </c>
@@ -5631,20 +6287,20 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="7"/>
-    <col min="9" max="9" width="9.21875" style="7"/>
-    <col min="10" max="10" width="14.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.53515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.53515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.53515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.07421875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.69140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.84375" style="7"/>
+    <col min="9" max="9" width="9.23046875" style="7"/>
+    <col min="10" max="10" width="14.84375" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
         <v>218</v>
       </c>
@@ -5676,7 +6332,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>195</v>
       </c>
@@ -5709,7 +6365,7 @@
         <v>Tiago Cancado</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>192</v>
       </c>
@@ -5742,7 +6398,7 @@
         <v>Joao Silva</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>193</v>
       </c>
@@ -5775,7 +6431,7 @@
         <v>Manel Costa</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>194</v>
       </c>
@@ -5808,7 +6464,7 @@
         <v>Xico Ferreira</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>32</v>
       </c>
@@ -5841,7 +6497,7 @@
         <v>Nel Moleiro</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
         <v>197</v>
       </c>
@@ -5874,7 +6530,7 @@
         <v>Zé do Bento</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>36</v>
       </c>
@@ -5907,7 +6563,7 @@
         <v>Tó Farrulo</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
         <v>38</v>
       </c>
@@ -5940,7 +6596,7 @@
         <v>Tino das Cruzes</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="28" t="s">
         <v>195</v>
       </c>
@@ -5973,7 +6629,7 @@
         <v>Tiago Cancado</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="28" t="s">
         <v>192</v>
       </c>
@@ -6006,7 +6662,7 @@
         <v>Joao Silva</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="28" t="s">
         <v>193</v>
       </c>
@@ -6039,7 +6695,7 @@
         <v>Manel Costa</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="28" t="s">
         <v>194</v>
       </c>
@@ -6072,7 +6728,7 @@
         <v>Xico Ferreira</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="28" t="s">
         <v>32</v>
       </c>
@@ -6105,7 +6761,7 @@
         <v>Nel Moleiro</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="28" t="s">
         <v>197</v>
       </c>
@@ -6138,7 +6794,7 @@
         <v>Zé do Bento</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="28" t="s">
         <v>36</v>
       </c>
@@ -6171,7 +6827,7 @@
         <v>Tó Farrulo</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="28" t="s">
         <v>38</v>
       </c>
@@ -6213,20 +6869,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7FF6538-20DF-4E13-8107-7AC155FD4D73}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.84375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
         <v>227</v>
       </c>
@@ -6237,7 +6893,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>215</v>
       </c>
@@ -6249,7 +6905,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>215</v>
       </c>
@@ -6261,7 +6917,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>215</v>
       </c>
@@ -6273,7 +6929,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>215</v>
       </c>
@@ -6285,7 +6941,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>215</v>
       </c>
@@ -6297,7 +6953,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
         <v>215</v>
       </c>
@@ -6309,7 +6965,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>215</v>
       </c>
@@ -6321,7 +6977,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
         <v>215</v>
       </c>
@@ -6333,7 +6989,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>216</v>
       </c>
@@ -6345,7 +7001,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
         <v>216</v>
       </c>
@@ -6357,7 +7013,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>216</v>
       </c>
@@ -6369,7 +7025,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="10" t="s">
         <v>216</v>
       </c>
@@ -6381,7 +7037,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="10" t="s">
         <v>216</v>
       </c>
@@ -6393,7 +7049,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="10" t="s">
         <v>216</v>
       </c>
@@ -6405,7 +7061,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
         <v>216</v>
       </c>
@@ -6417,7 +7073,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="10" t="s">
         <v>216</v>
       </c>
@@ -6429,7 +7085,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="10" t="s">
         <v>216</v>
       </c>
@@ -6441,7 +7097,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="10" t="s">
         <v>216</v>
       </c>
@@ -6453,7 +7109,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="10" t="s">
         <v>216</v>
       </c>
@@ -6465,7 +7121,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="10" t="s">
         <v>216</v>
       </c>
@@ -6477,16 +7133,169 @@
         <v>329</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="B22" t="str">
-        <f>TEXT(1,"0")</f>
-        <v>1</v>
+      <c r="B22" s="10" t="s">
+        <v>458</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>406</v>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -6503,13 +7312,13 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C1" s="1" t="s">
         <v>203</v>
       </c>
@@ -6532,7 +7341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C2" s="10" t="s">
         <v>11</v>
       </c>
@@ -6563,25 +7372,25 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC3EF37-2BA8-4EC6-92A1-22C0C9AA6791}">
-  <dimension ref="A1:O68"/>
+  <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="17"/>
-    <col min="4" max="4" width="15.88671875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" style="10" customWidth="1"/>
-    <col min="7" max="7" width="27.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.84375" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.84375" style="17"/>
+    <col min="4" max="4" width="15.84375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="12.3046875" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.07421875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="27.53515625" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" s="23" t="s">
         <v>227</v>
       </c>
@@ -6613,7 +7422,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>215</v>
       </c>
@@ -6645,7 +7454,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>215</v>
       </c>
@@ -6673,7 +7482,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>215</v>
       </c>
@@ -6701,7 +7510,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>215</v>
       </c>
@@ -6726,7 +7535,7 @@
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>215</v>
       </c>
@@ -6751,7 +7560,7 @@
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
         <v>215</v>
       </c>
@@ -6776,7 +7585,7 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>215</v>
       </c>
@@ -6803,7 +7612,7 @@
       </c>
       <c r="I8" s="25"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
         <v>215</v>
       </c>
@@ -6828,7 +7637,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>215</v>
       </c>
@@ -6853,7 +7662,7 @@
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
         <v>215</v>
       </c>
@@ -6878,7 +7687,7 @@
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>215</v>
       </c>
@@ -6903,7 +7712,7 @@
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="10" t="s">
         <v>215</v>
       </c>
@@ -6928,7 +7737,7 @@
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="10" t="s">
         <v>215</v>
       </c>
@@ -6953,7 +7762,7 @@
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="10" t="s">
         <v>215</v>
       </c>
@@ -6978,7 +7787,7 @@
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
         <v>215</v>
       </c>
@@ -7003,7 +7812,7 @@
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="10" t="s">
         <v>215</v>
       </c>
@@ -7028,7 +7837,7 @@
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="10" t="s">
         <v>215</v>
       </c>
@@ -7053,7 +7862,7 @@
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="10" t="s">
         <v>215</v>
       </c>
@@ -7078,7 +7887,7 @@
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="10" t="s">
         <v>215</v>
       </c>
@@ -7103,7 +7912,7 @@
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="10" t="s">
         <v>215</v>
       </c>
@@ -7128,7 +7937,7 @@
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="10" t="s">
         <v>215</v>
       </c>
@@ -7153,7 +7962,7 @@
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="10" t="s">
         <v>215</v>
       </c>
@@ -7178,7 +7987,7 @@
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="10" t="s">
         <v>215</v>
       </c>
@@ -7203,7 +8012,7 @@
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="10" t="s">
         <v>215</v>
       </c>
@@ -7228,7 +8037,7 @@
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="10" t="s">
         <v>215</v>
       </c>
@@ -7253,7 +8062,7 @@
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="10" t="s">
         <v>215</v>
       </c>
@@ -7278,7 +8087,7 @@
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="10" t="s">
         <v>215</v>
       </c>
@@ -7303,7 +8112,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="10" t="s">
         <v>215</v>
       </c>
@@ -7328,7 +8137,7 @@
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="10" t="s">
         <v>215</v>
       </c>
@@ -7353,7 +8162,7 @@
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="10" t="s">
         <v>215</v>
       </c>
@@ -7378,7 +8187,7 @@
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="24" t="s">
         <v>216</v>
       </c>
@@ -7403,7 +8212,7 @@
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="10" t="s">
         <v>216</v>
       </c>
@@ -7428,7 +8237,7 @@
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="10" t="s">
         <v>216</v>
       </c>
@@ -7453,7 +8262,7 @@
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="10" t="s">
         <v>216</v>
       </c>
@@ -7482,7 +8291,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="10" t="s">
         <v>216</v>
       </c>
@@ -7511,7 +8320,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="10" t="s">
         <v>216</v>
       </c>
@@ -7540,7 +8349,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="10" t="s">
         <v>216</v>
       </c>
@@ -7569,7 +8378,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="10" t="s">
         <v>216</v>
       </c>
@@ -7598,7 +8407,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" s="10" t="s">
         <v>216</v>
       </c>
@@ -7627,7 +8436,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="10" t="s">
         <v>216</v>
       </c>
@@ -7656,7 +8465,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" s="10" t="s">
         <v>216</v>
       </c>
@@ -7681,7 +8490,7 @@
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" s="10" t="s">
         <v>216</v>
       </c>
@@ -7706,7 +8515,7 @@
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="10" t="s">
         <v>216</v>
       </c>
@@ -7731,7 +8540,7 @@
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" s="10" t="s">
         <v>216</v>
       </c>
@@ -7756,7 +8565,7 @@
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" s="10" t="s">
         <v>216</v>
       </c>
@@ -7781,7 +8590,7 @@
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" s="10" t="s">
         <v>216</v>
       </c>
@@ -7806,7 +8615,7 @@
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" s="10" t="s">
         <v>216</v>
       </c>
@@ -7831,7 +8640,7 @@
       <c r="H48" s="13"/>
       <c r="I48" s="13"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" s="10" t="s">
         <v>216</v>
       </c>
@@ -7856,7 +8665,7 @@
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50" s="10" t="s">
         <v>216</v>
       </c>
@@ -7881,7 +8690,7 @@
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" s="10" t="s">
         <v>216</v>
       </c>
@@ -7906,7 +8715,7 @@
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" s="10" t="s">
         <v>216</v>
       </c>
@@ -7931,7 +8740,7 @@
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" s="10" t="s">
         <v>216</v>
       </c>
@@ -7956,7 +8765,7 @@
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54" s="10" t="s">
         <v>216</v>
       </c>
@@ -7981,7 +8790,7 @@
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" s="10" t="s">
         <v>216</v>
       </c>
@@ -8006,7 +8815,7 @@
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56" s="10" t="s">
         <v>216</v>
       </c>
@@ -8031,7 +8840,7 @@
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" s="10" t="s">
         <v>216</v>
       </c>
@@ -8056,7 +8865,7 @@
       <c r="H57" s="13"/>
       <c r="I57" s="13"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58" s="10" t="s">
         <v>216</v>
       </c>
@@ -8081,7 +8890,7 @@
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59" s="10" t="s">
         <v>216</v>
       </c>
@@ -8106,7 +8915,7 @@
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60" s="10" t="s">
         <v>216</v>
       </c>
@@ -8131,7 +8940,7 @@
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A61" s="10" t="s">
         <v>216</v>
       </c>
@@ -8156,7 +8965,7 @@
       <c r="H61" s="13"/>
       <c r="I61" s="13"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62" s="10" t="s">
         <v>216</v>
       </c>
@@ -8181,7 +8990,7 @@
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63" s="10" t="s">
         <v>216</v>
       </c>
@@ -8206,7 +9015,7 @@
       <c r="H63" s="13"/>
       <c r="I63" s="13"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64" s="10" t="s">
         <v>216</v>
       </c>
@@ -8231,7 +9040,7 @@
       <c r="H64" s="13"/>
       <c r="I64" s="13"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65" s="10" t="s">
         <v>216</v>
       </c>
@@ -8256,7 +9065,7 @@
       <c r="H65" s="13"/>
       <c r="I65" s="13"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66" s="10" t="s">
         <v>216</v>
       </c>
@@ -8281,7 +9090,7 @@
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67" s="10" t="s">
         <v>216</v>
       </c>
@@ -8310,8 +9119,8 @@
         <v>331</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="24" t="s">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A68" s="10" t="s">
         <v>217</v>
       </c>
       <c r="B68" s="10" t="s">
@@ -8334,11 +9143,63 @@
       </c>
       <c r="H68" s="13"/>
       <c r="I68" s="13"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A69" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C69" s="17">
+        <v>2</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="E69" s="18">
+        <v>70</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G69" s="24" t="s">
+        <v>453</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="I69" s="13"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A70" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C70" s="17">
+        <v>3</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="E70" s="18">
+        <v>35</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G70" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="H70" s="10"/>
+      <c r="I70" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F68" xr:uid="{A0E105BA-CF51-4401-B710-6BE9E69B1788}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F70" xr:uid="{A0E105BA-CF51-4401-B710-6BE9E69B1788}">
       <formula1>$O$2:$O$4</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\switch\projectg2\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/91e2d21952d024e0/Documentos/Switch/projectg2/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFCC498-6C4D-445F-BABD-7A26CACB6376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{ADFCC498-6C4D-445F-BABD-7A26CACB6376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{162A7242-D61A-409F-9361-2B9D8A5114E7}"/>
   <bookViews>
-    <workbookView xWindow="2263" yWindow="2263" windowWidth="22114" windowHeight="8520" tabRatio="938" firstSheet="5" activeTab="13" xr2:uid="{17341BA7-7E24-41D8-A92D-79256BC3D291}"/>
+    <workbookView minimized="1" xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8964" tabRatio="938" firstSheet="2" activeTab="5" xr2:uid="{17341BA7-7E24-41D8-A92D-79256BC3D291}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">BacklogUSStatus!$A$1:$E$100</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">ProjectBacklog!$A$1:$H$67</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +43,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -2122,23 +2124,23 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.4609375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.3046875" customWidth="1"/>
-    <col min="3" max="3" width="15.84375" customWidth="1"/>
-    <col min="5" max="5" width="19.765625" bestFit="1" customWidth="1"/>
-    <col